--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="185">
   <si>
     <t>Doi</t>
   </si>
@@ -901,6 +901,186 @@
   </si>
   <si>
     <t>2016-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The global numbers of confirmed cases and deceased critically ill patients with COVID-19 are increasing.
+ However, the clinical course, and the 60-day mortality and its predictors in critically ill patients have not been fully elucidated.
+ The aim of this study is to identify the clinical course, and 60-day mortality and its predictors in critically ill patients with COVID-19.
+Methods
+id="Par2"&gt;Critically ill adult patients admitted to intensive care units (ICUs) from 3 hospitals in Wuhan, China, were included.
+ Data on demographic information, preexisting comorbidities, laboratory findings at ICU admission, treatments, clinical outcomes, and results of SARS-CoV-2 RNA tests and of serum SARS-CoV-2 IgM were collected including the duration between symptom onset and negative conversion of SARS-CoV-2 RNA.
+Results
+id="Par3"&gt;Of 1748 patients with COVID-19, 239 (13.7%) critically ill patients were included.
+ Complications included acute respiratory distress syndrome (ARDS) in 164 (68.6%) patients, coagulopathy in 150 (62.7%) patients, acute cardiac injury in 103 (43.1%) patients, and acute kidney injury (AKI) in 119 (49.8%) patients, which occurred 15.5 days, 17 days, 18.5 days, and 19 days after the symptom onset, respectively.
+ The median duration of the negative conversion of SARS-CoV-2 RNA was 30 (range 6–81) days in 49 critically ill survivors that were identified.
+ A total of 147 (61.5%) patients deceased by 60 days after ICU admission.
+ The median duration between ICU admission and decease was 12 (range 3–36).
+ Cox proportional-hazards regression analysis revealed that age older than 65 years, thrombocytopenia at ICU admission, ARDS, and AKI independently predicted the 60-day mortality.
+Conclusions
+id="Par4"&gt;Severe complications are common and the 60-day mortality of critically ill patients with COVID-19 is considerably high.
+ The duration of the negative conversion of SARS-CoV-2 RNA and its association with the severity of critically ill patients with COVID-19 should be seriously considered and further studied.
+</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,  Xiaobo%Yang%NULL%1,  Luyu%Yang%NULL%1,  Xiaojing%Zou%NULL%0,  Yaxin%Wang%NULL%0,  Yongran%Wu%NULL%0,  Ting%Zhou%NULL%1,  Yin%Yuan%NULL%1,  Hong%Qi%NULL%1,  Shouzhi%Fu%NULL%0,  Hong%Liu%NULL%0,  Jia’an%Xia%NULL%1,  Zhengqin%Xu%NULL%1,  Yuan%Yu%NULL%0,  Ruiting%Li%NULL%0,  Yaqi%Ouyang%NULL%1,  Rui%Wang%NULL%0,  Lehao%Ren%NULL%1,  Yingying%Hu%NULL%1,  Dan%Xu%NULL%0,  Xin%Zhao%NULL%1,  Shiying%Yuan%shiying_yuan@163.com%0,  Dingyu%Zhang%1813886398@qq.com%0,  You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+It had been shown that High-flow nasal cannula (HFNC) is an effective initial support strategy for patients with acute respiratory failure.
+ However, the efficacy of HFNC for patients with COVID-19 has not been established.
+ This study was performed to assess the efficacy of HFNC for patients with COVID-19 and describe early predictors of HFNC treatment success in order to develop a prediction tool that accurately identifies the need for upgrade respiratory support therapy.
+Methods
+id="Par2"&gt;We retrospectively reviewed the medical records of patients with COVID-19 treated by HFNC in respiratory wards of 2 hospitals in Wuhan between 1 January and 1 March 2020. Overall clinical outcomes, the success rate of HFNC strategy and related respiratory variables were evaluated.
+Results
+id="Par3"&gt;A total of 105 patients were analyzed.
+ Of these, 65 patients (61.9%) showed improved oxygenation and were successfully withdrawn from HFNC.
+ The PaO2/FiO2 ratio, SpO2/FiO2 ratio and ROX index (SpO2/FiO2*RR) at 6h, 12h and 24h of HFNC initiation were closely related to the prognosis.
+ The ROX index after 6h of HFNC initiation (AUROC, 0.798) had good predictive capacity for outcomes of HFNC.
+ In the multivariate logistic regression analysis, young age, gender of female, and lower SOFA score all have predictive value, while a ROX index greater than 5.55 at 6 h after initiation was significantly associated with HFNC success (OR, 17.821; 95% CI, 3.741-84.903 p&amp;lt;0.001).
+Conclusions
+id="Par4"&gt;Our study indicated that HFNC was an effective way of respiratory support in the treatment of COVID-19 patients.
+ The ROX index after 6h after initiating HFNC had good predictive capacity for HFNC outcomes.
+</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,  Qiang%Zhou%NULL%1,  Ruiqiang%Zheng%NULL%1,  Xuyan%Li%NULL%1,  Jianmin%Ling%NULL%1,  Yumei%Chen%NULL%1,  Jing%Jia%NULL%1,  Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The global numbers of confirmed cases and deceased critically ill patients with COVID-19 are increasing.
+ However, the clinical course, and the 60-day mortality and its predictors in critically ill patients have not been fully elucidated.
+ The aim of this study is to identify the clinical course, and 60-day mortality and its predictors in critically ill patients with COVID-19.
+Methods
+Critically ill adult patients admitted to intensive care units (ICUs) from 3 hospitals in Wuhan, China, were included.
+ Data on demographic information, preexisting comorbidities, laboratory findings at ICU admission, treatments, clinical outcomes, and results of SARS-CoV-2 RNA tests and of serum SARS-CoV-2 IgM were collected including the duration between symptom onset and negative conversion of SARS-CoV-2 RNA.
+Results
+id="Par3"&gt;Of 1748 patients with COVID-19, 239 (13.7%) critically ill patients were included.
+ Complications included acute respiratory distress syndrome (ARDS) in 164 (68.6%) patients, coagulopathy in 150 (62.7%) patients, acute cardiac injury in 103 (43.1%) patients, and acute kidney injury (AKI) in 119 (49.8%) patients, which occurred 15.5 days, 17 days, 18.5 days, and 19 days after the symptom onset, respectively.
+ The median duration of the negative conversion of SARS-CoV-2 RNA was 30 (range 6–81) days in 49 critically ill survivors that were identified.
+ A total of 147 (61.5%) patients deceased by 60 days after ICU admission.
+ The median duration between ICU admission and decease was 12 (range 3–36).
+ Cox proportional-hazards regression analysis revealed that age older than 65 years, thrombocytopenia at ICU admission, ARDS, and AKI independently predicted the 60-day mortality.
+Conclusions
+id="Par4"&gt;Severe complications are common and the 60-day mortality of critically ill patients with COVID-19 is considerably high.
+ The duration of the negative conversion of SARS-CoV-2 RNA and its association with the severity of critically ill patients with COVID-19 should be seriously considered and further studied.
+</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,   Xiaobo%Yang%NULL%1,   Luyu%Yang%NULL%1,   Xiaojing%Zou%NULL%9,   Yaxin%Wang%NULL%11,   Yongran%Wu%NULL%11,   Ting%Zhou%NULL%1,   Yin%Yuan%NULL%1,   Hong%Qi%NULL%1,   Shouzhi%Fu%NULL%1,   Hong%Liu%NULL%9,   Jia’an%Xia%NULL%1,   Zhengqin%Xu%NULL%1,   Yuan%Yu%NULL%11,   Ruiting%Li%NULL%6,   Yaqi%Ouyang%NULL%1,   Rui%Wang%NULL%1,   Lehao%Ren%NULL%1,   Yingying%Hu%NULL%3,   Dan%Xu%NULL%2,   Xin%Zhao%NULL%1,   Shiying%Yuan%shiying_yuan@163.com%9,   Dingyu%Zhang%1813886398@qq.com%2,   You%Shang%you_shanghust@163.com%11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+It had been shown that High-flow nasal cannula (HFNC) is an effective initial support strategy for patients with acute respiratory failure.
+ However, the efficacy of HFNC for patients with COVID-19 has not been established.
+ This study was performed to assess the efficacy of HFNC for patients with COVID-19 and describe early predictors of HFNC treatment success in order to develop a prediction tool that accurately identifies the need for upgrade respiratory support therapy.
+Methods
+We retrospectively reviewed the medical records of patients with COVID-19 treated by HFNC in respiratory wards of 2 hospitals in Wuhan between 1 January and 1 March 2020. Overall clinical outcomes, the success rate of HFNC strategy and related respiratory variables were evaluated.
+Results
+id="Par3"&gt;A total of 105 patients were analyzed.
+ Of these, 65 patients (61.9%) showed improved oxygenation and were successfully withdrawn from HFNC.
+ The PaO2/FiO2 ratio, SpO2/FiO2 ratio and ROX index (SpO2/FiO2*RR) at 6h, 12h and 24h of HFNC initiation were closely related to the prognosis.
+ The ROX index after 6h of HFNC initiation (AUROC, 0.798) had good predictive capacity for outcomes of HFNC.
+ In the multivariate logistic regression analysis, young age, gender of female, and lower SOFA score all have predictive value, while a ROX index greater than 5.55 at 6 h after initiation was significantly associated with HFNC success (OR, 17.821; 95% CI, 3.741-84.903 p&amp;lt;0.001).
+Conclusions
+id="Par4"&gt;Our study indicated that HFNC was an effective way of respiratory support in the treatment of COVID-19 patients.
+ The ROX index after 6h after initiating HFNC had good predictive capacity for HFNC outcomes.
+</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,   Qiang%Zhou%NULL%1,   Ruiqiang%Zheng%NULL%1,   Xuyan%Li%NULL%1,   Jianmin%Ling%NULL%1,   Yumei%Chen%NULL%1,   Jing%Jia%NULL%1,   Cuihong%Xie%xiecuihong08@163.com%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The global numbers of confirmed cases and deceased critically ill patients with COVID-19 are increasing.
+ However, the clinical course, and the 60-day mortality and its predictors in critically ill patients have not been fully elucidated.
+ The aim of this study is to identify the clinical course, and 60-day mortality and its predictors in critically ill patients with COVID-19.
+Methods
+Critically ill adult patients admitted to intensive care units (ICUs) from 3 hospitals in Wuhan, China, were included.
+ Data on demographic information, preexisting comorbidities, laboratory findings at ICU admission, treatments, clinical outcomes, and results of SARS-CoV-2 RNA tests and of serum SARS-CoV-2 IgM were collected including the duration between symptom onset and negative conversion of SARS-CoV-2 RNA.
+Results
+Of 1748 patients with COVID-19, 239 (13.7%) critically ill patients were included.
+ Complications included acute respiratory distress syndrome (ARDS) in 164 (68.6%) patients, coagulopathy in 150 (62.7%) patients, acute cardiac injury in 103 (43.1%) patients, and acute kidney injury (AKI) in 119 (49.8%) patients, which occurred 15.5 days, 17 days, 18.5 days, and 19 days after the symptom onset, respectively.
+ The median duration of the negative conversion of SARS-CoV-2 RNA was 30 (range 6–81) days in 49 critically ill survivors that were identified.
+ A total of 147 (61.5%) patients deceased by 60 days after ICU admission.
+ The median duration between ICU admission and decease was 12 (range 3–36).
+ Cox proportional-hazards regression analysis revealed that age older than 65 years, thrombocytopenia at ICU admission, ARDS, and AKI independently predicted the 60-day mortality.
+Conclusions
+id="Par4"&gt;Severe complications are common and the 60-day mortality of critically ill patients with COVID-19 is considerably high.
+ The duration of the negative conversion of SARS-CoV-2 RNA and its association with the severity of critically ill patients with COVID-19 should be seriously considered and further studied.
+</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,    Xiaobo%Yang%NULL%1,    Luyu%Yang%NULL%1,    Xiaojing%Zou%NULL%5,    Yaxin%Wang%NULL%3,    Yongran%Wu%NULL%3,    Ting%Zhou%NULL%2,    Yin%Yuan%NULL%1,    Hong%Qi%NULL%1,    Shouzhi%Fu%NULL%2,    Hong%Liu%NULL%3,    Jia’an%Xia%NULL%1,    Zhengqin%Xu%NULL%1,    Yuan%Yu%NULL%3,    Ruiting%Li%NULL%2,    Yaqi%Ouyang%NULL%1,    Rui%Wang%NULL%1,    Lehao%Ren%NULL%1,    Yingying%Hu%NULL%1,    Dan%Xu%NULL%1,    Xin%Zhao%NULL%1,    Shiying%Yuan%shiying_yuan@163.com%3,    Dingyu%Zhang%1813886398@qq.com%1,    You%Shang%you_shanghust@163.com%4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+It had been shown that High-flow nasal cannula (HFNC) is an effective initial support strategy for patients with acute respiratory failure.
+ However, the efficacy of HFNC for patients with COVID-19 has not been established.
+ This study was performed to assess the efficacy of HFNC for patients with COVID-19 and describe early predictors of HFNC treatment success in order to develop a prediction tool that accurately identifies the need for upgrade respiratory support therapy.
+Methods
+We retrospectively reviewed the medical records of patients with COVID-19 treated by HFNC in respiratory wards of 2 hospitals in Wuhan between 1 January and 1 March 2020. Overall clinical outcomes, the success rate of HFNC strategy and related respiratory variables were evaluated.
+Results
+A total of 105 patients were analyzed.
+ Of these, 65 patients (61.9%) showed improved oxygenation and were successfully withdrawn from HFNC.
+ The PaO2/FiO2 ratio, SpO2/FiO2 ratio and ROX index (SpO2/FiO2*RR) at 6h, 12h and 24h of HFNC initiation were closely related to the prognosis.
+ The ROX index after 6h of HFNC initiation (AUROC, 0.798) had good predictive capacity for outcomes of HFNC.
+ In the multivariate logistic regression analysis, young age, gender of female, and lower SOFA score all have predictive value, while a ROX index greater than 5.55 at 6 h after initiation was significantly associated with HFNC success (OR, 17.821; 95% CI, 3.741-84.903 p&amp;lt;0.001).
+Conclusions
+id="Par4"&gt;Our study indicated that HFNC was an effective way of respiratory support in the treatment of COVID-19 patients.
+ The ROX index after 6h after initiating HFNC had good predictive capacity for HFNC outcomes.
+</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,    Qiang%Zhou%NULL%1,    Ruiqiang%Zheng%NULL%1,    Xuyan%Li%NULL%1,    Jianmin%Ling%NULL%1,    Yumei%Chen%NULL%1,    Jing%Jia%NULL%1,    Cuihong%Xie%xiecuihong08@163.com%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The global numbers of confirmed cases and deceased critically ill patients with COVID-19 are increasing.
+ However, the clinical course, and the 60-day mortality and its predictors in critically ill patients have not been fully elucidated.
+ The aim of this study is to identify the clinical course, and 60-day mortality and its predictors in critically ill patients with COVID-19.
+Methods
+Critically ill adult patients admitted to intensive care units (ICUs) from 3 hospitals in Wuhan, China, were included.
+ Data on demographic information, preexisting comorbidities, laboratory findings at ICU admission, treatments, clinical outcomes, and results of SARS-CoV-2 RNA tests and of serum SARS-CoV-2 IgM were collected including the duration between symptom onset and negative conversion of SARS-CoV-2 RNA.
+Results
+Of 1748 patients with COVID-19, 239 (13.7%) critically ill patients were included.
+ Complications included acute respiratory distress syndrome (ARDS) in 164 (68.6%) patients, coagulopathy in 150 (62.7%) patients, acute cardiac injury in 103 (43.1%) patients, and acute kidney injury (AKI) in 119 (49.8%) patients, which occurred 15.5 days, 17 days, 18.5 days, and 19 days after the symptom onset, respectively.
+ The median duration of the negative conversion of SARS-CoV-2 RNA was 30 (range 6–81) days in 49 critically ill survivors that were identified.
+ A total of 147 (61.5%) patients deceased by 60 days after ICU admission.
+ The median duration between ICU admission and decease was 12 (range 3–36).
+ Cox proportional-hazards regression analysis revealed that age older than 65 years, thrombocytopenia at ICU admission, ARDS, and AKI independently predicted the 60-day mortality.
+Conclusions
+Severe complications are common and the 60-day mortality of critically ill patients with COVID-19 is considerably high.
+ The duration of the negative conversion of SARS-CoV-2 RNA and its association with the severity of critically ill patients with COVID-19 should be seriously considered and further studied.
+</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,     Xiaobo%Yang%NULL%1,     Luyu%Yang%NULL%2,     Xiaojing%Zou%NULL%3,     Yaxin%Wang%NULL%3,     Yongran%Wu%NULL%3,     Ting%Zhou%NULL%1,     Yin%Yuan%NULL%1,     Hong%Qi%NULL%1,     Shouzhi%Fu%NULL%1,     Hong%Liu%NULL%3,     Jia’an%Xia%NULL%1,     Zhengqin%Xu%NULL%1,     Yuan%Yu%NULL%3,     Ruiting%Li%NULL%2,     Yaqi%Ouyang%NULL%1,     Rui%Wang%NULL%1,     Lehao%Ren%NULL%1,     Yingying%Hu%NULL%3,     Dan%Xu%NULL%4,     Xin%Zhao%NULL%1,     Shiying%Yuan%shiying_yuan@163.com%3,     Dingyu%Zhang%1813886398@qq.com%2,     You%Shang%you_shanghust@163.com%3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+It had been shown that High-flow nasal cannula (HFNC) is an effective initial support strategy for patients with acute respiratory failure.
+ However, the efficacy of HFNC for patients with COVID-19 has not been established.
+ This study was performed to assess the efficacy of HFNC for patients with COVID-19 and describe early predictors of HFNC treatment success in order to develop a prediction tool that accurately identifies the need for upgrade respiratory support therapy.
+Methods
+We retrospectively reviewed the medical records of patients with COVID-19 treated by HFNC in respiratory wards of 2 hospitals in Wuhan between 1 January and 1 March 2020. Overall clinical outcomes, the success rate of HFNC strategy and related respiratory variables were evaluated.
+Results
+A total of 105 patients were analyzed.
+ Of these, 65 patients (61.9%) showed improved oxygenation and were successfully withdrawn from HFNC.
+ The PaO2/FiO2 ratio, SpO2/FiO2 ratio and ROX index (SpO2/FiO2*RR) at 6h, 12h and 24h of HFNC initiation were closely related to the prognosis.
+ The ROX index after 6h of HFNC initiation (AUROC, 0.798) had good predictive capacity for outcomes of HFNC.
+ In the multivariate logistic regression analysis, young age, gender of female, and lower SOFA score all have predictive value, while a ROX index greater than 5.55 at 6 h after initiation was significantly associated with HFNC success (OR, 17.821; 95% CI, 3.741-84.903 p&amp;lt;0.001).
+Conclusions
+Our study indicated that HFNC was an effective way of respiratory support in the treatment of COVID-19 patients.
+ The ROX index after 6h after initiating HFNC had good predictive capacity for HFNC outcomes.
+</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,     Qiang%Zhou%NULL%1,     Ruiqiang%Zheng%NULL%1,     Xuyan%Li%NULL%1,     Jianmin%Ling%NULL%2,     Yumei%Chen%NULL%1,     Jing%Jia%NULL%1,     Cuihong%Xie%xiecuihong08@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1671,10 +1851,10 @@
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -1905,10 +2085,10 @@
         <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="169">
   <si>
     <t>Doi</t>
   </si>
@@ -901,186 +901,6 @@
   </si>
   <si>
     <t>2016-03-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The global numbers of confirmed cases and deceased critically ill patients with COVID-19 are increasing.
- However, the clinical course, and the 60-day mortality and its predictors in critically ill patients have not been fully elucidated.
- The aim of this study is to identify the clinical course, and 60-day mortality and its predictors in critically ill patients with COVID-19.
-Methods
-id="Par2"&gt;Critically ill adult patients admitted to intensive care units (ICUs) from 3 hospitals in Wuhan, China, were included.
- Data on demographic information, preexisting comorbidities, laboratory findings at ICU admission, treatments, clinical outcomes, and results of SARS-CoV-2 RNA tests and of serum SARS-CoV-2 IgM were collected including the duration between symptom onset and negative conversion of SARS-CoV-2 RNA.
-Results
-id="Par3"&gt;Of 1748 patients with COVID-19, 239 (13.7%) critically ill patients were included.
- Complications included acute respiratory distress syndrome (ARDS) in 164 (68.6%) patients, coagulopathy in 150 (62.7%) patients, acute cardiac injury in 103 (43.1%) patients, and acute kidney injury (AKI) in 119 (49.8%) patients, which occurred 15.5 days, 17 days, 18.5 days, and 19 days after the symptom onset, respectively.
- The median duration of the negative conversion of SARS-CoV-2 RNA was 30 (range 6–81) days in 49 critically ill survivors that were identified.
- A total of 147 (61.5%) patients deceased by 60 days after ICU admission.
- The median duration between ICU admission and decease was 12 (range 3–36).
- Cox proportional-hazards regression analysis revealed that age older than 65 years, thrombocytopenia at ICU admission, ARDS, and AKI independently predicted the 60-day mortality.
-Conclusions
-id="Par4"&gt;Severe complications are common and the 60-day mortality of critically ill patients with COVID-19 is considerably high.
- The duration of the negative conversion of SARS-CoV-2 RNA and its association with the severity of critically ill patients with COVID-19 should be seriously considered and further studied.
-</t>
-  </si>
-  <si>
-    <t>[Jiqian%Xu%NULL%1,  Xiaobo%Yang%NULL%1,  Luyu%Yang%NULL%1,  Xiaojing%Zou%NULL%0,  Yaxin%Wang%NULL%0,  Yongran%Wu%NULL%0,  Ting%Zhou%NULL%1,  Yin%Yuan%NULL%1,  Hong%Qi%NULL%1,  Shouzhi%Fu%NULL%0,  Hong%Liu%NULL%0,  Jia’an%Xia%NULL%1,  Zhengqin%Xu%NULL%1,  Yuan%Yu%NULL%0,  Ruiting%Li%NULL%0,  Yaqi%Ouyang%NULL%1,  Rui%Wang%NULL%0,  Lehao%Ren%NULL%1,  Yingying%Hu%NULL%1,  Dan%Xu%NULL%0,  Xin%Zhao%NULL%1,  Shiying%Yuan%shiying_yuan@163.com%0,  Dingyu%Zhang%1813886398@qq.com%0,  You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-It had been shown that High-flow nasal cannula (HFNC) is an effective initial support strategy for patients with acute respiratory failure.
- However, the efficacy of HFNC for patients with COVID-19 has not been established.
- This study was performed to assess the efficacy of HFNC for patients with COVID-19 and describe early predictors of HFNC treatment success in order to develop a prediction tool that accurately identifies the need for upgrade respiratory support therapy.
-Methods
-id="Par2"&gt;We retrospectively reviewed the medical records of patients with COVID-19 treated by HFNC in respiratory wards of 2 hospitals in Wuhan between 1 January and 1 March 2020. Overall clinical outcomes, the success rate of HFNC strategy and related respiratory variables were evaluated.
-Results
-id="Par3"&gt;A total of 105 patients were analyzed.
- Of these, 65 patients (61.9%) showed improved oxygenation and were successfully withdrawn from HFNC.
- The PaO2/FiO2 ratio, SpO2/FiO2 ratio and ROX index (SpO2/FiO2*RR) at 6h, 12h and 24h of HFNC initiation were closely related to the prognosis.
- The ROX index after 6h of HFNC initiation (AUROC, 0.798) had good predictive capacity for outcomes of HFNC.
- In the multivariate logistic regression analysis, young age, gender of female, and lower SOFA score all have predictive value, while a ROX index greater than 5.55 at 6 h after initiation was significantly associated with HFNC success (OR, 17.821; 95% CI, 3.741-84.903 p&amp;lt;0.001).
-Conclusions
-id="Par4"&gt;Our study indicated that HFNC was an effective way of respiratory support in the treatment of COVID-19 patients.
- The ROX index after 6h after initiating HFNC had good predictive capacity for HFNC outcomes.
-</t>
-  </si>
-  <si>
-    <t>[
-Ming%Hu%NULL%1,  Qiang%Zhou%NULL%1,  Ruiqiang%Zheng%NULL%1,  Xuyan%Li%NULL%1,  Jianmin%Ling%NULL%1,  Yumei%Chen%NULL%1,  Jing%Jia%NULL%1,  Cuihong%Xie%xiecuihong08@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The global numbers of confirmed cases and deceased critically ill patients with COVID-19 are increasing.
- However, the clinical course, and the 60-day mortality and its predictors in critically ill patients have not been fully elucidated.
- The aim of this study is to identify the clinical course, and 60-day mortality and its predictors in critically ill patients with COVID-19.
-Methods
-Critically ill adult patients admitted to intensive care units (ICUs) from 3 hospitals in Wuhan, China, were included.
- Data on demographic information, preexisting comorbidities, laboratory findings at ICU admission, treatments, clinical outcomes, and results of SARS-CoV-2 RNA tests and of serum SARS-CoV-2 IgM were collected including the duration between symptom onset and negative conversion of SARS-CoV-2 RNA.
-Results
-id="Par3"&gt;Of 1748 patients with COVID-19, 239 (13.7%) critically ill patients were included.
- Complications included acute respiratory distress syndrome (ARDS) in 164 (68.6%) patients, coagulopathy in 150 (62.7%) patients, acute cardiac injury in 103 (43.1%) patients, and acute kidney injury (AKI) in 119 (49.8%) patients, which occurred 15.5 days, 17 days, 18.5 days, and 19 days after the symptom onset, respectively.
- The median duration of the negative conversion of SARS-CoV-2 RNA was 30 (range 6–81) days in 49 critically ill survivors that were identified.
- A total of 147 (61.5%) patients deceased by 60 days after ICU admission.
- The median duration between ICU admission and decease was 12 (range 3–36).
- Cox proportional-hazards regression analysis revealed that age older than 65 years, thrombocytopenia at ICU admission, ARDS, and AKI independently predicted the 60-day mortality.
-Conclusions
-id="Par4"&gt;Severe complications are common and the 60-day mortality of critically ill patients with COVID-19 is considerably high.
- The duration of the negative conversion of SARS-CoV-2 RNA and its association with the severity of critically ill patients with COVID-19 should be seriously considered and further studied.
-</t>
-  </si>
-  <si>
-    <t>[Jiqian%Xu%NULL%1,   Xiaobo%Yang%NULL%1,   Luyu%Yang%NULL%1,   Xiaojing%Zou%NULL%9,   Yaxin%Wang%NULL%11,   Yongran%Wu%NULL%11,   Ting%Zhou%NULL%1,   Yin%Yuan%NULL%1,   Hong%Qi%NULL%1,   Shouzhi%Fu%NULL%1,   Hong%Liu%NULL%9,   Jia’an%Xia%NULL%1,   Zhengqin%Xu%NULL%1,   Yuan%Yu%NULL%11,   Ruiting%Li%NULL%6,   Yaqi%Ouyang%NULL%1,   Rui%Wang%NULL%1,   Lehao%Ren%NULL%1,   Yingying%Hu%NULL%3,   Dan%Xu%NULL%2,   Xin%Zhao%NULL%1,   Shiying%Yuan%shiying_yuan@163.com%9,   Dingyu%Zhang%1813886398@qq.com%2,   You%Shang%you_shanghust@163.com%11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-It had been shown that High-flow nasal cannula (HFNC) is an effective initial support strategy for patients with acute respiratory failure.
- However, the efficacy of HFNC for patients with COVID-19 has not been established.
- This study was performed to assess the efficacy of HFNC for patients with COVID-19 and describe early predictors of HFNC treatment success in order to develop a prediction tool that accurately identifies the need for upgrade respiratory support therapy.
-Methods
-We retrospectively reviewed the medical records of patients with COVID-19 treated by HFNC in respiratory wards of 2 hospitals in Wuhan between 1 January and 1 March 2020. Overall clinical outcomes, the success rate of HFNC strategy and related respiratory variables were evaluated.
-Results
-id="Par3"&gt;A total of 105 patients were analyzed.
- Of these, 65 patients (61.9%) showed improved oxygenation and were successfully withdrawn from HFNC.
- The PaO2/FiO2 ratio, SpO2/FiO2 ratio and ROX index (SpO2/FiO2*RR) at 6h, 12h and 24h of HFNC initiation were closely related to the prognosis.
- The ROX index after 6h of HFNC initiation (AUROC, 0.798) had good predictive capacity for outcomes of HFNC.
- In the multivariate logistic regression analysis, young age, gender of female, and lower SOFA score all have predictive value, while a ROX index greater than 5.55 at 6 h after initiation was significantly associated with HFNC success (OR, 17.821; 95% CI, 3.741-84.903 p&amp;lt;0.001).
-Conclusions
-id="Par4"&gt;Our study indicated that HFNC was an effective way of respiratory support in the treatment of COVID-19 patients.
- The ROX index after 6h after initiating HFNC had good predictive capacity for HFNC outcomes.
-</t>
-  </si>
-  <si>
-    <t>[
-Ming%Hu%NULL%1,   Qiang%Zhou%NULL%1,   Ruiqiang%Zheng%NULL%1,   Xuyan%Li%NULL%1,   Jianmin%Ling%NULL%1,   Yumei%Chen%NULL%1,   Jing%Jia%NULL%1,   Cuihong%Xie%xiecuihong08@163.com%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The global numbers of confirmed cases and deceased critically ill patients with COVID-19 are increasing.
- However, the clinical course, and the 60-day mortality and its predictors in critically ill patients have not been fully elucidated.
- The aim of this study is to identify the clinical course, and 60-day mortality and its predictors in critically ill patients with COVID-19.
-Methods
-Critically ill adult patients admitted to intensive care units (ICUs) from 3 hospitals in Wuhan, China, were included.
- Data on demographic information, preexisting comorbidities, laboratory findings at ICU admission, treatments, clinical outcomes, and results of SARS-CoV-2 RNA tests and of serum SARS-CoV-2 IgM were collected including the duration between symptom onset and negative conversion of SARS-CoV-2 RNA.
-Results
-Of 1748 patients with COVID-19, 239 (13.7%) critically ill patients were included.
- Complications included acute respiratory distress syndrome (ARDS) in 164 (68.6%) patients, coagulopathy in 150 (62.7%) patients, acute cardiac injury in 103 (43.1%) patients, and acute kidney injury (AKI) in 119 (49.8%) patients, which occurred 15.5 days, 17 days, 18.5 days, and 19 days after the symptom onset, respectively.
- The median duration of the negative conversion of SARS-CoV-2 RNA was 30 (range 6–81) days in 49 critically ill survivors that were identified.
- A total of 147 (61.5%) patients deceased by 60 days after ICU admission.
- The median duration between ICU admission and decease was 12 (range 3–36).
- Cox proportional-hazards regression analysis revealed that age older than 65 years, thrombocytopenia at ICU admission, ARDS, and AKI independently predicted the 60-day mortality.
-Conclusions
-id="Par4"&gt;Severe complications are common and the 60-day mortality of critically ill patients with COVID-19 is considerably high.
- The duration of the negative conversion of SARS-CoV-2 RNA and its association with the severity of critically ill patients with COVID-19 should be seriously considered and further studied.
-</t>
-  </si>
-  <si>
-    <t>[Jiqian%Xu%NULL%1,    Xiaobo%Yang%NULL%1,    Luyu%Yang%NULL%1,    Xiaojing%Zou%NULL%5,    Yaxin%Wang%NULL%3,    Yongran%Wu%NULL%3,    Ting%Zhou%NULL%2,    Yin%Yuan%NULL%1,    Hong%Qi%NULL%1,    Shouzhi%Fu%NULL%2,    Hong%Liu%NULL%3,    Jia’an%Xia%NULL%1,    Zhengqin%Xu%NULL%1,    Yuan%Yu%NULL%3,    Ruiting%Li%NULL%2,    Yaqi%Ouyang%NULL%1,    Rui%Wang%NULL%1,    Lehao%Ren%NULL%1,    Yingying%Hu%NULL%1,    Dan%Xu%NULL%1,    Xin%Zhao%NULL%1,    Shiying%Yuan%shiying_yuan@163.com%3,    Dingyu%Zhang%1813886398@qq.com%1,    You%Shang%you_shanghust@163.com%4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-It had been shown that High-flow nasal cannula (HFNC) is an effective initial support strategy for patients with acute respiratory failure.
- However, the efficacy of HFNC for patients with COVID-19 has not been established.
- This study was performed to assess the efficacy of HFNC for patients with COVID-19 and describe early predictors of HFNC treatment success in order to develop a prediction tool that accurately identifies the need for upgrade respiratory support therapy.
-Methods
-We retrospectively reviewed the medical records of patients with COVID-19 treated by HFNC in respiratory wards of 2 hospitals in Wuhan between 1 January and 1 March 2020. Overall clinical outcomes, the success rate of HFNC strategy and related respiratory variables were evaluated.
-Results
-A total of 105 patients were analyzed.
- Of these, 65 patients (61.9%) showed improved oxygenation and were successfully withdrawn from HFNC.
- The PaO2/FiO2 ratio, SpO2/FiO2 ratio and ROX index (SpO2/FiO2*RR) at 6h, 12h and 24h of HFNC initiation were closely related to the prognosis.
- The ROX index after 6h of HFNC initiation (AUROC, 0.798) had good predictive capacity for outcomes of HFNC.
- In the multivariate logistic regression analysis, young age, gender of female, and lower SOFA score all have predictive value, while a ROX index greater than 5.55 at 6 h after initiation was significantly associated with HFNC success (OR, 17.821; 95% CI, 3.741-84.903 p&amp;lt;0.001).
-Conclusions
-id="Par4"&gt;Our study indicated that HFNC was an effective way of respiratory support in the treatment of COVID-19 patients.
- The ROX index after 6h after initiating HFNC had good predictive capacity for HFNC outcomes.
-</t>
-  </si>
-  <si>
-    <t>[
-Ming%Hu%NULL%1,    Qiang%Zhou%NULL%1,    Ruiqiang%Zheng%NULL%1,    Xuyan%Li%NULL%1,    Jianmin%Ling%NULL%1,    Yumei%Chen%NULL%1,    Jing%Jia%NULL%1,    Cuihong%Xie%xiecuihong08@163.com%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The global numbers of confirmed cases and deceased critically ill patients with COVID-19 are increasing.
- However, the clinical course, and the 60-day mortality and its predictors in critically ill patients have not been fully elucidated.
- The aim of this study is to identify the clinical course, and 60-day mortality and its predictors in critically ill patients with COVID-19.
-Methods
-Critically ill adult patients admitted to intensive care units (ICUs) from 3 hospitals in Wuhan, China, were included.
- Data on demographic information, preexisting comorbidities, laboratory findings at ICU admission, treatments, clinical outcomes, and results of SARS-CoV-2 RNA tests and of serum SARS-CoV-2 IgM were collected including the duration between symptom onset and negative conversion of SARS-CoV-2 RNA.
-Results
-Of 1748 patients with COVID-19, 239 (13.7%) critically ill patients were included.
- Complications included acute respiratory distress syndrome (ARDS) in 164 (68.6%) patients, coagulopathy in 150 (62.7%) patients, acute cardiac injury in 103 (43.1%) patients, and acute kidney injury (AKI) in 119 (49.8%) patients, which occurred 15.5 days, 17 days, 18.5 days, and 19 days after the symptom onset, respectively.
- The median duration of the negative conversion of SARS-CoV-2 RNA was 30 (range 6–81) days in 49 critically ill survivors that were identified.
- A total of 147 (61.5%) patients deceased by 60 days after ICU admission.
- The median duration between ICU admission and decease was 12 (range 3–36).
- Cox proportional-hazards regression analysis revealed that age older than 65 years, thrombocytopenia at ICU admission, ARDS, and AKI independently predicted the 60-day mortality.
-Conclusions
-Severe complications are common and the 60-day mortality of critically ill patients with COVID-19 is considerably high.
- The duration of the negative conversion of SARS-CoV-2 RNA and its association with the severity of critically ill patients with COVID-19 should be seriously considered and further studied.
-</t>
-  </si>
-  <si>
-    <t>[Jiqian%Xu%NULL%1,     Xiaobo%Yang%NULL%1,     Luyu%Yang%NULL%2,     Xiaojing%Zou%NULL%3,     Yaxin%Wang%NULL%3,     Yongran%Wu%NULL%3,     Ting%Zhou%NULL%1,     Yin%Yuan%NULL%1,     Hong%Qi%NULL%1,     Shouzhi%Fu%NULL%1,     Hong%Liu%NULL%3,     Jia’an%Xia%NULL%1,     Zhengqin%Xu%NULL%1,     Yuan%Yu%NULL%3,     Ruiting%Li%NULL%2,     Yaqi%Ouyang%NULL%1,     Rui%Wang%NULL%1,     Lehao%Ren%NULL%1,     Yingying%Hu%NULL%3,     Dan%Xu%NULL%4,     Xin%Zhao%NULL%1,     Shiying%Yuan%shiying_yuan@163.com%3,     Dingyu%Zhang%1813886398@qq.com%2,     You%Shang%you_shanghust@163.com%3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-It had been shown that High-flow nasal cannula (HFNC) is an effective initial support strategy for patients with acute respiratory failure.
- However, the efficacy of HFNC for patients with COVID-19 has not been established.
- This study was performed to assess the efficacy of HFNC for patients with COVID-19 and describe early predictors of HFNC treatment success in order to develop a prediction tool that accurately identifies the need for upgrade respiratory support therapy.
-Methods
-We retrospectively reviewed the medical records of patients with COVID-19 treated by HFNC in respiratory wards of 2 hospitals in Wuhan between 1 January and 1 March 2020. Overall clinical outcomes, the success rate of HFNC strategy and related respiratory variables were evaluated.
-Results
-A total of 105 patients were analyzed.
- Of these, 65 patients (61.9%) showed improved oxygenation and were successfully withdrawn from HFNC.
- The PaO2/FiO2 ratio, SpO2/FiO2 ratio and ROX index (SpO2/FiO2*RR) at 6h, 12h and 24h of HFNC initiation were closely related to the prognosis.
- The ROX index after 6h of HFNC initiation (AUROC, 0.798) had good predictive capacity for outcomes of HFNC.
- In the multivariate logistic regression analysis, young age, gender of female, and lower SOFA score all have predictive value, while a ROX index greater than 5.55 at 6 h after initiation was significantly associated with HFNC success (OR, 17.821; 95% CI, 3.741-84.903 p&amp;lt;0.001).
-Conclusions
-Our study indicated that HFNC was an effective way of respiratory support in the treatment of COVID-19 patients.
- The ROX index after 6h after initiating HFNC had good predictive capacity for HFNC outcomes.
-</t>
-  </si>
-  <si>
-    <t>[
-Ming%Hu%NULL%1,     Qiang%Zhou%NULL%1,     Ruiqiang%Zheng%NULL%1,     Xuyan%Li%NULL%1,     Jianmin%Ling%NULL%2,     Yumei%Chen%NULL%1,     Jing%Jia%NULL%1,     Cuihong%Xie%xiecuihong08@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1851,10 +1671,10 @@
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2085,10 +1905,10 @@
         <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="198">
   <si>
     <t>Doi</t>
   </si>
@@ -901,6 +901,94 @@
   </si>
   <si>
     <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,  Jing-Jin%Liang%NULL%1,  Qing-Tao%Zhou%NULL%1,  Xiao-Guang%Li%NULL%1,  Fei%Lin%NULL%1,  Zhong-Hua%Deng%NULL%1,  Bi-Ying%Zhang%NULL%1,  Lu%Li%NULL%1,  Xiao-Hua%Wang%NULL%1,  Hong%Zhu%NULL%1,  Qing-Bian%Ma%NULL%1,  Xiao-Mei%Tong%NULL%1,  Jie%Xu%NULL%1,  Yong-Chang%Sun%NULL%1,  Pei-Fang%Wei%NULL%2,  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,  Xiao-Xin%Wu%NULL%1,  Xian-Gao%Jiang%NULL%1,  Kai-Jin%Xu%NULL%1,  Ling-Jun%Ying%NULL%1,  Chun-Lian%Ma%NULL%1,  Shi-Bo%Li%NULL%1,  Hua-Ying%Wang%NULL%1,  Sheng%Zhang%NULL%1,  Hai-Nv%Gao%NULL%1,  Ji-Fang%Sheng%NULL%1,  Hong-Liu%Cai%NULL%1,  Yun-Qing%Qiu%NULL%1,  Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,  Bijan J.%Ghassemieh%NULL%1,  Michelle%Nichols%NULL%1,  Richard%Kim%NULL%1,  Keith R.%Jerome%NULL%1,  Arun K.%Nalla%NULL%1,  Alexander L.%Greninger%NULL%1,  Sudhakar%Pipavath%NULL%1,  Mark M.%Wurfel%NULL%1,  Laura%Evans%NULL%1,  Patricia A.%Kritek%NULL%1,  T. Eoin%West%NULL%1,  Andrew%Luks%NULL%1,  Anthony%Gerbino%NULL%1,  Chris R.%Dale%NULL%1,  Jason D.%Goldman%NULL%1,  Shane%O’Mahony%NULL%1,  Carmen%Mikacenic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,  NULL%NULL%NULL%8,  NULL%NULL%NULL%0,  Stephanie%Bialek%NULL%1,  Ellen%Boundy%NULL%1,  Virginia%Bowen%NULL%1,  Nancy%Chow%NULL%1,  Amanda%Cohn%NULL%1,  Nicole%Dowling%NULL%1,  Sascha%Ellington%NULL%1,  Ryan%Gierke%NULL%1,  Aron%Hall%NULL%1,  Jessica%MacNeil%NULL%1,  Priti%Patel%NULL%1,  Georgina%Peacock%NULL%3,  Tamara%Pilishvili%NULL%1,  Hilda%Razzaghi%NULL%2,  Nia%Reed%NULL%1,  Matthew%Ritchey%NULL%1,  Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,  Wenlin%Cheng%NULL%1,  Lei%Yu%NULL%1,  Ya-Kun%Liu%NULL%1,  Xiaoyong%Hu%NULL%1,  Qiang%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,  Tangkai%Qi%NULL%1,  Li%Liu%NULL%1,  Yun%Ling%NULL%1,  Zhiping%Qian%NULL%1,  Tao%Li%NULL%2,  Feng%Li%NULL%1,  Qingnian%Xu%NULL%1,  Yuyi%Zhang%NULL%1,  Shuibao%Xu%NULL%1,  Zhigang%Song%NULL%1,  Yigang%Zeng%NULL%1,  Yinzhong%Shen%NULL%1,  Yuxin%Shi%NULL%1,  Tongyu%Zhu%NULL%1,  Hongzhou%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,  Dingyu%Zhang%NULL%2,  Wenling%Wang%NULL%1,  Xingwang%Li%NULL%1,  Bo%Yang%NULL%1,  Jingdong%Song%NULL%1,  Xiang%Zhao%NULL%1,  Baoying%Huang%NULL%1,  Weifeng%Shi%NULL%1,  Roujian%Lu%NULL%1,  Peihua%Niu%NULL%1,  Faxian%Zhan%NULL%1,  Xuejun%Ma%NULL%1,  Dayan%Wang%NULL%1,  Wenbo%Xu%NULL%1,  Guizhen%Wu%NULL%1,  George F.%Gao%NULL%1,  Wenjie%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,  Simon A%Jones%NULL%1,  Jie%Yang%NULL%1,  Harish%Rajagopalan%NULL%1,  Luke%O’Donnell%NULL%1,  Yelena%Chernyak%NULL%1,  Katie A%Tobin%NULL%1,  Robert J%Cerfolio%NULL%1,  Fritz%Francois%NULL%2,  Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,  Mikael%Chetboun%NULL%1,  Julien%Poissy%NULL%1,  Violeta%Raverdy%NULL%1,  Jerome%Noulette%NULL%2,  Jerome%Noulette%NULL%0,  Alain%Duhamel%NULL%1,  Julien%Labreuche%NULL%1,  Daniel%Mathieu%NULL%2,  Francois%Pattou%francois.pattou@univ-lille.fr%1,  Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,  Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,  Robert%Caizzo%NULL%2,  Robert%Caizzo%NULL%0,  Morgan%Caplan%NULL%1,  Nicolas%Cousin%NULL%1,  Thibault%Duburcq%NULL%1,  Arthur%Durand%NULL%1,  Ahmed%El kalioubie%NULL%1,  Raphael%Favory%NULL%1,  Bruno%Garcia%NULL%1,  Patrick%Girardie%NULL%1,  Julien%Goutay%NULL%1,  Marion%Houard%NULL%1,  Emmanuelle%Jaillette%NULL%1,  Nicolas%Kostuj%NULL%1,  Geoffrey%Ledoux%NULL%1,  Daniel%Mathieu%NULL%0,  Anne Sophie%Moreau%NULL%1,  Christopher%Niles%NULL%1,  Saad%Nseir%NULL%1,  Thierry%Onimus%NULL%1,  Erika%Parmentier%NULL%1,  Sebastien%Préau%NULL%1,  Laurent%Robriquet%NULL%1,  Anahita%Rouze%NULL%1,  Sophie%Six%NULL%1,  Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,  Chen-Hsen%Lee%NULL%1,  Cheng-Yi%Liu%NULL%1,  Jia-Horng%Wang%NULL%1,  Lee-Min%Wang%NULL%1,  Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,  Xiaobo%Yang%NULL%1,  Luyu%Yang%NULL%1,  Xiaojing%Zou%NULL%1,  Yaxin%Wang%NULL%1,  Yongran%Wu%NULL%1,  Ting%Zhou%NULL%1,  Yin%Yuan%NULL%1,  Hong%Qi%NULL%1,  Shouzhi%Fu%NULL%1,  Hong%Liu%NULL%1,  Jia’an%Xia%NULL%1,  Zhengqin%Xu%NULL%1,  Yuan%Yu%NULL%1,  Ruiting%Li%NULL%0,  Yaqi%Ouyang%NULL%1,  Rui%Wang%NULL%1,  Lehao%Ren%NULL%1,  Yingying%Hu%NULL%1,  Dan%Xu%NULL%1,  Xin%Zhao%NULL%1,  Shiying%Yuan%shiying_yuan@163.com%1,  Dingyu%Zhang%1813886398@qq.com%0,  You%Shang%you_shanghust@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,  Wen-hua%Liang%NULL%1,  Yi%Zhao%NULL%1,  Heng-rui%Liang%NULL%1,  Zi-sheng%Chen%NULL%1,  Yi-min%Li%NULL%1,  Xiao-qing%Liu%NULL%1,  Ru-chong%Chen%NULL%1,  Chun-li%Tang%NULL%1,  Tao%Wang%NULL%1,  Chun-quan%Ou%NULL%1,  Li%Li%NULL%0,  Ping-yan%Chen%NULL%1,  Ling%Sang%NULL%1,  Wei%Wang%NULL%1,  Jian-fu%Li%NULL%1,  Cai-chen%Li%NULL%1,  Li-min%Ou%NULL%1,  Bo%Cheng%NULL%1,  Shan%Xiong%NULL%1,  Zheng-yi%Ni%NULL%1,  Jie%Xiang%NULL%2,  Yu%Hu%NULL%1,  Lei%Liu%NULL%1,  Hong%Shan%NULL%1,  Chun-liang%Lei%NULL%1,  Yi-xiang%Peng%NULL%1,  Li%Wei%NULL%1,  Yong%Liu%NULL%1,  Ya-hua%Hu%NULL%1,  Peng%Peng%NULL%2,  Jian-ming%Wang%NULL%1,  Ji-yang%Liu%NULL%1,  Zhong%Chen%NULL%1,  Gang%Li%NULL%1,  Zhi-jian%Zheng%NULL%1,  Shao-qin%Qiu%NULL%1,  Jie%Luo%NULL%1,  Chang-jiang%Ye%NULL%1,  Shao-yong%Zhu%NULL%1,  Lin-ling%Cheng%NULL%1,  Feng%Ye%NULL%1,  Shi-yue%Li%NULL%1,  Jin-ping%Zheng%NULL%1,  Nuo-fu%Zhang%NULL%1,  Nan-shan%Zhong%NULL%1,  Jian-xing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%2,  Ronghui%Du%NULL%1,  Guohui%Fan%NULL%1,  Ying%Liu%NULL%2,  Zhibo%Liu%NULL%1,  Jie%Xiang%NULL%0,  Yeming%Wang%NULL%1,  Bin%Song%NULL%1,  Xiaoying%Gu%NULL%1,  Lulu%Guan%NULL%1,  Yuan%Wei%NULL%2,  Hui%Li%NULL%1,  Xudong%Wu%NULL%1,  Jiuyang%Xu%NULL%1,  Shengjin%Tu%NULL%1,  Yi%Zhang%NULL%1,  Hua%Chen%NULL%1,  Bin%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,  Giacomo%Iapichino%NULL%1,  Luca%Carenzo%NULL%1,  Maurizio%Cecconi%NULL%1,  Paola%Ferrazzi%NULL%1,  Tim%Sebastian%NULL%1,  Nils%Kucher%NULL%1,  Jan-Dirk%Studt%NULL%1,  Clara%Sacco%NULL%1,  Alexia%Bertuzzi%NULL%1,  Maria Teresa%Sandri%NULL%1,  Stefano%Barco%NULL%1,  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,  M.J.H.A.%Kruip%NULL%1,  N.J.M.%van der Meer%NULL%1,  M.S.%Arbous%NULL%1,  D.A.M.P.J.%Gommers%NULL%1,  K.M.%Kant%NULL%1,  F.H.J.%Kaptein%NULL%1,  J.%van Paassen%NULL%1,  M.A.M.%Stals%NULL%1,  M.V.%Huisman%NULL%1,  H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,  Fang%Jiang%NULL%1,  Wating%Su%NULL%1,  Chang%Chen%NULL%1,  Jingli%Chen%NULL%1,  Wei%Mei%NULL%1,  Li-Ying%Zhan%NULL%1,  Yifan%Jia%NULL%1,  Liangqing%Zhang%NULL%1,  Danyong%Liu%NULL%1,  Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,  Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,  Ewen M%Harrison%NULL%1,  Christopher A%Green%NULL%1,  Hayley E%Hardwick%NULL%1,  Riinu%Pius%NULL%1,  Lisa%Norman%NULL%1,  Karl A%Holden%NULL%1,  Jonathan M%Read%NULL%1,  Frank%Dondelinger%NULL%1,  Gail%Carson%NULL%1,  Laura%Merson%NULL%1,  James%Lee%NULL%1,  Daniel%Plotkin%NULL%1,  Louise%Sigfrid%NULL%1,  Sophie%Halpin%NULL%1,  Clare%Jackson%NULL%1,  Carrol%Gamble%NULL%1,  Peter W%Horby%NULL%1,  Jonathan S%Nguyen-Van-Tam%NULL%1,  Antonia%Ho%NULL%1,  Clark D%Russell%NULL%1,  Jake%Dunning%NULL%1,  Peter JM%Openshaw%NULL%1,  J Kenneth%Baillie%NULL%1,  Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,  Li-Min%Liu%NULL%1,  Wen%Yin%NULL%1,  Wen%Wang%NULL%1,  Lu-Lu%Guan%NULL%1,  Ming-Li%Yuan%NULL%1,  Yu-Lei%Li%NULL%1,  Yi%Hu%NULL%1,  Xu-Yan%Li%NULL%1,  Bing%Sun%NULL%1,  Peng%Peng%NULL%0,  Huan-Zhong%Shi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,  Qiang%Zhou%NULL%1,  Ruiqiang%Zheng%NULL%1,  Xuyan%Li%NULL%1,  Jianmin%Ling%NULL%1,  Yumei%Chen%NULL%1,  Jing%Jia%NULL%1,  Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,  Anna Mara%Scandroglio%NULL%1,  Giacomo%Monti%NULL%1,  Maria Grazia%Calabrò%NULL%1,  Giovanni%Landoni%NULL%1,  Antonio%Dell'Acqua%NULL%1,  Luigi%Beretta%NULL%1,  Elena%Moizo%NULL%1,  Alfredo%Ravizza%NULL%1,  Fabrizio%Monaco%NULL%1,  Corrado%Campochiaro%NULL%1,  Marina%Pieri%NULL%1,  Maria Luisa%Azzolini%NULL%1,  Giovanni%Borghi%NULL%1,  Martina%Crivellari%NULL%1,  Caterina%Conte%NULL%1,  Cristina%Mattioli%NULL%1,  Paolo%Silvani%NULL%1,  Milena%Mucci%NULL%1,  Stefano%Turi%NULL%1,  Stefano%Tentori%NULL%1,  Martina%Baiardo Redaelli%NULL%1,  Marianna%Sartorelli%NULL%1,  Piera%Angelillo%NULL%1,  Alessandro%Belletti%NULL%1,  Pasquale%Nardelli%NULL%1,  Francesco Giuseppe%Nisi%NULL%1,  Gabriele%Valsecchi%NULL%1,  Cristina%Barberio%NULL%1,  Fabio%Ciceri%NULL%1,  Ary%Serpa Neto%NULL%1,  Lorenzo%Dagna%NULL%1,  Rinaldo%Bellomo%NULL%1,  Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,  Min%Zhou%NULL%1,  Xuan%Dong%NULL%1,  Jieming%Qu%NULL%1,  Fengyun%Gong%NULL%1,  Yang%Han%NULL%1,  Yang%Qiu%NULL%1,  Jingli%Wang%NULL%1,  Ying%Liu%NULL%0,  Yuan%Wei%NULL%0,  Jia'an%Xia%NULL%1,  Ting%Yu%NULL%0,  Xinxin%Zhang%NULL%1,  Li%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,  Ali S.%Omrani%NULL%1,  Kamran%Baig%NULL%1,  Abdelkarim%Bahloul%NULL%1,  Fatehi%Elzein%NULL%1,  Mohammad Abdul%Matin%NULL%1,  Mohei A.A.%Selim%NULL%1,  Mohammed Al%Mutairi%NULL%1,  Daifullah Al%Nakhli%NULL%1,  Amal Y. Al%Aidaroos%NULL%1,  Nisreen Al%Sherbeeni%NULL%1,  Hesham I.%Al-Khashan%NULL%1,  Ziad A.%Memish%zmemish@yahoo.com%1,  Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,  Badr%Alsayed%NULL%1,  Sameh%Embarak%NULL%1,  Taha%Yaseen%NULL%1,  Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,  Shamsudeen F.%Fagbo%NULL%1,  Vicky J.%Fang%NULL%1,  Leila%Skakni%NULL%1,  Mercy%Joseph%NULL%1,  Tariq A.%Wani%NULL%1,  Benjamin J.%Cowling%NULL%1,  Malik%Peiris%NULL%1,  Ahmed%Hakawi%NULL%1,  Renee W.Y.%Chan%NULL%2,  Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,  Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,  Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,  Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,  Fatmah%Salah%Fs4l_med2011@yahoo.com%1,  Abdulmoatani%Alsulami%moatani@hotmail.com%1,  Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,  Dhananjay%Vaidya%dvaidya@jhmi.edu%1,  Trish M.%Perl%tperl@jhmi.edu%1,  Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -1295,6 +1383,9 @@
       <c r="H1" t="s">
         <v>50</v>
       </c>
+      <c r="I1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1310,7 +1401,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -1320,6 +1411,9 @@
       </c>
       <c r="H2" t="s">
         <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3">
@@ -1336,7 +1430,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -1346,6 +1440,9 @@
       </c>
       <c r="H3" t="s">
         <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4">
@@ -1362,7 +1459,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -1372,6 +1469,9 @@
       </c>
       <c r="H4" t="s">
         <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -1399,6 +1499,9 @@
       <c r="H5" t="s">
         <v>56</v>
       </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
@@ -1414,7 +1517,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -1424,6 +1527,9 @@
       </c>
       <c r="H6" t="s">
         <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7">
@@ -1440,7 +1546,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1450,6 +1556,9 @@
       </c>
       <c r="H7" t="s">
         <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -1466,7 +1575,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -1476,6 +1585,9 @@
       </c>
       <c r="H8" t="s">
         <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="9">
@@ -1492,7 +1604,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -1502,6 +1614,9 @@
       </c>
       <c r="H9" t="s">
         <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10">
@@ -1518,7 +1633,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -1528,6 +1643,9 @@
       </c>
       <c r="H10" t="s">
         <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -1555,6 +1673,9 @@
       <c r="H11" t="s">
         <v>56</v>
       </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
@@ -1570,7 +1691,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -1580,6 +1701,9 @@
       </c>
       <c r="H12" t="s">
         <v>91</v>
+      </c>
+      <c r="I12" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="13">
@@ -1607,6 +1731,9 @@
       <c r="H13" t="s">
         <v>56</v>
       </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
@@ -1633,6 +1760,9 @@
       <c r="H14" t="s">
         <v>56</v>
       </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
@@ -1648,7 +1778,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1658,6 +1788,9 @@
       </c>
       <c r="H15" t="s">
         <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16">
@@ -1674,7 +1807,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -1684,6 +1817,9 @@
       </c>
       <c r="H16" t="s">
         <v>101</v>
+      </c>
+      <c r="I16" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="17">
@@ -1711,6 +1847,9 @@
       <c r="H17" t="s">
         <v>56</v>
       </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
@@ -1726,7 +1865,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -1736,6 +1875,9 @@
       </c>
       <c r="H18" t="s">
         <v>106</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -1752,7 +1894,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -1762,6 +1904,9 @@
       </c>
       <c r="H19" t="s">
         <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -1778,7 +1923,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -1788,6 +1933,9 @@
       </c>
       <c r="H20" t="s">
         <v>115</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21">
@@ -1804,7 +1952,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -1814,6 +1962,9 @@
       </c>
       <c r="H21" t="s">
         <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +1981,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -1840,6 +1991,9 @@
       </c>
       <c r="H22" t="s">
         <v>124</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23">
@@ -1856,7 +2010,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -1866,6 +2020,9 @@
       </c>
       <c r="H23" t="s">
         <v>129</v>
+      </c>
+      <c r="I23" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="24">
@@ -1882,7 +2039,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -1892,6 +2049,9 @@
       </c>
       <c r="H24" t="s">
         <v>134</v>
+      </c>
+      <c r="I24" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="25">
@@ -1908,7 +2068,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -1918,6 +2078,9 @@
       </c>
       <c r="H25" t="s">
         <v>139</v>
+      </c>
+      <c r="I25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="26">
@@ -1934,7 +2097,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -1944,6 +2107,9 @@
       </c>
       <c r="H26" t="s">
         <v>144</v>
+      </c>
+      <c r="I26" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="27">
@@ -1971,6 +2137,9 @@
       <c r="H27" t="s">
         <v>56</v>
       </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
@@ -1986,7 +2155,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -1996,6 +2165,9 @@
       </c>
       <c r="H28" t="s">
         <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="29">
@@ -2023,6 +2195,9 @@
       <c r="H29" t="s">
         <v>56</v>
       </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
@@ -2049,6 +2224,9 @@
       <c r="H30" t="s">
         <v>56</v>
       </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
@@ -2075,6 +2253,9 @@
       <c r="H31" t="s">
         <v>56</v>
       </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
@@ -2101,6 +2282,9 @@
       <c r="H32" t="s">
         <v>56</v>
       </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
@@ -2116,7 +2300,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -2126,6 +2310,9 @@
       </c>
       <c r="H33" t="s">
         <v>153</v>
+      </c>
+      <c r="I33" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="34">
@@ -2142,7 +2329,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -2152,6 +2339,9 @@
       </c>
       <c r="H34" t="s">
         <v>158</v>
+      </c>
+      <c r="I34" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="35">
@@ -2168,7 +2358,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -2178,6 +2368,9 @@
       </c>
       <c r="H35" t="s">
         <v>163</v>
+      </c>
+      <c r="I35" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -2194,7 +2387,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>
@@ -2204,6 +2397,9 @@
       </c>
       <c r="H36" t="s">
         <v>168</v>
+      </c>
+      <c r="I36" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="319">
   <si>
     <t>Doi</t>
   </si>
@@ -989,6 +989,427 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,  Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,  Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,  Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,  Fatmah%Salah%Fs4l_med2011@yahoo.com%1,  Abdulmoatani%Alsulami%moatani@hotmail.com%1,  Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,  Dhananjay%Vaidya%dvaidya@jhmi.edu%1,  Trish M.%Perl%tperl@jhmi.edu%1,  Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,   Jing-Jin%Liang%NULL%1,   Qing-Tao%Zhou%NULL%1,   Xiao-Guang%Li%NULL%1,   Fei%Lin%NULL%1,   Zhong-Hua%Deng%NULL%1,   Bi-Ying%Zhang%NULL%1,   Lu%Li%NULL%1,   Xiao-Hua%Wang%NULL%1,   Hong%Zhu%NULL%1,   Qing-Bian%Ma%NULL%1,   Xiao-Mei%Tong%NULL%1,   Jie%Xu%NULL%1,   Yong-Chang%Sun%NULL%1,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,   Xiao-Xin%Wu%NULL%0,   Xian-Gao%Jiang%NULL%0,   Kai-Jin%Xu%NULL%0,   Ling-Jun%Ying%NULL%0,   Chun-Lian%Ma%NULL%0,   Shi-Bo%Li%NULL%0,   Hua-Ying%Wang%NULL%0,   Sheng%Zhang%NULL%0,   Hai-Nv%Gao%NULL%0,   Ji-Fang%Sheng%NULL%0,   Hong-Liu%Cai%NULL%0,   Yun-Qing%Qiu%NULL%0,   Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,   Bijan J.%Ghassemieh%NULL%0,   Michelle%Nichols%NULL%0,   Richard%Kim%NULL%0,   Keith R.%Jerome%NULL%0,   Arun K.%Nalla%NULL%0,   Alexander L.%Greninger%NULL%0,   Sudhakar%Pipavath%NULL%0,   Mark M.%Wurfel%NULL%0,   Laura%Evans%NULL%0,   Patricia A.%Kritek%NULL%0,   T. Eoin%West%NULL%0,   Andrew%Luks%NULL%0,   Anthony%Gerbino%NULL%0,   Chris R.%Dale%NULL%0,   Jason D.%Goldman%NULL%0,   Shane%O’Mahony%NULL%0,   Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   Stephanie%Bialek%NULL%1,   Ellen%Boundy%NULL%1,   Virginia%Bowen%NULL%1,   Nancy%Chow%NULL%1,   Amanda%Cohn%NULL%0,   Nicole%Dowling%NULL%1,   Sascha%Ellington%NULL%1,   Ryan%Gierke%NULL%1,   Aron%Hall%NULL%1,   Jessica%MacNeil%NULL%1,   Priti%Patel%NULL%1,   Georgina%Peacock%NULL%3,   Tamara%Pilishvili%NULL%1,   Hilda%Razzaghi%NULL%2,   Nia%Reed%NULL%1,   Matthew%Ritchey%NULL%1,   Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,   Wenlin%Cheng%NULL%0,   Lei%Yu%NULL%0,   Ya-Kun%Liu%NULL%0,   Xiaoyong%Hu%NULL%0,   Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,   Tangkai%Qi%NULL%0,   Li%Liu%NULL%0,   Yun%Ling%NULL%0,   Zhiping%Qian%NULL%0,   Tao%Li%NULL%0,   Feng%Li%NULL%0,   Qingnian%Xu%NULL%0,   Yuyi%Zhang%NULL%0,   Shuibao%Xu%NULL%0,   Zhigang%Song%NULL%0,   Yigang%Zeng%NULL%0,   Yinzhong%Shen%NULL%0,   Yuxin%Shi%NULL%0,   Tongyu%Zhu%NULL%0,   Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,   Dingyu%Zhang%NULL%0,   Wenling%Wang%NULL%0,   Xingwang%Li%NULL%0,   Bo%Yang%NULL%0,   Jingdong%Song%NULL%0,   Xiang%Zhao%NULL%0,   Baoying%Huang%NULL%0,   Weifeng%Shi%NULL%0,   Roujian%Lu%NULL%0,   Peihua%Niu%NULL%0,   Faxian%Zhan%NULL%0,   Xuejun%Ma%NULL%0,   Dayan%Wang%NULL%0,   Wenbo%Xu%NULL%0,   Guizhen%Wu%NULL%0,   George F.%Gao%NULL%0,   Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,   Simon A%Jones%NULL%1,   Jie%Yang%NULL%1,   Harish%Rajagopalan%NULL%1,   Luke%O’Donnell%NULL%1,   Yelena%Chernyak%NULL%1,   Katie A%Tobin%NULL%1,   Robert J%Cerfolio%NULL%1,   Fritz%Francois%NULL%2,   Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>Presenting characteristics, comorbidities, and outcomes among 5700 patients hospitalized with COVID-19 in the New York City area</t>
+  </si>
+  <si>
+    <t>Importance:  There is limited information describing the presenting characteristics and outcomes of US patients requiring hospitalization for coronavirus disease 2019 (COVID-19).
+\n\n\n\n\n\n\n\nObjective:  To describe the clinical characteristics and outcomes of patients with COVID-19 hospitalized in a US health care system.
+\n\n\n\n\n\n\n\nDesign, Setting, and Participants:  Case series of patients with COVID-19 admitted to 12 hospitals in New York City, Long Island, and Westchester County, New York, within the Northwell Health system.
+ The study included all sequentially hospitalized patients between March 1, 2020, and April 4, 2020, inclusive of these dates.
+\n\n\n\n\n\n\n\nExposures:  Confirmed severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection by positive result on polymerase chain reaction testing of a nasopharyngeal sample among patients requiring admission.
+\n\n\n\n\n\n\n\nMain Outcomes and Measures:  Clinical outcomes during hospitalization, such as invasive mechanical ventilation, kidney replacement therapy, and death.
+ Demographics, baseline comorbidities, presenting vital signs, and test results were also collected.
+\n\n\n\n\n\n\n\nResults:  A total of 5700 patients were included (median age, 63 years [interquartile range {IQR}, 52-75; range, 0-107 years]; 39.7% female).
+ The most common comorbidities were hypertension (3026; 56.6%), obesity (1737; 41.7%), and diabetes (1808; 33.8%).
+ At triage, 30.7% of patients were febrile, 17.3% had a respiratory rate greater than 24 breaths\/min, and 27.8% received supplemental oxygen.
+ The rate of respiratory virus co-infection was 2.1%.
+ Outcomes were assessed for 2634 patients who were discharged or had died at the study end point.
+ During hospitalization, 373 patients (14.2%) (median age, 68 years [IQR, 56-78]; 33.5% female) were treated in the intensive care unit care, 320 (12.2%) received invasive mechanical ventilation, 81 (3.2%) were treated with kidney replacement therapy, and 553 (21%) died.
+ As of April 4, 2020, for patients requiring mechanical ventilation (n\u2009=\u20091151, 20.2%), 38 (3.3%) were discharged alive, 282 (24.5%) died, and 831 (72.2%) remained in hospital.
+ The median postdischarge follow-up time was 4.4 days (IQR, 2.2-9.3).
+ A total of 45 patients (2.2%) were readmitted during the study period.
+ The median time to readmission was 3 days (IQR, 1.0-4.5) for readmitted patients.
+ Among the 3066 patients who remained hospitalized at the final study follow-up date (median age, 65 years [IQR, 54-75]), the median follow-up at time of censoring was 4.5 days (IQR, 2.4-8.1).
+\n\n\n\n\n\n\n\nConclusions and Relevance:  This case series provides characteristics and early outcomes of sequentially hospitalized patients with confirmed COVID-19 in the New York City area</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0, Becker%L.B.%coreGivesNoEmail%0, Chelico%J.D.%coreGivesNoEmail%0, Cohen%S.L.%coreGivesNoEmail%0, Cookingham%J.%coreGivesNoEmail%0, Coppa%K.%coreGivesNoEmail%0, Crawford%J.M.%coreGivesNoEmail%0, Davidson%K.W.%coreGivesNoEmail%0, Diefenbach%M.A.%coreGivesNoEmail%0, Dominello%A.J.%coreGivesNoEmail%0, Duer-Hefele%J.%coreGivesNoEmail%0, Falzon%L.%coreGivesNoEmail%0, Gitlin%J.%coreGivesNoEmail%0, Hajizadeh%N.%coreGivesNoEmail%0, Harvin%T.G.%coreGivesNoEmail%0, Hirsch%J.S.%coreGivesNoEmail%0, Hirschwerk%D.A.%coreGivesNoEmail%0, Kim%E.J.%coreGivesNoEmail%0, Kozel%Z.M.%coreGivesNoEmail%0, Marrast%L.M.%coreGivesNoEmail%0, McGinn%T.%coreGivesNoEmail%0, Mogavero%J.N.%coreGivesNoEmail%0, Narasimhan%M.%coreGivesNoEmail%0, Osorio%G.A.%coreGivesNoEmail%0, Qiu%M.%coreGivesNoEmail%0, Richardson%S.%coreGivesNoEmail%0, Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,   Mikael%Chetboun%NULL%0,   Julien%Poissy%NULL%0,   Violeta%Raverdy%NULL%0,   Jerome%Noulette%NULL%0,   Jerome%Noulette%NULL%0,   Alain%Duhamel%NULL%0,   Julien%Labreuche%NULL%0,   Daniel%Mathieu%NULL%0,   Francois%Pattou%francois.pattou@univ-lille.fr%0,   Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,   Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,   Robert%Caizzo%NULL%0,   Robert%Caizzo%NULL%0,   Morgan%Caplan%NULL%0,   Nicolas%Cousin%NULL%0,   Thibault%Duburcq%NULL%0,   Arthur%Durand%NULL%0,   Ahmed%El kalioubie%NULL%0,   Raphael%Favory%NULL%0,   Bruno%Garcia%NULL%0,   Patrick%Girardie%NULL%0,   Julien%Goutay%NULL%0,   Marion%Houard%NULL%0,   Emmanuelle%Jaillette%NULL%0,   Nicolas%Kostuj%NULL%0,   Geoffrey%Ledoux%NULL%0,   Daniel%Mathieu%NULL%0,   Anne Sophie%Moreau%NULL%0,   Christopher%Niles%NULL%0,   Saad%Nseir%NULL%0,   Thierry%Onimus%NULL%0,   Erika%Parmentier%NULL%0,   Sebastien%Préau%NULL%0,   Laurent%Robriquet%NULL%0,   Anahita%Rouze%NULL%0,   Sophie%Six%NULL%0,   Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>Fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com COVID-19</t>
+  </si>
+  <si>
+    <t>Introduction: the mechanisms that are suggested as determinant in the vulnerability of patients with heart failure to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) and which cause the respiratory syndrome labeled COVID-19 (Coronavirus Infectious Disease-19), has revealed controversial.
+ Objective: to gather information on the pathophysiological features of acute heart failure in the context of COVID-19. Method: concerning this topic, from September to November 2020 at the Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d in Santiago de Cuba, a narrative review was carried out.
+ The search was conducted checking the databases Pubmed, Infomed and SciELO, without date restriction, and in Spanish and English language.
+ Development: the mechanisms involved on the pathophysiological features of heart failure in patients with this infectious disease revealed uncertainty.
+ Myocardial damage is achievement of two aspects, the direct effect of viral respiratory infection on the myocyte, which is expressed as a local inflammatory response, and the heart participation as a target organ to the systemic and inappropriate inflammatory response, generated by a marked cytokines release.
+ The last aspect referred also causes endothelial damage that triggers thromboembolic and ischemic complications, systolic and diastolic dysfunction of the heart, and ultimately leads to multiorgan system failure.
+Conclusions: despite the advances in understanding the etiopathogenesis of this disease, the pathophysiological mechanisms that determine on the heart failure still require to be precisely clarified, although the influence of the inappropriate inflammatory response, induced by cytokines, it is recognized in the onset myocardial damage.
+Introducci\u00f3n: se revelan controversias respecto a los mecanismos que determinan la vulnerabilidad de los pacientes con insuficiencia cardiaca a la infecci\u00f3n por el virus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), que produce el s\u00edndrome respiratorio llamado Coronavirus Infectious Disease-19 (COVID-19).
+ Objetivo: recopilar informaci\u00f3n sobre la fisiopatolog\u00eda de la insuficiencia cardiaca aguda en el contexto de la COVID-19.M\u00e9todo: en el Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d de Santiago de Cuba, entre septiembre y noviembre del 2020, se realiz\u00f3 una revisi\u00f3n narrativa sobre este tema.
+ La b\u00fasqueda se efectu\u00f3 consultando las bases de datos Pubmed, Infomed y SciELO, sin restricci\u00f3n de fecha, en los idiomas espa\u00f1ol e ingl\u00e9s.
+ Desarrollo: se manifiestan incertidumbre en los mecanismos implicados en la fisiopatolog\u00eda de la insuficiencia cardiaca de los pacientes con esta enfermedad infecciosa.
+ El da\u00f1o mioc\u00e1rdico se debe a los efectos directos de la infecci\u00f3n viral sobre el miocito, que se expresa como una respuesta inflamatoria local y a la participaci\u00f3n del coraz\u00f3n como \u00f3rgano diana de respuesta inflamatoria sist\u00e9mica e inapropiada generada por la marcada liberaci\u00f3n de citocinas.
+ Esta \u00faltima, adem\u00e1s, genera un da\u00f1o endotelial que desencadena complicaciones tromboemb\u00f3licas e isqu\u00e9micas, disfunci\u00f3n sistodiast\u00f3lica del coraz\u00f3n, y finalmente la falla multiorg\u00e1nica.
+ Conclusiones: a pesar de los avances en el conocimiento de la etiopatogenia de esta enfermedad, a\u00fan se requiere que se esclarezcan con precisi\u00f3n los mecanismos fisiopatol\u00f3gicos que determinan la presentaci\u00f3n de la insuficiencia cardiaca, si bien se reconoce la influencia de la respuesta inflamatoria inapropiada, inducida por citoquinas, en la presentaci\u00f3n del da\u00f1o mioc\u00e1rdico.
+Introdu\u00e7\u00e3o: revelam-se controv\u00e9rsias a respeito dos mecanismos que determinam a vulnerabilidade dos pacientes com insufici\u00eancia card\u00edaca \u00e0 infec\u00e7\u00e3o pelo v\u00edrus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), gerador da s\u00edndrome respirat\u00f3ria denominada Coronavirus Infectious Disease-19 (COVID-19).
+ Objetivo: coletar informa\u00e7\u00f5es sobre a fisiopatologia da insufici\u00eancia card\u00edaca aguda no contexto da COVID-19.M\u00e9todo: na Policl\u00ednica Comunit\u00e1ria \u0022Ram\u00f3n L\u00f3pez Pe\u00f1a\u0022 de Santiago de Cuba, entre setembro e novembro de 2020, foi realizada uma revis\u00e3o narrativa sobre o tema.
+ A busca foi realizada por meio de consulta \u00e0s bases de dados Pubmed, Infomed e SciELO, sem restri\u00e7\u00e3o de datas, nos idiomas espanhol e ingl\u00eas.
+ Desenvolvimento: a incerteza se manifesta nos mecanismos envolvidos na fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com essa doen\u00e7a infecciosa.
+ O dano mioc\u00e1rdico se deve aos efeitos diretos da infec\u00e7\u00e3o viral no mi\u00f3cito, que se expressa como resposta inflamat\u00f3ria local, e ao envolvimento do cora\u00e7\u00e3o como \u00f3rg\u00e3o alvo da resposta inflamat\u00f3ria sist\u00eamica e inadequada gerada pela libera\u00e7\u00e3o acentuada de citocinas.
+ Esta \u00faltima tamb\u00e9m gera dano endotelial que desencadeia complica\u00e7\u00f5es tromboemb\u00f3licas e isqu\u00eamicas, disfun\u00e7\u00e3o card\u00edaca sistodiast\u00f3lica e, finalmente, fal\u00eancia de m\u00faltiplos \u00f3rg\u00e3os.
+ Conclus\u00f5es: apesar dos avan\u00e7os no conhecimento da etiopatogenia desta doen\u00e7a, ainda \u00e9 necess\u00e1rio esclarecer com precis\u00e3o os mecanismos fisiopatol\u00f3gicos que determinam a apresenta\u00e7\u00e3o da insufici\u00eancia card\u00edaca, embora se reconhe\u00e7a a influ\u00eancia da resposta inflamat\u00f3ria inadequada, induzida por citocinas, na apresenta\u00e7\u00e3o de dano mioc\u00e1rdico</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0, Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0, Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0, Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,   Chen-Hsen%Lee%NULL%1,   Cheng-Yi%Liu%NULL%1,   Jia-Horng%Wang%NULL%1,   Lee-Min%Wang%NULL%1,   Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,   Xiaobo%Yang%NULL%1,   Luyu%Yang%NULL%1,   Xiaojing%Zou%NULL%0,   Yaxin%Wang%NULL%0,   Yongran%Wu%NULL%0,   Ting%Zhou%NULL%1,   Yin%Yuan%NULL%1,   Hong%Qi%NULL%1,   Shouzhi%Fu%NULL%0,   Hong%Liu%NULL%0,   Jia’an%Xia%NULL%1,   Zhengqin%Xu%NULL%1,   Yuan%Yu%NULL%0,   Ruiting%Li%NULL%0,   Yaqi%Ouyang%NULL%1,   Rui%Wang%NULL%0,   Lehao%Ren%NULL%1,   Yingying%Hu%NULL%1,   Dan%Xu%NULL%0,   Xin%Zhao%NULL%1,   Shiying%Yuan%shiying_yuan@163.com%0,   Dingyu%Zhang%1813886398@qq.com%0,   You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,   Wen-hua%Liang%NULL%0,   Yi%Zhao%NULL%1,   Heng-rui%Liang%NULL%1,   Zi-sheng%Chen%NULL%1,   Yi-min%Li%NULL%1,   Xiao-qing%Liu%NULL%1,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Chun-quan%Ou%NULL%0,   Li%Li%NULL%0,   Ping-yan%Chen%NULL%0,   Ling%Sang%NULL%1,   Wei%Wang%NULL%0,   Jian-fu%Li%NULL%1,   Cai-chen%Li%NULL%1,   Li-min%Ou%NULL%1,   Bo%Cheng%NULL%1,   Shan%Xiong%NULL%1,   Zheng-yi%Ni%NULL%0,   Jie%Xiang%NULL%0,   Yu%Hu%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Lin-ling%Cheng%NULL%1,   Feng%Ye%NULL%1,   Shi-yue%Li%NULL%0,   Jin-ping%Zheng%NULL%1,   Nuo-fu%Zhang%NULL%1,   Nan-shan%Zhong%NULL%0,   Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,   Giacomo%Iapichino%NULL%1,   Luca%Carenzo%NULL%1,   Maurizio%Cecconi%NULL%1,   Paola%Ferrazzi%NULL%1,   Tim%Sebastian%NULL%1,   Nils%Kucher%NULL%1,   Jan-Dirk%Studt%NULL%1,   Clara%Sacco%NULL%1,   Alexia%Bertuzzi%NULL%1,   Maria Teresa%Sandri%NULL%1,   Stefano%Barco%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,   M.J.H.A.%Kruip%NULL%1,   N.J.M.%van der Meer%NULL%1,   M.S.%Arbous%NULL%1,   D.A.M.P.J.%Gommers%NULL%1,   K.M.%Kant%NULL%1,   F.H.J.%Kaptein%NULL%1,   J.%van Paassen%NULL%1,   M.A.M.%Stals%NULL%1,   M.V.%Huisman%NULL%1,   H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,   Fang%Jiang%NULL%1,   Wating%Su%NULL%1,   Chang%Chen%NULL%1,   Jingli%Chen%NULL%1,   Wei%Mei%NULL%1,   Li-Ying%Zhan%NULL%1,   Yifan%Jia%NULL%1,   Liangqing%Zhang%NULL%1,   Danyong%Liu%NULL%1,   Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,   Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,   Ewen M%Harrison%NULL%1,   Christopher A%Green%NULL%1,   Hayley E%Hardwick%NULL%1,   Riinu%Pius%NULL%1,   Lisa%Norman%NULL%1,   Karl A%Holden%NULL%1,   Jonathan M%Read%NULL%1,   Frank%Dondelinger%NULL%1,   Gail%Carson%NULL%1,   Laura%Merson%NULL%1,   James%Lee%NULL%1,   Daniel%Plotkin%NULL%1,   Louise%Sigfrid%NULL%1,   Sophie%Halpin%NULL%1,   Clare%Jackson%NULL%1,   Carrol%Gamble%NULL%1,   Peter W%Horby%NULL%1,   Jonathan S%Nguyen-Van-Tam%NULL%1,   Antonia%Ho%NULL%1,   Clark D%Russell%NULL%1,   Jake%Dunning%NULL%1,   Peter JM%Openshaw%NULL%1,   J Kenneth%Baillie%NULL%1,   Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,   Li-Min%Liu%NULL%0,   Wen%Yin%NULL%0,   Wen%Wang%NULL%0,   Lu-Lu%Guan%NULL%0,   Ming-Li%Yuan%NULL%0,   Yu-Lei%Li%NULL%0,   Yi%Hu%NULL%0,   Xu-Yan%Li%NULL%0,   Bing%Sun%NULL%0,   Peng%Peng%NULL%0,   Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,   Qiang%Zhou%NULL%1,   Ruiqiang%Zheng%NULL%1,   Xuyan%Li%NULL%1,   Jianmin%Ling%NULL%1,   Yumei%Chen%NULL%1,   Jing%Jia%NULL%1,   Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,   Anna Mara%Scandroglio%NULL%1,   Giacomo%Monti%NULL%1,   Maria Grazia%Calabrò%NULL%1,   Giovanni%Landoni%NULL%1,   Antonio%Dell'Acqua%NULL%1,   Luigi%Beretta%NULL%1,   Elena%Moizo%NULL%1,   Alfredo%Ravizza%NULL%1,   Fabrizio%Monaco%NULL%1,   Corrado%Campochiaro%NULL%1,   Marina%Pieri%NULL%1,   Maria Luisa%Azzolini%NULL%1,   Giovanni%Borghi%NULL%1,   Martina%Crivellari%NULL%1,   Caterina%Conte%NULL%1,   Cristina%Mattioli%NULL%1,   Paolo%Silvani%NULL%1,   Milena%Mucci%NULL%1,   Stefano%Turi%NULL%1,   Stefano%Tentori%NULL%1,   Martina%Baiardo Redaelli%NULL%1,   Marianna%Sartorelli%NULL%1,   Piera%Angelillo%NULL%1,   Alessandro%Belletti%NULL%1,   Pasquale%Nardelli%NULL%1,   Francesco Giuseppe%Nisi%NULL%1,   Gabriele%Valsecchi%NULL%1,   Cristina%Barberio%NULL%1,   Fabio%Ciceri%NULL%1,   Ary%Serpa Neto%NULL%1,   Lorenzo%Dagna%NULL%1,   Rinaldo%Bellomo%NULL%1,   Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>Baseline Characteristics and Outcomes of 1591 Patients Infected With SARS-CoV-2 Admitted to ICUs of the Lombardy Region, Italy</t>
+  </si>
+  <si>
+    <t>Importance  In December 2019, a novel coronavirus (severe acute respiratory syndrome coronavirus 2 [SARS-CoV-2]) emerged in China and has spread globally, creating a pandemic.
+ Information about the clinical characteristics of infected patients who require intensive care is limited.
+\r\n\r\nObjective  To characterize patients with coronavirus disease 2019 (COVID-19) requiring treatment in an intensive care unit (ICU) in the Lombardy region of Italy.
+\r\n\r\nDesign, Setting, and Participants  Retrospective case series of 1591 consecutive patients with laboratory-confirmed COVID-19 referred for ICU admission to the coordinator center (Fondazione IRCCS Ca\u2019 Granda Ospedale Maggiore Policlinico, Milan, Italy) of the COVID-19 Lombardy ICU Network and treated at one of the ICUs of the 72 hospitals in this network between February 20 and March 18, 2020. Date of final follow-up was March 25, 2020.\r\n\r\nExposures  SARS-CoV-2 infection confirmed by real-time reverse transcriptase\u2013polymerase chain reaction (RT-PCR) assay of nasal and pharyngeal swabs.
+\r\n\r\nMain Outcomes and Measures  Demographic and clinical data were collected, including data on clinical management, respiratory failure, and patient mortality.
+ Data were recorded by the coordinator center on an electronic worksheet during telephone calls by the staff of the COVID-19 Lombardy ICU Network.
+\r\n\r\nResults  Of the 1591 patients included in the study, the median (IQR) age was 63 (56-70) years and 1304 (82%) were male.
+ Of the 1043 patients with available data, 709 (68%) had at least 1 comorbidity and 509 (49%) had hypertension.
+ Among 1300 patients with available respiratory support data, 1287 (99% [95% CI, 98%-99%]) needed respiratory support, including 1150 (88% [95% CI, 87%-90%]) who received mechanical ventilation and 137 (11% [95% CI, 9%-12%]) who received noninvasive ventilation.
+ The median positive end-expiratory pressure (PEEP) was 14 (IQR, 12-16) cm H2O, and Fio2 was greater than 50% in 89% of patients.
+ The median Pao2\/Fio2 was 160 (IQR, 114-220).
+ The median PEEP level was not different between younger patients (n\u2009=\u2009503 aged \u226463 years) and older patients (n\u2009=\u2009514 aged \u226564 years) (14 [IQR, 12-15] vs 14 [IQR, 12-16] cm H2O, respectively; median difference, 0 [95% CI, 0-0]; P\u2009=\u2009.94).
+ Median Fio2 was lower in younger patients: 60% (IQR, 50%-80%) vs 70% (IQR, 50%-80%) (median difference, \u221210% [95% CI, \u221214% to 6%]; P\u2009=\u2009.006), and median Pao2\/Fio2 was higher in younger patients: 163.5 (IQR, 120-230) vs 156 (IQR, 110-205) (median difference, 7 [95% CI, \u22128 to 22]; P\u2009=\u2009.02).
+ Patients with hypertension (n\u2009=\u2009509) were older than those without hypertension (n\u2009=\u2009526) (median [IQR] age, 66 years [60-72] vs 62 years [54-68]; P\u2009\u0026lt;\u2009.001) and had lower Pao2\/Fio2 (median [IQR], 146 [105-214] vs 173 [120-222]; median difference, \u221227 [95% CI, \u221242 to \u221212]; P\u2009=\u2009.005).
+ Among the 1581 patients with ICU disposition data available as of March 25, 2020, 920 patients (58% [95% CI, 56%-61%]) were still in the ICU, 256 (16% [95% CI, 14%-18%]) were discharged from the ICU, and 405 (26% [95% CI, 23%-28%]) had died in the ICU.
+ Older patients (n\u2009=\u2009786; age \u226564 years) had higher mortality than younger patients (n\u2009=\u2009795; age \u226463 years) (36% vs 15%; difference, 21% [95% CI, 17%-26%]; P\u2009\u0026lt;\u2009.001).
+\r\n\r\nConclusions and Relevance  In this case series of critically ill patients with laboratory-confirmed COVID-19 admitted to ICUs in Lombardy, Italy, the majority were older men, a large proportion required mechanical ventilation and high levels of PEEP, and ICU mortality was 26%</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0, Cabrini%Luca%coreGivesNoEmail%0, Castelli%Antonio%coreGivesNoEmail%0, Cecconi%Maurizio%coreGivesNoEmail%0, Cereda%Danilo%coreGivesNoEmail%0, Coluccello%Antonio%coreGivesNoEmail%0, Foti%Giuseppe%coreGivesNoEmail%0, Fumagalli%Roberto%coreGivesNoEmail%0, Grasselli%Giacomo%coreGivesNoEmail%0, Iotti%Giorgio%coreGivesNoEmail%0, Latronico%Nicola%coreGivesNoEmail%0, Lorini%Luca%coreGivesNoEmail%0, Merler%Stefano%coreGivesNoEmail%0, Natalini%Giuseppe%coreGivesNoEmail%0, Pesenti%Antonio%coreGivesNoEmail%0, Piatti%Alessandra%coreGivesNoEmail%0, Ranieri%Marco Vito%coreGivesNoEmail%0, Scandroglio%Anna Mara%coreGivesNoEmail%0, Storti%Enrico%coreGivesNoEmail%0, Zanella%Alberto%coreGivesNoEmail%0, Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,   Min%Zhou%NULL%0,   Xuan%Dong%NULL%0,   Jieming%Qu%NULL%0,   Fengyun%Gong%NULL%0,   Yang%Han%NULL%0,   Yang%Qiu%NULL%0,   Jingli%Wang%NULL%0,   Ying%Liu%NULL%0,   Yuan%Wei%NULL%0,   Jia'an%Xia%NULL%0,   Ting%Yu%NULL%0,   Xinxin%Zhang%NULL%0,   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Short term outcome and risk factors for adverse clinical outcomes in adults with severe acute respiratory syndrome (SARS)</t>
+  </si>
+  <si>
+    <t>[J%W M Chan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,   Ali S.%Omrani%NULL%1,   Kamran%Baig%NULL%1,   Abdelkarim%Bahloul%NULL%1,   Fatehi%Elzein%NULL%1,   Mohammad Abdul%Matin%NULL%1,   Mohei A.A.%Selim%NULL%1,   Mohammed Al%Mutairi%NULL%1,   Daifullah Al%Nakhli%NULL%1,   Amal Y. Al%Aidaroos%NULL%1,   Nisreen Al%Sherbeeni%NULL%1,   Hesham I.%Al-Khashan%NULL%1,   Ziad A.%Memish%zmemish@yahoo.com%1,   Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,   Badr%Alsayed%NULL%1,   Sameh%Embarak%NULL%1,   Taha%Yaseen%NULL%1,   Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,   Shamsudeen F.%Fagbo%NULL%1,   Vicky J.%Fang%NULL%1,   Leila%Skakni%NULL%1,   Mercy%Joseph%NULL%1,   Tariq A.%Wani%NULL%1,   Benjamin J.%Cowling%NULL%0,   Malik%Peiris%NULL%1,   Ahmed%Hakawi%NULL%1,   Renee W.Y.%Chan%NULL%2,   Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,   Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,   Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,   Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,   Fatmah%Salah%Fs4l_med2011@yahoo.com%1,   Abdulmoatani%Alsulami%moatani@hotmail.com%1,   Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,   Dhananjay%Vaidya%dvaidya@jhmi.edu%1,   Trish M.%Perl%tperl@jhmi.edu%1,   Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,    Jing-Jin%Liang%NULL%1,    Qing-Tao%Zhou%NULL%1,    Xiao-Guang%Li%NULL%1,    Fei%Lin%NULL%1,    Zhong-Hua%Deng%NULL%1,    Bi-Ying%Zhang%NULL%1,    Lu%Li%NULL%1,    Xiao-Hua%Wang%NULL%1,    Hong%Zhu%NULL%1,    Qing-Bian%Ma%NULL%1,    Xiao-Mei%Tong%NULL%1,    Jie%Xu%NULL%1,    Yong-Chang%Sun%NULL%1,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,    Xiao-Xin%Wu%NULL%0,    Xian-Gao%Jiang%NULL%0,    Kai-Jin%Xu%NULL%0,    Ling-Jun%Ying%NULL%0,    Chun-Lian%Ma%NULL%0,    Shi-Bo%Li%NULL%0,    Hua-Ying%Wang%NULL%0,    Sheng%Zhang%NULL%0,    Hai-Nv%Gao%NULL%0,    Ji-Fang%Sheng%NULL%0,    Hong-Liu%Cai%NULL%0,    Yun-Qing%Qiu%NULL%0,    Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,    Bijan J.%Ghassemieh%NULL%0,    Michelle%Nichols%NULL%0,    Richard%Kim%NULL%0,    Keith R.%Jerome%NULL%0,    Arun K.%Nalla%NULL%0,    Alexander L.%Greninger%NULL%0,    Sudhakar%Pipavath%NULL%0,    Mark M.%Wurfel%NULL%0,    Laura%Evans%NULL%0,    Patricia A.%Kritek%NULL%0,    T. Eoin%West%NULL%0,    Andrew%Luks%NULL%0,    Anthony%Gerbino%NULL%0,    Chris R.%Dale%NULL%0,    Jason D.%Goldman%NULL%0,    Shane%O’Mahony%NULL%0,    Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    Stephanie%Bialek%NULL%1,    Ellen%Boundy%NULL%1,    Virginia%Bowen%NULL%1,    Nancy%Chow%NULL%2,    Amanda%Cohn%NULL%0,    Nicole%Dowling%NULL%1,    Sascha%Ellington%NULL%1,    Ryan%Gierke%NULL%2,    Aron%Hall%NULL%2,    Jessica%MacNeil%NULL%1,    Priti%Patel%NULL%1,    Georgina%Peacock%NULL%1,    Tamara%Pilishvili%NULL%2,    Hilda%Razzaghi%NULL%1,    Nia%Reed%NULL%1,    Matthew%Ritchey%NULL%2,    Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,    Wenlin%Cheng%NULL%0,    Lei%Yu%NULL%0,    Ya-Kun%Liu%NULL%0,    Xiaoyong%Hu%NULL%0,    Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,    Tangkai%Qi%NULL%0,    Li%Liu%NULL%0,    Yun%Ling%NULL%0,    Zhiping%Qian%NULL%0,    Tao%Li%NULL%0,    Feng%Li%NULL%0,    Qingnian%Xu%NULL%0,    Yuyi%Zhang%NULL%0,    Shuibao%Xu%NULL%0,    Zhigang%Song%NULL%0,    Yigang%Zeng%NULL%0,    Yinzhong%Shen%NULL%0,    Yuxin%Shi%NULL%0,    Tongyu%Zhu%NULL%0,    Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,    Dingyu%Zhang%NULL%0,    Wenling%Wang%NULL%0,    Xingwang%Li%NULL%0,    Bo%Yang%NULL%0,    Jingdong%Song%NULL%0,    Xiang%Zhao%NULL%0,    Baoying%Huang%NULL%0,    Weifeng%Shi%NULL%0,    Roujian%Lu%NULL%0,    Peihua%Niu%NULL%0,    Faxian%Zhan%NULL%0,    Xuejun%Ma%NULL%0,    Dayan%Wang%NULL%0,    Wenbo%Xu%NULL%0,    Guizhen%Wu%NULL%0,    George F.%Gao%NULL%0,    Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,    Simon A%Jones%NULL%1,    Jie%Yang%NULL%1,    Harish%Rajagopalan%NULL%1,    Luke%O’Donnell%NULL%1,    Yelena%Chernyak%NULL%1,    Katie A%Tobin%NULL%1,    Robert J%Cerfolio%NULL%1,    Fritz%Francois%NULL%1,    Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,  Becker%L.B.%coreGivesNoEmail%0,  Chelico%J.D.%coreGivesNoEmail%0,  Cohen%S.L.%coreGivesNoEmail%0,  Cookingham%J.%coreGivesNoEmail%0,  Coppa%K.%coreGivesNoEmail%0,  Crawford%J.M.%coreGivesNoEmail%0,  Davidson%K.W.%coreGivesNoEmail%0,  Diefenbach%M.A.%coreGivesNoEmail%0,  Dominello%A.J.%coreGivesNoEmail%0,  Duer-Hefele%J.%coreGivesNoEmail%0,  Falzon%L.%coreGivesNoEmail%0,  Gitlin%J.%coreGivesNoEmail%0,  Hajizadeh%N.%coreGivesNoEmail%0,  Harvin%T.G.%coreGivesNoEmail%0,  Hirsch%J.S.%coreGivesNoEmail%0,  Hirschwerk%D.A.%coreGivesNoEmail%0,  Kim%E.J.%coreGivesNoEmail%0,  Kozel%Z.M.%coreGivesNoEmail%0,  Marrast%L.M.%coreGivesNoEmail%0,  McGinn%T.%coreGivesNoEmail%0,  Mogavero%J.N.%coreGivesNoEmail%0,  Narasimhan%M.%coreGivesNoEmail%0,  Osorio%G.A.%coreGivesNoEmail%0,  Qiu%M.%coreGivesNoEmail%0,  Richardson%S.%coreGivesNoEmail%0,  Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,    Mikael%Chetboun%NULL%0,    Julien%Poissy%NULL%0,    Violeta%Raverdy%NULL%0,    Jerome%Noulette%NULL%0,    Jerome%Noulette%NULL%0,    Alain%Duhamel%NULL%0,    Julien%Labreuche%NULL%0,    Daniel%Mathieu%NULL%0,    Francois%Pattou%francois.pattou@univ-lille.fr%0,    Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,    Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,    Robert%Caizzo%NULL%0,    Robert%Caizzo%NULL%0,    Morgan%Caplan%NULL%0,    Nicolas%Cousin%NULL%0,    Thibault%Duburcq%NULL%0,    Arthur%Durand%NULL%0,    Ahmed%El kalioubie%NULL%0,    Raphael%Favory%NULL%0,    Bruno%Garcia%NULL%0,    Patrick%Girardie%NULL%0,    Julien%Goutay%NULL%0,    Marion%Houard%NULL%0,    Emmanuelle%Jaillette%NULL%0,    Nicolas%Kostuj%NULL%0,    Geoffrey%Ledoux%NULL%0,    Daniel%Mathieu%NULL%0,    Anne Sophie%Moreau%NULL%0,    Christopher%Niles%NULL%0,    Saad%Nseir%NULL%0,    Thierry%Onimus%NULL%0,    Erika%Parmentier%NULL%0,    Sebastien%Préau%NULL%0,    Laurent%Robriquet%NULL%0,    Anahita%Rouze%NULL%0,    Sophie%Six%NULL%0,    Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,  Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,    Chen-Hsen%Lee%NULL%1,    Cheng-Yi%Liu%NULL%1,    Jia-Horng%Wang%NULL%1,    Lee-Min%Wang%NULL%1,    Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,    Xiaobo%Yang%NULL%1,    Luyu%Yang%NULL%1,    Xiaojing%Zou%NULL%0,    Yaxin%Wang%NULL%0,    Yongran%Wu%NULL%0,    Ting%Zhou%NULL%1,    Yin%Yuan%NULL%1,    Hong%Qi%NULL%1,    Shouzhi%Fu%NULL%0,    Hong%Liu%NULL%0,    Jia’an%Xia%NULL%1,    Zhengqin%Xu%NULL%1,    Yuan%Yu%NULL%0,    Ruiting%Li%NULL%0,    Yaqi%Ouyang%NULL%1,    Rui%Wang%NULL%0,    Lehao%Ren%NULL%1,    Yingying%Hu%NULL%3,    Dan%Xu%NULL%0,    Xin%Zhao%NULL%1,    Shiying%Yuan%shiying_yuan@163.com%0,    Dingyu%Zhang%1813886398@qq.com%0,    You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,    Wen-hua%Liang%NULL%0,    Yi%Zhao%NULL%1,    Heng-rui%Liang%NULL%1,    Zi-sheng%Chen%NULL%1,    Yi-min%Li%NULL%1,    Xiao-qing%Liu%NULL%1,    Ru-chong%Chen%NULL%0,    Chun-li%Tang%NULL%0,    Tao%Wang%NULL%0,    Chun-quan%Ou%NULL%0,    Li%Li%NULL%0,    Ping-yan%Chen%NULL%0,    Ling%Sang%NULL%1,    Wei%Wang%NULL%0,    Jian-fu%Li%NULL%1,    Cai-chen%Li%NULL%1,    Li-min%Ou%NULL%1,    Bo%Cheng%NULL%1,    Shan%Xiong%NULL%1,    Zheng-yi%Ni%NULL%0,    Jie%Xiang%NULL%0,    Yu%Hu%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%0,    Yi-xiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%0,    Ji-yang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%0,    Shao-qin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%0,    Shao-yong%Zhu%NULL%0,    Lin-ling%Cheng%NULL%1,    Feng%Ye%NULL%1,    Shi-yue%Li%NULL%0,    Jin-ping%Zheng%NULL%1,    Nuo-fu%Zhang%NULL%1,    Nan-shan%Zhong%NULL%0,    Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,    Giacomo%Iapichino%NULL%1,    Luca%Carenzo%NULL%1,    Maurizio%Cecconi%NULL%1,    Paola%Ferrazzi%NULL%1,    Tim%Sebastian%NULL%1,    Nils%Kucher%NULL%1,    Jan-Dirk%Studt%NULL%1,    Clara%Sacco%NULL%1,    Alexia%Bertuzzi%NULL%1,    Maria Teresa%Sandri%NULL%1,    Stefano%Barco%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,    M.J.H.A.%Kruip%NULL%1,    N.J.M.%van der Meer%NULL%1,    M.S.%Arbous%NULL%1,    D.A.M.P.J.%Gommers%NULL%1,    K.M.%Kant%NULL%1,    F.H.J.%Kaptein%NULL%1,    J.%van Paassen%NULL%1,    M.A.M.%Stals%NULL%1,    M.V.%Huisman%NULL%1,    H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,    Fang%Jiang%NULL%1,    Wating%Su%NULL%1,    Chang%Chen%NULL%1,    Jingli%Chen%NULL%1,    Wei%Mei%NULL%1,    Li-Ying%Zhan%NULL%1,    Yifan%Jia%NULL%1,    Liangqing%Zhang%NULL%1,    Danyong%Liu%NULL%1,    Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,    Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,    Ewen M%Harrison%NULL%1,    Christopher A%Green%NULL%1,    Hayley E%Hardwick%NULL%1,    Riinu%Pius%NULL%1,    Lisa%Norman%NULL%1,    Karl A%Holden%NULL%1,    Jonathan M%Read%NULL%1,    Frank%Dondelinger%NULL%1,    Gail%Carson%NULL%1,    Laura%Merson%NULL%1,    James%Lee%NULL%1,    Daniel%Plotkin%NULL%1,    Louise%Sigfrid%NULL%1,    Sophie%Halpin%NULL%1,    Clare%Jackson%NULL%1,    Carrol%Gamble%NULL%1,    Peter W%Horby%NULL%1,    Jonathan S%Nguyen-Van-Tam%NULL%1,    Antonia%Ho%NULL%1,    Clark D%Russell%NULL%1,    Jake%Dunning%NULL%1,    Peter JM%Openshaw%NULL%1,    J Kenneth%Baillie%NULL%1,    Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,    Li-Min%Liu%NULL%0,    Wen%Yin%NULL%0,    Wen%Wang%NULL%0,    Lu-Lu%Guan%NULL%0,    Ming-Li%Yuan%NULL%0,    Yu-Lei%Li%NULL%0,    Yi%Hu%NULL%0,    Xu-Yan%Li%NULL%0,    Bing%Sun%NULL%0,    Peng%Peng%NULL%0,    Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,    Qiang%Zhou%NULL%1,    Ruiqiang%Zheng%NULL%1,    Xuyan%Li%NULL%1,    Jianmin%Ling%NULL%1,    Yumei%Chen%NULL%1,    Jing%Jia%NULL%1,    Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,    Anna Mara%Scandroglio%NULL%1,    Giacomo%Monti%NULL%1,    Maria Grazia%Calabrò%NULL%1,    Giovanni%Landoni%NULL%1,    Antonio%Dell'Acqua%NULL%1,    Luigi%Beretta%NULL%1,    Elena%Moizo%NULL%1,    Alfredo%Ravizza%NULL%1,    Fabrizio%Monaco%NULL%1,    Corrado%Campochiaro%NULL%1,    Marina%Pieri%NULL%1,    Maria Luisa%Azzolini%NULL%1,    Giovanni%Borghi%NULL%1,    Martina%Crivellari%NULL%1,    Caterina%Conte%NULL%1,    Cristina%Mattioli%NULL%1,    Paolo%Silvani%NULL%1,    Milena%Mucci%NULL%1,    Stefano%Turi%NULL%1,    Stefano%Tentori%NULL%1,    Martina%Baiardo Redaelli%NULL%1,    Marianna%Sartorelli%NULL%1,    Piera%Angelillo%NULL%1,    Alessandro%Belletti%NULL%1,    Pasquale%Nardelli%NULL%1,    Francesco Giuseppe%Nisi%NULL%1,    Gabriele%Valsecchi%NULL%1,    Cristina%Barberio%NULL%1,    Fabio%Ciceri%NULL%1,    Ary%Serpa Neto%NULL%1,    Lorenzo%Dagna%NULL%1,    Rinaldo%Bellomo%NULL%1,    Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,  Cabrini%Luca%coreGivesNoEmail%0,  Castelli%Antonio%coreGivesNoEmail%0,  Cecconi%Maurizio%coreGivesNoEmail%0,  Cereda%Danilo%coreGivesNoEmail%0,  Coluccello%Antonio%coreGivesNoEmail%0,  Foti%Giuseppe%coreGivesNoEmail%0,  Fumagalli%Roberto%coreGivesNoEmail%0,  Grasselli%Giacomo%coreGivesNoEmail%0,  Iotti%Giorgio%coreGivesNoEmail%0,  Latronico%Nicola%coreGivesNoEmail%0,  Lorini%Luca%coreGivesNoEmail%0,  Merler%Stefano%coreGivesNoEmail%0,  Natalini%Giuseppe%coreGivesNoEmail%0,  Pesenti%Antonio%coreGivesNoEmail%0,  Piatti%Alessandra%coreGivesNoEmail%0,  Ranieri%Marco Vito%coreGivesNoEmail%0,  Scandroglio%Anna Mara%coreGivesNoEmail%0,  Storti%Enrico%coreGivesNoEmail%0,  Zanella%Alberto%coreGivesNoEmail%0,  Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,    Min%Zhou%NULL%0,    Xuan%Dong%NULL%0,    Jieming%Qu%NULL%0,    Fengyun%Gong%NULL%0,    Yang%Han%NULL%0,    Yang%Qiu%NULL%0,    Jingli%Wang%NULL%0,    Ying%Liu%NULL%0,    Yuan%Wei%NULL%0,    Jia'an%Xia%NULL%0,    Ting%Yu%NULL%0,    Xinxin%Zhang%NULL%0,    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,    Ali S.%Omrani%NULL%1,    Kamran%Baig%NULL%1,    Abdelkarim%Bahloul%NULL%1,    Fatehi%Elzein%NULL%1,    Mohammad Abdul%Matin%NULL%1,    Mohei A.A.%Selim%NULL%1,    Mohammed Al%Mutairi%NULL%1,    Daifullah Al%Nakhli%NULL%1,    Amal Y. Al%Aidaroos%NULL%1,    Nisreen Al%Sherbeeni%NULL%1,    Hesham I.%Al-Khashan%NULL%1,    Ziad A.%Memish%zmemish@yahoo.com%1,    Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,    Badr%Alsayed%NULL%1,    Sameh%Embarak%NULL%1,    Taha%Yaseen%NULL%1,    Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,    Shamsudeen F.%Fagbo%NULL%1,    Vicky J.%Fang%NULL%1,    Leila%Skakni%NULL%1,    Mercy%Joseph%NULL%1,    Tariq A.%Wani%NULL%1,    Benjamin J.%Cowling%NULL%0,    Malik%Peiris%NULL%1,    Ahmed%Hakawi%NULL%1,    Renee W.Y.%Chan%NULL%2,    Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,    Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,    Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,    Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,    Fatmah%Salah%Fs4l_med2011@yahoo.com%1,    Abdulmoatani%Alsulami%moatani@hotmail.com%1,    Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,    Dhananjay%Vaidya%dvaidya@jhmi.edu%1,    Trish M.%Perl%tperl@jhmi.edu%1,    Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,     Jing-Jin%Liang%NULL%1,     Qing-Tao%Zhou%NULL%1,     Xiao-Guang%Li%NULL%1,     Fei%Lin%NULL%1,     Zhong-Hua%Deng%NULL%1,     Bi-Ying%Zhang%NULL%1,     Lu%Li%NULL%1,     Xiao-Hua%Wang%NULL%1,     Hong%Zhu%NULL%1,     Qing-Bian%Ma%NULL%1,     Xiao-Mei%Tong%NULL%1,     Jie%Xu%NULL%1,     Yong-Chang%Sun%NULL%1,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,     Xiao-Xin%Wu%NULL%0,     Xian-Gao%Jiang%NULL%0,     Kai-Jin%Xu%NULL%0,     Ling-Jun%Ying%NULL%0,     Chun-Lian%Ma%NULL%0,     Shi-Bo%Li%NULL%0,     Hua-Ying%Wang%NULL%0,     Sheng%Zhang%NULL%0,     Hai-Nv%Gao%NULL%0,     Ji-Fang%Sheng%NULL%0,     Hong-Liu%Cai%NULL%0,     Yun-Qing%Qiu%NULL%0,     Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,     Bijan J.%Ghassemieh%NULL%0,     Michelle%Nichols%NULL%0,     Richard%Kim%NULL%0,     Keith R.%Jerome%NULL%0,     Arun K.%Nalla%NULL%0,     Alexander L.%Greninger%NULL%0,     Sudhakar%Pipavath%NULL%0,     Mark M.%Wurfel%NULL%0,     Laura%Evans%NULL%0,     Patricia A.%Kritek%NULL%0,     T. Eoin%West%NULL%0,     Andrew%Luks%NULL%0,     Anthony%Gerbino%NULL%0,     Chris R.%Dale%NULL%0,     Jason D.%Goldman%NULL%0,     Shane%O’Mahony%NULL%0,     Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     Stephanie%Bialek%NULL%1,     Ellen%Boundy%NULL%1,     Virginia%Bowen%NULL%1,     Nancy%Chow%NULL%2,     Amanda%Cohn%NULL%0,     Nicole%Dowling%NULL%1,     Sascha%Ellington%NULL%1,     Ryan%Gierke%NULL%2,     Aron%Hall%NULL%2,     Jessica%MacNeil%NULL%1,     Priti%Patel%NULL%1,     Georgina%Peacock%NULL%1,     Tamara%Pilishvili%NULL%2,     Hilda%Razzaghi%NULL%1,     Nia%Reed%NULL%1,     Matthew%Ritchey%NULL%2,     Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,     Wenlin%Cheng%NULL%0,     Lei%Yu%NULL%0,     Ya-Kun%Liu%NULL%0,     Xiaoyong%Hu%NULL%0,     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,     Tangkai%Qi%NULL%0,     Li%Liu%NULL%0,     Yun%Ling%NULL%0,     Zhiping%Qian%NULL%0,     Tao%Li%NULL%0,     Feng%Li%NULL%0,     Qingnian%Xu%NULL%0,     Yuyi%Zhang%NULL%0,     Shuibao%Xu%NULL%0,     Zhigang%Song%NULL%0,     Yigang%Zeng%NULL%0,     Yinzhong%Shen%NULL%0,     Yuxin%Shi%NULL%0,     Tongyu%Zhu%NULL%0,     Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,     Dingyu%Zhang%NULL%0,     Wenling%Wang%NULL%0,     Xingwang%Li%NULL%0,     Bo%Yang%NULL%0,     Jingdong%Song%NULL%0,     Xiang%Zhao%NULL%0,     Baoying%Huang%NULL%0,     Weifeng%Shi%NULL%0,     Roujian%Lu%NULL%0,     Peihua%Niu%NULL%0,     Faxian%Zhan%NULL%0,     Xuejun%Ma%NULL%0,     Dayan%Wang%NULL%0,     Wenbo%Xu%NULL%0,     Guizhen%Wu%NULL%0,     George F.%Gao%NULL%0,     Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,     Simon A%Jones%NULL%3,     Jie%Yang%NULL%3,     Harish%Rajagopalan%NULL%3,     Luke%O’Donnell%NULL%3,     Yelena%Chernyak%NULL%3,     Katie A%Tobin%NULL%3,     Robert J%Cerfolio%NULL%3,     Fritz%Francois%NULL%3,     Leora I%Horwitz%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,   Becker%L.B.%coreGivesNoEmail%0,   Chelico%J.D.%coreGivesNoEmail%0,   Cohen%S.L.%coreGivesNoEmail%0,   Cookingham%J.%coreGivesNoEmail%0,   Coppa%K.%coreGivesNoEmail%0,   Crawford%J.M.%coreGivesNoEmail%0,   Davidson%K.W.%coreGivesNoEmail%0,   Diefenbach%M.A.%coreGivesNoEmail%0,   Dominello%A.J.%coreGivesNoEmail%0,   Duer-Hefele%J.%coreGivesNoEmail%0,   Falzon%L.%coreGivesNoEmail%0,   Gitlin%J.%coreGivesNoEmail%0,   Hajizadeh%N.%coreGivesNoEmail%0,   Harvin%T.G.%coreGivesNoEmail%0,   Hirsch%J.S.%coreGivesNoEmail%0,   Hirschwerk%D.A.%coreGivesNoEmail%0,   Kim%E.J.%coreGivesNoEmail%0,   Kozel%Z.M.%coreGivesNoEmail%0,   Marrast%L.M.%coreGivesNoEmail%0,   McGinn%T.%coreGivesNoEmail%0,   Mogavero%J.N.%coreGivesNoEmail%0,   Narasimhan%M.%coreGivesNoEmail%0,   Osorio%G.A.%coreGivesNoEmail%0,   Qiu%M.%coreGivesNoEmail%0,   Richardson%S.%coreGivesNoEmail%0,   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,     Mikael%Chetboun%NULL%0,     Julien%Poissy%NULL%0,     Violeta%Raverdy%NULL%0,     Jerome%Noulette%NULL%0,     Jerome%Noulette%NULL%0,     Alain%Duhamel%NULL%0,     Julien%Labreuche%NULL%0,     Daniel%Mathieu%NULL%0,     Francois%Pattou%francois.pattou@univ-lille.fr%0,     Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,     Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,     Robert%Caizzo%NULL%0,     Robert%Caizzo%NULL%0,     Morgan%Caplan%NULL%0,     Nicolas%Cousin%NULL%0,     Thibault%Duburcq%NULL%0,     Arthur%Durand%NULL%0,     Ahmed%El kalioubie%NULL%0,     Raphael%Favory%NULL%0,     Bruno%Garcia%NULL%0,     Patrick%Girardie%NULL%0,     Julien%Goutay%NULL%0,     Marion%Houard%NULL%0,     Emmanuelle%Jaillette%NULL%0,     Nicolas%Kostuj%NULL%0,     Geoffrey%Ledoux%NULL%0,     Daniel%Mathieu%NULL%0,     Anne Sophie%Moreau%NULL%0,     Christopher%Niles%NULL%0,     Saad%Nseir%NULL%0,     Thierry%Onimus%NULL%0,     Erika%Parmentier%NULL%0,     Sebastien%Préau%NULL%0,     Laurent%Robriquet%NULL%0,     Anahita%Rouze%NULL%0,     Sophie%Six%NULL%0,     Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,     Chen-Hsen%Lee%NULL%1,     Cheng-Yi%Liu%NULL%1,     Jia-Horng%Wang%NULL%1,     Lee-Min%Wang%NULL%1,     Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,     Xiaobo%Yang%NULL%2,     Luyu%Yang%NULL%2,     Xiaojing%Zou%NULL%0,     Yaxin%Wang%NULL%0,     Yongran%Wu%NULL%0,     Ting%Zhou%NULL%1,     Yin%Yuan%NULL%1,     Hong%Qi%NULL%1,     Shouzhi%Fu%NULL%0,     Hong%Liu%NULL%0,     Jia’an%Xia%NULL%1,     Zhengqin%Xu%NULL%1,     Yuan%Yu%NULL%0,     Ruiting%Li%NULL%0,     Yaqi%Ouyang%NULL%2,     Rui%Wang%NULL%0,     Lehao%Ren%NULL%1,     Yingying%Hu%NULL%3,     Dan%Xu%NULL%0,     Xin%Zhao%NULL%1,     Shiying%Yuan%shiying_yuan@163.com%0,     Dingyu%Zhang%1813886398@qq.com%0,     You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Wen-hua%Liang%NULL%0,     Yi%Zhao%NULL%1,     Heng-rui%Liang%NULL%1,     Zi-sheng%Chen%NULL%1,     Yi-min%Li%NULL%1,     Xiao-qing%Liu%NULL%1,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Chun-quan%Ou%NULL%0,     Li%Li%NULL%0,     Ping-yan%Chen%NULL%0,     Ling%Sang%NULL%2,     Wei%Wang%NULL%0,     Jian-fu%Li%NULL%1,     Cai-chen%Li%NULL%1,     Li-min%Ou%NULL%1,     Bo%Cheng%NULL%1,     Shan%Xiong%NULL%1,     Zheng-yi%Ni%NULL%0,     Jie%Xiang%NULL%0,     Yu%Hu%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Lin-ling%Cheng%NULL%1,     Feng%Ye%NULL%1,     Shi-yue%Li%NULL%0,     Jin-ping%Zheng%NULL%1,     Nuo-fu%Zhang%NULL%1,     Nan-shan%Zhong%NULL%0,     Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,     Giacomo%Iapichino%NULL%1,     Luca%Carenzo%NULL%1,     Maurizio%Cecconi%NULL%1,     Paola%Ferrazzi%NULL%1,     Tim%Sebastian%NULL%1,     Nils%Kucher%NULL%1,     Jan-Dirk%Studt%NULL%1,     Clara%Sacco%NULL%1,     Alexia%Bertuzzi%NULL%1,     Maria Teresa%Sandri%NULL%1,     Stefano%Barco%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,     M.J.H.A.%Kruip%NULL%1,     N.J.M.%van der Meer%NULL%1,     M.S.%Arbous%NULL%1,     D.A.M.P.J.%Gommers%NULL%1,     K.M.%Kant%NULL%1,     F.H.J.%Kaptein%NULL%1,     J.%van Paassen%NULL%1,     M.A.M.%Stals%NULL%1,     M.V.%Huisman%NULL%1,     H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,     Fang%Jiang%NULL%1,     Wating%Su%NULL%1,     Chang%Chen%NULL%1,     Jingli%Chen%NULL%1,     Wei%Mei%NULL%1,     Li-Ying%Zhan%NULL%1,     Yifan%Jia%NULL%1,     Liangqing%Zhang%NULL%1,     Danyong%Liu%NULL%1,     Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,     Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,     Ewen M%Harrison%NULL%1,     Christopher A%Green%NULL%1,     Hayley E%Hardwick%NULL%1,     Riinu%Pius%NULL%1,     Lisa%Norman%NULL%1,     Karl A%Holden%NULL%1,     Jonathan M%Read%NULL%1,     Frank%Dondelinger%NULL%1,     Gail%Carson%NULL%1,     Laura%Merson%NULL%1,     James%Lee%NULL%1,     Daniel%Plotkin%NULL%1,     Louise%Sigfrid%NULL%1,     Sophie%Halpin%NULL%1,     Clare%Jackson%NULL%1,     Carrol%Gamble%NULL%1,     Peter W%Horby%NULL%1,     Jonathan S%Nguyen-Van-Tam%NULL%1,     Antonia%Ho%NULL%1,     Clark D%Russell%NULL%1,     Jake%Dunning%NULL%1,     Peter JM%Openshaw%NULL%1,     J Kenneth%Baillie%NULL%1,     Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,     Li-Min%Liu%NULL%0,     Wen%Yin%NULL%0,     Wen%Wang%NULL%0,     Lu-Lu%Guan%NULL%0,     Ming-Li%Yuan%NULL%0,     Yu-Lei%Li%NULL%0,     Yi%Hu%NULL%0,     Xu-Yan%Li%NULL%0,     Bing%Sun%NULL%0,     Peng%Peng%NULL%0,     Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,     Qiang%Zhou%NULL%1,     Ruiqiang%Zheng%NULL%1,     Xuyan%Li%NULL%1,     Jianmin%Ling%NULL%1,     Yumei%Chen%NULL%1,     Jing%Jia%NULL%1,     Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,     Anna Mara%Scandroglio%NULL%1,     Giacomo%Monti%NULL%1,     Maria Grazia%Calabrò%NULL%1,     Giovanni%Landoni%NULL%1,     Antonio%Dell'Acqua%NULL%1,     Luigi%Beretta%NULL%1,     Elena%Moizo%NULL%1,     Alfredo%Ravizza%NULL%1,     Fabrizio%Monaco%NULL%1,     Corrado%Campochiaro%NULL%1,     Marina%Pieri%NULL%1,     Maria Luisa%Azzolini%NULL%1,     Giovanni%Borghi%NULL%1,     Martina%Crivellari%NULL%1,     Caterina%Conte%NULL%1,     Cristina%Mattioli%NULL%1,     Paolo%Silvani%NULL%1,     Milena%Mucci%NULL%1,     Stefano%Turi%NULL%1,     Stefano%Tentori%NULL%1,     Martina%Baiardo Redaelli%NULL%1,     Marianna%Sartorelli%NULL%1,     Piera%Angelillo%NULL%1,     Alessandro%Belletti%NULL%1,     Pasquale%Nardelli%NULL%1,     Francesco Giuseppe%Nisi%NULL%1,     Gabriele%Valsecchi%NULL%1,     Cristina%Barberio%NULL%1,     Fabio%Ciceri%NULL%1,     Ary%Serpa Neto%NULL%1,     Lorenzo%Dagna%NULL%1,     Rinaldo%Bellomo%NULL%1,     Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,   Cabrini%Luca%coreGivesNoEmail%0,   Castelli%Antonio%coreGivesNoEmail%0,   Cecconi%Maurizio%coreGivesNoEmail%0,   Cereda%Danilo%coreGivesNoEmail%0,   Coluccello%Antonio%coreGivesNoEmail%0,   Foti%Giuseppe%coreGivesNoEmail%0,   Fumagalli%Roberto%coreGivesNoEmail%0,   Grasselli%Giacomo%coreGivesNoEmail%0,   Iotti%Giorgio%coreGivesNoEmail%0,   Latronico%Nicola%coreGivesNoEmail%0,   Lorini%Luca%coreGivesNoEmail%0,   Merler%Stefano%coreGivesNoEmail%0,   Natalini%Giuseppe%coreGivesNoEmail%0,   Pesenti%Antonio%coreGivesNoEmail%0,   Piatti%Alessandra%coreGivesNoEmail%0,   Ranieri%Marco Vito%coreGivesNoEmail%0,   Scandroglio%Anna Mara%coreGivesNoEmail%0,   Storti%Enrico%coreGivesNoEmail%0,   Zanella%Alberto%coreGivesNoEmail%0,   Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,     Min%Zhou%NULL%0,     Xuan%Dong%NULL%0,     Jieming%Qu%NULL%0,     Fengyun%Gong%NULL%0,     Yang%Han%NULL%0,     Yang%Qiu%NULL%0,     Jingli%Wang%NULL%0,     Ying%Liu%NULL%0,     Yuan%Wei%NULL%0,     Jia'an%Xia%NULL%0,     Ting%Yu%NULL%0,     Xinxin%Zhang%NULL%0,     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,     Ali S.%Omrani%NULL%1,     Kamran%Baig%NULL%1,     Abdelkarim%Bahloul%NULL%1,     Fatehi%Elzein%NULL%1,     Mohammad Abdul%Matin%NULL%1,     Mohei A.A.%Selim%NULL%1,     Mohammed Al%Mutairi%NULL%1,     Daifullah Al%Nakhli%NULL%1,     Amal Y. Al%Aidaroos%NULL%1,     Nisreen Al%Sherbeeni%NULL%1,     Hesham I.%Al-Khashan%NULL%1,     Ziad A.%Memish%zmemish@yahoo.com%1,     Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,     Badr%Alsayed%NULL%1,     Sameh%Embarak%NULL%1,     Taha%Yaseen%NULL%1,     Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,     Shamsudeen F.%Fagbo%NULL%1,     Vicky J.%Fang%NULL%1,     Leila%Skakni%NULL%1,     Mercy%Joseph%NULL%1,     Tariq A.%Wani%NULL%1,     Benjamin J.%Cowling%NULL%0,     Malik%Peiris%NULL%1,     Ahmed%Hakawi%NULL%1,     Renee W.Y.%Chan%NULL%2,     Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,     Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,     Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,     Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,     Fatmah%Salah%Fs4l_med2011@yahoo.com%1,     Abdulmoatani%Alsulami%moatani@hotmail.com%1,     Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,     Dhananjay%Vaidya%dvaidya@jhmi.edu%1,     Trish M.%Perl%tperl@jhmi.edu%1,     Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,      Jing-Jin%Liang%NULL%1,      Qing-Tao%Zhou%NULL%1,      Xiao-Guang%Li%NULL%1,      Fei%Lin%NULL%1,      Zhong-Hua%Deng%NULL%1,      Bi-Ying%Zhang%NULL%1,      Lu%Li%NULL%1,      Xiao-Hua%Wang%NULL%1,      Hong%Zhu%NULL%1,      Qing-Bian%Ma%NULL%1,      Xiao-Mei%Tong%NULL%1,      Jie%Xu%NULL%1,      Yong-Chang%Sun%NULL%1,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,      Xiao-Xin%Wu%NULL%0,      Xian-Gao%Jiang%NULL%0,      Kai-Jin%Xu%NULL%0,      Ling-Jun%Ying%NULL%0,      Chun-Lian%Ma%NULL%0,      Shi-Bo%Li%NULL%0,      Hua-Ying%Wang%NULL%0,      Sheng%Zhang%NULL%0,      Hai-Nv%Gao%NULL%0,      Ji-Fang%Sheng%NULL%0,      Hong-Liu%Cai%NULL%0,      Yun-Qing%Qiu%NULL%0,      Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,      Bijan J.%Ghassemieh%NULL%0,      Michelle%Nichols%NULL%0,      Richard%Kim%NULL%0,      Keith R.%Jerome%NULL%0,      Arun K.%Nalla%NULL%0,      Alexander L.%Greninger%NULL%0,      Sudhakar%Pipavath%NULL%0,      Mark M.%Wurfel%NULL%0,      Laura%Evans%NULL%0,      Patricia A.%Kritek%NULL%0,      T. Eoin%West%NULL%0,      Andrew%Luks%NULL%0,      Anthony%Gerbino%NULL%0,      Chris R.%Dale%NULL%0,      Jason D.%Goldman%NULL%0,      Shane%O’Mahony%NULL%0,      Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      Stephanie%Bialek%NULL%1,      Ellen%Boundy%NULL%1,      Virginia%Bowen%NULL%1,      Nancy%Chow%NULL%2,      Amanda%Cohn%NULL%0,      Nicole%Dowling%NULL%1,      Sascha%Ellington%NULL%1,      Ryan%Gierke%NULL%2,      Aron%Hall%NULL%2,      Jessica%MacNeil%NULL%1,      Priti%Patel%NULL%1,      Georgina%Peacock%NULL%1,      Tamara%Pilishvili%NULL%2,      Hilda%Razzaghi%NULL%1,      Nia%Reed%NULL%1,      Matthew%Ritchey%NULL%2,      Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,      Wenlin%Cheng%NULL%0,      Lei%Yu%NULL%0,      Ya-Kun%Liu%NULL%0,      Xiaoyong%Hu%NULL%0,      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,      Tangkai%Qi%NULL%0,      Li%Liu%NULL%0,      Yun%Ling%NULL%0,      Zhiping%Qian%NULL%0,      Tao%Li%NULL%0,      Feng%Li%NULL%0,      Qingnian%Xu%NULL%0,      Yuyi%Zhang%NULL%0,      Shuibao%Xu%NULL%0,      Zhigang%Song%NULL%0,      Yigang%Zeng%NULL%0,      Yinzhong%Shen%NULL%0,      Yuxin%Shi%NULL%0,      Tongyu%Zhu%NULL%0,      Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,      Dingyu%Zhang%NULL%0,      Wenling%Wang%NULL%0,      Xingwang%Li%NULL%0,      Bo%Yang%NULL%0,      Jingdong%Song%NULL%0,      Xiang%Zhao%NULL%0,      Baoying%Huang%NULL%0,      Weifeng%Shi%NULL%0,      Roujian%Lu%NULL%0,      Peihua%Niu%NULL%0,      Faxian%Zhan%NULL%0,      Xuejun%Ma%NULL%0,      Dayan%Wang%NULL%0,      Wenbo%Xu%NULL%0,      Guizhen%Wu%NULL%0,      George F.%Gao%NULL%0,      Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,      Simon A%Jones%NULL%3,      Jie%Yang%NULL%3,      Harish%Rajagopalan%NULL%3,      Luke%O’Donnell%NULL%3,      Yelena%Chernyak%NULL%3,      Katie A%Tobin%NULL%3,      Robert J%Cerfolio%NULL%3,      Fritz%Francois%NULL%3,      Leora I%Horwitz%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,    Becker%L.B.%coreGivesNoEmail%0,    Chelico%J.D.%coreGivesNoEmail%0,    Cohen%S.L.%coreGivesNoEmail%0,    Cookingham%J.%coreGivesNoEmail%0,    Coppa%K.%coreGivesNoEmail%0,    Crawford%J.M.%coreGivesNoEmail%0,    Davidson%K.W.%coreGivesNoEmail%0,    Diefenbach%M.A.%coreGivesNoEmail%0,    Dominello%A.J.%coreGivesNoEmail%0,    Duer-Hefele%J.%coreGivesNoEmail%0,    Falzon%L.%coreGivesNoEmail%0,    Gitlin%J.%coreGivesNoEmail%0,    Hajizadeh%N.%coreGivesNoEmail%0,    Harvin%T.G.%coreGivesNoEmail%0,    Hirsch%J.S.%coreGivesNoEmail%0,    Hirschwerk%D.A.%coreGivesNoEmail%0,    Kim%E.J.%coreGivesNoEmail%0,    Kozel%Z.M.%coreGivesNoEmail%0,    Marrast%L.M.%coreGivesNoEmail%0,    McGinn%T.%coreGivesNoEmail%0,    Mogavero%J.N.%coreGivesNoEmail%0,    Narasimhan%M.%coreGivesNoEmail%0,    Osorio%G.A.%coreGivesNoEmail%0,    Qiu%M.%coreGivesNoEmail%0,    Richardson%S.%coreGivesNoEmail%0,    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,      Mikael%Chetboun%NULL%0,      Julien%Poissy%NULL%0,      Violeta%Raverdy%NULL%0,      Jerome%Noulette%NULL%0,      Jerome%Noulette%NULL%0,      Alain%Duhamel%NULL%0,      Julien%Labreuche%NULL%0,      Daniel%Mathieu%NULL%0,      Francois%Pattou%francois.pattou@univ-lille.fr%0,      Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,      Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,      Robert%Caizzo%NULL%0,      Robert%Caizzo%NULL%0,      Morgan%Caplan%NULL%0,      Nicolas%Cousin%NULL%0,      Thibault%Duburcq%NULL%0,      Arthur%Durand%NULL%0,      Ahmed%El kalioubie%NULL%0,      Raphael%Favory%NULL%0,      Bruno%Garcia%NULL%0,      Patrick%Girardie%NULL%0,      Julien%Goutay%NULL%0,      Marion%Houard%NULL%0,      Emmanuelle%Jaillette%NULL%0,      Nicolas%Kostuj%NULL%0,      Geoffrey%Ledoux%NULL%0,      Daniel%Mathieu%NULL%0,      Anne Sophie%Moreau%NULL%0,      Christopher%Niles%NULL%0,      Saad%Nseir%NULL%0,      Thierry%Onimus%NULL%0,      Erika%Parmentier%NULL%0,      Sebastien%Préau%NULL%0,      Laurent%Robriquet%NULL%0,      Anahita%Rouze%NULL%0,      Sophie%Six%NULL%0,      Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,      Chen-Hsen%Lee%NULL%1,      Cheng-Yi%Liu%NULL%1,      Jia-Horng%Wang%NULL%1,      Lee-Min%Wang%NULL%1,      Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,      Xiaobo%Yang%NULL%2,      Luyu%Yang%NULL%2,      Xiaojing%Zou%NULL%0,      Yaxin%Wang%NULL%0,      Yongran%Wu%NULL%0,      Ting%Zhou%NULL%1,      Yin%Yuan%NULL%1,      Hong%Qi%NULL%1,      Shouzhi%Fu%NULL%0,      Hong%Liu%NULL%0,      Jia’an%Xia%NULL%1,      Zhengqin%Xu%NULL%1,      Yuan%Yu%NULL%0,      Ruiting%Li%NULL%0,      Yaqi%Ouyang%NULL%2,      Rui%Wang%NULL%0,      Lehao%Ren%NULL%1,      Yingying%Hu%NULL%3,      Dan%Xu%NULL%0,      Xin%Zhao%NULL%1,      Shiying%Yuan%shiying_yuan@163.com%0,      Dingyu%Zhang%1813886398@qq.com%0,      You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Wen-hua%Liang%NULL%0,      Yi%Zhao%NULL%1,      Heng-rui%Liang%NULL%1,      Zi-sheng%Chen%NULL%1,      Yi-min%Li%NULL%1,      Xiao-qing%Liu%NULL%1,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Chun-quan%Ou%NULL%0,      Li%Li%NULL%0,      Ping-yan%Chen%NULL%0,      Ling%Sang%NULL%2,      Wei%Wang%NULL%0,      Jian-fu%Li%NULL%1,      Cai-chen%Li%NULL%1,      Li-min%Ou%NULL%1,      Bo%Cheng%NULL%1,      Shan%Xiong%NULL%1,      Zheng-yi%Ni%NULL%0,      Jie%Xiang%NULL%0,      Yu%Hu%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Lin-ling%Cheng%NULL%1,      Feng%Ye%NULL%1,      Shi-yue%Li%NULL%0,      Jin-ping%Zheng%NULL%1,      Nuo-fu%Zhang%NULL%1,      Nan-shan%Zhong%NULL%0,      Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,      Giacomo%Iapichino%NULL%1,      Luca%Carenzo%NULL%1,      Maurizio%Cecconi%NULL%1,      Paola%Ferrazzi%NULL%1,      Tim%Sebastian%NULL%1,      Nils%Kucher%NULL%1,      Jan-Dirk%Studt%NULL%1,      Clara%Sacco%NULL%1,      Alexia%Bertuzzi%NULL%1,      Maria Teresa%Sandri%NULL%1,      Stefano%Barco%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,      M.J.H.A.%Kruip%NULL%1,      N.J.M.%van der Meer%NULL%1,      M.S.%Arbous%NULL%1,      D.A.M.P.J.%Gommers%NULL%1,      K.M.%Kant%NULL%1,      F.H.J.%Kaptein%NULL%1,      J.%van Paassen%NULL%1,      M.A.M.%Stals%NULL%1,      M.V.%Huisman%NULL%1,      H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,      Fang%Jiang%NULL%1,      Wating%Su%NULL%1,      Chang%Chen%NULL%1,      Jingli%Chen%NULL%1,      Wei%Mei%NULL%1,      Li-Ying%Zhan%NULL%1,      Yifan%Jia%NULL%1,      Liangqing%Zhang%NULL%1,      Danyong%Liu%NULL%1,      Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,      Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,      Ewen M%Harrison%NULL%1,      Christopher A%Green%NULL%1,      Hayley E%Hardwick%NULL%1,      Riinu%Pius%NULL%1,      Lisa%Norman%NULL%1,      Karl A%Holden%NULL%1,      Jonathan M%Read%NULL%1,      Frank%Dondelinger%NULL%1,      Gail%Carson%NULL%1,      Laura%Merson%NULL%1,      James%Lee%NULL%1,      Daniel%Plotkin%NULL%1,      Louise%Sigfrid%NULL%1,      Sophie%Halpin%NULL%1,      Clare%Jackson%NULL%1,      Carrol%Gamble%NULL%1,      Peter W%Horby%NULL%1,      Jonathan S%Nguyen-Van-Tam%NULL%1,      Antonia%Ho%NULL%1,      Clark D%Russell%NULL%1,      Jake%Dunning%NULL%1,      Peter JM%Openshaw%NULL%1,      J Kenneth%Baillie%NULL%1,      Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,      Li-Min%Liu%NULL%0,      Wen%Yin%NULL%0,      Wen%Wang%NULL%0,      Lu-Lu%Guan%NULL%0,      Ming-Li%Yuan%NULL%0,      Yu-Lei%Li%NULL%0,      Yi%Hu%NULL%0,      Xu-Yan%Li%NULL%0,      Bing%Sun%NULL%0,      Peng%Peng%NULL%0,      Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,      Qiang%Zhou%NULL%1,      Ruiqiang%Zheng%NULL%1,      Xuyan%Li%NULL%1,      Jianmin%Ling%NULL%1,      Yumei%Chen%NULL%1,      Jing%Jia%NULL%1,      Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,      Anna Mara%Scandroglio%NULL%1,      Giacomo%Monti%NULL%1,      Maria Grazia%Calabrò%NULL%1,      Giovanni%Landoni%NULL%1,      Antonio%Dell'Acqua%NULL%1,      Luigi%Beretta%NULL%1,      Elena%Moizo%NULL%1,      Alfredo%Ravizza%NULL%1,      Fabrizio%Monaco%NULL%1,      Corrado%Campochiaro%NULL%1,      Marina%Pieri%NULL%1,      Maria Luisa%Azzolini%NULL%1,      Giovanni%Borghi%NULL%1,      Martina%Crivellari%NULL%1,      Caterina%Conte%NULL%1,      Cristina%Mattioli%NULL%1,      Paolo%Silvani%NULL%1,      Milena%Mucci%NULL%1,      Stefano%Turi%NULL%1,      Stefano%Tentori%NULL%1,      Martina%Baiardo Redaelli%NULL%1,      Marianna%Sartorelli%NULL%1,      Piera%Angelillo%NULL%1,      Alessandro%Belletti%NULL%1,      Pasquale%Nardelli%NULL%1,      Francesco Giuseppe%Nisi%NULL%1,      Gabriele%Valsecchi%NULL%1,      Cristina%Barberio%NULL%1,      Fabio%Ciceri%NULL%1,      Ary%Serpa Neto%NULL%1,      Lorenzo%Dagna%NULL%1,      Rinaldo%Bellomo%NULL%1,      Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,    Cabrini%Luca%coreGivesNoEmail%0,    Castelli%Antonio%coreGivesNoEmail%0,    Cecconi%Maurizio%coreGivesNoEmail%0,    Cereda%Danilo%coreGivesNoEmail%0,    Coluccello%Antonio%coreGivesNoEmail%0,    Foti%Giuseppe%coreGivesNoEmail%0,    Fumagalli%Roberto%coreGivesNoEmail%0,    Grasselli%Giacomo%coreGivesNoEmail%0,    Iotti%Giorgio%coreGivesNoEmail%0,    Latronico%Nicola%coreGivesNoEmail%0,    Lorini%Luca%coreGivesNoEmail%0,    Merler%Stefano%coreGivesNoEmail%0,    Natalini%Giuseppe%coreGivesNoEmail%0,    Pesenti%Antonio%coreGivesNoEmail%0,    Piatti%Alessandra%coreGivesNoEmail%0,    Ranieri%Marco Vito%coreGivesNoEmail%0,    Scandroglio%Anna Mara%coreGivesNoEmail%0,    Storti%Enrico%coreGivesNoEmail%0,    Zanella%Alberto%coreGivesNoEmail%0,    Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,      Min%Zhou%NULL%0,      Xuan%Dong%NULL%0,      Jieming%Qu%NULL%0,      Fengyun%Gong%NULL%0,      Yang%Han%NULL%0,      Yang%Qiu%NULL%0,      Jingli%Wang%NULL%0,      Ying%Liu%NULL%0,      Yuan%Wei%NULL%0,      Jia'an%Xia%NULL%0,      Ting%Yu%NULL%0,      Xinxin%Zhang%NULL%0,      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,      Ali S.%Omrani%NULL%1,      Kamran%Baig%NULL%1,      Abdelkarim%Bahloul%NULL%1,      Fatehi%Elzein%NULL%1,      Mohammad Abdul%Matin%NULL%1,      Mohei A.A.%Selim%NULL%1,      Mohammed Al%Mutairi%NULL%1,      Daifullah Al%Nakhli%NULL%1,      Amal Y. Al%Aidaroos%NULL%1,      Nisreen Al%Sherbeeni%NULL%1,      Hesham I.%Al-Khashan%NULL%1,      Ziad A.%Memish%zmemish@yahoo.com%1,      Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,      Badr%Alsayed%NULL%1,      Sameh%Embarak%NULL%1,      Taha%Yaseen%NULL%1,      Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,      Shamsudeen F.%Fagbo%NULL%1,      Vicky J.%Fang%NULL%1,      Leila%Skakni%NULL%1,      Mercy%Joseph%NULL%1,      Tariq A.%Wani%NULL%1,      Benjamin J.%Cowling%NULL%0,      Malik%Peiris%NULL%1,      Ahmed%Hakawi%NULL%1,      Renee W.Y.%Chan%NULL%2,      Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,      Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,      Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,      Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,      Fatmah%Salah%Fs4l_med2011@yahoo.com%1,      Abdulmoatani%Alsulami%moatani@hotmail.com%1,      Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,      Dhananjay%Vaidya%dvaidya@jhmi.edu%1,      Trish M.%Perl%tperl@jhmi.edu%1,      Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1822,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -1430,7 +1851,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -1459,7 +1880,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -1517,7 +1938,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -1546,7 +1967,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1575,7 +1996,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -1604,7 +2025,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -1633,7 +2054,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -1656,19 +2077,19 @@
         <v>43943.0</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1691,7 +2112,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -1714,19 +2135,19 @@
         <v>43868.0</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>301</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -1778,7 +2199,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1807,7 +2228,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -1865,7 +2286,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>304</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -1894,7 +2315,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -1923,7 +2344,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -1952,7 +2373,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -1981,7 +2402,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2010,7 +2431,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2039,7 +2460,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2068,7 +2489,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -2097,7 +2518,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -2120,19 +2541,19 @@
         <v>43927.0</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -2155,7 +2576,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>314</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -2178,19 +2599,19 @@
         <v>37834.0</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2300,7 +2721,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -2329,7 +2750,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -2358,7 +2779,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -2387,7 +2808,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="399">
   <si>
     <t>Doi</t>
   </si>
@@ -1410,6 +1410,257 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,      Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,      Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,      Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,      Fatmah%Salah%Fs4l_med2011@yahoo.com%1,      Abdulmoatani%Alsulami%moatani@hotmail.com%1,      Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,      Dhananjay%Vaidya%dvaidya@jhmi.edu%1,      Trish M.%Perl%tperl@jhmi.edu%1,      Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,       Jing-Jin%Liang%NULL%1,       Qing-Tao%Zhou%NULL%1,       Xiao-Guang%Li%NULL%1,       Fei%Lin%NULL%1,       Zhong-Hua%Deng%NULL%1,       Bi-Ying%Zhang%NULL%1,       Lu%Li%NULL%1,       Xiao-Hua%Wang%NULL%1,       Hong%Zhu%NULL%1,       Qing-Bian%Ma%NULL%1,       Xiao-Mei%Tong%NULL%1,       Jie%Xu%NULL%1,       Yong-Chang%Sun%NULL%1,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,       Xiao-Xin%Wu%NULL%0,       Xian-Gao%Jiang%NULL%0,       Kai-Jin%Xu%NULL%0,       Ling-Jun%Ying%NULL%0,       Chun-Lian%Ma%NULL%0,       Shi-Bo%Li%NULL%0,       Hua-Ying%Wang%NULL%0,       Sheng%Zhang%NULL%0,       Hai-Nv%Gao%NULL%0,       Ji-Fang%Sheng%NULL%0,       Hong-Liu%Cai%NULL%0,       Yun-Qing%Qiu%NULL%0,       Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,       Bijan J.%Ghassemieh%NULL%0,       Michelle%Nichols%NULL%0,       Richard%Kim%NULL%0,       Keith R.%Jerome%NULL%0,       Arun K.%Nalla%NULL%0,       Alexander L.%Greninger%NULL%0,       Sudhakar%Pipavath%NULL%0,       Mark M.%Wurfel%NULL%0,       Laura%Evans%NULL%0,       Patricia A.%Kritek%NULL%0,       T. Eoin%West%NULL%0,       Andrew%Luks%NULL%0,       Anthony%Gerbino%NULL%0,       Chris R.%Dale%NULL%0,       Jason D.%Goldman%NULL%0,       Shane%O’Mahony%NULL%0,       Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Characteristics and Outcomes of 21 Critically Ill Patients With COVID-19 in Washington State"</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0, Eric%Yim%xref no email%0, Lindy%Klaff%xref no email%0, Sharukh%Lokhandwala%xref no email%0, Francis X.%Riedo%xref no email%0, Maria%Chong%xref no email%0, Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       Stephanie%Bialek%NULL%1,       Ellen%Boundy%NULL%1,       Virginia%Bowen%NULL%1,       Nancy%Chow%NULL%1,       Amanda%Cohn%NULL%0,       Nicole%Dowling%NULL%1,       Sascha%Ellington%NULL%1,       Ryan%Gierke%NULL%1,       Aron%Hall%NULL%1,       Jessica%MacNeil%NULL%1,       Priti%Patel%NULL%1,       Georgina%Peacock%NULL%1,       Tamara%Pilishvili%NULL%1,       Hilda%Razzaghi%NULL%1,       Nia%Reed%NULL%1,       Matthew%Ritchey%NULL%1,       Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,       Wenlin%Cheng%NULL%0,       Lei%Yu%NULL%0,       Ya-Kun%Liu%NULL%0,       Xiaoyong%Hu%NULL%0,       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,       Tangkai%Qi%NULL%0,       Li%Liu%NULL%0,       Yun%Ling%NULL%0,       Zhiping%Qian%NULL%0,       Tao%Li%NULL%0,       Feng%Li%NULL%0,       Qingnian%Xu%NULL%0,       Yuyi%Zhang%NULL%0,       Shuibao%Xu%NULL%0,       Zhigang%Song%NULL%0,       Yigang%Zeng%NULL%0,       Yinzhong%Shen%NULL%0,       Yuxin%Shi%NULL%0,       Tongyu%Zhu%NULL%0,       Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,       Dingyu%Zhang%NULL%0,       Wenling%Wang%NULL%0,       Xingwang%Li%NULL%0,       Bo%Yang%NULL%0,       Jingdong%Song%NULL%0,       Xiang%Zhao%NULL%0,       Baoying%Huang%NULL%0,       Weifeng%Shi%NULL%0,       Roujian%Lu%NULL%0,       Peihua%Niu%NULL%0,       Faxian%Zhan%NULL%0,       Xuejun%Ma%NULL%0,       Dayan%Wang%NULL%0,       Wenbo%Xu%NULL%0,       Guizhen%Wu%NULL%0,       George F.%Gao%NULL%0,       Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,       Simon A%Jones%NULL%1,       Jie%Yang%NULL%1,       Harish%Rajagopalan%NULL%1,       Luke%O’Donnell%NULL%1,       Yelena%Chernyak%NULL%1,       Katie A%Tobin%NULL%1,       Robert J%Cerfolio%NULL%1,       Fritz%Francois%NULL%2,       Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,     Becker%L.B.%coreGivesNoEmail%0,     Chelico%J.D.%coreGivesNoEmail%0,     Cohen%S.L.%coreGivesNoEmail%0,     Cookingham%J.%coreGivesNoEmail%0,     Coppa%K.%coreGivesNoEmail%0,     Crawford%J.M.%coreGivesNoEmail%0,     Davidson%K.W.%coreGivesNoEmail%0,     Diefenbach%M.A.%coreGivesNoEmail%0,     Dominello%A.J.%coreGivesNoEmail%0,     Duer-Hefele%J.%coreGivesNoEmail%0,     Falzon%L.%coreGivesNoEmail%0,     Gitlin%J.%coreGivesNoEmail%0,     Hajizadeh%N.%coreGivesNoEmail%0,     Harvin%T.G.%coreGivesNoEmail%0,     Hirsch%J.S.%coreGivesNoEmail%0,     Hirschwerk%D.A.%coreGivesNoEmail%0,     Kim%E.J.%coreGivesNoEmail%0,     Kozel%Z.M.%coreGivesNoEmail%0,     Marrast%L.M.%coreGivesNoEmail%0,     McGinn%T.%coreGivesNoEmail%0,     Mogavero%J.N.%coreGivesNoEmail%0,     Narasimhan%M.%coreGivesNoEmail%0,     Osorio%G.A.%coreGivesNoEmail%0,     Qiu%M.%coreGivesNoEmail%0,     Richardson%S.%coreGivesNoEmail%0,     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,       Mikael%Chetboun%NULL%0,       Julien%Poissy%NULL%0,       Violeta%Raverdy%NULL%0,       Jerome%Noulette%NULL%0,       Jerome%Noulette%NULL%0,       Alain%Duhamel%NULL%0,       Julien%Labreuche%NULL%0,       Daniel%Mathieu%NULL%0,       Francois%Pattou%francois.pattou@univ-lille.fr%0,       Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,       Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,       Robert%Caizzo%NULL%0,       Robert%Caizzo%NULL%0,       Morgan%Caplan%NULL%0,       Nicolas%Cousin%NULL%0,       Thibault%Duburcq%NULL%0,       Arthur%Durand%NULL%0,       Ahmed%El kalioubie%NULL%0,       Raphael%Favory%NULL%0,       Bruno%Garcia%NULL%0,       Patrick%Girardie%NULL%0,       Julien%Goutay%NULL%0,       Marion%Houard%NULL%0,       Emmanuelle%Jaillette%NULL%0,       Nicolas%Kostuj%NULL%0,       Geoffrey%Ledoux%NULL%0,       Daniel%Mathieu%NULL%0,       Anne Sophie%Moreau%NULL%0,       Christopher%Niles%NULL%0,       Saad%Nseir%NULL%0,       Thierry%Onimus%NULL%0,       Erika%Parmentier%NULL%0,       Sebastien%Préau%NULL%0,       Laurent%Robriquet%NULL%0,       Anahita%Rouze%NULL%0,       Sophie%Six%NULL%0,       Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>"Risk Factors Associated With Acute Respiratory Distress Syndrome and Death in Patients With Coronavirus Disease 2019 Pneumonia in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0, Xiaoyan%Chen%xref no email%0, Yanping%Cai%xref no email%0, Jia\u2019an%Xia%xref no email%0, Xing%Zhou%xref no email%0, Sha%Xu%xref no email%0, Hanping%Huang%xref no email%0, Li%Zhang%xref no email%0, Xia%Zhou%xref no email%0, Chunling%Du%xref no email%0, Yuye%Zhang%xref no email%0, Juan%Song%xref no email%0, Sijiao%Wang%xref no email%0, Yencheng%Chao%xref no email%0, Zeyong%Yang%xref no email%0, Jie%Xu%xref no email%0, Xin%Zhou%xref no email%0, Dechang%Chen%xref no email%0, Weining%Xiong%xref no email%0, Lei%Xu%xref no email%0, Feng%Zhou%xref no email%0, Jinjun%Jiang%xref no email%0, Chunxue%Bai%xref no email%0, Junhua%Zheng%xref no email%0, Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,       Chen-Hsen%Lee%NULL%1,       Cheng-Yi%Liu%NULL%1,       Jia-Horng%Wang%NULL%1,       Lee-Min%Wang%NULL%1,       Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,       Xiaobo%Yang%NULL%1,       Luyu%Yang%NULL%1,       Xiaojing%Zou%NULL%0,       Yaxin%Wang%NULL%0,       Yongran%Wu%NULL%0,       Ting%Zhou%NULL%1,       Yin%Yuan%NULL%1,       Hong%Qi%NULL%1,       Shouzhi%Fu%NULL%0,       Hong%Liu%NULL%0,       Jia’an%Xia%NULL%1,       Zhengqin%Xu%NULL%1,       Yuan%Yu%NULL%0,       Ruiting%Li%NULL%0,       Yaqi%Ouyang%NULL%1,       Rui%Wang%NULL%0,       Lehao%Ren%NULL%1,       Yingying%Hu%NULL%1,       Dan%Xu%NULL%0,       Xin%Zhao%NULL%1,       Shiying%Yuan%shiying_yuan@163.com%0,       Dingyu%Zhang%1813886398@qq.com%0,       You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>"Epidemiologic Features and Clinical Course of Patients Infected With SARS-CoV-2 in Singapore"</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0, Sean Wei Xiang%Ong%xref no email%0, Shirin%Kalimuddin%xref no email%0, Jenny G.%Low%xref no email%0, Seow Yen%Tan%xref no email%0, Jiashen%Loh%xref no email%0, Oon-Tek%Ng%xref no email%0, Kalisvar%Marimuthu%xref no email%0, Li Wei%Ang%xref no email%0, Tze Minn%Mak%xref no email%0, Sok Kiang%Lau%xref no email%0, Danielle E.%Anderson%xref no email%0, Kian Sing%Chan%xref no email%0, Thean Yen%Tan%xref no email%0, Tong Yong%Ng%xref no email%0, Lin%Cui%xref no email%0, Zubaidah%Said%xref no email%0, Lalitha%Kurupatham%xref no email%0, Mark I-Cheng%Chen%xref no email%0, Monica%Chan%xref no email%0, Shawn%Vasoo%xref no email%0, Lin-Fa%Wang%xref no email%0, Boon Huan%Tan%xref no email%0, Raymond Tzer Pin%Lin%xref no email%0, Vernon Jian Ming%Lee%xref no email%0, Yee-Sin%Leo%xref no email%0, David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Wen-hua%Liang%NULL%0,       Yi%Zhao%NULL%1,       Heng-rui%Liang%NULL%1,       Zi-sheng%Chen%NULL%1,       Yi-min%Li%NULL%1,       Xiao-qing%Liu%NULL%1,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Chun-quan%Ou%NULL%0,       Li%Li%NULL%0,       Ping-yan%Chen%NULL%0,       Ling%Sang%NULL%1,       Wei%Wang%NULL%0,       Jian-fu%Li%NULL%1,       Cai-chen%Li%NULL%1,       Li-min%Ou%NULL%1,       Bo%Cheng%NULL%1,       Shan%Xiong%NULL%1,       Zheng-yi%Ni%NULL%0,       Jie%Xiang%NULL%0,       Yu%Hu%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Lin-ling%Cheng%NULL%1,       Feng%Ye%NULL%1,       Shi-yue%Li%NULL%0,       Jin-ping%Zheng%NULL%1,       Nuo-fu%Zhang%NULL%1,       Nan-shan%Zhong%NULL%0,       Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,       Giacomo%Iapichino%NULL%1,       Luca%Carenzo%NULL%1,       Maurizio%Cecconi%NULL%1,       Paola%Ferrazzi%NULL%1,       Tim%Sebastian%NULL%1,       Nils%Kucher%NULL%1,       Jan-Dirk%Studt%NULL%1,       Clara%Sacco%NULL%1,       Alexia%Bertuzzi%NULL%1,       Maria Teresa%Sandri%NULL%1,       Stefano%Barco%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,       M.J.H.A.%Kruip%NULL%1,       N.J.M.%van der Meer%NULL%1,       M.S.%Arbous%NULL%1,       D.A.M.P.J.%Gommers%NULL%1,       K.M.%Kant%NULL%1,       F.H.J.%Kaptein%NULL%1,       J.%van Paassen%NULL%1,       M.A.M.%Stals%NULL%1,       M.V.%Huisman%NULL%1,       H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,       Fang%Jiang%NULL%1,       Wating%Su%NULL%1,       Chang%Chen%NULL%1,       Jingli%Chen%NULL%1,       Wei%Mei%NULL%1,       Li-Ying%Zhan%NULL%1,       Yifan%Jia%NULL%1,       Liangqing%Zhang%NULL%1,       Danyong%Liu%NULL%1,       Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,       Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,       Ewen M%Harrison%NULL%1,       Christopher A%Green%NULL%1,       Hayley E%Hardwick%NULL%1,       Riinu%Pius%NULL%1,       Lisa%Norman%NULL%1,       Karl A%Holden%NULL%1,       Jonathan M%Read%NULL%1,       Frank%Dondelinger%NULL%1,       Gail%Carson%NULL%1,       Laura%Merson%NULL%1,       James%Lee%NULL%1,       Daniel%Plotkin%NULL%1,       Louise%Sigfrid%NULL%1,       Sophie%Halpin%NULL%1,       Clare%Jackson%NULL%1,       Carrol%Gamble%NULL%1,       Peter W%Horby%NULL%1,       Jonathan S%Nguyen-Van-Tam%NULL%1,       Antonia%Ho%NULL%1,       Clark D%Russell%NULL%1,       Jake%Dunning%NULL%1,       Peter JM%Openshaw%NULL%1,       J Kenneth%Baillie%NULL%1,       Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,       Li-Min%Liu%NULL%0,       Wen%Yin%NULL%0,       Wen%Wang%NULL%0,       Lu-Lu%Guan%NULL%0,       Ming-Li%Yuan%NULL%0,       Yu-Lei%Li%NULL%0,       Yi%Hu%NULL%0,       Xu-Yan%Li%NULL%0,       Bing%Sun%NULL%0,       Peng%Peng%NULL%0,       Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,       Qiang%Zhou%NULL%1,       Ruiqiang%Zheng%NULL%1,       Xuyan%Li%NULL%1,       Jianmin%Ling%NULL%1,       Yumei%Chen%NULL%1,       Jing%Jia%NULL%1,       Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,       Anna Mara%Scandroglio%NULL%1,       Giacomo%Monti%NULL%1,       Maria Grazia%Calabrò%NULL%1,       Giovanni%Landoni%NULL%1,       Antonio%Dell'Acqua%NULL%1,       Luigi%Beretta%NULL%1,       Elena%Moizo%NULL%1,       Alfredo%Ravizza%NULL%1,       Fabrizio%Monaco%NULL%1,       Corrado%Campochiaro%NULL%1,       Marina%Pieri%NULL%1,       Maria Luisa%Azzolini%NULL%1,       Giovanni%Borghi%NULL%1,       Martina%Crivellari%NULL%1,       Caterina%Conte%NULL%1,       Cristina%Mattioli%NULL%1,       Paolo%Silvani%NULL%1,       Milena%Mucci%NULL%1,       Stefano%Turi%NULL%1,       Stefano%Tentori%NULL%1,       Martina%Baiardo Redaelli%NULL%1,       Marianna%Sartorelli%NULL%1,       Piera%Angelillo%NULL%1,       Alessandro%Belletti%NULL%1,       Pasquale%Nardelli%NULL%1,       Francesco Giuseppe%Nisi%NULL%1,       Gabriele%Valsecchi%NULL%1,       Cristina%Barberio%NULL%1,       Fabio%Ciceri%NULL%1,       Ary%Serpa Neto%NULL%1,       Lorenzo%Dagna%NULL%1,       Rinaldo%Bellomo%NULL%1,       Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,     Cabrini%Luca%coreGivesNoEmail%0,     Castelli%Antonio%coreGivesNoEmail%0,     Cecconi%Maurizio%coreGivesNoEmail%0,     Cereda%Danilo%coreGivesNoEmail%0,     Coluccello%Antonio%coreGivesNoEmail%0,     Foti%Giuseppe%coreGivesNoEmail%0,     Fumagalli%Roberto%coreGivesNoEmail%0,     Grasselli%Giacomo%coreGivesNoEmail%0,     Iotti%Giorgio%coreGivesNoEmail%0,     Latronico%Nicola%coreGivesNoEmail%0,     Lorini%Luca%coreGivesNoEmail%0,     Merler%Stefano%coreGivesNoEmail%0,     Natalini%Giuseppe%coreGivesNoEmail%0,     Pesenti%Antonio%coreGivesNoEmail%0,     Piatti%Alessandra%coreGivesNoEmail%0,     Ranieri%Marco Vito%coreGivesNoEmail%0,     Scandroglio%Anna Mara%coreGivesNoEmail%0,     Storti%Enrico%coreGivesNoEmail%0,     Zanella%Alberto%coreGivesNoEmail%0,     Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,       Min%Zhou%NULL%0,       Xuan%Dong%NULL%0,       Jieming%Qu%NULL%0,       Fengyun%Gong%NULL%0,       Yang%Han%NULL%0,       Yang%Qiu%NULL%0,       Jingli%Wang%NULL%0,       Ying%Liu%NULL%0,       Yuan%Wei%NULL%0,       Jia'an%Xia%NULL%0,       Ting%Yu%NULL%0,       Xinxin%Zhang%NULL%0,       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Outcomes and Prognostic Factors in 267 Patients with Severe Acute Respiratory Syndrome in Hong Kong"</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1, Tai Nin%Chau%xref no email%1, Owen%Tsang%xref no email%1, Eugene%Tso%xref no email%1, Ming Chee%Chiu%xref no email%1, Wing Lok%Tong%xref no email%1, Po Oi%Lee%xref no email%1, Tak Keung%Ng%xref no email%1, Wai Fu%Ng%xref no email%1, Kam Cheong%Lee%xref no email%1, William%Lam%xref no email%1, Wai Cho%Yu%xref no email%1, Jak Yiu%Lai%xref no email%1, Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>"Characteristics and Outcomes of Middle East Respiratory Syndrome Coronavirus Patients Admitted to an Intensive Care Unit in Jeddah, Saudi Arabia"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Background: An increasing number of patients are being infected with Middle East respiratory syndrome coronavirus (MERS-CoV) since the first case was identified in September 2012. We report the characteristics and outcomes of MERS-CoV\u2013confirmed patients who developed critical illness requiring admission to an intensive care unit (ICU).
+ Methods: We conducted a prospective cohort study of all MERS-CoV\u2013confirmed cases who were admitted to our ICU from March 20, 2014, till June 1, 2014. Presenting symptoms, comorbid conditions, and details of their ICU stay were recorded.
+ Results: Eight patients were admitted to the ICU with MERS-CoV infection.
+ All had signs of respiratory distress with 7 requiring mechanical ventilation.
+ Three patients were health care workers.
+ In all, 6 patients had comorbid conditions and 5 patients developed multiorgan system failure (MOSF).
+ In all, 5 patients expired, 2 were discharged alive, and 1 remained intubated at the end of the study period.
+ Conclusions: Middle East respiratory syndrome coronavirus carries a high mortality rate in patients who require ICU admission, with a significant number of patients developing MOSF.
+ Further investigation is needed to determine optimal management guidelines for these patients.
+ </t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1, Ali S.%Wahla%xref no email%1, Shakeel%Siddiqui%xref no email%1, Alaa%Ghabashi%xref no email%2, Majid%Al-Shomrani%xref no email%1, Abdulhakeem%Al-Thaqafi%xref no email%1, Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-26</t>
+  </si>
+  <si>
+    <t>"Clinical Course and Outcomes of Critically Ill Patients With Middle East Respiratory Syndrome Coronavirus Infection"</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1, Ahmed A.%Arifi%xref no email%1, Hanan H.%Balkhy%xref no email%1, Hani%Najm%xref no email%1, Abdulaziz S.%Aldawood%xref no email%1, Alaa%Ghabashi%xref no email%0, Hassan%Hawa%xref no email%1, Adel%Alothman%xref no email%1, Abdulaziz%Khaldi%xref no email%1, Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,       Ali S.%Omrani%NULL%1,       Kamran%Baig%NULL%1,       Abdelkarim%Bahloul%NULL%1,       Fatehi%Elzein%NULL%1,       Mohammad Abdul%Matin%NULL%1,       Mohei A.A.%Selim%NULL%1,       Mohammed Al%Mutairi%NULL%1,       Daifullah Al%Nakhli%NULL%1,       Amal Y. Al%Aidaroos%NULL%1,       Nisreen Al%Sherbeeni%NULL%1,       Hesham I.%Al-Khashan%NULL%1,       Ziad A.%Memish%zmemish@yahoo.com%1,       Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,       Badr%Alsayed%NULL%1,       Sameh%Embarak%NULL%1,       Taha%Yaseen%NULL%1,       Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,       Shamsudeen F.%Fagbo%NULL%1,       Vicky J.%Fang%NULL%1,       Leila%Skakni%NULL%1,       Mercy%Joseph%NULL%1,       Tariq A.%Wani%NULL%1,       Benjamin J.%Cowling%NULL%0,       Malik%Peiris%NULL%1,       Ahmed%Hakawi%NULL%1,       Renee W.Y.%Chan%NULL%2,       Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,       Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,       Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,       Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,       Fatmah%Salah%Fs4l_med2011@yahoo.com%1,       Abdulmoatani%Alsulami%moatani@hotmail.com%1,       Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,       Dhananjay%Vaidya%dvaidya@jhmi.edu%1,       Trish M.%Perl%tperl@jhmi.edu%1,       Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,        Jing-Jin%Liang%NULL%1,        Qing-Tao%Zhou%NULL%1,        Xiao-Guang%Li%NULL%1,        Fei%Lin%NULL%1,        Zhong-Hua%Deng%NULL%1,        Bi-Ying%Zhang%NULL%1,        Lu%Li%NULL%1,        Xiao-Hua%Wang%NULL%1,        Hong%Zhu%NULL%1,        Qing-Bian%Ma%NULL%1,        Xiao-Mei%Tong%NULL%1,        Jie%Xu%NULL%1,        Yong-Chang%Sun%NULL%1,        Pei-Fang%Wei%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,        Xiao-Xin%Wu%NULL%0,        Xian-Gao%Jiang%NULL%0,        Kai-Jin%Xu%NULL%0,        Ling-Jun%Ying%NULL%0,        Chun-Lian%Ma%NULL%0,        Shi-Bo%Li%NULL%0,        Hua-Ying%Wang%NULL%0,        Sheng%Zhang%NULL%0,        Hai-Nv%Gao%NULL%0,        Ji-Fang%Sheng%NULL%0,        Hong-Liu%Cai%NULL%0,        Yun-Qing%Qiu%NULL%0,        Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,        Bijan J.%Ghassemieh%NULL%0,        Michelle%Nichols%NULL%0,        Richard%Kim%NULL%0,        Keith R.%Jerome%NULL%0,        Arun K.%Nalla%NULL%0,        Alexander L.%Greninger%NULL%0,        Sudhakar%Pipavath%NULL%0,        Mark M.%Wurfel%NULL%0,        Laura%Evans%NULL%0,        Patricia A.%Kritek%NULL%0,        T. Eoin%West%NULL%0,        Andrew%Luks%NULL%0,        Anthony%Gerbino%NULL%0,        Chris R.%Dale%NULL%0,        Jason D.%Goldman%NULL%0,        Shane%O’Mahony%NULL%0,        Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,  Eric%Yim%xref no email%0,  Lindy%Klaff%xref no email%0,  Sharukh%Lokhandwala%xref no email%0,  Francis X.%Riedo%xref no email%0,  Maria%Chong%xref no email%0,  Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        Stephanie%Bialek%NULL%1,        Ellen%Boundy%NULL%1,        Virginia%Bowen%NULL%1,        Nancy%Chow%NULL%1,        Amanda%Cohn%NULL%0,        Nicole%Dowling%NULL%1,        Sascha%Ellington%NULL%1,        Ryan%Gierke%NULL%1,        Aron%Hall%NULL%1,        Jessica%MacNeil%NULL%1,        Priti%Patel%NULL%1,        Georgina%Peacock%NULL%1,        Tamara%Pilishvili%NULL%1,        Hilda%Razzaghi%NULL%1,        Nia%Reed%NULL%1,        Matthew%Ritchey%NULL%1,        Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,        Wenlin%Cheng%NULL%0,        Lei%Yu%NULL%0,        Ya-Kun%Liu%NULL%0,        Xiaoyong%Hu%NULL%0,        Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,        Tangkai%Qi%NULL%0,        Li%Liu%NULL%0,        Yun%Ling%NULL%0,        Zhiping%Qian%NULL%0,        Tao%Li%NULL%0,        Feng%Li%NULL%0,        Qingnian%Xu%NULL%0,        Yuyi%Zhang%NULL%0,        Shuibao%Xu%NULL%0,        Zhigang%Song%NULL%0,        Yigang%Zeng%NULL%0,        Yinzhong%Shen%NULL%0,        Yuxin%Shi%NULL%0,        Tongyu%Zhu%NULL%0,        Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,        Dingyu%Zhang%NULL%0,        Wenling%Wang%NULL%0,        Xingwang%Li%NULL%0,        Bo%Yang%NULL%0,        Jingdong%Song%NULL%0,        Xiang%Zhao%NULL%0,        Baoying%Huang%NULL%0,        Weifeng%Shi%NULL%0,        Roujian%Lu%NULL%0,        Peihua%Niu%NULL%0,        Faxian%Zhan%NULL%0,        Xuejun%Ma%NULL%0,        Dayan%Wang%NULL%0,        Wenbo%Xu%NULL%0,        Guizhen%Wu%NULL%0,        George F.%Gao%NULL%0,        Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,        Simon A%Jones%NULL%1,        Jie%Yang%NULL%1,        Harish%Rajagopalan%NULL%1,        Luke%O’Donnell%NULL%1,        Yelena%Chernyak%NULL%1,        Katie A%Tobin%NULL%1,        Robert J%Cerfolio%NULL%1,        Fritz%Francois%NULL%2,        Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,      Becker%L.B.%coreGivesNoEmail%0,      Chelico%J.D.%coreGivesNoEmail%0,      Cohen%S.L.%coreGivesNoEmail%0,      Cookingham%J.%coreGivesNoEmail%0,      Coppa%K.%coreGivesNoEmail%0,      Crawford%J.M.%coreGivesNoEmail%0,      Davidson%K.W.%coreGivesNoEmail%0,      Diefenbach%M.A.%coreGivesNoEmail%0,      Dominello%A.J.%coreGivesNoEmail%0,      Duer-Hefele%J.%coreGivesNoEmail%0,      Falzon%L.%coreGivesNoEmail%0,      Gitlin%J.%coreGivesNoEmail%0,      Hajizadeh%N.%coreGivesNoEmail%0,      Harvin%T.G.%coreGivesNoEmail%0,      Hirsch%J.S.%coreGivesNoEmail%0,      Hirschwerk%D.A.%coreGivesNoEmail%0,      Kim%E.J.%coreGivesNoEmail%0,      Kozel%Z.M.%coreGivesNoEmail%0,      Marrast%L.M.%coreGivesNoEmail%0,      McGinn%T.%coreGivesNoEmail%0,      Mogavero%J.N.%coreGivesNoEmail%0,      Narasimhan%M.%coreGivesNoEmail%0,      Osorio%G.A.%coreGivesNoEmail%0,      Qiu%M.%coreGivesNoEmail%0,      Richardson%S.%coreGivesNoEmail%0,      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,        Mikael%Chetboun%NULL%0,        Julien%Poissy%NULL%0,        Violeta%Raverdy%NULL%0,        Jerome%Noulette%NULL%0,        Jerome%Noulette%NULL%0,        Alain%Duhamel%NULL%0,        Julien%Labreuche%NULL%0,        Daniel%Mathieu%NULL%0,        Francois%Pattou%francois.pattou@univ-lille.fr%0,        Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,        Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,        Robert%Caizzo%NULL%0,        Robert%Caizzo%NULL%0,        Morgan%Caplan%NULL%0,        Nicolas%Cousin%NULL%0,        Thibault%Duburcq%NULL%0,        Arthur%Durand%NULL%0,        Ahmed%El kalioubie%NULL%0,        Raphael%Favory%NULL%0,        Bruno%Garcia%NULL%0,        Patrick%Girardie%NULL%0,        Julien%Goutay%NULL%0,        Marion%Houard%NULL%0,        Emmanuelle%Jaillette%NULL%0,        Nicolas%Kostuj%NULL%0,        Geoffrey%Ledoux%NULL%0,        Daniel%Mathieu%NULL%0,        Anne Sophie%Moreau%NULL%0,        Christopher%Niles%NULL%0,        Saad%Nseir%NULL%0,        Thierry%Onimus%NULL%0,        Erika%Parmentier%NULL%0,        Sebastien%Préau%NULL%0,        Laurent%Robriquet%NULL%0,        Anahita%Rouze%NULL%0,        Sophie%Six%NULL%0,        Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,  Xiaoyan%Chen%xref no email%0,  Yanping%Cai%xref no email%0,  Jia\u2019an%Xia%xref no email%0,  Xing%Zhou%xref no email%0,  Sha%Xu%xref no email%0,  Hanping%Huang%xref no email%0,  Li%Zhang%xref no email%0,  Xia%Zhou%xref no email%0,  Chunling%Du%xref no email%0,  Yuye%Zhang%xref no email%0,  Juan%Song%xref no email%0,  Sijiao%Wang%xref no email%0,  Yencheng%Chao%xref no email%0,  Zeyong%Yang%xref no email%0,  Jie%Xu%xref no email%0,  Xin%Zhou%xref no email%0,  Dechang%Chen%xref no email%0,  Weining%Xiong%xref no email%0,  Lei%Xu%xref no email%0,  Feng%Zhou%xref no email%0,  Jinjun%Jiang%xref no email%0,  Chunxue%Bai%xref no email%0,  Junhua%Zheng%xref no email%0,  Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,        Chen-Hsen%Lee%NULL%1,        Cheng-Yi%Liu%NULL%1,        Jia-Horng%Wang%NULL%1,        Lee-Min%Wang%NULL%1,        Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,        Xiaobo%Yang%NULL%1,        Luyu%Yang%NULL%1,        Xiaojing%Zou%NULL%0,        Yaxin%Wang%NULL%0,        Yongran%Wu%NULL%0,        Ting%Zhou%NULL%1,        Yin%Yuan%NULL%1,        Hong%Qi%NULL%1,        Shouzhi%Fu%NULL%0,        Hong%Liu%NULL%0,        Jia’an%Xia%NULL%1,        Zhengqin%Xu%NULL%1,        Yuan%Yu%NULL%0,        Ruiting%Li%NULL%0,        Yaqi%Ouyang%NULL%1,        Rui%Wang%NULL%0,        Lehao%Ren%NULL%1,        Yingying%Hu%NULL%1,        Dan%Xu%NULL%0,        Xin%Zhao%NULL%1,        Shiying%Yuan%shiying_yuan@163.com%0,        Dingyu%Zhang%1813886398@qq.com%0,        You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,  Sean Wei Xiang%Ong%xref no email%0,  Shirin%Kalimuddin%xref no email%0,  Jenny G.%Low%xref no email%0,  Seow Yen%Tan%xref no email%0,  Jiashen%Loh%xref no email%0,  Oon-Tek%Ng%xref no email%0,  Kalisvar%Marimuthu%xref no email%0,  Li Wei%Ang%xref no email%0,  Tze Minn%Mak%xref no email%0,  Sok Kiang%Lau%xref no email%0,  Danielle E.%Anderson%xref no email%0,  Kian Sing%Chan%xref no email%0,  Thean Yen%Tan%xref no email%0,  Tong Yong%Ng%xref no email%0,  Lin%Cui%xref no email%0,  Zubaidah%Said%xref no email%0,  Lalitha%Kurupatham%xref no email%0,  Mark I-Cheng%Chen%xref no email%0,  Monica%Chan%xref no email%0,  Shawn%Vasoo%xref no email%0,  Lin-Fa%Wang%xref no email%0,  Boon Huan%Tan%xref no email%0,  Raymond Tzer Pin%Lin%xref no email%0,  Vernon Jian Ming%Lee%xref no email%0,  Yee-Sin%Leo%xref no email%0,  David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Wen-hua%Liang%NULL%0,        Yi%Zhao%NULL%1,        Heng-rui%Liang%NULL%1,        Zi-sheng%Chen%NULL%1,        Yi-min%Li%NULL%1,        Xiao-qing%Liu%NULL%1,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Chun-quan%Ou%NULL%0,        Li%Li%NULL%0,        Ping-yan%Chen%NULL%0,        Ling%Sang%NULL%1,        Wei%Wang%NULL%0,        Jian-fu%Li%NULL%1,        Cai-chen%Li%NULL%1,        Li-min%Ou%NULL%1,        Bo%Cheng%NULL%1,        Shan%Xiong%NULL%1,        Zheng-yi%Ni%NULL%0,        Jie%Xiang%NULL%0,        Yu%Hu%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Lin-ling%Cheng%NULL%1,        Feng%Ye%NULL%1,        Shi-yue%Li%NULL%0,        Jin-ping%Zheng%NULL%1,        Nuo-fu%Zhang%NULL%1,        Nan-shan%Zhong%NULL%0,        Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,        Giacomo%Iapichino%NULL%1,        Luca%Carenzo%NULL%1,        Maurizio%Cecconi%NULL%1,        Paola%Ferrazzi%NULL%1,        Tim%Sebastian%NULL%1,        Nils%Kucher%NULL%1,        Jan-Dirk%Studt%NULL%1,        Clara%Sacco%NULL%1,        Alexia%Bertuzzi%NULL%1,        Maria Teresa%Sandri%NULL%1,        Stefano%Barco%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,        M.J.H.A.%Kruip%NULL%1,        N.J.M.%van der Meer%NULL%1,        M.S.%Arbous%NULL%1,        D.A.M.P.J.%Gommers%NULL%1,        K.M.%Kant%NULL%1,        F.H.J.%Kaptein%NULL%1,        J.%van Paassen%NULL%1,        M.A.M.%Stals%NULL%1,        M.V.%Huisman%NULL%1,        H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,        Fang%Jiang%NULL%1,        Wating%Su%NULL%1,        Chang%Chen%NULL%1,        Jingli%Chen%NULL%1,        Wei%Mei%NULL%1,        Li-Ying%Zhan%NULL%1,        Yifan%Jia%NULL%1,        Liangqing%Zhang%NULL%1,        Danyong%Liu%NULL%1,        Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,        Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,        Ewen M%Harrison%NULL%1,        Christopher A%Green%NULL%1,        Hayley E%Hardwick%NULL%1,        Riinu%Pius%NULL%1,        Lisa%Norman%NULL%1,        Karl A%Holden%NULL%1,        Jonathan M%Read%NULL%1,        Frank%Dondelinger%NULL%1,        Gail%Carson%NULL%1,        Laura%Merson%NULL%1,        James%Lee%NULL%1,        Daniel%Plotkin%NULL%1,        Louise%Sigfrid%NULL%1,        Sophie%Halpin%NULL%1,        Clare%Jackson%NULL%1,        Carrol%Gamble%NULL%1,        Peter W%Horby%NULL%1,        Jonathan S%Nguyen-Van-Tam%NULL%1,        Antonia%Ho%NULL%1,        Clark D%Russell%NULL%1,        Jake%Dunning%NULL%1,        Peter JM%Openshaw%NULL%1,        J Kenneth%Baillie%NULL%1,        Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,        Li-Min%Liu%NULL%0,        Wen%Yin%NULL%0,        Wen%Wang%NULL%0,        Lu-Lu%Guan%NULL%0,        Ming-Li%Yuan%NULL%0,        Yu-Lei%Li%NULL%0,        Yi%Hu%NULL%0,        Xu-Yan%Li%NULL%0,        Bing%Sun%NULL%0,        Peng%Peng%NULL%0,        Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,        Qiang%Zhou%NULL%1,        Ruiqiang%Zheng%NULL%1,        Xuyan%Li%NULL%1,        Jianmin%Ling%NULL%1,        Yumei%Chen%NULL%1,        Jing%Jia%NULL%1,        Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,        Anna Mara%Scandroglio%NULL%1,        Giacomo%Monti%NULL%1,        Maria Grazia%Calabrò%NULL%1,        Giovanni%Landoni%NULL%1,        Antonio%Dell'Acqua%NULL%1,        Luigi%Beretta%NULL%1,        Elena%Moizo%NULL%1,        Alfredo%Ravizza%NULL%1,        Fabrizio%Monaco%NULL%1,        Corrado%Campochiaro%NULL%1,        Marina%Pieri%NULL%1,        Maria Luisa%Azzolini%NULL%1,        Giovanni%Borghi%NULL%1,        Martina%Crivellari%NULL%1,        Caterina%Conte%NULL%1,        Cristina%Mattioli%NULL%1,        Paolo%Silvani%NULL%1,        Milena%Mucci%NULL%1,        Stefano%Turi%NULL%1,        Stefano%Tentori%NULL%1,        Martina%Baiardo Redaelli%NULL%1,        Marianna%Sartorelli%NULL%1,        Piera%Angelillo%NULL%1,        Alessandro%Belletti%NULL%1,        Pasquale%Nardelli%NULL%1,        Francesco Giuseppe%Nisi%NULL%1,        Gabriele%Valsecchi%NULL%1,        Cristina%Barberio%NULL%1,        Fabio%Ciceri%NULL%1,        Ary%Serpa Neto%NULL%1,        Lorenzo%Dagna%NULL%1,        Rinaldo%Bellomo%NULL%1,        Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,      Cabrini%Luca%coreGivesNoEmail%0,      Castelli%Antonio%coreGivesNoEmail%0,      Cecconi%Maurizio%coreGivesNoEmail%0,      Cereda%Danilo%coreGivesNoEmail%0,      Coluccello%Antonio%coreGivesNoEmail%0,      Foti%Giuseppe%coreGivesNoEmail%0,      Fumagalli%Roberto%coreGivesNoEmail%0,      Grasselli%Giacomo%coreGivesNoEmail%0,      Iotti%Giorgio%coreGivesNoEmail%0,      Latronico%Nicola%coreGivesNoEmail%0,      Lorini%Luca%coreGivesNoEmail%0,      Merler%Stefano%coreGivesNoEmail%0,      Natalini%Giuseppe%coreGivesNoEmail%0,      Pesenti%Antonio%coreGivesNoEmail%0,      Piatti%Alessandra%coreGivesNoEmail%0,      Ranieri%Marco Vito%coreGivesNoEmail%0,      Scandroglio%Anna Mara%coreGivesNoEmail%0,      Storti%Enrico%coreGivesNoEmail%0,      Zanella%Alberto%coreGivesNoEmail%0,      Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,        Min%Zhou%NULL%0,        Xuan%Dong%NULL%0,        Jieming%Qu%NULL%0,        Fengyun%Gong%NULL%0,        Yang%Han%NULL%0,        Yang%Qiu%NULL%0,        Jingli%Wang%NULL%0,        Ying%Liu%NULL%0,        Yuan%Wei%NULL%0,        Jia'an%Xia%NULL%0,        Ting%Yu%NULL%0,        Xinxin%Zhang%NULL%0,        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,  Tai Nin%Chau%xref no email%1,  Owen%Tsang%xref no email%1,  Eugene%Tso%xref no email%1,  Ming Chee%Chiu%xref no email%1,  Wing Lok%Tong%xref no email%1,  Po Oi%Lee%xref no email%1,  Tak Keung%Ng%xref no email%1,  Wai Fu%Ng%xref no email%1,  Kam Cheong%Lee%xref no email%1,  William%Lam%xref no email%1,  Wai Cho%Yu%xref no email%1,  Jak Yiu%Lai%xref no email%1,  Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,  Ali S.%Wahla%xref no email%1,  Shakeel%Siddiqui%xref no email%1,  Alaa%Ghabashi%xref no email%2,  Majid%Al-Shomrani%xref no email%1,  Abdulhakeem%Al-Thaqafi%xref no email%1,  Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,  Ahmed A.%Arifi%xref no email%1,  Hanan H.%Balkhy%xref no email%1,  Hani%Najm%xref no email%1,  Abdulaziz S.%Aldawood%xref no email%1,  Alaa%Ghabashi%xref no email%0,  Hassan%Hawa%xref no email%1,  Adel%Alothman%xref no email%1,  Abdulaziz%Khaldi%xref no email%1,  Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,        Ali S.%Omrani%NULL%1,        Kamran%Baig%NULL%1,        Abdelkarim%Bahloul%NULL%1,        Fatehi%Elzein%NULL%1,        Mohammad Abdul%Matin%NULL%1,        Mohei A.A.%Selim%NULL%1,        Mohammed Al%Mutairi%NULL%1,        Daifullah Al%Nakhli%NULL%1,        Amal Y. Al%Aidaroos%NULL%1,        Nisreen Al%Sherbeeni%NULL%1,        Hesham I.%Al-Khashan%NULL%1,        Ziad A.%Memish%zmemish@yahoo.com%1,        Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,        Badr%Alsayed%NULL%1,        Sameh%Embarak%NULL%1,        Taha%Yaseen%NULL%1,        Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,        Shamsudeen F.%Fagbo%NULL%1,        Vicky J.%Fang%NULL%1,        Leila%Skakni%NULL%1,        Mercy%Joseph%NULL%1,        Tariq A.%Wani%NULL%1,        Benjamin J.%Cowling%NULL%0,        Malik%Peiris%NULL%1,        Ahmed%Hakawi%NULL%1,        Renee W.Y.%Chan%NULL%2,        Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,        Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,        Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,        Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,        Fatmah%Salah%Fs4l_med2011@yahoo.com%1,        Abdulmoatani%Alsulami%moatani@hotmail.com%1,        Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,        Dhananjay%Vaidya%dvaidya@jhmi.edu%1,        Trish M.%Perl%tperl@jhmi.edu%1,        Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +2073,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>365</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -1851,7 +2102,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -1880,7 +2131,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -1903,22 +2154,22 @@
         <v>43909.0</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>368</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>324</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>325</v>
       </c>
       <c r="I5" t="s">
         <v>52</v>
@@ -1938,7 +2189,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -1967,7 +2218,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1996,7 +2247,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>371</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2025,7 +2276,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2054,7 +2305,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2083,7 +2334,7 @@
         <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>374</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2112,7 +2363,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -2141,7 +2392,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2164,22 +2415,22 @@
         <v>43903.0</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>377</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>324</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="I14" t="s">
         <v>52</v>
@@ -2199,7 +2450,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2228,7 +2479,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2251,22 +2502,22 @@
         <v>43893.0</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>380</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>324</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="I17" t="s">
         <v>52</v>
@@ -2286,7 +2537,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -2315,7 +2566,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -2344,7 +2595,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>306</v>
+        <v>383</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2373,7 +2624,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -2402,7 +2653,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>308</v>
+        <v>385</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2431,7 +2682,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2460,7 +2711,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2489,7 +2740,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>311</v>
+        <v>388</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -2518,7 +2769,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -2547,7 +2798,7 @@
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>313</v>
+        <v>390</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -2576,7 +2827,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>314</v>
+        <v>391</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -2628,22 +2879,22 @@
         <v>37929.0</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>392</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>324</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>354</v>
       </c>
       <c r="I30" t="s">
         <v>52</v>
@@ -2657,22 +2908,22 @@
         <v>42522.0</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>393</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>324</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>358</v>
       </c>
       <c r="I31" t="s">
         <v>52</v>
@@ -2686,22 +2937,22 @@
         <v>41716.0</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="D32" t="s">
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>394</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>324</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>354</v>
       </c>
       <c r="I32" t="s">
         <v>52</v>
@@ -2721,7 +2972,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -2750,7 +3001,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -2779,7 +3030,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -2808,7 +3059,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="467">
   <si>
     <t>Doi</t>
   </si>
@@ -1661,6 +1661,212 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,        Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,        Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,        Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,        Fatmah%Salah%Fs4l_med2011@yahoo.com%1,        Abdulmoatani%Alsulami%moatani@hotmail.com%1,        Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,        Dhananjay%Vaidya%dvaidya@jhmi.edu%1,        Trish M.%Perl%tperl@jhmi.edu%1,        Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,         Jing-Jin%Liang%NULL%1,         Qing-Tao%Zhou%NULL%1,         Xiao-Guang%Li%NULL%1,         Fei%Lin%NULL%1,         Zhong-Hua%Deng%NULL%1,         Bi-Ying%Zhang%NULL%1,         Lu%Li%NULL%1,         Xiao-Hua%Wang%NULL%1,         Hong%Zhu%NULL%1,         Qing-Bian%Ma%NULL%1,         Xiao-Mei%Tong%NULL%1,         Jie%Xu%NULL%1,         Yong-Chang%Sun%NULL%1,         Pei-Fang%Wei%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,         Xiao-Xin%Wu%NULL%0,         Xian-Gao%Jiang%NULL%0,         Kai-Jin%Xu%NULL%0,         Ling-Jun%Ying%NULL%0,         Chun-Lian%Ma%NULL%0,         Shi-Bo%Li%NULL%0,         Hua-Ying%Wang%NULL%0,         Sheng%Zhang%NULL%0,         Hai-Nv%Gao%NULL%0,         Ji-Fang%Sheng%NULL%0,         Hong-Liu%Cai%NULL%0,         Yun-Qing%Qiu%NULL%0,         Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,         Bijan J.%Ghassemieh%NULL%0,         Michelle%Nichols%NULL%0,         Richard%Kim%NULL%0,         Keith R.%Jerome%NULL%0,         Arun K.%Nalla%NULL%0,         Alexander L.%Greninger%NULL%0,         Sudhakar%Pipavath%NULL%0,         Mark M.%Wurfel%NULL%0,         Laura%Evans%NULL%0,         Patricia A.%Kritek%NULL%0,         T. Eoin%West%NULL%0,         Andrew%Luks%NULL%0,         Anthony%Gerbino%NULL%0,         Chris R.%Dale%NULL%0,         Jason D.%Goldman%NULL%0,         Shane%O’Mahony%NULL%0,         Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,   Eric%Yim%xref no email%0,   Lindy%Klaff%xref no email%0,   Sharukh%Lokhandwala%xref no email%0,   Francis X.%Riedo%xref no email%0,   Maria%Chong%xref no email%0,   Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         Stephanie%Bialek%NULL%1,         Ellen%Boundy%NULL%1,         Virginia%Bowen%NULL%1,         Nancy%Chow%NULL%1,         Amanda%Cohn%NULL%0,         Nicole%Dowling%NULL%1,         Sascha%Ellington%NULL%1,         Ryan%Gierke%NULL%1,         Aron%Hall%NULL%1,         Jessica%MacNeil%NULL%1,         Priti%Patel%NULL%1,         Georgina%Peacock%NULL%1,         Tamara%Pilishvili%NULL%1,         Hilda%Razzaghi%NULL%1,         Nia%Reed%NULL%1,         Matthew%Ritchey%NULL%1,         Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,         Wenlin%Cheng%NULL%0,         Lei%Yu%NULL%0,         Ya-Kun%Liu%NULL%0,         Xiaoyong%Hu%NULL%0,         Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,         Tangkai%Qi%NULL%0,         Li%Liu%NULL%0,         Yun%Ling%NULL%0,         Zhiping%Qian%NULL%0,         Tao%Li%NULL%0,         Feng%Li%NULL%0,         Qingnian%Xu%NULL%0,         Yuyi%Zhang%NULL%0,         Shuibao%Xu%NULL%0,         Zhigang%Song%NULL%0,         Yigang%Zeng%NULL%0,         Yinzhong%Shen%NULL%0,         Yuxin%Shi%NULL%0,         Tongyu%Zhu%NULL%0,         Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,         Dingyu%Zhang%NULL%0,         Wenling%Wang%NULL%0,         Xingwang%Li%NULL%0,         Bo%Yang%NULL%0,         Jingdong%Song%NULL%0,         Xiang%Zhao%NULL%0,         Baoying%Huang%NULL%0,         Weifeng%Shi%NULL%0,         Roujian%Lu%NULL%0,         Peihua%Niu%NULL%0,         Faxian%Zhan%NULL%0,         Xuejun%Ma%NULL%0,         Dayan%Wang%NULL%0,         Wenbo%Xu%NULL%0,         Guizhen%Wu%NULL%0,         George F.%Gao%NULL%0,         Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,         Simon A%Jones%NULL%1,         Jie%Yang%NULL%1,         Harish%Rajagopalan%NULL%1,         Luke%O’Donnell%NULL%1,         Yelena%Chernyak%NULL%1,         Katie A%Tobin%NULL%1,         Robert J%Cerfolio%NULL%1,         Fritz%Francois%NULL%2,         Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,       Becker%L.B.%coreGivesNoEmail%0,       Chelico%J.D.%coreGivesNoEmail%0,       Cohen%S.L.%coreGivesNoEmail%0,       Cookingham%J.%coreGivesNoEmail%0,       Coppa%K.%coreGivesNoEmail%0,       Crawford%J.M.%coreGivesNoEmail%0,       Davidson%K.W.%coreGivesNoEmail%0,       Diefenbach%M.A.%coreGivesNoEmail%0,       Dominello%A.J.%coreGivesNoEmail%0,       Duer-Hefele%J.%coreGivesNoEmail%0,       Falzon%L.%coreGivesNoEmail%0,       Gitlin%J.%coreGivesNoEmail%0,       Hajizadeh%N.%coreGivesNoEmail%0,       Harvin%T.G.%coreGivesNoEmail%0,       Hirsch%J.S.%coreGivesNoEmail%0,       Hirschwerk%D.A.%coreGivesNoEmail%0,       Kim%E.J.%coreGivesNoEmail%0,       Kozel%Z.M.%coreGivesNoEmail%0,       Marrast%L.M.%coreGivesNoEmail%0,       McGinn%T.%coreGivesNoEmail%0,       Mogavero%J.N.%coreGivesNoEmail%0,       Narasimhan%M.%coreGivesNoEmail%0,       Osorio%G.A.%coreGivesNoEmail%0,       Qiu%M.%coreGivesNoEmail%0,       Richardson%S.%coreGivesNoEmail%0,       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,         Mikael%Chetboun%NULL%0,         Julien%Poissy%NULL%0,         Violeta%Raverdy%NULL%0,         Jerome%Noulette%NULL%0,         Jerome%Noulette%NULL%0,         Alain%Duhamel%NULL%0,         Julien%Labreuche%NULL%0,         Daniel%Mathieu%NULL%0,         Francois%Pattou%francois.pattou@univ-lille.fr%0,         Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,         Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,         Robert%Caizzo%NULL%0,         Robert%Caizzo%NULL%0,         Morgan%Caplan%NULL%0,         Nicolas%Cousin%NULL%0,         Thibault%Duburcq%NULL%0,         Arthur%Durand%NULL%0,         Ahmed%El kalioubie%NULL%0,         Raphael%Favory%NULL%0,         Bruno%Garcia%NULL%0,         Patrick%Girardie%NULL%0,         Julien%Goutay%NULL%0,         Marion%Houard%NULL%0,         Emmanuelle%Jaillette%NULL%0,         Nicolas%Kostuj%NULL%0,         Geoffrey%Ledoux%NULL%0,         Daniel%Mathieu%NULL%0,         Anne Sophie%Moreau%NULL%0,         Christopher%Niles%NULL%0,         Saad%Nseir%NULL%0,         Thierry%Onimus%NULL%0,         Erika%Parmentier%NULL%0,         Sebastien%Préau%NULL%0,         Laurent%Robriquet%NULL%0,         Anahita%Rouze%NULL%0,         Sophie%Six%NULL%0,         Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,   Xiaoyan%Chen%xref no email%0,   Yanping%Cai%xref no email%0,   Jia\u2019an%Xia%xref no email%0,   Xing%Zhou%xref no email%0,   Sha%Xu%xref no email%0,   Hanping%Huang%xref no email%0,   Li%Zhang%xref no email%0,   Xia%Zhou%xref no email%0,   Chunling%Du%xref no email%0,   Yuye%Zhang%xref no email%0,   Juan%Song%xref no email%0,   Sijiao%Wang%xref no email%0,   Yencheng%Chao%xref no email%0,   Zeyong%Yang%xref no email%0,   Jie%Xu%xref no email%0,   Xin%Zhou%xref no email%0,   Dechang%Chen%xref no email%0,   Weining%Xiong%xref no email%0,   Lei%Xu%xref no email%0,   Feng%Zhou%xref no email%0,   Jinjun%Jiang%xref no email%0,   Chunxue%Bai%xref no email%0,   Junhua%Zheng%xref no email%0,   Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,         Chen-Hsen%Lee%NULL%1,         Cheng-Yi%Liu%NULL%1,         Jia-Horng%Wang%NULL%1,         Lee-Min%Wang%NULL%1,         Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,         Xiaobo%Yang%NULL%1,         Luyu%Yang%NULL%1,         Xiaojing%Zou%NULL%0,         Yaxin%Wang%NULL%0,         Yongran%Wu%NULL%0,         Ting%Zhou%NULL%1,         Yin%Yuan%NULL%1,         Hong%Qi%NULL%1,         Shouzhi%Fu%NULL%0,         Hong%Liu%NULL%0,         Jia’an%Xia%NULL%1,         Zhengqin%Xu%NULL%1,         Yuan%Yu%NULL%0,         Ruiting%Li%NULL%0,         Yaqi%Ouyang%NULL%1,         Rui%Wang%NULL%0,         Lehao%Ren%NULL%1,         Yingying%Hu%NULL%1,         Dan%Xu%NULL%0,         Xin%Zhao%NULL%1,         Shiying%Yuan%shiying_yuan@163.com%0,         Dingyu%Zhang%1813886398@qq.com%0,         You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,   Sean Wei Xiang%Ong%xref no email%0,   Shirin%Kalimuddin%xref no email%0,   Jenny G.%Low%xref no email%0,   Seow Yen%Tan%xref no email%0,   Jiashen%Loh%xref no email%0,   Oon-Tek%Ng%xref no email%0,   Kalisvar%Marimuthu%xref no email%0,   Li Wei%Ang%xref no email%0,   Tze Minn%Mak%xref no email%0,   Sok Kiang%Lau%xref no email%0,   Danielle E.%Anderson%xref no email%0,   Kian Sing%Chan%xref no email%0,   Thean Yen%Tan%xref no email%0,   Tong Yong%Ng%xref no email%0,   Lin%Cui%xref no email%0,   Zubaidah%Said%xref no email%0,   Lalitha%Kurupatham%xref no email%0,   Mark I-Cheng%Chen%xref no email%0,   Monica%Chan%xref no email%0,   Shawn%Vasoo%xref no email%0,   Lin-Fa%Wang%xref no email%0,   Boon Huan%Tan%xref no email%0,   Raymond Tzer Pin%Lin%xref no email%0,   Vernon Jian Ming%Lee%xref no email%0,   Yee-Sin%Leo%xref no email%0,   David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Wen-hua%Liang%NULL%0,         Yi%Zhao%NULL%1,         Heng-rui%Liang%NULL%1,         Zi-sheng%Chen%NULL%1,         Yi-min%Li%NULL%1,         Xiao-qing%Liu%NULL%1,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Chun-quan%Ou%NULL%0,         Li%Li%NULL%0,         Ping-yan%Chen%NULL%0,         Ling%Sang%NULL%1,         Wei%Wang%NULL%0,         Jian-fu%Li%NULL%1,         Cai-chen%Li%NULL%1,         Li-min%Ou%NULL%1,         Bo%Cheng%NULL%1,         Shan%Xiong%NULL%1,         Zheng-yi%Ni%NULL%0,         Jie%Xiang%NULL%0,         Yu%Hu%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Lin-ling%Cheng%NULL%1,         Feng%Ye%NULL%1,         Shi-yue%Li%NULL%0,         Jin-ping%Zheng%NULL%1,         Nuo-fu%Zhang%NULL%1,         Nan-shan%Zhong%NULL%0,         Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,         Giacomo%Iapichino%NULL%1,         Luca%Carenzo%NULL%1,         Maurizio%Cecconi%NULL%1,         Paola%Ferrazzi%NULL%1,         Tim%Sebastian%NULL%1,         Nils%Kucher%NULL%1,         Jan-Dirk%Studt%NULL%1,         Clara%Sacco%NULL%1,         Alexia%Bertuzzi%NULL%1,         Maria Teresa%Sandri%NULL%1,         Stefano%Barco%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,         M.J.H.A.%Kruip%NULL%1,         N.J.M.%van der Meer%NULL%1,         M.S.%Arbous%NULL%1,         D.A.M.P.J.%Gommers%NULL%1,         K.M.%Kant%NULL%1,         F.H.J.%Kaptein%NULL%1,         J.%van Paassen%NULL%1,         M.A.M.%Stals%NULL%1,         M.V.%Huisman%NULL%1,         H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,         Fang%Jiang%NULL%1,         Wating%Su%NULL%1,         Chang%Chen%NULL%1,         Jingli%Chen%NULL%1,         Wei%Mei%NULL%1,         Li-Ying%Zhan%NULL%1,         Yifan%Jia%NULL%1,         Liangqing%Zhang%NULL%1,         Danyong%Liu%NULL%1,         Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,         Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,         Ewen M%Harrison%NULL%1,         Christopher A%Green%NULL%1,         Hayley E%Hardwick%NULL%1,         Riinu%Pius%NULL%1,         Lisa%Norman%NULL%1,         Karl A%Holden%NULL%1,         Jonathan M%Read%NULL%1,         Frank%Dondelinger%NULL%1,         Gail%Carson%NULL%1,         Laura%Merson%NULL%1,         James%Lee%NULL%1,         Daniel%Plotkin%NULL%1,         Louise%Sigfrid%NULL%1,         Sophie%Halpin%NULL%1,         Clare%Jackson%NULL%1,         Carrol%Gamble%NULL%1,         Peter W%Horby%NULL%1,         Jonathan S%Nguyen-Van-Tam%NULL%1,         Antonia%Ho%NULL%1,         Clark D%Russell%NULL%1,         Jake%Dunning%NULL%1,         Peter JM%Openshaw%NULL%1,         J Kenneth%Baillie%NULL%1,         Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,         Li-Min%Liu%NULL%0,         Wen%Yin%NULL%0,         Wen%Wang%NULL%0,         Lu-Lu%Guan%NULL%0,         Ming-Li%Yuan%NULL%0,         Yu-Lei%Li%NULL%0,         Yi%Hu%NULL%0,         Xu-Yan%Li%NULL%0,         Bing%Sun%NULL%0,         Peng%Peng%NULL%0,         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,         Qiang%Zhou%NULL%1,         Ruiqiang%Zheng%NULL%1,         Xuyan%Li%NULL%1,         Jianmin%Ling%NULL%1,         Yumei%Chen%NULL%1,         Jing%Jia%NULL%1,         Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,         Anna Mara%Scandroglio%NULL%1,         Giacomo%Monti%NULL%1,         Maria Grazia%Calabrò%NULL%1,         Giovanni%Landoni%NULL%1,         Antonio%Dell'Acqua%NULL%1,         Luigi%Beretta%NULL%1,         Elena%Moizo%NULL%1,         Alfredo%Ravizza%NULL%1,         Fabrizio%Monaco%NULL%1,         Corrado%Campochiaro%NULL%1,         Marina%Pieri%NULL%1,         Maria Luisa%Azzolini%NULL%1,         Giovanni%Borghi%NULL%1,         Martina%Crivellari%NULL%1,         Caterina%Conte%NULL%1,         Cristina%Mattioli%NULL%1,         Paolo%Silvani%NULL%1,         Milena%Mucci%NULL%1,         Stefano%Turi%NULL%1,         Stefano%Tentori%NULL%1,         Martina%Baiardo Redaelli%NULL%1,         Marianna%Sartorelli%NULL%1,         Piera%Angelillo%NULL%1,         Alessandro%Belletti%NULL%1,         Pasquale%Nardelli%NULL%1,         Francesco Giuseppe%Nisi%NULL%1,         Gabriele%Valsecchi%NULL%1,         Cristina%Barberio%NULL%1,         Fabio%Ciceri%NULL%1,         Ary%Serpa Neto%NULL%1,         Lorenzo%Dagna%NULL%1,         Rinaldo%Bellomo%NULL%1,         Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,       Cabrini%Luca%coreGivesNoEmail%0,       Castelli%Antonio%coreGivesNoEmail%0,       Cecconi%Maurizio%coreGivesNoEmail%0,       Cereda%Danilo%coreGivesNoEmail%0,       Coluccello%Antonio%coreGivesNoEmail%0,       Foti%Giuseppe%coreGivesNoEmail%0,       Fumagalli%Roberto%coreGivesNoEmail%0,       Grasselli%Giacomo%coreGivesNoEmail%0,       Iotti%Giorgio%coreGivesNoEmail%0,       Latronico%Nicola%coreGivesNoEmail%0,       Lorini%Luca%coreGivesNoEmail%0,       Merler%Stefano%coreGivesNoEmail%0,       Natalini%Giuseppe%coreGivesNoEmail%0,       Pesenti%Antonio%coreGivesNoEmail%0,       Piatti%Alessandra%coreGivesNoEmail%0,       Ranieri%Marco Vito%coreGivesNoEmail%0,       Scandroglio%Anna Mara%coreGivesNoEmail%0,       Storti%Enrico%coreGivesNoEmail%0,       Zanella%Alberto%coreGivesNoEmail%0,       Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,         Min%Zhou%NULL%0,         Xuan%Dong%NULL%0,         Jieming%Qu%NULL%0,         Fengyun%Gong%NULL%0,         Yang%Han%NULL%0,         Yang%Qiu%NULL%0,         Jingli%Wang%NULL%0,         Ying%Liu%NULL%0,         Yuan%Wei%NULL%0,         Jia'an%Xia%NULL%0,         Ting%Yu%NULL%0,         Xinxin%Zhang%NULL%0,         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,   Tai Nin%Chau%xref no email%1,   Owen%Tsang%xref no email%1,   Eugene%Tso%xref no email%1,   Ming Chee%Chiu%xref no email%1,   Wing Lok%Tong%xref no email%1,   Po Oi%Lee%xref no email%1,   Tak Keung%Ng%xref no email%1,   Wai Fu%Ng%xref no email%1,   Kam Cheong%Lee%xref no email%1,   William%Lam%xref no email%1,   Wai Cho%Yu%xref no email%1,   Jak Yiu%Lai%xref no email%1,   Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,   Ali S.%Wahla%xref no email%1,   Shakeel%Siddiqui%xref no email%1,   Alaa%Ghabashi%xref no email%2,   Majid%Al-Shomrani%xref no email%1,   Abdulhakeem%Al-Thaqafi%xref no email%1,   Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,   Ahmed A.%Arifi%xref no email%1,   Hanan H.%Balkhy%xref no email%1,   Hani%Najm%xref no email%1,   Abdulaziz S.%Aldawood%xref no email%1,   Alaa%Ghabashi%xref no email%0,   Hassan%Hawa%xref no email%1,   Adel%Alothman%xref no email%1,   Abdulaziz%Khaldi%xref no email%1,   Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,         Ali S.%Omrani%NULL%1,         Kamran%Baig%NULL%1,         Abdelkarim%Bahloul%NULL%1,         Fatehi%Elzein%NULL%1,         Mohammad Abdul%Matin%NULL%1,         Mohei A.A.%Selim%NULL%1,         Mohammed Al%Mutairi%NULL%1,         Daifullah Al%Nakhli%NULL%1,         Amal Y. Al%Aidaroos%NULL%1,         Nisreen Al%Sherbeeni%NULL%1,         Hesham I.%Al-Khashan%NULL%1,         Ziad A.%Memish%zmemish@yahoo.com%1,         Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,         Badr%Alsayed%NULL%1,         Sameh%Embarak%NULL%1,         Taha%Yaseen%NULL%1,         Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,         Shamsudeen F.%Fagbo%NULL%1,         Vicky J.%Fang%NULL%1,         Leila%Skakni%NULL%1,         Mercy%Joseph%NULL%1,         Tariq A.%Wani%NULL%1,         Benjamin J.%Cowling%NULL%0,         Malik%Peiris%NULL%1,         Ahmed%Hakawi%NULL%1,         Renee W.Y.%Chan%NULL%2,         Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,         Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,         Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,         Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,         Fatmah%Salah%Fs4l_med2011@yahoo.com%1,         Abdulmoatani%Alsulami%moatani@hotmail.com%1,         Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,         Dhananjay%Vaidya%dvaidya@jhmi.edu%1,         Trish M.%Perl%tperl@jhmi.edu%1,         Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,          Jing-Jin%Liang%NULL%1,          Qing-Tao%Zhou%NULL%1,          Xiao-Guang%Li%NULL%1,          Fei%Lin%NULL%1,          Zhong-Hua%Deng%NULL%1,          Bi-Ying%Zhang%NULL%1,          Lu%Li%NULL%1,          Xiao-Hua%Wang%NULL%1,          Hong%Zhu%NULL%1,          Qing-Bian%Ma%NULL%1,          Xiao-Mei%Tong%NULL%1,          Jie%Xu%NULL%1,          Yong-Chang%Sun%NULL%1,          Pei-Fang%Wei%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,          Xiao-Xin%Wu%NULL%0,          Xian-Gao%Jiang%NULL%0,          Kai-Jin%Xu%NULL%0,          Ling-Jun%Ying%NULL%0,          Chun-Lian%Ma%NULL%0,          Shi-Bo%Li%NULL%0,          Hua-Ying%Wang%NULL%0,          Sheng%Zhang%NULL%0,          Hai-Nv%Gao%NULL%0,          Ji-Fang%Sheng%NULL%0,          Hong-Liu%Cai%NULL%0,          Yun-Qing%Qiu%NULL%0,          Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,          Bijan J.%Ghassemieh%NULL%0,          Michelle%Nichols%NULL%0,          Richard%Kim%NULL%0,          Keith R.%Jerome%NULL%0,          Arun K.%Nalla%NULL%0,          Alexander L.%Greninger%NULL%0,          Sudhakar%Pipavath%NULL%0,          Mark M.%Wurfel%NULL%0,          Laura%Evans%NULL%0,          Patricia A.%Kritek%NULL%0,          T. Eoin%West%NULL%0,          Andrew%Luks%NULL%0,          Anthony%Gerbino%NULL%0,          Chris R.%Dale%NULL%0,          Jason D.%Goldman%NULL%0,          Shane%O’Mahony%NULL%0,          Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,    Eric%Yim%xref no email%0,    Lindy%Klaff%xref no email%0,    Sharukh%Lokhandwala%xref no email%0,    Francis X.%Riedo%xref no email%0,    Maria%Chong%xref no email%0,    Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          Stephanie%Bialek%NULL%1,          Ellen%Boundy%NULL%1,          Virginia%Bowen%NULL%1,          Nancy%Chow%NULL%1,          Amanda%Cohn%NULL%0,          Nicole%Dowling%NULL%1,          Sascha%Ellington%NULL%1,          Ryan%Gierke%NULL%1,          Aron%Hall%NULL%1,          Jessica%MacNeil%NULL%1,          Priti%Patel%NULL%1,          Georgina%Peacock%NULL%1,          Tamara%Pilishvili%NULL%1,          Hilda%Razzaghi%NULL%1,          Nia%Reed%NULL%1,          Matthew%Ritchey%NULL%1,          Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,          Wenlin%Cheng%NULL%0,          Lei%Yu%NULL%0,          Ya-Kun%Liu%NULL%0,          Xiaoyong%Hu%NULL%0,          Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,          Tangkai%Qi%NULL%0,          Li%Liu%NULL%0,          Yun%Ling%NULL%0,          Zhiping%Qian%NULL%0,          Tao%Li%NULL%0,          Feng%Li%NULL%0,          Qingnian%Xu%NULL%0,          Yuyi%Zhang%NULL%0,          Shuibao%Xu%NULL%0,          Zhigang%Song%NULL%0,          Yigang%Zeng%NULL%0,          Yinzhong%Shen%NULL%0,          Yuxin%Shi%NULL%0,          Tongyu%Zhu%NULL%0,          Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,          Dingyu%Zhang%NULL%0,          Wenling%Wang%NULL%0,          Xingwang%Li%NULL%0,          Bo%Yang%NULL%0,          Jingdong%Song%NULL%0,          Xiang%Zhao%NULL%0,          Baoying%Huang%NULL%0,          Weifeng%Shi%NULL%0,          Roujian%Lu%NULL%0,          Peihua%Niu%NULL%0,          Faxian%Zhan%NULL%0,          Xuejun%Ma%NULL%0,          Dayan%Wang%NULL%0,          Wenbo%Xu%NULL%0,          Guizhen%Wu%NULL%0,          George F.%Gao%NULL%0,          Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,          Simon A%Jones%NULL%1,          Jie%Yang%NULL%1,          Harish%Rajagopalan%NULL%1,          Luke%O’Donnell%NULL%1,          Yelena%Chernyak%NULL%1,          Katie A%Tobin%NULL%1,          Robert J%Cerfolio%NULL%1,          Fritz%Francois%NULL%2,          Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,        Becker%L.B.%coreGivesNoEmail%0,        Chelico%J.D.%coreGivesNoEmail%0,        Cohen%S.L.%coreGivesNoEmail%0,        Cookingham%J.%coreGivesNoEmail%0,        Coppa%K.%coreGivesNoEmail%0,        Crawford%J.M.%coreGivesNoEmail%0,        Davidson%K.W.%coreGivesNoEmail%0,        Diefenbach%M.A.%coreGivesNoEmail%0,        Dominello%A.J.%coreGivesNoEmail%0,        Duer-Hefele%J.%coreGivesNoEmail%0,        Falzon%L.%coreGivesNoEmail%0,        Gitlin%J.%coreGivesNoEmail%0,        Hajizadeh%N.%coreGivesNoEmail%0,        Harvin%T.G.%coreGivesNoEmail%0,        Hirsch%J.S.%coreGivesNoEmail%0,        Hirschwerk%D.A.%coreGivesNoEmail%0,        Kim%E.J.%coreGivesNoEmail%0,        Kozel%Z.M.%coreGivesNoEmail%0,        Marrast%L.M.%coreGivesNoEmail%0,        McGinn%T.%coreGivesNoEmail%0,        Mogavero%J.N.%coreGivesNoEmail%0,        Narasimhan%M.%coreGivesNoEmail%0,        Osorio%G.A.%coreGivesNoEmail%0,        Qiu%M.%coreGivesNoEmail%0,        Richardson%S.%coreGivesNoEmail%0,        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,          Mikael%Chetboun%NULL%0,          Julien%Poissy%NULL%0,          Violeta%Raverdy%NULL%0,          Jerome%Noulette%NULL%0,          Jerome%Noulette%NULL%0,          Alain%Duhamel%NULL%0,          Julien%Labreuche%NULL%0,          Daniel%Mathieu%NULL%0,          Francois%Pattou%francois.pattou@univ-lille.fr%0,          Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,          Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,          Robert%Caizzo%NULL%0,          Robert%Caizzo%NULL%0,          Morgan%Caplan%NULL%0,          Nicolas%Cousin%NULL%0,          Thibault%Duburcq%NULL%0,          Arthur%Durand%NULL%0,          Ahmed%El kalioubie%NULL%0,          Raphael%Favory%NULL%0,          Bruno%Garcia%NULL%0,          Patrick%Girardie%NULL%0,          Julien%Goutay%NULL%0,          Marion%Houard%NULL%0,          Emmanuelle%Jaillette%NULL%0,          Nicolas%Kostuj%NULL%0,          Geoffrey%Ledoux%NULL%0,          Daniel%Mathieu%NULL%0,          Anne Sophie%Moreau%NULL%0,          Christopher%Niles%NULL%0,          Saad%Nseir%NULL%0,          Thierry%Onimus%NULL%0,          Erika%Parmentier%NULL%0,          Sebastien%Préau%NULL%0,          Laurent%Robriquet%NULL%0,          Anahita%Rouze%NULL%0,          Sophie%Six%NULL%0,          Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,    Xiaoyan%Chen%xref no email%0,    Yanping%Cai%xref no email%0,    Jia\u2019an%Xia%xref no email%0,    Xing%Zhou%xref no email%0,    Sha%Xu%xref no email%0,    Hanping%Huang%xref no email%0,    Li%Zhang%xref no email%0,    Xia%Zhou%xref no email%0,    Chunling%Du%xref no email%0,    Yuye%Zhang%xref no email%0,    Juan%Song%xref no email%0,    Sijiao%Wang%xref no email%0,    Yencheng%Chao%xref no email%0,    Zeyong%Yang%xref no email%0,    Jie%Xu%xref no email%0,    Xin%Zhou%xref no email%0,    Dechang%Chen%xref no email%0,    Weining%Xiong%xref no email%0,    Lei%Xu%xref no email%0,    Feng%Zhou%xref no email%0,    Jinjun%Jiang%xref no email%0,    Chunxue%Bai%xref no email%0,    Junhua%Zheng%xref no email%0,    Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,          Chen-Hsen%Lee%NULL%1,          Cheng-Yi%Liu%NULL%1,          Jia-Horng%Wang%NULL%1,          Lee-Min%Wang%NULL%1,          Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,          Xiaobo%Yang%NULL%1,          Luyu%Yang%NULL%1,          Xiaojing%Zou%NULL%0,          Yaxin%Wang%NULL%0,          Yongran%Wu%NULL%0,          Ting%Zhou%NULL%1,          Yin%Yuan%NULL%1,          Hong%Qi%NULL%1,          Shouzhi%Fu%NULL%0,          Hong%Liu%NULL%0,          Jia’an%Xia%NULL%1,          Zhengqin%Xu%NULL%1,          Yuan%Yu%NULL%0,          Ruiting%Li%NULL%0,          Yaqi%Ouyang%NULL%1,          Rui%Wang%NULL%0,          Lehao%Ren%NULL%1,          Yingying%Hu%NULL%1,          Dan%Xu%NULL%0,          Xin%Zhao%NULL%1,          Shiying%Yuan%shiying_yuan@163.com%0,          Dingyu%Zhang%1813886398@qq.com%0,          You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,    Sean Wei Xiang%Ong%xref no email%0,    Shirin%Kalimuddin%xref no email%0,    Jenny G.%Low%xref no email%0,    Seow Yen%Tan%xref no email%0,    Jiashen%Loh%xref no email%0,    Oon-Tek%Ng%xref no email%0,    Kalisvar%Marimuthu%xref no email%0,    Li Wei%Ang%xref no email%0,    Tze Minn%Mak%xref no email%0,    Sok Kiang%Lau%xref no email%0,    Danielle E.%Anderson%xref no email%0,    Kian Sing%Chan%xref no email%0,    Thean Yen%Tan%xref no email%0,    Tong Yong%Ng%xref no email%0,    Lin%Cui%xref no email%0,    Zubaidah%Said%xref no email%0,    Lalitha%Kurupatham%xref no email%0,    Mark I-Cheng%Chen%xref no email%0,    Monica%Chan%xref no email%0,    Shawn%Vasoo%xref no email%0,    Lin-Fa%Wang%xref no email%0,    Boon Huan%Tan%xref no email%0,    Raymond Tzer Pin%Lin%xref no email%0,    Vernon Jian Ming%Lee%xref no email%0,    Yee-Sin%Leo%xref no email%0,    David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Wen-hua%Liang%NULL%0,          Yi%Zhao%NULL%1,          Heng-rui%Liang%NULL%1,          Zi-sheng%Chen%NULL%1,          Yi-min%Li%NULL%1,          Xiao-qing%Liu%NULL%1,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Chun-quan%Ou%NULL%0,          Li%Li%NULL%0,          Ping-yan%Chen%NULL%0,          Ling%Sang%NULL%1,          Wei%Wang%NULL%0,          Jian-fu%Li%NULL%1,          Cai-chen%Li%NULL%1,          Li-min%Ou%NULL%1,          Bo%Cheng%NULL%1,          Shan%Xiong%NULL%1,          Zheng-yi%Ni%NULL%0,          Jie%Xiang%NULL%0,          Yu%Hu%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Lin-ling%Cheng%NULL%1,          Feng%Ye%NULL%1,          Shi-yue%Li%NULL%0,          Jin-ping%Zheng%NULL%1,          Nuo-fu%Zhang%NULL%1,          Nan-shan%Zhong%NULL%0,          Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,          Giacomo%Iapichino%NULL%1,          Luca%Carenzo%NULL%1,          Maurizio%Cecconi%NULL%1,          Paola%Ferrazzi%NULL%1,          Tim%Sebastian%NULL%1,          Nils%Kucher%NULL%1,          Jan-Dirk%Studt%NULL%1,          Clara%Sacco%NULL%1,          Alexia%Bertuzzi%NULL%1,          Maria Teresa%Sandri%NULL%1,          Stefano%Barco%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,          M.J.H.A.%Kruip%NULL%1,          N.J.M.%van der Meer%NULL%1,          M.S.%Arbous%NULL%1,          D.A.M.P.J.%Gommers%NULL%1,          K.M.%Kant%NULL%1,          F.H.J.%Kaptein%NULL%1,          J.%van Paassen%NULL%1,          M.A.M.%Stals%NULL%1,          M.V.%Huisman%NULL%1,          H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,          Fang%Jiang%NULL%1,          Wating%Su%NULL%1,          Chang%Chen%NULL%1,          Jingli%Chen%NULL%1,          Wei%Mei%NULL%1,          Li-Ying%Zhan%NULL%1,          Yifan%Jia%NULL%1,          Liangqing%Zhang%NULL%1,          Danyong%Liu%NULL%1,          Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,          Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,          Ewen M%Harrison%NULL%1,          Christopher A%Green%NULL%1,          Hayley E%Hardwick%NULL%1,          Riinu%Pius%NULL%1,          Lisa%Norman%NULL%1,          Karl A%Holden%NULL%1,          Jonathan M%Read%NULL%1,          Frank%Dondelinger%NULL%1,          Gail%Carson%NULL%1,          Laura%Merson%NULL%1,          James%Lee%NULL%1,          Daniel%Plotkin%NULL%1,          Louise%Sigfrid%NULL%1,          Sophie%Halpin%NULL%1,          Clare%Jackson%NULL%1,          Carrol%Gamble%NULL%1,          Peter W%Horby%NULL%1,          Jonathan S%Nguyen-Van-Tam%NULL%1,          Antonia%Ho%NULL%1,          Clark D%Russell%NULL%1,          Jake%Dunning%NULL%1,          Peter JM%Openshaw%NULL%1,          J Kenneth%Baillie%NULL%1,          Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,          Li-Min%Liu%NULL%0,          Wen%Yin%NULL%0,          Wen%Wang%NULL%0,          Lu-Lu%Guan%NULL%0,          Ming-Li%Yuan%NULL%0,          Yu-Lei%Li%NULL%0,          Yi%Hu%NULL%0,          Xu-Yan%Li%NULL%0,          Bing%Sun%NULL%0,          Peng%Peng%NULL%0,          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,          Qiang%Zhou%NULL%1,          Ruiqiang%Zheng%NULL%1,          Xuyan%Li%NULL%1,          Jianmin%Ling%NULL%1,          Yumei%Chen%NULL%1,          Jing%Jia%NULL%1,          Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,          Anna Mara%Scandroglio%NULL%1,          Giacomo%Monti%NULL%1,          Maria Grazia%Calabrò%NULL%1,          Giovanni%Landoni%NULL%1,          Antonio%Dell'Acqua%NULL%1,          Luigi%Beretta%NULL%1,          Elena%Moizo%NULL%1,          Alfredo%Ravizza%NULL%1,          Fabrizio%Monaco%NULL%1,          Corrado%Campochiaro%NULL%1,          Marina%Pieri%NULL%1,          Maria Luisa%Azzolini%NULL%1,          Giovanni%Borghi%NULL%1,          Martina%Crivellari%NULL%1,          Caterina%Conte%NULL%1,          Cristina%Mattioli%NULL%1,          Paolo%Silvani%NULL%1,          Milena%Mucci%NULL%1,          Stefano%Turi%NULL%1,          Stefano%Tentori%NULL%1,          Martina%Baiardo Redaelli%NULL%1,          Marianna%Sartorelli%NULL%1,          Piera%Angelillo%NULL%1,          Alessandro%Belletti%NULL%1,          Pasquale%Nardelli%NULL%1,          Francesco Giuseppe%Nisi%NULL%1,          Gabriele%Valsecchi%NULL%1,          Cristina%Barberio%NULL%1,          Fabio%Ciceri%NULL%1,          Ary%Serpa Neto%NULL%1,          Lorenzo%Dagna%NULL%1,          Rinaldo%Bellomo%NULL%1,          Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,        Cabrini%Luca%coreGivesNoEmail%0,        Castelli%Antonio%coreGivesNoEmail%0,        Cecconi%Maurizio%coreGivesNoEmail%0,        Cereda%Danilo%coreGivesNoEmail%0,        Coluccello%Antonio%coreGivesNoEmail%0,        Foti%Giuseppe%coreGivesNoEmail%0,        Fumagalli%Roberto%coreGivesNoEmail%0,        Grasselli%Giacomo%coreGivesNoEmail%0,        Iotti%Giorgio%coreGivesNoEmail%0,        Latronico%Nicola%coreGivesNoEmail%0,        Lorini%Luca%coreGivesNoEmail%0,        Merler%Stefano%coreGivesNoEmail%0,        Natalini%Giuseppe%coreGivesNoEmail%0,        Pesenti%Antonio%coreGivesNoEmail%0,        Piatti%Alessandra%coreGivesNoEmail%0,        Ranieri%Marco Vito%coreGivesNoEmail%0,        Scandroglio%Anna Mara%coreGivesNoEmail%0,        Storti%Enrico%coreGivesNoEmail%0,        Zanella%Alberto%coreGivesNoEmail%0,        Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,          Min%Zhou%NULL%0,          Xuan%Dong%NULL%0,          Jieming%Qu%NULL%0,          Fengyun%Gong%NULL%0,          Yang%Han%NULL%0,          Yang%Qiu%NULL%0,          Jingli%Wang%NULL%0,          Ying%Liu%NULL%0,          Yuan%Wei%NULL%0,          Jia'an%Xia%NULL%0,          Ting%Yu%NULL%0,          Xinxin%Zhang%NULL%0,          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,    Tai Nin%Chau%xref no email%1,    Owen%Tsang%xref no email%1,    Eugene%Tso%xref no email%1,    Ming Chee%Chiu%xref no email%1,    Wing Lok%Tong%xref no email%1,    Po Oi%Lee%xref no email%1,    Tak Keung%Ng%xref no email%1,    Wai Fu%Ng%xref no email%1,    Kam Cheong%Lee%xref no email%1,    William%Lam%xref no email%1,    Wai Cho%Yu%xref no email%1,    Jak Yiu%Lai%xref no email%1,    Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,    Ali S.%Wahla%xref no email%1,    Shakeel%Siddiqui%xref no email%1,    Alaa%Ghabashi%xref no email%2,    Majid%Al-Shomrani%xref no email%1,    Abdulhakeem%Al-Thaqafi%xref no email%1,    Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,    Ahmed A.%Arifi%xref no email%1,    Hanan H.%Balkhy%xref no email%1,    Hani%Najm%xref no email%1,    Abdulaziz S.%Aldawood%xref no email%1,    Alaa%Ghabashi%xref no email%0,    Hassan%Hawa%xref no email%1,    Adel%Alothman%xref no email%1,    Abdulaziz%Khaldi%xref no email%1,    Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,          Ali S.%Omrani%NULL%1,          Kamran%Baig%NULL%1,          Abdelkarim%Bahloul%NULL%1,          Fatehi%Elzein%NULL%1,          Mohammad Abdul%Matin%NULL%1,          Mohei A.A.%Selim%NULL%1,          Mohammed Al%Mutairi%NULL%1,          Daifullah Al%Nakhli%NULL%1,          Amal Y. Al%Aidaroos%NULL%1,          Nisreen Al%Sherbeeni%NULL%1,          Hesham I.%Al-Khashan%NULL%1,          Ziad A.%Memish%zmemish@yahoo.com%1,          Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,          Badr%Alsayed%NULL%1,          Sameh%Embarak%NULL%1,          Taha%Yaseen%NULL%1,          Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,          Shamsudeen F.%Fagbo%NULL%1,          Vicky J.%Fang%NULL%1,          Leila%Skakni%NULL%1,          Mercy%Joseph%NULL%1,          Tariq A.%Wani%NULL%1,          Benjamin J.%Cowling%NULL%0,          Malik%Peiris%NULL%1,          Ahmed%Hakawi%NULL%1,          Renee W.Y.%Chan%NULL%2,          Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,          Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,          Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,          Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,          Fatmah%Salah%Fs4l_med2011@yahoo.com%1,          Abdulmoatani%Alsulami%moatani@hotmail.com%1,          Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,          Dhananjay%Vaidya%dvaidya@jhmi.edu%1,          Trish M.%Perl%tperl@jhmi.edu%1,          Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2279,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>365</v>
+        <v>433</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -2102,7 +2308,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -2131,7 +2337,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
+        <v>435</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -2160,7 +2366,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>436</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2189,7 +2395,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>369</v>
+        <v>437</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -2218,7 +2424,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>438</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2247,7 +2453,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2276,7 +2482,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2305,7 +2511,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>373</v>
+        <v>441</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2334,7 +2540,7 @@
         <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>374</v>
+        <v>442</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2363,7 +2569,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>375</v>
+        <v>443</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -2392,7 +2598,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2421,7 +2627,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -2450,7 +2656,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2479,7 +2685,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2508,7 +2714,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2537,7 +2743,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -2566,7 +2772,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -2595,7 +2801,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2624,7 +2830,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -2653,7 +2859,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2682,7 +2888,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2711,7 +2917,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2740,7 +2946,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -2769,7 +2975,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -2798,7 +3004,7 @@
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -2827,7 +3033,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -2885,7 +3091,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -2914,7 +3120,7 @@
         <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>393</v>
+        <v>461</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -2943,7 +3149,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -2972,7 +3178,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -3001,7 +3207,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -3030,7 +3236,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -3059,7 +3265,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="537">
   <si>
     <t>Doi</t>
   </si>
@@ -1867,6 +1867,250 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,          Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,          Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,          Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,          Fatmah%Salah%Fs4l_med2011@yahoo.com%1,          Abdulmoatani%Alsulami%moatani@hotmail.com%1,          Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,          Dhananjay%Vaidya%dvaidya@jhmi.edu%1,          Trish M.%Perl%tperl@jhmi.edu%1,          Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,           Jing-Jin%Liang%NULL%1,           Qing-Tao%Zhou%NULL%1,           Xiao-Guang%Li%NULL%1,           Fei%Lin%NULL%1,           Zhong-Hua%Deng%NULL%1,           Bi-Ying%Zhang%NULL%1,           Lu%Li%NULL%1,           Xiao-Hua%Wang%NULL%1,           Hong%Zhu%NULL%1,           Qing-Bian%Ma%NULL%1,           Xiao-Mei%Tong%NULL%1,           Jie%Xu%NULL%1,           Yong-Chang%Sun%NULL%1,           Pei-Fang%Wei%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,           Xiao-Xin%Wu%NULL%0,           Xian-Gao%Jiang%NULL%0,           Kai-Jin%Xu%NULL%0,           Ling-Jun%Ying%NULL%0,           Chun-Lian%Ma%NULL%0,           Shi-Bo%Li%NULL%0,           Hua-Ying%Wang%NULL%0,           Sheng%Zhang%NULL%0,           Hai-Nv%Gao%NULL%0,           Ji-Fang%Sheng%NULL%0,           Hong-Liu%Cai%NULL%0,           Yun-Qing%Qiu%NULL%0,           Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,           Bijan J.%Ghassemieh%NULL%0,           Michelle%Nichols%NULL%0,           Richard%Kim%NULL%0,           Keith R.%Jerome%NULL%0,           Arun K.%Nalla%NULL%0,           Alexander L.%Greninger%NULL%0,           Sudhakar%Pipavath%NULL%0,           Mark M.%Wurfel%NULL%0,           Laura%Evans%NULL%0,           Patricia A.%Kritek%NULL%0,           T. Eoin%West%NULL%0,           Andrew%Luks%NULL%0,           Anthony%Gerbino%NULL%0,           Chris R.%Dale%NULL%0,           Jason D.%Goldman%NULL%0,           Shane%O’Mahony%NULL%0,           Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,     Eric%Yim%xref no email%0,     Lindy%Klaff%xref no email%0,     Sharukh%Lokhandwala%xref no email%0,     Francis X.%Riedo%xref no email%0,     Maria%Chong%xref no email%0,     Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           Stephanie%Bialek%NULL%1,           Ellen%Boundy%NULL%1,           Virginia%Bowen%NULL%1,           Nancy%Chow%NULL%2,           Amanda%Cohn%NULL%0,           Nicole%Dowling%NULL%1,           Sascha%Ellington%NULL%1,           Ryan%Gierke%NULL%2,           Aron%Hall%NULL%2,           Jessica%MacNeil%NULL%1,           Priti%Patel%NULL%1,           Georgina%Peacock%NULL%1,           Tamara%Pilishvili%NULL%2,           Hilda%Razzaghi%NULL%1,           Nia%Reed%NULL%1,           Matthew%Ritchey%NULL%2,           Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,           Wenlin%Cheng%NULL%0,           Lei%Yu%NULL%0,           Ya-Kun%Liu%NULL%0,           Xiaoyong%Hu%NULL%0,           Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,           Tangkai%Qi%NULL%0,           Li%Liu%NULL%0,           Yun%Ling%NULL%0,           Zhiping%Qian%NULL%0,           Tao%Li%NULL%0,           Feng%Li%NULL%0,           Qingnian%Xu%NULL%0,           Yuyi%Zhang%NULL%0,           Shuibao%Xu%NULL%0,           Zhigang%Song%NULL%0,           Yigang%Zeng%NULL%0,           Yinzhong%Shen%NULL%0,           Yuxin%Shi%NULL%0,           Tongyu%Zhu%NULL%0,           Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,           Dingyu%Zhang%NULL%0,           Wenling%Wang%NULL%0,           Xingwang%Li%NULL%0,           Bo%Yang%NULL%0,           Jingdong%Song%NULL%0,           Xiang%Zhao%NULL%0,           Baoying%Huang%NULL%0,           Weifeng%Shi%NULL%0,           Roujian%Lu%NULL%0,           Peihua%Niu%NULL%0,           Faxian%Zhan%NULL%0,           Xuejun%Ma%NULL%0,           Dayan%Wang%NULL%0,           Wenbo%Xu%NULL%0,           Guizhen%Wu%NULL%0,           George F.%Gao%NULL%0,           Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,           Simon A%Jones%NULL%1,           Jie%Yang%NULL%1,           Harish%Rajagopalan%NULL%1,           Luke%O’Donnell%NULL%1,           Yelena%Chernyak%NULL%1,           Katie A%Tobin%NULL%1,           Robert J%Cerfolio%NULL%1,           Fritz%Francois%NULL%2,           Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,         Becker%L.B.%coreGivesNoEmail%0,         Chelico%J.D.%coreGivesNoEmail%0,         Cohen%S.L.%coreGivesNoEmail%0,         Cookingham%J.%coreGivesNoEmail%0,         Coppa%K.%coreGivesNoEmail%0,         Crawford%J.M.%coreGivesNoEmail%0,         Davidson%K.W.%coreGivesNoEmail%0,         Diefenbach%M.A.%coreGivesNoEmail%0,         Dominello%A.J.%coreGivesNoEmail%0,         Duer-Hefele%J.%coreGivesNoEmail%0,         Falzon%L.%coreGivesNoEmail%0,         Gitlin%J.%coreGivesNoEmail%0,         Hajizadeh%N.%coreGivesNoEmail%0,         Harvin%T.G.%coreGivesNoEmail%0,         Hirsch%J.S.%coreGivesNoEmail%0,         Hirschwerk%D.A.%coreGivesNoEmail%0,         Kim%E.J.%coreGivesNoEmail%0,         Kozel%Z.M.%coreGivesNoEmail%0,         Marrast%L.M.%coreGivesNoEmail%0,         McGinn%T.%coreGivesNoEmail%0,         Mogavero%J.N.%coreGivesNoEmail%0,         Narasimhan%M.%coreGivesNoEmail%0,         Osorio%G.A.%coreGivesNoEmail%0,         Qiu%M.%coreGivesNoEmail%0,         Richardson%S.%coreGivesNoEmail%0,         Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,           Mikael%Chetboun%NULL%0,           Julien%Poissy%NULL%0,           Violeta%Raverdy%NULL%0,           Jerome%Noulette%NULL%0,           Jerome%Noulette%NULL%0,           Alain%Duhamel%NULL%0,           Julien%Labreuche%NULL%0,           Daniel%Mathieu%NULL%0,           Francois%Pattou%francois.pattou@univ-lille.fr%0,           Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,           Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,           Robert%Caizzo%NULL%0,           Robert%Caizzo%NULL%0,           Morgan%Caplan%NULL%0,           Nicolas%Cousin%NULL%0,           Thibault%Duburcq%NULL%0,           Arthur%Durand%NULL%0,           Ahmed%El kalioubie%NULL%0,           Raphael%Favory%NULL%0,           Bruno%Garcia%NULL%0,           Patrick%Girardie%NULL%0,           Julien%Goutay%NULL%0,           Marion%Houard%NULL%0,           Emmanuelle%Jaillette%NULL%0,           Nicolas%Kostuj%NULL%0,           Geoffrey%Ledoux%NULL%0,           Daniel%Mathieu%NULL%0,           Anne Sophie%Moreau%NULL%0,           Christopher%Niles%NULL%0,           Saad%Nseir%NULL%0,           Thierry%Onimus%NULL%0,           Erika%Parmentier%NULL%0,           Sebastien%Préau%NULL%0,           Laurent%Robriquet%NULL%0,           Anahita%Rouze%NULL%0,           Sophie%Six%NULL%0,           Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,         Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,     Xiaoyan%Chen%xref no email%0,     Yanping%Cai%xref no email%0,     Jia\u2019an%Xia%xref no email%0,     Xing%Zhou%xref no email%0,     Sha%Xu%xref no email%0,     Hanping%Huang%xref no email%0,     Li%Zhang%xref no email%0,     Xia%Zhou%xref no email%0,     Chunling%Du%xref no email%0,     Yuye%Zhang%xref no email%0,     Juan%Song%xref no email%0,     Sijiao%Wang%xref no email%0,     Yencheng%Chao%xref no email%0,     Zeyong%Yang%xref no email%0,     Jie%Xu%xref no email%0,     Xin%Zhou%xref no email%0,     Dechang%Chen%xref no email%0,     Weining%Xiong%xref no email%0,     Lei%Xu%xref no email%0,     Feng%Zhou%xref no email%0,     Jinjun%Jiang%xref no email%0,     Chunxue%Bai%xref no email%0,     Junhua%Zheng%xref no email%0,     Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,           Chen-Hsen%Lee%NULL%1,           Cheng-Yi%Liu%NULL%1,           Jia-Horng%Wang%NULL%1,           Lee-Min%Wang%NULL%1,           Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The global numbers of confirmed cases and deceased critically ill patients with COVID-19 are increasing.
+ However, the clinical course, and the 60-day mortality and its predictors in critically ill patients have not been fully elucidated.
+ The aim of this study is to identify the clinical course, and 60-day mortality and its predictors in critically ill patients with COVID-19.
+Methods
+Critically ill adult patients admitted to intensive care units (ICUs) from 3 hospitals in Wuhan, China, were included.
+ Data on demographic information, preexisting comorbidities, laboratory findings at ICU admission, treatments, clinical outcomes, and results of SARS-CoV-2 RNA tests and of serum SARS-CoV-2 IgM were collected including the duration between symptom onset and negative conversion of SARS-CoV-2 RNA.
+Results
+Of 1748 patients with COVID-19, 239 (13.7%) critically ill patients were included.
+ Complications included acute respiratory distress syndrome (ARDS) in 164 (68.6%) patients, coagulopathy in 150 (62.7%) patients, acute cardiac injury in 103 (43.1%) patients, and acute kidney injury (AKI) in 119 (49.8%) patients, which occurred 15.5 days, 17 days, 18.5 days, and 19 days after the symptom onset, respectively.
+ The median duration of the negative conversion of SARS-CoV-2 RNA was 30 (range 6–81) days in 49 critically ill survivors that were identified.
+ A total of 147 (61.5%) patients deceased by 60 days after ICU admission.
+ The median duration between ICU admission and decease was 12 (range 3–36).
+ Cox proportional-hazards regression analysis revealed that age older than 65 years, thrombocytopenia at ICU admission, ARDS, and AKI independently predicted the 60-day mortality.
+Conclusions
+Severe complications are common and the 60-day mortality of critically ill patients with COVID-19 is considerably high.
+ The duration of the negative conversion of SARS-CoV-2 RNA and its association with the severity of critically ill patients with COVID-19 should be seriously considered and further studied.
+</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,           Xiaobo%Yang%NULL%1,           Luyu%Yang%NULL%1,           Xiaojing%Zou%NULL%0,           Yaxin%Wang%NULL%0,           Yongran%Wu%NULL%0,           Ting%Zhou%NULL%1,           Yin%Yuan%NULL%1,           Hong%Qi%NULL%1,           Shouzhi%Fu%NULL%0,           Hong%Liu%NULL%0,           Jia’an%Xia%NULL%1,           Zhengqin%Xu%NULL%1,           Yuan%Yu%NULL%0,           Ruiting%Li%NULL%0,           Yaqi%Ouyang%NULL%1,           Rui%Wang%NULL%0,           Lehao%Ren%NULL%1,           Yingying%Hu%NULL%1,           Dan%Xu%NULL%0,           Xin%Zhao%NULL%1,           Shiying%Yuan%shiying_yuan@163.com%0,           Dingyu%Zhang%1813886398@qq.com%0,           You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,     Sean Wei Xiang%Ong%xref no email%0,     Shirin%Kalimuddin%xref no email%0,     Jenny G.%Low%xref no email%0,     Seow Yen%Tan%xref no email%0,     Jiashen%Loh%xref no email%0,     Oon-Tek%Ng%xref no email%0,     Kalisvar%Marimuthu%xref no email%0,     Li Wei%Ang%xref no email%0,     Tze Minn%Mak%xref no email%0,     Sok Kiang%Lau%xref no email%0,     Danielle E.%Anderson%xref no email%0,     Kian Sing%Chan%xref no email%0,     Thean Yen%Tan%xref no email%0,     Tong Yong%Ng%xref no email%0,     Lin%Cui%xref no email%0,     Zubaidah%Said%xref no email%0,     Lalitha%Kurupatham%xref no email%0,     Mark I-Cheng%Chen%xref no email%0,     Monica%Chan%xref no email%0,     Shawn%Vasoo%xref no email%0,     Lin-Fa%Wang%xref no email%0,     Boon Huan%Tan%xref no email%0,     Raymond Tzer Pin%Lin%xref no email%0,     Vernon Jian Ming%Lee%xref no email%0,     Yee-Sin%Leo%xref no email%0,     David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Wen-hua%Liang%NULL%0,           Yi%Zhao%NULL%1,           Heng-rui%Liang%NULL%1,           Zi-sheng%Chen%NULL%1,           Yi-min%Li%NULL%1,           Xiao-qing%Liu%NULL%1,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Chun-quan%Ou%NULL%0,           Li%Li%NULL%0,           Ping-yan%Chen%NULL%0,           Ling%Sang%NULL%1,           Wei%Wang%NULL%0,           Jian-fu%Li%NULL%1,           Cai-chen%Li%NULL%1,           Li-min%Ou%NULL%1,           Bo%Cheng%NULL%1,           Shan%Xiong%NULL%1,           Zheng-yi%Ni%NULL%0,           Jie%Xiang%NULL%0,           Yu%Hu%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Lin-ling%Cheng%NULL%1,           Feng%Ye%NULL%1,           Shi-yue%Li%NULL%0,           Jin-ping%Zheng%NULL%1,           Nuo-fu%Zhang%NULL%1,           Nan-shan%Zhong%NULL%0,           Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,           Giacomo%Iapichino%NULL%1,           Luca%Carenzo%NULL%1,           Maurizio%Cecconi%NULL%1,           Paola%Ferrazzi%NULL%1,           Tim%Sebastian%NULL%1,           Nils%Kucher%NULL%1,           Jan-Dirk%Studt%NULL%1,           Clara%Sacco%NULL%1,           Alexia%Bertuzzi%NULL%1,           Maria Teresa%Sandri%NULL%1,           Stefano%Barco%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,           M.J.H.A.%Kruip%NULL%1,           N.J.M.%van der Meer%NULL%1,           M.S.%Arbous%NULL%1,           D.A.M.P.J.%Gommers%NULL%1,           K.M.%Kant%NULL%1,           F.H.J.%Kaptein%NULL%1,           J.%van Paassen%NULL%1,           M.A.M.%Stals%NULL%1,           M.V.%Huisman%NULL%1,           H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,           Fang%Jiang%NULL%1,           Wating%Su%NULL%1,           Chang%Chen%NULL%1,           Jingli%Chen%NULL%1,           Wei%Mei%NULL%1,           Li-Ying%Zhan%NULL%1,           Yifan%Jia%NULL%1,           Liangqing%Zhang%NULL%1,           Danyong%Liu%NULL%1,           Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,           Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,           Ewen M%Harrison%NULL%1,           Christopher A%Green%NULL%1,           Hayley E%Hardwick%NULL%1,           Riinu%Pius%NULL%1,           Lisa%Norman%NULL%1,           Karl A%Holden%NULL%1,           Jonathan M%Read%NULL%1,           Frank%Dondelinger%NULL%1,           Gail%Carson%NULL%1,           Laura%Merson%NULL%1,           James%Lee%NULL%1,           Daniel%Plotkin%NULL%1,           Louise%Sigfrid%NULL%1,           Sophie%Halpin%NULL%1,           Clare%Jackson%NULL%1,           Carrol%Gamble%NULL%1,           Peter W%Horby%NULL%1,           Jonathan S%Nguyen-Van-Tam%NULL%1,           Antonia%Ho%NULL%1,           Clark D%Russell%NULL%1,           Jake%Dunning%NULL%1,           Peter JM%Openshaw%NULL%1,           J Kenneth%Baillie%NULL%1,           Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,           Li-Min%Liu%NULL%0,           Wen%Yin%NULL%0,           Wen%Wang%NULL%0,           Lu-Lu%Guan%NULL%0,           Ming-Li%Yuan%NULL%0,           Yu-Lei%Li%NULL%0,           Yi%Hu%NULL%0,           Xu-Yan%Li%NULL%0,           Bing%Sun%NULL%0,           Peng%Peng%NULL%0,           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+It had been shown that High-flow nasal cannula (HFNC) is an effective initial support strategy for patients with acute respiratory failure.
+ However, the efficacy of HFNC for patients with COVID-19 has not been established.
+ This study was performed to assess the efficacy of HFNC for patients with COVID-19 and describe early predictors of HFNC treatment success in order to develop a prediction tool that accurately identifies the need for upgrade respiratory support therapy.
+Methods
+We retrospectively reviewed the medical records of patients with COVID-19 treated by HFNC in respiratory wards of 2 hospitals in Wuhan between 1 January and 1 March 2020. Overall clinical outcomes, the success rate of HFNC strategy and related respiratory variables were evaluated.
+Results
+A total of 105 patients were analyzed.
+ Of these, 65 patients (61.9%) showed improved oxygenation and were successfully withdrawn from HFNC.
+ The PaO2/FiO2 ratio, SpO2/FiO2 ratio and ROX index (SpO2/FiO2*RR) at 6h, 12h and 24h of HFNC initiation were closely related to the prognosis.
+ The ROX index after 6h of HFNC initiation (AUROC, 0.798) had good predictive capacity for outcomes of HFNC.
+ In the multivariate logistic regression analysis, young age, gender of female, and lower SOFA score all have predictive value, while a ROX index greater than 5.55 at 6 h after initiation was significantly associated with HFNC success (OR, 17.821; 95% CI, 3.741-84.903 p&amp;lt;0.001).
+Conclusions
+Our study indicated that HFNC was an effective way of respiratory support in the treatment of COVID-19 patients.
+ The ROX index after 6h after initiating HFNC had good predictive capacity for HFNC outcomes.
+</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,           Qiang%Zhou%NULL%1,           Ruiqiang%Zheng%NULL%1,           Xuyan%Li%NULL%1,           Jianmin%Ling%NULL%1,           Yumei%Chen%NULL%1,           Jing%Jia%NULL%1,           Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,           Anna Mara%Scandroglio%NULL%1,           Giacomo%Monti%NULL%1,           Maria Grazia%Calabrò%NULL%1,           Giovanni%Landoni%NULL%1,           Antonio%Dell'Acqua%NULL%1,           Luigi%Beretta%NULL%1,           Elena%Moizo%NULL%1,           Alfredo%Ravizza%NULL%1,           Fabrizio%Monaco%NULL%1,           Corrado%Campochiaro%NULL%1,           Marina%Pieri%NULL%1,           Maria Luisa%Azzolini%NULL%1,           Giovanni%Borghi%NULL%1,           Martina%Crivellari%NULL%1,           Caterina%Conte%NULL%1,           Cristina%Mattioli%NULL%1,           Paolo%Silvani%NULL%1,           Milena%Mucci%NULL%1,           Stefano%Turi%NULL%1,           Stefano%Tentori%NULL%1,           Martina%Baiardo Redaelli%NULL%1,           Marianna%Sartorelli%NULL%1,           Piera%Angelillo%NULL%1,           Alessandro%Belletti%NULL%1,           Pasquale%Nardelli%NULL%1,           Francesco Giuseppe%Nisi%NULL%1,           Gabriele%Valsecchi%NULL%1,           Cristina%Barberio%NULL%1,           Fabio%Ciceri%NULL%1,           Ary%Serpa Neto%NULL%1,           Lorenzo%Dagna%NULL%1,           Rinaldo%Bellomo%NULL%1,           Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,         Cabrini%Luca%coreGivesNoEmail%0,         Castelli%Antonio%coreGivesNoEmail%0,         Cecconi%Maurizio%coreGivesNoEmail%0,         Cereda%Danilo%coreGivesNoEmail%0,         Coluccello%Antonio%coreGivesNoEmail%0,         Foti%Giuseppe%coreGivesNoEmail%0,         Fumagalli%Roberto%coreGivesNoEmail%0,         Grasselli%Giacomo%coreGivesNoEmail%0,         Iotti%Giorgio%coreGivesNoEmail%0,         Latronico%Nicola%coreGivesNoEmail%0,         Lorini%Luca%coreGivesNoEmail%0,         Merler%Stefano%coreGivesNoEmail%0,         Natalini%Giuseppe%coreGivesNoEmail%0,         Pesenti%Antonio%coreGivesNoEmail%0,         Piatti%Alessandra%coreGivesNoEmail%0,         Ranieri%Marco Vito%coreGivesNoEmail%0,         Scandroglio%Anna Mara%coreGivesNoEmail%0,         Storti%Enrico%coreGivesNoEmail%0,         Zanella%Alberto%coreGivesNoEmail%0,         Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,           Min%Zhou%NULL%0,           Xuan%Dong%NULL%0,           Jieming%Qu%NULL%0,           Fengyun%Gong%NULL%0,           Yang%Han%NULL%0,           Yang%Qiu%NULL%0,           Jingli%Wang%NULL%0,           Ying%Liu%NULL%0,           Yuan%Wei%NULL%0,           Jia'an%Xia%NULL%0,           Ting%Yu%NULL%0,           Xinxin%Zhang%NULL%0,           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,     Tai Nin%Chau%xref no email%1,     Owen%Tsang%xref no email%1,     Eugene%Tso%xref no email%1,     Ming Chee%Chiu%xref no email%1,     Wing Lok%Tong%xref no email%1,     Po Oi%Lee%xref no email%1,     Tak Keung%Ng%xref no email%1,     Wai Fu%Ng%xref no email%1,     Kam Cheong%Lee%xref no email%1,     William%Lam%xref no email%1,     Wai Cho%Yu%xref no email%1,     Jak Yiu%Lai%xref no email%1,     Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,     Ali S.%Wahla%xref no email%1,     Shakeel%Siddiqui%xref no email%1,     Alaa%Ghabashi%xref no email%2,     Majid%Al-Shomrani%xref no email%1,     Abdulhakeem%Al-Thaqafi%xref no email%1,     Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,     Ahmed A.%Arifi%xref no email%1,     Hanan H.%Balkhy%xref no email%1,     Hani%Najm%xref no email%1,     Abdulaziz S.%Aldawood%xref no email%1,     Alaa%Ghabashi%xref no email%0,     Hassan%Hawa%xref no email%1,     Adel%Alothman%xref no email%1,     Abdulaziz%Khaldi%xref no email%1,     Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,           Ali S.%Omrani%NULL%1,           Kamran%Baig%NULL%1,           Abdelkarim%Bahloul%NULL%1,           Fatehi%Elzein%NULL%1,           Mohammad Abdul%Matin%NULL%1,           Mohei A.A.%Selim%NULL%1,           Mohammed Al%Mutairi%NULL%1,           Daifullah Al%Nakhli%NULL%1,           Amal Y. Al%Aidaroos%NULL%1,           Nisreen Al%Sherbeeni%NULL%1,           Hesham I.%Al-Khashan%NULL%1,           Ziad A.%Memish%zmemish@yahoo.com%1,           Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,           Badr%Alsayed%NULL%1,           Sameh%Embarak%NULL%1,           Taha%Yaseen%NULL%1,           Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,           Shamsudeen F.%Fagbo%NULL%1,           Vicky J.%Fang%NULL%1,           Leila%Skakni%NULL%1,           Mercy%Joseph%NULL%1,           Tariq A.%Wani%NULL%1,           Benjamin J.%Cowling%NULL%0,           Malik%Peiris%NULL%1,           Ahmed%Hakawi%NULL%1,           Renee W.Y.%Chan%NULL%2,           Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,           Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,           Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,           Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,           Fatmah%Salah%Fs4l_med2011@yahoo.com%1,           Abdulmoatani%Alsulami%moatani@hotmail.com%1,           Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,           Dhananjay%Vaidya%dvaidya@jhmi.edu%1,           Trish M.%Perl%tperl@jhmi.edu%1,           Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,            Jing-Jin%Liang%NULL%1,            Qing-Tao%Zhou%NULL%1,            Xiao-Guang%Li%NULL%1,            Fei%Lin%NULL%1,            Zhong-Hua%Deng%NULL%1,            Bi-Ying%Zhang%NULL%1,            Lu%Li%NULL%1,            Xiao-Hua%Wang%NULL%1,            Hong%Zhu%NULL%1,            Qing-Bian%Ma%NULL%1,            Xiao-Mei%Tong%NULL%1,            Jie%Xu%NULL%1,            Yong-Chang%Sun%NULL%1,            Pei-Fang%Wei%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,            Xiao-Xin%Wu%NULL%0,            Xian-Gao%Jiang%NULL%0,            Kai-Jin%Xu%NULL%0,            Ling-Jun%Ying%NULL%0,            Chun-Lian%Ma%NULL%0,            Shi-Bo%Li%NULL%0,            Hua-Ying%Wang%NULL%0,            Sheng%Zhang%NULL%0,            Hai-Nv%Gao%NULL%0,            Ji-Fang%Sheng%NULL%0,            Hong-Liu%Cai%NULL%0,            Yun-Qing%Qiu%NULL%0,            Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,            Bijan J.%Ghassemieh%NULL%0,            Michelle%Nichols%NULL%0,            Richard%Kim%NULL%0,            Keith R.%Jerome%NULL%0,            Arun K.%Nalla%NULL%0,            Alexander L.%Greninger%NULL%0,            Sudhakar%Pipavath%NULL%0,            Mark M.%Wurfel%NULL%0,            Laura%Evans%NULL%0,            Patricia A.%Kritek%NULL%0,            T. Eoin%West%NULL%0,            Andrew%Luks%NULL%0,            Anthony%Gerbino%NULL%0,            Chris R.%Dale%NULL%0,            Jason D.%Goldman%NULL%0,            Shane%O’Mahony%NULL%0,            Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,      Eric%Yim%xref no email%0,      Lindy%Klaff%xref no email%0,      Sharukh%Lokhandwala%xref no email%0,      Francis X.%Riedo%xref no email%0,      Maria%Chong%xref no email%0,      Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            Stephanie%Bialek%NULL%1,            Ellen%Boundy%NULL%1,            Virginia%Bowen%NULL%1,            Nancy%Chow%NULL%1,            Amanda%Cohn%NULL%0,            Nicole%Dowling%NULL%1,            Sascha%Ellington%NULL%1,            Ryan%Gierke%NULL%1,            Aron%Hall%NULL%1,            Jessica%MacNeil%NULL%1,            Priti%Patel%NULL%1,            Georgina%Peacock%NULL%1,            Tamara%Pilishvili%NULL%1,            Hilda%Razzaghi%NULL%1,            Nia%Reed%NULL%1,            Matthew%Ritchey%NULL%1,            Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,            Wenlin%Cheng%NULL%0,            Lei%Yu%NULL%0,            Ya-Kun%Liu%NULL%0,            Xiaoyong%Hu%NULL%0,            Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,            Tangkai%Qi%NULL%0,            Li%Liu%NULL%0,            Yun%Ling%NULL%0,            Zhiping%Qian%NULL%0,            Tao%Li%NULL%0,            Feng%Li%NULL%0,            Qingnian%Xu%NULL%0,            Yuyi%Zhang%NULL%0,            Shuibao%Xu%NULL%0,            Zhigang%Song%NULL%0,            Yigang%Zeng%NULL%0,            Yinzhong%Shen%NULL%0,            Yuxin%Shi%NULL%0,            Tongyu%Zhu%NULL%0,            Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,            Dingyu%Zhang%NULL%0,            Wenling%Wang%NULL%0,            Xingwang%Li%NULL%0,            Bo%Yang%NULL%0,            Jingdong%Song%NULL%0,            Xiang%Zhao%NULL%0,            Baoying%Huang%NULL%0,            Weifeng%Shi%NULL%0,            Roujian%Lu%NULL%0,            Peihua%Niu%NULL%0,            Faxian%Zhan%NULL%0,            Xuejun%Ma%NULL%0,            Dayan%Wang%NULL%0,            Wenbo%Xu%NULL%0,            Guizhen%Wu%NULL%0,            George F.%Gao%NULL%0,            Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,            Simon A%Jones%NULL%1,            Jie%Yang%NULL%1,            Harish%Rajagopalan%NULL%1,            Luke%O’Donnell%NULL%1,            Yelena%Chernyak%NULL%1,            Katie A%Tobin%NULL%1,            Robert J%Cerfolio%NULL%1,            Fritz%Francois%NULL%2,            Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,          Becker%L.B.%coreGivesNoEmail%0,          Chelico%J.D.%coreGivesNoEmail%0,          Cohen%S.L.%coreGivesNoEmail%0,          Cookingham%J.%coreGivesNoEmail%0,          Coppa%K.%coreGivesNoEmail%0,          Crawford%J.M.%coreGivesNoEmail%0,          Davidson%K.W.%coreGivesNoEmail%0,          Diefenbach%M.A.%coreGivesNoEmail%0,          Dominello%A.J.%coreGivesNoEmail%0,          Duer-Hefele%J.%coreGivesNoEmail%0,          Falzon%L.%coreGivesNoEmail%0,          Gitlin%J.%coreGivesNoEmail%0,          Hajizadeh%N.%coreGivesNoEmail%0,          Harvin%T.G.%coreGivesNoEmail%0,          Hirsch%J.S.%coreGivesNoEmail%0,          Hirschwerk%D.A.%coreGivesNoEmail%0,          Kim%E.J.%coreGivesNoEmail%0,          Kozel%Z.M.%coreGivesNoEmail%0,          Marrast%L.M.%coreGivesNoEmail%0,          McGinn%T.%coreGivesNoEmail%0,          Mogavero%J.N.%coreGivesNoEmail%0,          Narasimhan%M.%coreGivesNoEmail%0,          Osorio%G.A.%coreGivesNoEmail%0,          Qiu%M.%coreGivesNoEmail%0,          Richardson%S.%coreGivesNoEmail%0,          Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,            Mikael%Chetboun%NULL%0,            Julien%Poissy%NULL%0,            Violeta%Raverdy%NULL%0,            Jerome%Noulette%NULL%0,            Jerome%Noulette%NULL%0,            Alain%Duhamel%NULL%0,            Julien%Labreuche%NULL%0,            Daniel%Mathieu%NULL%0,            Francois%Pattou%francois.pattou@univ-lille.fr%0,            Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,            Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,            Robert%Caizzo%NULL%0,            Robert%Caizzo%NULL%0,            Morgan%Caplan%NULL%0,            Nicolas%Cousin%NULL%0,            Thibault%Duburcq%NULL%0,            Arthur%Durand%NULL%0,            Ahmed%El kalioubie%NULL%0,            Raphael%Favory%NULL%0,            Bruno%Garcia%NULL%0,            Patrick%Girardie%NULL%0,            Julien%Goutay%NULL%0,            Marion%Houard%NULL%0,            Emmanuelle%Jaillette%NULL%0,            Nicolas%Kostuj%NULL%0,            Geoffrey%Ledoux%NULL%0,            Daniel%Mathieu%NULL%0,            Anne Sophie%Moreau%NULL%0,            Christopher%Niles%NULL%0,            Saad%Nseir%NULL%0,            Thierry%Onimus%NULL%0,            Erika%Parmentier%NULL%0,            Sebastien%Préau%NULL%0,            Laurent%Robriquet%NULL%0,            Anahita%Rouze%NULL%0,            Sophie%Six%NULL%0,            Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,          Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,      Xiaoyan%Chen%xref no email%0,      Yanping%Cai%xref no email%0,      Jia\u2019an%Xia%xref no email%0,      Xing%Zhou%xref no email%0,      Sha%Xu%xref no email%0,      Hanping%Huang%xref no email%0,      Li%Zhang%xref no email%0,      Xia%Zhou%xref no email%0,      Chunling%Du%xref no email%0,      Yuye%Zhang%xref no email%0,      Juan%Song%xref no email%0,      Sijiao%Wang%xref no email%0,      Yencheng%Chao%xref no email%0,      Zeyong%Yang%xref no email%0,      Jie%Xu%xref no email%0,      Xin%Zhou%xref no email%0,      Dechang%Chen%xref no email%0,      Weining%Xiong%xref no email%0,      Lei%Xu%xref no email%0,      Feng%Zhou%xref no email%0,      Jinjun%Jiang%xref no email%0,      Chunxue%Bai%xref no email%0,      Junhua%Zheng%xref no email%0,      Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,            Chen-Hsen%Lee%NULL%1,            Cheng-Yi%Liu%NULL%1,            Jia-Horng%Wang%NULL%1,            Lee-Min%Wang%NULL%1,            Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,            Xiaobo%Yang%NULL%1,            Luyu%Yang%NULL%1,            Xiaojing%Zou%NULL%0,            Yaxin%Wang%NULL%0,            Yongran%Wu%NULL%0,            Ting%Zhou%NULL%1,            Yin%Yuan%NULL%1,            Hong%Qi%NULL%1,            Shouzhi%Fu%NULL%0,            Hong%Liu%NULL%0,            Jia’an%Xia%NULL%1,            Zhengqin%Xu%NULL%1,            Yuan%Yu%NULL%0,            Ruiting%Li%NULL%0,            Yaqi%Ouyang%NULL%1,            Rui%Wang%NULL%0,            Lehao%Ren%NULL%1,            Yingying%Hu%NULL%1,            Dan%Xu%NULL%0,            Xin%Zhao%NULL%1,            Shiying%Yuan%shiying_yuan@163.com%0,            Dingyu%Zhang%1813886398@qq.com%0,            You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,      Sean Wei Xiang%Ong%xref no email%0,      Shirin%Kalimuddin%xref no email%0,      Jenny G.%Low%xref no email%0,      Seow Yen%Tan%xref no email%0,      Jiashen%Loh%xref no email%0,      Oon-Tek%Ng%xref no email%0,      Kalisvar%Marimuthu%xref no email%0,      Li Wei%Ang%xref no email%0,      Tze Minn%Mak%xref no email%0,      Sok Kiang%Lau%xref no email%0,      Danielle E.%Anderson%xref no email%0,      Kian Sing%Chan%xref no email%0,      Thean Yen%Tan%xref no email%0,      Tong Yong%Ng%xref no email%0,      Lin%Cui%xref no email%0,      Zubaidah%Said%xref no email%0,      Lalitha%Kurupatham%xref no email%0,      Mark I-Cheng%Chen%xref no email%0,      Monica%Chan%xref no email%0,      Shawn%Vasoo%xref no email%0,      Lin-Fa%Wang%xref no email%0,      Boon Huan%Tan%xref no email%0,      Raymond Tzer Pin%Lin%xref no email%0,      Vernon Jian Ming%Lee%xref no email%0,      Yee-Sin%Leo%xref no email%0,      David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Wen-hua%Liang%NULL%0,            Yi%Zhao%NULL%1,            Heng-rui%Liang%NULL%1,            Zi-sheng%Chen%NULL%1,            Yi-min%Li%NULL%1,            Xiao-qing%Liu%NULL%1,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Chun-quan%Ou%NULL%0,            Li%Li%NULL%0,            Ping-yan%Chen%NULL%0,            Ling%Sang%NULL%1,            Wei%Wang%NULL%0,            Jian-fu%Li%NULL%1,            Cai-chen%Li%NULL%1,            Li-min%Ou%NULL%1,            Bo%Cheng%NULL%1,            Shan%Xiong%NULL%1,            Zheng-yi%Ni%NULL%0,            Jie%Xiang%NULL%0,            Yu%Hu%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Lin-ling%Cheng%NULL%1,            Feng%Ye%NULL%1,            Shi-yue%Li%NULL%0,            Jin-ping%Zheng%NULL%1,            Nuo-fu%Zhang%NULL%1,            Nan-shan%Zhong%NULL%0,            Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,            Giacomo%Iapichino%NULL%1,            Luca%Carenzo%NULL%1,            Maurizio%Cecconi%NULL%1,            Paola%Ferrazzi%NULL%1,            Tim%Sebastian%NULL%1,            Nils%Kucher%NULL%1,            Jan-Dirk%Studt%NULL%1,            Clara%Sacco%NULL%1,            Alexia%Bertuzzi%NULL%1,            Maria Teresa%Sandri%NULL%1,            Stefano%Barco%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,            M.J.H.A.%Kruip%NULL%1,            N.J.M.%van der Meer%NULL%1,            M.S.%Arbous%NULL%1,            D.A.M.P.J.%Gommers%NULL%1,            K.M.%Kant%NULL%1,            F.H.J.%Kaptein%NULL%1,            J.%van Paassen%NULL%1,            M.A.M.%Stals%NULL%1,            M.V.%Huisman%NULL%1,            H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,            Fang%Jiang%NULL%1,            Wating%Su%NULL%1,            Chang%Chen%NULL%1,            Jingli%Chen%NULL%1,            Wei%Mei%NULL%1,            Li-Ying%Zhan%NULL%1,            Yifan%Jia%NULL%1,            Liangqing%Zhang%NULL%1,            Danyong%Liu%NULL%1,            Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,            Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,            Ewen M%Harrison%NULL%1,            Christopher A%Green%NULL%1,            Hayley E%Hardwick%NULL%1,            Riinu%Pius%NULL%1,            Lisa%Norman%NULL%1,            Karl A%Holden%NULL%1,            Jonathan M%Read%NULL%1,            Frank%Dondelinger%NULL%1,            Gail%Carson%NULL%1,            Laura%Merson%NULL%1,            James%Lee%NULL%1,            Daniel%Plotkin%NULL%1,            Louise%Sigfrid%NULL%1,            Sophie%Halpin%NULL%1,            Clare%Jackson%NULL%1,            Carrol%Gamble%NULL%1,            Peter W%Horby%NULL%1,            Jonathan S%Nguyen-Van-Tam%NULL%1,            Antonia%Ho%NULL%1,            Clark D%Russell%NULL%1,            Jake%Dunning%NULL%1,            Peter JM%Openshaw%NULL%1,            J Kenneth%Baillie%NULL%1,            Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,            Li-Min%Liu%NULL%0,            Wen%Yin%NULL%0,            Wen%Wang%NULL%0,            Lu-Lu%Guan%NULL%0,            Ming-Li%Yuan%NULL%0,            Yu-Lei%Li%NULL%0,            Yi%Hu%NULL%0,            Xu-Yan%Li%NULL%0,            Bing%Sun%NULL%0,            Peng%Peng%NULL%0,            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,            Qiang%Zhou%NULL%1,            Ruiqiang%Zheng%NULL%1,            Xuyan%Li%NULL%1,            Jianmin%Ling%NULL%1,            Yumei%Chen%NULL%1,            Jing%Jia%NULL%1,            Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,            Anna Mara%Scandroglio%NULL%1,            Giacomo%Monti%NULL%1,            Maria Grazia%Calabrò%NULL%1,            Giovanni%Landoni%NULL%1,            Antonio%Dell'Acqua%NULL%1,            Luigi%Beretta%NULL%1,            Elena%Moizo%NULL%1,            Alfredo%Ravizza%NULL%1,            Fabrizio%Monaco%NULL%1,            Corrado%Campochiaro%NULL%1,            Marina%Pieri%NULL%1,            Maria Luisa%Azzolini%NULL%1,            Giovanni%Borghi%NULL%1,            Martina%Crivellari%NULL%1,            Caterina%Conte%NULL%1,            Cristina%Mattioli%NULL%1,            Paolo%Silvani%NULL%1,            Milena%Mucci%NULL%1,            Stefano%Turi%NULL%1,            Stefano%Tentori%NULL%1,            Martina%Baiardo Redaelli%NULL%1,            Marianna%Sartorelli%NULL%1,            Piera%Angelillo%NULL%1,            Alessandro%Belletti%NULL%1,            Pasquale%Nardelli%NULL%1,            Francesco Giuseppe%Nisi%NULL%1,            Gabriele%Valsecchi%NULL%1,            Cristina%Barberio%NULL%1,            Fabio%Ciceri%NULL%1,            Ary%Serpa Neto%NULL%1,            Lorenzo%Dagna%NULL%1,            Rinaldo%Bellomo%NULL%1,            Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,          Cabrini%Luca%coreGivesNoEmail%0,          Castelli%Antonio%coreGivesNoEmail%0,          Cecconi%Maurizio%coreGivesNoEmail%0,          Cereda%Danilo%coreGivesNoEmail%0,          Coluccello%Antonio%coreGivesNoEmail%0,          Foti%Giuseppe%coreGivesNoEmail%0,          Fumagalli%Roberto%coreGivesNoEmail%0,          Grasselli%Giacomo%coreGivesNoEmail%0,          Iotti%Giorgio%coreGivesNoEmail%0,          Latronico%Nicola%coreGivesNoEmail%0,          Lorini%Luca%coreGivesNoEmail%0,          Merler%Stefano%coreGivesNoEmail%0,          Natalini%Giuseppe%coreGivesNoEmail%0,          Pesenti%Antonio%coreGivesNoEmail%0,          Piatti%Alessandra%coreGivesNoEmail%0,          Ranieri%Marco Vito%coreGivesNoEmail%0,          Scandroglio%Anna Mara%coreGivesNoEmail%0,          Storti%Enrico%coreGivesNoEmail%0,          Zanella%Alberto%coreGivesNoEmail%0,          Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,            Min%Zhou%NULL%0,            Xuan%Dong%NULL%0,            Jieming%Qu%NULL%0,            Fengyun%Gong%NULL%0,            Yang%Han%NULL%0,            Yang%Qiu%NULL%0,            Jingli%Wang%NULL%0,            Ying%Liu%NULL%0,            Yuan%Wei%NULL%0,            Jia'an%Xia%NULL%0,            Ting%Yu%NULL%0,            Xinxin%Zhang%NULL%0,            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,      Tai Nin%Chau%xref no email%1,      Owen%Tsang%xref no email%1,      Eugene%Tso%xref no email%1,      Ming Chee%Chiu%xref no email%1,      Wing Lok%Tong%xref no email%1,      Po Oi%Lee%xref no email%1,      Tak Keung%Ng%xref no email%1,      Wai Fu%Ng%xref no email%1,      Kam Cheong%Lee%xref no email%1,      William%Lam%xref no email%1,      Wai Cho%Yu%xref no email%1,      Jak Yiu%Lai%xref no email%1,      Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,      Ali S.%Wahla%xref no email%1,      Shakeel%Siddiqui%xref no email%1,      Alaa%Ghabashi%xref no email%2,      Majid%Al-Shomrani%xref no email%1,      Abdulhakeem%Al-Thaqafi%xref no email%1,      Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,      Ahmed A.%Arifi%xref no email%1,      Hanan H.%Balkhy%xref no email%1,      Hani%Najm%xref no email%1,      Abdulaziz S.%Aldawood%xref no email%1,      Alaa%Ghabashi%xref no email%0,      Hassan%Hawa%xref no email%1,      Adel%Alothman%xref no email%1,      Abdulaziz%Khaldi%xref no email%1,      Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,            Ali S.%Omrani%NULL%1,            Kamran%Baig%NULL%1,            Abdelkarim%Bahloul%NULL%1,            Fatehi%Elzein%NULL%1,            Mohammad Abdul%Matin%NULL%1,            Mohei A.A.%Selim%NULL%1,            Mohammed Al%Mutairi%NULL%1,            Daifullah Al%Nakhli%NULL%1,            Amal Y. Al%Aidaroos%NULL%1,            Nisreen Al%Sherbeeni%NULL%1,            Hesham I.%Al-Khashan%NULL%1,            Ziad A.%Memish%zmemish@yahoo.com%1,            Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,            Badr%Alsayed%NULL%1,            Sameh%Embarak%NULL%1,            Taha%Yaseen%NULL%1,            Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,            Shamsudeen F.%Fagbo%NULL%1,            Vicky J.%Fang%NULL%1,            Leila%Skakni%NULL%1,            Mercy%Joseph%NULL%1,            Tariq A.%Wani%NULL%1,            Benjamin J.%Cowling%NULL%0,            Malik%Peiris%NULL%1,            Ahmed%Hakawi%NULL%1,            Renee W.Y.%Chan%NULL%2,            Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,            Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,            Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,            Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,            Fatmah%Salah%Fs4l_med2011@yahoo.com%1,            Abdulmoatani%Alsulami%moatani@hotmail.com%1,            Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,            Dhananjay%Vaidya%dvaidya@jhmi.edu%1,            Trish M.%Perl%tperl@jhmi.edu%1,            Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -2279,7 +2523,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -2308,7 +2552,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -2337,7 +2581,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -2366,7 +2610,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2395,7 +2639,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -2424,7 +2668,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2453,7 +2697,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2482,7 +2726,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2511,7 +2755,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>441</v>
+        <v>511</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2540,7 +2784,7 @@
         <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>442</v>
+        <v>512</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2569,7 +2813,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>443</v>
+        <v>513</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -2598,7 +2842,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>444</v>
+        <v>514</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2627,7 +2871,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>445</v>
+        <v>515</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -2656,7 +2900,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>446</v>
+        <v>516</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2682,10 +2926,10 @@
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>481</v>
       </c>
       <c r="E16" t="s">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2714,7 +2958,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>448</v>
+        <v>518</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2743,7 +2987,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>449</v>
+        <v>519</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -2772,7 +3016,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -2801,7 +3045,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>451</v>
+        <v>521</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2830,7 +3074,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -2859,7 +3103,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2888,7 +3132,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2917,7 +3161,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2943,10 +3187,10 @@
         <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -2975,7 +3219,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -3004,7 +3248,7 @@
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3033,7 +3277,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>459</v>
+        <v>529</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -3091,7 +3335,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -3120,7 +3364,7 @@
         <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3149,7 +3393,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -3178,7 +3422,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -3207,7 +3451,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -3236,7 +3480,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -3265,7 +3509,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="571">
   <si>
     <t>Doi</t>
   </si>
@@ -2111,6 +2111,109 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,            Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,            Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,            Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,            Fatmah%Salah%Fs4l_med2011@yahoo.com%1,            Abdulmoatani%Alsulami%moatani@hotmail.com%1,            Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,            Dhananjay%Vaidya%dvaidya@jhmi.edu%1,            Trish M.%Perl%tperl@jhmi.edu%1,            Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,             Jing-Jin%Liang%NULL%1,             Qing-Tao%Zhou%NULL%1,             Xiao-Guang%Li%NULL%1,             Fei%Lin%NULL%1,             Zhong-Hua%Deng%NULL%1,             Bi-Ying%Zhang%NULL%1,             Lu%Li%NULL%1,             Xiao-Hua%Wang%NULL%1,             Hong%Zhu%NULL%1,             Qing-Bian%Ma%NULL%1,             Xiao-Mei%Tong%NULL%1,             Jie%Xu%NULL%1,             Yong-Chang%Sun%NULL%1,             Pei-Fang%Wei%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,             Xiao-Xin%Wu%NULL%0,             Xian-Gao%Jiang%NULL%0,             Kai-Jin%Xu%NULL%0,             Ling-Jun%Ying%NULL%0,             Chun-Lian%Ma%NULL%0,             Shi-Bo%Li%NULL%0,             Hua-Ying%Wang%NULL%0,             Sheng%Zhang%NULL%0,             Hai-Nv%Gao%NULL%0,             Ji-Fang%Sheng%NULL%0,             Hong-Liu%Cai%NULL%0,             Yun-Qing%Qiu%NULL%0,             Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,             Bijan J.%Ghassemieh%NULL%0,             Michelle%Nichols%NULL%0,             Richard%Kim%NULL%0,             Keith R.%Jerome%NULL%0,             Arun K.%Nalla%NULL%0,             Alexander L.%Greninger%NULL%0,             Sudhakar%Pipavath%NULL%0,             Mark M.%Wurfel%NULL%0,             Laura%Evans%NULL%0,             Patricia A.%Kritek%NULL%0,             T. Eoin%West%NULL%0,             Andrew%Luks%NULL%0,             Anthony%Gerbino%NULL%0,             Chris R.%Dale%NULL%0,             Jason D.%Goldman%NULL%0,             Shane%O’Mahony%NULL%0,             Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,       Eric%Yim%xref no email%0,       Lindy%Klaff%xref no email%0,       Sharukh%Lokhandwala%xref no email%0,       Francis X.%Riedo%xref no email%0,       Maria%Chong%xref no email%0,       Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             Stephanie%Bialek%NULL%1,             Ellen%Boundy%NULL%1,             Virginia%Bowen%NULL%1,             Nancy%Chow%NULL%1,             Amanda%Cohn%NULL%0,             Nicole%Dowling%NULL%1,             Sascha%Ellington%NULL%1,             Ryan%Gierke%NULL%1,             Aron%Hall%NULL%1,             Jessica%MacNeil%NULL%1,             Priti%Patel%NULL%1,             Georgina%Peacock%NULL%1,             Tamara%Pilishvili%NULL%1,             Hilda%Razzaghi%NULL%1,             Nia%Reed%NULL%1,             Matthew%Ritchey%NULL%1,             Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,             Wenlin%Cheng%NULL%0,             Lei%Yu%NULL%0,             Ya-Kun%Liu%NULL%0,             Xiaoyong%Hu%NULL%0,             Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,             Tangkai%Qi%NULL%0,             Li%Liu%NULL%0,             Yun%Ling%NULL%0,             Zhiping%Qian%NULL%0,             Tao%Li%NULL%0,             Feng%Li%NULL%0,             Qingnian%Xu%NULL%0,             Yuyi%Zhang%NULL%0,             Shuibao%Xu%NULL%0,             Zhigang%Song%NULL%0,             Yigang%Zeng%NULL%0,             Yinzhong%Shen%NULL%0,             Yuxin%Shi%NULL%0,             Tongyu%Zhu%NULL%0,             Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,             Dingyu%Zhang%NULL%0,             Wenling%Wang%NULL%0,             Xingwang%Li%NULL%0,             Bo%Yang%NULL%0,             Jingdong%Song%NULL%0,             Xiang%Zhao%NULL%0,             Baoying%Huang%NULL%0,             Weifeng%Shi%NULL%0,             Roujian%Lu%NULL%0,             Peihua%Niu%NULL%0,             Faxian%Zhan%NULL%0,             Xuejun%Ma%NULL%0,             Dayan%Wang%NULL%0,             Wenbo%Xu%NULL%0,             Guizhen%Wu%NULL%0,             George F.%Gao%NULL%0,             Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,             Simon A%Jones%NULL%1,             Jie%Yang%NULL%1,             Harish%Rajagopalan%NULL%1,             Luke%O’Donnell%NULL%1,             Yelena%Chernyak%NULL%1,             Katie A%Tobin%NULL%1,             Robert J%Cerfolio%NULL%1,             Fritz%Francois%NULL%2,             Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,           Becker%L.B.%coreGivesNoEmail%0,           Chelico%J.D.%coreGivesNoEmail%0,           Cohen%S.L.%coreGivesNoEmail%0,           Cookingham%J.%coreGivesNoEmail%0,           Coppa%K.%coreGivesNoEmail%0,           Crawford%J.M.%coreGivesNoEmail%0,           Davidson%K.W.%coreGivesNoEmail%0,           Diefenbach%M.A.%coreGivesNoEmail%0,           Dominello%A.J.%coreGivesNoEmail%0,           Duer-Hefele%J.%coreGivesNoEmail%0,           Falzon%L.%coreGivesNoEmail%0,           Gitlin%J.%coreGivesNoEmail%0,           Hajizadeh%N.%coreGivesNoEmail%0,           Harvin%T.G.%coreGivesNoEmail%0,           Hirsch%J.S.%coreGivesNoEmail%0,           Hirschwerk%D.A.%coreGivesNoEmail%0,           Kim%E.J.%coreGivesNoEmail%0,           Kozel%Z.M.%coreGivesNoEmail%0,           Marrast%L.M.%coreGivesNoEmail%0,           McGinn%T.%coreGivesNoEmail%0,           Mogavero%J.N.%coreGivesNoEmail%0,           Narasimhan%M.%coreGivesNoEmail%0,           Osorio%G.A.%coreGivesNoEmail%0,           Qiu%M.%coreGivesNoEmail%0,           Richardson%S.%coreGivesNoEmail%0,           Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,             Mikael%Chetboun%NULL%0,             Julien%Poissy%NULL%0,             Violeta%Raverdy%NULL%0,             Jerome%Noulette%NULL%0,             Jerome%Noulette%NULL%0,             Alain%Duhamel%NULL%0,             Julien%Labreuche%NULL%0,             Daniel%Mathieu%NULL%0,             Francois%Pattou%francois.pattou@univ-lille.fr%0,             Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,             Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,             Robert%Caizzo%NULL%0,             Robert%Caizzo%NULL%0,             Morgan%Caplan%NULL%0,             Nicolas%Cousin%NULL%0,             Thibault%Duburcq%NULL%0,             Arthur%Durand%NULL%0,             Ahmed%El kalioubie%NULL%0,             Raphael%Favory%NULL%0,             Bruno%Garcia%NULL%0,             Patrick%Girardie%NULL%0,             Julien%Goutay%NULL%0,             Marion%Houard%NULL%0,             Emmanuelle%Jaillette%NULL%0,             Nicolas%Kostuj%NULL%0,             Geoffrey%Ledoux%NULL%0,             Daniel%Mathieu%NULL%0,             Anne Sophie%Moreau%NULL%0,             Christopher%Niles%NULL%0,             Saad%Nseir%NULL%0,             Thierry%Onimus%NULL%0,             Erika%Parmentier%NULL%0,             Sebastien%Préau%NULL%0,             Laurent%Robriquet%NULL%0,             Anahita%Rouze%NULL%0,             Sophie%Six%NULL%0,             Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,           Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,       Xiaoyan%Chen%xref no email%0,       Yanping%Cai%xref no email%0,       Jia\u2019an%Xia%xref no email%0,       Xing%Zhou%xref no email%0,       Sha%Xu%xref no email%0,       Hanping%Huang%xref no email%0,       Li%Zhang%xref no email%0,       Xia%Zhou%xref no email%0,       Chunling%Du%xref no email%0,       Yuye%Zhang%xref no email%0,       Juan%Song%xref no email%0,       Sijiao%Wang%xref no email%0,       Yencheng%Chao%xref no email%0,       Zeyong%Yang%xref no email%0,       Jie%Xu%xref no email%0,       Xin%Zhou%xref no email%0,       Dechang%Chen%xref no email%0,       Weining%Xiong%xref no email%0,       Lei%Xu%xref no email%0,       Feng%Zhou%xref no email%0,       Jinjun%Jiang%xref no email%0,       Chunxue%Bai%xref no email%0,       Junhua%Zheng%xref no email%0,       Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,             Chen-Hsen%Lee%NULL%1,             Cheng-Yi%Liu%NULL%1,             Jia-Horng%Wang%NULL%1,             Lee-Min%Wang%NULL%1,             Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,             Xiaobo%Yang%NULL%1,             Luyu%Yang%NULL%1,             Xiaojing%Zou%NULL%0,             Yaxin%Wang%NULL%0,             Yongran%Wu%NULL%0,             Ting%Zhou%NULL%1,             Yin%Yuan%NULL%1,             Hong%Qi%NULL%1,             Shouzhi%Fu%NULL%0,             Hong%Liu%NULL%0,             Jia’an%Xia%NULL%1,             Zhengqin%Xu%NULL%1,             Yuan%Yu%NULL%0,             Ruiting%Li%NULL%0,             Yaqi%Ouyang%NULL%1,             Rui%Wang%NULL%0,             Lehao%Ren%NULL%1,             Yingying%Hu%NULL%1,             Dan%Xu%NULL%0,             Xin%Zhao%NULL%1,             Shiying%Yuan%shiying_yuan@163.com%0,             Dingyu%Zhang%1813886398@qq.com%0,             You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,       Sean Wei Xiang%Ong%xref no email%0,       Shirin%Kalimuddin%xref no email%0,       Jenny G.%Low%xref no email%0,       Seow Yen%Tan%xref no email%0,       Jiashen%Loh%xref no email%0,       Oon-Tek%Ng%xref no email%0,       Kalisvar%Marimuthu%xref no email%0,       Li Wei%Ang%xref no email%0,       Tze Minn%Mak%xref no email%0,       Sok Kiang%Lau%xref no email%0,       Danielle E.%Anderson%xref no email%0,       Kian Sing%Chan%xref no email%0,       Thean Yen%Tan%xref no email%0,       Tong Yong%Ng%xref no email%0,       Lin%Cui%xref no email%0,       Zubaidah%Said%xref no email%0,       Lalitha%Kurupatham%xref no email%0,       Mark I-Cheng%Chen%xref no email%0,       Monica%Chan%xref no email%0,       Shawn%Vasoo%xref no email%0,       Lin-Fa%Wang%xref no email%0,       Boon Huan%Tan%xref no email%0,       Raymond Tzer Pin%Lin%xref no email%0,       Vernon Jian Ming%Lee%xref no email%0,       Yee-Sin%Leo%xref no email%0,       David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Wen-hua%Liang%NULL%0,             Yi%Zhao%NULL%1,             Heng-rui%Liang%NULL%1,             Zi-sheng%Chen%NULL%1,             Yi-min%Li%NULL%1,             Xiao-qing%Liu%NULL%1,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Chun-quan%Ou%NULL%0,             Li%Li%NULL%0,             Ping-yan%Chen%NULL%0,             Ling%Sang%NULL%1,             Wei%Wang%NULL%0,             Jian-fu%Li%NULL%1,             Cai-chen%Li%NULL%1,             Li-min%Ou%NULL%1,             Bo%Cheng%NULL%1,             Shan%Xiong%NULL%1,             Zheng-yi%Ni%NULL%0,             Jie%Xiang%NULL%0,             Yu%Hu%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Lin-ling%Cheng%NULL%1,             Feng%Ye%NULL%1,             Shi-yue%Li%NULL%0,             Jin-ping%Zheng%NULL%1,             Nuo-fu%Zhang%NULL%1,             Nan-shan%Zhong%NULL%0,             Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,             Giacomo%Iapichino%NULL%1,             Luca%Carenzo%NULL%1,             Maurizio%Cecconi%NULL%1,             Paola%Ferrazzi%NULL%1,             Tim%Sebastian%NULL%1,             Nils%Kucher%NULL%1,             Jan-Dirk%Studt%NULL%1,             Clara%Sacco%NULL%1,             Alexia%Bertuzzi%NULL%1,             Maria Teresa%Sandri%NULL%1,             Stefano%Barco%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,             M.J.H.A.%Kruip%NULL%1,             N.J.M.%van der Meer%NULL%1,             M.S.%Arbous%NULL%1,             D.A.M.P.J.%Gommers%NULL%1,             K.M.%Kant%NULL%1,             F.H.J.%Kaptein%NULL%1,             J.%van Paassen%NULL%1,             M.A.M.%Stals%NULL%1,             M.V.%Huisman%NULL%1,             H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,             Fang%Jiang%NULL%1,             Wating%Su%NULL%1,             Chang%Chen%NULL%1,             Jingli%Chen%NULL%1,             Wei%Mei%NULL%1,             Li-Ying%Zhan%NULL%1,             Yifan%Jia%NULL%1,             Liangqing%Zhang%NULL%1,             Danyong%Liu%NULL%1,             Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,             Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,             Ewen M%Harrison%NULL%1,             Christopher A%Green%NULL%1,             Hayley E%Hardwick%NULL%1,             Riinu%Pius%NULL%1,             Lisa%Norman%NULL%1,             Karl A%Holden%NULL%1,             Jonathan M%Read%NULL%1,             Frank%Dondelinger%NULL%1,             Gail%Carson%NULL%1,             Laura%Merson%NULL%1,             James%Lee%NULL%1,             Daniel%Plotkin%NULL%1,             Louise%Sigfrid%NULL%1,             Sophie%Halpin%NULL%1,             Clare%Jackson%NULL%1,             Carrol%Gamble%NULL%1,             Peter W%Horby%NULL%1,             Jonathan S%Nguyen-Van-Tam%NULL%1,             Antonia%Ho%NULL%1,             Clark D%Russell%NULL%1,             Jake%Dunning%NULL%1,             Peter JM%Openshaw%NULL%1,             J Kenneth%Baillie%NULL%1,             Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,             Li-Min%Liu%NULL%0,             Wen%Yin%NULL%0,             Wen%Wang%NULL%0,             Lu-Lu%Guan%NULL%0,             Ming-Li%Yuan%NULL%0,             Yu-Lei%Li%NULL%0,             Yi%Hu%NULL%0,             Xu-Yan%Li%NULL%0,             Bing%Sun%NULL%0,             Peng%Peng%NULL%0,             Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,             Qiang%Zhou%NULL%1,             Ruiqiang%Zheng%NULL%1,             Xuyan%Li%NULL%1,             Jianmin%Ling%NULL%1,             Yumei%Chen%NULL%1,             Jing%Jia%NULL%1,             Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,             Anna Mara%Scandroglio%NULL%1,             Giacomo%Monti%NULL%1,             Maria Grazia%Calabrò%NULL%1,             Giovanni%Landoni%NULL%1,             Antonio%Dell'Acqua%NULL%1,             Luigi%Beretta%NULL%1,             Elena%Moizo%NULL%1,             Alfredo%Ravizza%NULL%1,             Fabrizio%Monaco%NULL%1,             Corrado%Campochiaro%NULL%1,             Marina%Pieri%NULL%1,             Maria Luisa%Azzolini%NULL%1,             Giovanni%Borghi%NULL%1,             Martina%Crivellari%NULL%1,             Caterina%Conte%NULL%1,             Cristina%Mattioli%NULL%1,             Paolo%Silvani%NULL%1,             Milena%Mucci%NULL%1,             Stefano%Turi%NULL%1,             Stefano%Tentori%NULL%1,             Martina%Baiardo Redaelli%NULL%1,             Marianna%Sartorelli%NULL%1,             Piera%Angelillo%NULL%1,             Alessandro%Belletti%NULL%1,             Pasquale%Nardelli%NULL%1,             Francesco Giuseppe%Nisi%NULL%1,             Gabriele%Valsecchi%NULL%1,             Cristina%Barberio%NULL%1,             Fabio%Ciceri%NULL%1,             Ary%Serpa Neto%NULL%1,             Lorenzo%Dagna%NULL%1,             Rinaldo%Bellomo%NULL%1,             Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,           Cabrini%Luca%coreGivesNoEmail%0,           Castelli%Antonio%coreGivesNoEmail%0,           Cecconi%Maurizio%coreGivesNoEmail%0,           Cereda%Danilo%coreGivesNoEmail%0,           Coluccello%Antonio%coreGivesNoEmail%0,           Foti%Giuseppe%coreGivesNoEmail%0,           Fumagalli%Roberto%coreGivesNoEmail%0,           Grasselli%Giacomo%coreGivesNoEmail%0,           Iotti%Giorgio%coreGivesNoEmail%0,           Latronico%Nicola%coreGivesNoEmail%0,           Lorini%Luca%coreGivesNoEmail%0,           Merler%Stefano%coreGivesNoEmail%0,           Natalini%Giuseppe%coreGivesNoEmail%0,           Pesenti%Antonio%coreGivesNoEmail%0,           Piatti%Alessandra%coreGivesNoEmail%0,           Ranieri%Marco Vito%coreGivesNoEmail%0,           Scandroglio%Anna Mara%coreGivesNoEmail%0,           Storti%Enrico%coreGivesNoEmail%0,           Zanella%Alberto%coreGivesNoEmail%0,           Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,             Min%Zhou%NULL%0,             Xuan%Dong%NULL%0,             Jieming%Qu%NULL%0,             Fengyun%Gong%NULL%0,             Yang%Han%NULL%0,             Yang%Qiu%NULL%0,             Jingli%Wang%NULL%0,             Ying%Liu%NULL%0,             Yuan%Wei%NULL%0,             Jia'an%Xia%NULL%0,             Ting%Yu%NULL%0,             Xinxin%Zhang%NULL%0,             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,       Tai Nin%Chau%xref no email%1,       Owen%Tsang%xref no email%1,       Eugene%Tso%xref no email%1,       Ming Chee%Chiu%xref no email%1,       Wing Lok%Tong%xref no email%1,       Po Oi%Lee%xref no email%1,       Tak Keung%Ng%xref no email%1,       Wai Fu%Ng%xref no email%1,       Kam Cheong%Lee%xref no email%1,       William%Lam%xref no email%1,       Wai Cho%Yu%xref no email%1,       Jak Yiu%Lai%xref no email%1,       Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,       Ali S.%Wahla%xref no email%1,       Shakeel%Siddiqui%xref no email%1,       Alaa%Ghabashi%xref no email%2,       Majid%Al-Shomrani%xref no email%1,       Abdulhakeem%Al-Thaqafi%xref no email%1,       Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,       Ahmed A.%Arifi%xref no email%1,       Hanan H.%Balkhy%xref no email%1,       Hani%Najm%xref no email%1,       Abdulaziz S.%Aldawood%xref no email%1,       Alaa%Ghabashi%xref no email%0,       Hassan%Hawa%xref no email%1,       Adel%Alothman%xref no email%1,       Abdulaziz%Khaldi%xref no email%1,       Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,             Ali S.%Omrani%NULL%1,             Kamran%Baig%NULL%1,             Abdelkarim%Bahloul%NULL%1,             Fatehi%Elzein%NULL%1,             Mohammad Abdul%Matin%NULL%1,             Mohei A.A.%Selim%NULL%1,             Mohammed Al%Mutairi%NULL%1,             Daifullah Al%Nakhli%NULL%1,             Amal Y. Al%Aidaroos%NULL%1,             Nisreen Al%Sherbeeni%NULL%1,             Hesham I.%Al-Khashan%NULL%1,             Ziad A.%Memish%zmemish@yahoo.com%1,             Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,             Badr%Alsayed%NULL%1,             Sameh%Embarak%NULL%1,             Taha%Yaseen%NULL%1,             Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,             Shamsudeen F.%Fagbo%NULL%1,             Vicky J.%Fang%NULL%1,             Leila%Skakni%NULL%1,             Mercy%Joseph%NULL%1,             Tariq A.%Wani%NULL%1,             Benjamin J.%Cowling%NULL%0,             Malik%Peiris%NULL%1,             Ahmed%Hakawi%NULL%1,             Renee W.Y.%Chan%NULL%2,             Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,             Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,             Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,             Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,             Fatmah%Salah%Fs4l_med2011@yahoo.com%1,             Abdulmoatani%Alsulami%moatani@hotmail.com%1,             Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,             Dhananjay%Vaidya%dvaidya@jhmi.edu%1,             Trish M.%Perl%tperl@jhmi.edu%1,             Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2626,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -2552,7 +2655,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -2581,7 +2684,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -2610,7 +2713,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2639,7 +2742,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -2668,7 +2771,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2697,7 +2800,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2726,7 +2829,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2755,7 +2858,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2784,7 +2887,7 @@
         <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2813,7 +2916,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -2842,7 +2945,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2871,7 +2974,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -2900,7 +3003,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2929,7 +3032,7 @@
         <v>481</v>
       </c>
       <c r="E16" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2958,7 +3061,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2987,7 +3090,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -3016,7 +3119,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -3045,7 +3148,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3074,7 +3177,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3103,7 +3206,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3132,7 +3235,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3161,7 +3264,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -3190,7 +3293,7 @@
         <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3219,7 +3322,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -3248,7 +3351,7 @@
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3277,7 +3380,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -3335,7 +3438,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -3364,7 +3467,7 @@
         <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3393,7 +3496,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -3422,7 +3525,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -3451,7 +3554,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -3480,7 +3583,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -3509,7 +3612,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="605">
   <si>
     <t>Doi</t>
   </si>
@@ -2214,6 +2214,109 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,             Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,             Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,             Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,             Fatmah%Salah%Fs4l_med2011@yahoo.com%1,             Abdulmoatani%Alsulami%moatani@hotmail.com%1,             Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,             Dhananjay%Vaidya%dvaidya@jhmi.edu%1,             Trish M.%Perl%tperl@jhmi.edu%1,             Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,              Jing-Jin%Liang%NULL%1,              Qing-Tao%Zhou%NULL%1,              Xiao-Guang%Li%NULL%1,              Fei%Lin%NULL%1,              Zhong-Hua%Deng%NULL%1,              Bi-Ying%Zhang%NULL%1,              Lu%Li%NULL%1,              Xiao-Hua%Wang%NULL%1,              Hong%Zhu%NULL%1,              Qing-Bian%Ma%NULL%1,              Xiao-Mei%Tong%NULL%1,              Jie%Xu%NULL%1,              Yong-Chang%Sun%NULL%1,              Pei-Fang%Wei%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,              Xiao-Xin%Wu%NULL%0,              Xian-Gao%Jiang%NULL%0,              Kai-Jin%Xu%NULL%0,              Ling-Jun%Ying%NULL%0,              Chun-Lian%Ma%NULL%0,              Shi-Bo%Li%NULL%0,              Hua-Ying%Wang%NULL%0,              Sheng%Zhang%NULL%0,              Hai-Nv%Gao%NULL%0,              Ji-Fang%Sheng%NULL%0,              Hong-Liu%Cai%NULL%0,              Yun-Qing%Qiu%NULL%0,              Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,              Bijan J.%Ghassemieh%NULL%0,              Michelle%Nichols%NULL%0,              Richard%Kim%NULL%0,              Keith R.%Jerome%NULL%0,              Arun K.%Nalla%NULL%0,              Alexander L.%Greninger%NULL%0,              Sudhakar%Pipavath%NULL%0,              Mark M.%Wurfel%NULL%0,              Laura%Evans%NULL%0,              Patricia A.%Kritek%NULL%0,              T. Eoin%West%NULL%0,              Andrew%Luks%NULL%0,              Anthony%Gerbino%NULL%0,              Chris R.%Dale%NULL%0,              Jason D.%Goldman%NULL%0,              Shane%O’Mahony%NULL%0,              Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,        Eric%Yim%xref no email%0,        Lindy%Klaff%xref no email%0,        Sharukh%Lokhandwala%xref no email%0,        Francis X.%Riedo%xref no email%0,        Maria%Chong%xref no email%0,        Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              Stephanie%Bialek%NULL%1,              Ellen%Boundy%NULL%1,              Virginia%Bowen%NULL%1,              Nancy%Chow%NULL%1,              Amanda%Cohn%NULL%0,              Nicole%Dowling%NULL%1,              Sascha%Ellington%NULL%1,              Ryan%Gierke%NULL%1,              Aron%Hall%NULL%1,              Jessica%MacNeil%NULL%1,              Priti%Patel%NULL%1,              Georgina%Peacock%NULL%1,              Tamara%Pilishvili%NULL%1,              Hilda%Razzaghi%NULL%1,              Nia%Reed%NULL%1,              Matthew%Ritchey%NULL%1,              Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,              Wenlin%Cheng%NULL%0,              Lei%Yu%NULL%0,              Ya-Kun%Liu%NULL%0,              Xiaoyong%Hu%NULL%0,              Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,              Tangkai%Qi%NULL%0,              Li%Liu%NULL%0,              Yun%Ling%NULL%0,              Zhiping%Qian%NULL%0,              Tao%Li%NULL%0,              Feng%Li%NULL%0,              Qingnian%Xu%NULL%0,              Yuyi%Zhang%NULL%0,              Shuibao%Xu%NULL%0,              Zhigang%Song%NULL%0,              Yigang%Zeng%NULL%0,              Yinzhong%Shen%NULL%0,              Yuxin%Shi%NULL%0,              Tongyu%Zhu%NULL%0,              Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,              Dingyu%Zhang%NULL%0,              Wenling%Wang%NULL%0,              Xingwang%Li%NULL%0,              Bo%Yang%NULL%0,              Jingdong%Song%NULL%0,              Xiang%Zhao%NULL%0,              Baoying%Huang%NULL%0,              Weifeng%Shi%NULL%0,              Roujian%Lu%NULL%0,              Peihua%Niu%NULL%0,              Faxian%Zhan%NULL%0,              Xuejun%Ma%NULL%0,              Dayan%Wang%NULL%0,              Wenbo%Xu%NULL%0,              Guizhen%Wu%NULL%0,              George F.%Gao%NULL%0,              Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,              Simon A%Jones%NULL%1,              Jie%Yang%NULL%1,              Harish%Rajagopalan%NULL%1,              Luke%O’Donnell%NULL%1,              Yelena%Chernyak%NULL%1,              Katie A%Tobin%NULL%1,              Robert J%Cerfolio%NULL%1,              Fritz%Francois%NULL%2,              Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,            Becker%L.B.%coreGivesNoEmail%0,            Chelico%J.D.%coreGivesNoEmail%0,            Cohen%S.L.%coreGivesNoEmail%0,            Cookingham%J.%coreGivesNoEmail%0,            Coppa%K.%coreGivesNoEmail%0,            Crawford%J.M.%coreGivesNoEmail%0,            Davidson%K.W.%coreGivesNoEmail%0,            Diefenbach%M.A.%coreGivesNoEmail%0,            Dominello%A.J.%coreGivesNoEmail%0,            Duer-Hefele%J.%coreGivesNoEmail%0,            Falzon%L.%coreGivesNoEmail%0,            Gitlin%J.%coreGivesNoEmail%0,            Hajizadeh%N.%coreGivesNoEmail%0,            Harvin%T.G.%coreGivesNoEmail%0,            Hirsch%J.S.%coreGivesNoEmail%0,            Hirschwerk%D.A.%coreGivesNoEmail%0,            Kim%E.J.%coreGivesNoEmail%0,            Kozel%Z.M.%coreGivesNoEmail%0,            Marrast%L.M.%coreGivesNoEmail%0,            McGinn%T.%coreGivesNoEmail%0,            Mogavero%J.N.%coreGivesNoEmail%0,            Narasimhan%M.%coreGivesNoEmail%0,            Osorio%G.A.%coreGivesNoEmail%0,            Qiu%M.%coreGivesNoEmail%0,            Richardson%S.%coreGivesNoEmail%0,            Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,              Mikael%Chetboun%NULL%0,              Julien%Poissy%NULL%0,              Violeta%Raverdy%NULL%0,              Jerome%Noulette%NULL%0,              Jerome%Noulette%NULL%0,              Alain%Duhamel%NULL%0,              Julien%Labreuche%NULL%0,              Daniel%Mathieu%NULL%0,              Francois%Pattou%francois.pattou@univ-lille.fr%0,              Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,              Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,              Robert%Caizzo%NULL%0,              Robert%Caizzo%NULL%0,              Morgan%Caplan%NULL%0,              Nicolas%Cousin%NULL%0,              Thibault%Duburcq%NULL%0,              Arthur%Durand%NULL%0,              Ahmed%El kalioubie%NULL%0,              Raphael%Favory%NULL%0,              Bruno%Garcia%NULL%0,              Patrick%Girardie%NULL%0,              Julien%Goutay%NULL%0,              Marion%Houard%NULL%0,              Emmanuelle%Jaillette%NULL%0,              Nicolas%Kostuj%NULL%0,              Geoffrey%Ledoux%NULL%0,              Daniel%Mathieu%NULL%0,              Anne Sophie%Moreau%NULL%0,              Christopher%Niles%NULL%0,              Saad%Nseir%NULL%0,              Thierry%Onimus%NULL%0,              Erika%Parmentier%NULL%0,              Sebastien%Préau%NULL%0,              Laurent%Robriquet%NULL%0,              Anahita%Rouze%NULL%0,              Sophie%Six%NULL%0,              Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,            Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,        Xiaoyan%Chen%xref no email%0,        Yanping%Cai%xref no email%0,        Jia\u2019an%Xia%xref no email%0,        Xing%Zhou%xref no email%0,        Sha%Xu%xref no email%0,        Hanping%Huang%xref no email%0,        Li%Zhang%xref no email%0,        Xia%Zhou%xref no email%0,        Chunling%Du%xref no email%0,        Yuye%Zhang%xref no email%0,        Juan%Song%xref no email%0,        Sijiao%Wang%xref no email%0,        Yencheng%Chao%xref no email%0,        Zeyong%Yang%xref no email%0,        Jie%Xu%xref no email%0,        Xin%Zhou%xref no email%0,        Dechang%Chen%xref no email%0,        Weining%Xiong%xref no email%0,        Lei%Xu%xref no email%0,        Feng%Zhou%xref no email%0,        Jinjun%Jiang%xref no email%0,        Chunxue%Bai%xref no email%0,        Junhua%Zheng%xref no email%0,        Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,              Chen-Hsen%Lee%NULL%1,              Cheng-Yi%Liu%NULL%1,              Jia-Horng%Wang%NULL%1,              Lee-Min%Wang%NULL%1,              Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,              Xiaobo%Yang%NULL%1,              Luyu%Yang%NULL%1,              Xiaojing%Zou%NULL%0,              Yaxin%Wang%NULL%0,              Yongran%Wu%NULL%0,              Ting%Zhou%NULL%1,              Yin%Yuan%NULL%1,              Hong%Qi%NULL%1,              Shouzhi%Fu%NULL%0,              Hong%Liu%NULL%0,              Jia’an%Xia%NULL%1,              Zhengqin%Xu%NULL%1,              Yuan%Yu%NULL%0,              Ruiting%Li%NULL%0,              Yaqi%Ouyang%NULL%1,              Rui%Wang%NULL%0,              Lehao%Ren%NULL%1,              Yingying%Hu%NULL%1,              Dan%Xu%NULL%0,              Xin%Zhao%NULL%1,              Shiying%Yuan%shiying_yuan@163.com%0,              Dingyu%Zhang%1813886398@qq.com%0,              You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,        Sean Wei Xiang%Ong%xref no email%0,        Shirin%Kalimuddin%xref no email%0,        Jenny G.%Low%xref no email%0,        Seow Yen%Tan%xref no email%0,        Jiashen%Loh%xref no email%0,        Oon-Tek%Ng%xref no email%0,        Kalisvar%Marimuthu%xref no email%0,        Li Wei%Ang%xref no email%0,        Tze Minn%Mak%xref no email%0,        Sok Kiang%Lau%xref no email%0,        Danielle E.%Anderson%xref no email%0,        Kian Sing%Chan%xref no email%0,        Thean Yen%Tan%xref no email%0,        Tong Yong%Ng%xref no email%0,        Lin%Cui%xref no email%0,        Zubaidah%Said%xref no email%0,        Lalitha%Kurupatham%xref no email%0,        Mark I-Cheng%Chen%xref no email%0,        Monica%Chan%xref no email%0,        Shawn%Vasoo%xref no email%0,        Lin-Fa%Wang%xref no email%0,        Boon Huan%Tan%xref no email%0,        Raymond Tzer Pin%Lin%xref no email%0,        Vernon Jian Ming%Lee%xref no email%0,        Yee-Sin%Leo%xref no email%0,        David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Wen-hua%Liang%NULL%0,              Yi%Zhao%NULL%1,              Heng-rui%Liang%NULL%1,              Zi-sheng%Chen%NULL%1,              Yi-min%Li%NULL%1,              Xiao-qing%Liu%NULL%1,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Chun-quan%Ou%NULL%0,              Li%Li%NULL%0,              Ping-yan%Chen%NULL%0,              Ling%Sang%NULL%1,              Wei%Wang%NULL%0,              Jian-fu%Li%NULL%1,              Cai-chen%Li%NULL%1,              Li-min%Ou%NULL%1,              Bo%Cheng%NULL%1,              Shan%Xiong%NULL%1,              Zheng-yi%Ni%NULL%0,              Jie%Xiang%NULL%0,              Yu%Hu%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Lin-ling%Cheng%NULL%1,              Feng%Ye%NULL%1,              Shi-yue%Li%NULL%0,              Jin-ping%Zheng%NULL%1,              Nuo-fu%Zhang%NULL%1,              Nan-shan%Zhong%NULL%0,              Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,              Giacomo%Iapichino%NULL%1,              Luca%Carenzo%NULL%1,              Maurizio%Cecconi%NULL%1,              Paola%Ferrazzi%NULL%1,              Tim%Sebastian%NULL%1,              Nils%Kucher%NULL%1,              Jan-Dirk%Studt%NULL%1,              Clara%Sacco%NULL%1,              Alexia%Bertuzzi%NULL%1,              Maria Teresa%Sandri%NULL%1,              Stefano%Barco%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,              M.J.H.A.%Kruip%NULL%1,              N.J.M.%van der Meer%NULL%1,              M.S.%Arbous%NULL%1,              D.A.M.P.J.%Gommers%NULL%1,              K.M.%Kant%NULL%1,              F.H.J.%Kaptein%NULL%1,              J.%van Paassen%NULL%1,              M.A.M.%Stals%NULL%1,              M.V.%Huisman%NULL%1,              H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,              Fang%Jiang%NULL%1,              Wating%Su%NULL%1,              Chang%Chen%NULL%1,              Jingli%Chen%NULL%1,              Wei%Mei%NULL%1,              Li-Ying%Zhan%NULL%1,              Yifan%Jia%NULL%1,              Liangqing%Zhang%NULL%1,              Danyong%Liu%NULL%1,              Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,              Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,              Ewen M%Harrison%NULL%1,              Christopher A%Green%NULL%1,              Hayley E%Hardwick%NULL%1,              Riinu%Pius%NULL%1,              Lisa%Norman%NULL%1,              Karl A%Holden%NULL%1,              Jonathan M%Read%NULL%1,              Frank%Dondelinger%NULL%1,              Gail%Carson%NULL%1,              Laura%Merson%NULL%1,              James%Lee%NULL%1,              Daniel%Plotkin%NULL%1,              Louise%Sigfrid%NULL%1,              Sophie%Halpin%NULL%1,              Clare%Jackson%NULL%1,              Carrol%Gamble%NULL%1,              Peter W%Horby%NULL%1,              Jonathan S%Nguyen-Van-Tam%NULL%1,              Antonia%Ho%NULL%1,              Clark D%Russell%NULL%1,              Jake%Dunning%NULL%1,              Peter JM%Openshaw%NULL%1,              J Kenneth%Baillie%NULL%1,              Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,              Li-Min%Liu%NULL%0,              Wen%Yin%NULL%0,              Wen%Wang%NULL%0,              Lu-Lu%Guan%NULL%0,              Ming-Li%Yuan%NULL%0,              Yu-Lei%Li%NULL%0,              Yi%Hu%NULL%0,              Xu-Yan%Li%NULL%0,              Bing%Sun%NULL%0,              Peng%Peng%NULL%0,              Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,              Qiang%Zhou%NULL%1,              Ruiqiang%Zheng%NULL%1,              Xuyan%Li%NULL%1,              Jianmin%Ling%NULL%1,              Yumei%Chen%NULL%1,              Jing%Jia%NULL%1,              Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,              Anna Mara%Scandroglio%NULL%1,              Giacomo%Monti%NULL%1,              Maria Grazia%Calabrò%NULL%1,              Giovanni%Landoni%NULL%1,              Antonio%Dell'Acqua%NULL%1,              Luigi%Beretta%NULL%1,              Elena%Moizo%NULL%1,              Alfredo%Ravizza%NULL%1,              Fabrizio%Monaco%NULL%1,              Corrado%Campochiaro%NULL%1,              Marina%Pieri%NULL%1,              Maria Luisa%Azzolini%NULL%1,              Giovanni%Borghi%NULL%1,              Martina%Crivellari%NULL%1,              Caterina%Conte%NULL%1,              Cristina%Mattioli%NULL%1,              Paolo%Silvani%NULL%1,              Milena%Mucci%NULL%1,              Stefano%Turi%NULL%1,              Stefano%Tentori%NULL%1,              Martina%Baiardo Redaelli%NULL%1,              Marianna%Sartorelli%NULL%1,              Piera%Angelillo%NULL%1,              Alessandro%Belletti%NULL%1,              Pasquale%Nardelli%NULL%1,              Francesco Giuseppe%Nisi%NULL%1,              Gabriele%Valsecchi%NULL%1,              Cristina%Barberio%NULL%1,              Fabio%Ciceri%NULL%1,              Ary%Serpa Neto%NULL%1,              Lorenzo%Dagna%NULL%1,              Rinaldo%Bellomo%NULL%1,              Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,            Cabrini%Luca%coreGivesNoEmail%0,            Castelli%Antonio%coreGivesNoEmail%0,            Cecconi%Maurizio%coreGivesNoEmail%0,            Cereda%Danilo%coreGivesNoEmail%0,            Coluccello%Antonio%coreGivesNoEmail%0,            Foti%Giuseppe%coreGivesNoEmail%0,            Fumagalli%Roberto%coreGivesNoEmail%0,            Grasselli%Giacomo%coreGivesNoEmail%0,            Iotti%Giorgio%coreGivesNoEmail%0,            Latronico%Nicola%coreGivesNoEmail%0,            Lorini%Luca%coreGivesNoEmail%0,            Merler%Stefano%coreGivesNoEmail%0,            Natalini%Giuseppe%coreGivesNoEmail%0,            Pesenti%Antonio%coreGivesNoEmail%0,            Piatti%Alessandra%coreGivesNoEmail%0,            Ranieri%Marco Vito%coreGivesNoEmail%0,            Scandroglio%Anna Mara%coreGivesNoEmail%0,            Storti%Enrico%coreGivesNoEmail%0,            Zanella%Alberto%coreGivesNoEmail%0,            Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,              Min%Zhou%NULL%0,              Xuan%Dong%NULL%0,              Jieming%Qu%NULL%0,              Fengyun%Gong%NULL%0,              Yang%Han%NULL%0,              Yang%Qiu%NULL%0,              Jingli%Wang%NULL%0,              Ying%Liu%NULL%0,              Yuan%Wei%NULL%0,              Jia'an%Xia%NULL%0,              Ting%Yu%NULL%0,              Xinxin%Zhang%NULL%0,              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,        Tai Nin%Chau%xref no email%1,        Owen%Tsang%xref no email%1,        Eugene%Tso%xref no email%1,        Ming Chee%Chiu%xref no email%1,        Wing Lok%Tong%xref no email%1,        Po Oi%Lee%xref no email%1,        Tak Keung%Ng%xref no email%1,        Wai Fu%Ng%xref no email%1,        Kam Cheong%Lee%xref no email%1,        William%Lam%xref no email%1,        Wai Cho%Yu%xref no email%1,        Jak Yiu%Lai%xref no email%1,        Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,        Ali S.%Wahla%xref no email%1,        Shakeel%Siddiqui%xref no email%1,        Alaa%Ghabashi%xref no email%2,        Majid%Al-Shomrani%xref no email%1,        Abdulhakeem%Al-Thaqafi%xref no email%1,        Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,        Ahmed A.%Arifi%xref no email%1,        Hanan H.%Balkhy%xref no email%1,        Hani%Najm%xref no email%1,        Abdulaziz S.%Aldawood%xref no email%1,        Alaa%Ghabashi%xref no email%0,        Hassan%Hawa%xref no email%1,        Adel%Alothman%xref no email%1,        Abdulaziz%Khaldi%xref no email%1,        Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,              Ali S.%Omrani%NULL%1,              Kamran%Baig%NULL%1,              Abdelkarim%Bahloul%NULL%1,              Fatehi%Elzein%NULL%1,              Mohammad Abdul%Matin%NULL%1,              Mohei A.A.%Selim%NULL%1,              Mohammed Al%Mutairi%NULL%1,              Daifullah Al%Nakhli%NULL%1,              Amal Y. Al%Aidaroos%NULL%1,              Nisreen Al%Sherbeeni%NULL%1,              Hesham I.%Al-Khashan%NULL%1,              Ziad A.%Memish%zmemish@yahoo.com%1,              Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,              Badr%Alsayed%NULL%1,              Sameh%Embarak%NULL%1,              Taha%Yaseen%NULL%1,              Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,              Shamsudeen F.%Fagbo%NULL%1,              Vicky J.%Fang%NULL%1,              Leila%Skakni%NULL%1,              Mercy%Joseph%NULL%1,              Tariq A.%Wani%NULL%1,              Benjamin J.%Cowling%NULL%0,              Malik%Peiris%NULL%1,              Ahmed%Hakawi%NULL%1,              Renee W.Y.%Chan%NULL%2,              Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,              Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,              Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,              Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,              Fatmah%Salah%Fs4l_med2011@yahoo.com%1,              Abdulmoatani%Alsulami%moatani@hotmail.com%1,              Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,              Dhananjay%Vaidya%dvaidya@jhmi.edu%1,              Trish M.%Perl%tperl@jhmi.edu%1,              Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2729,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -2655,7 +2758,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -2684,7 +2787,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -2713,7 +2816,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2742,7 +2845,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -2771,7 +2874,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2800,7 +2903,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2829,7 +2932,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2858,7 +2961,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2887,7 +2990,7 @@
         <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2916,7 +3019,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -2945,7 +3048,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2974,7 +3077,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -3003,7 +3106,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -3032,7 +3135,7 @@
         <v>481</v>
       </c>
       <c r="E16" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3061,7 +3164,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -3090,7 +3193,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -3119,7 +3222,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -3148,7 +3251,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3177,7 +3280,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3206,7 +3309,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3235,7 +3338,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3264,7 +3367,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -3293,7 +3396,7 @@
         <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3322,7 +3425,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -3351,7 +3454,7 @@
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3380,7 +3483,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -3438,7 +3541,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -3467,7 +3570,7 @@
         <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3496,7 +3599,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -3525,7 +3628,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -3554,7 +3657,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -3583,7 +3686,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -3612,7 +3715,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="673">
   <si>
     <t>Doi</t>
   </si>
@@ -2317,6 +2317,212 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,              Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,              Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,              Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,              Fatmah%Salah%Fs4l_med2011@yahoo.com%1,              Abdulmoatani%Alsulami%moatani@hotmail.com%1,              Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,              Dhananjay%Vaidya%dvaidya@jhmi.edu%1,              Trish M.%Perl%tperl@jhmi.edu%1,              Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,               Jing-Jin%Liang%NULL%1,               Qing-Tao%Zhou%NULL%1,               Xiao-Guang%Li%NULL%1,               Fei%Lin%NULL%1,               Zhong-Hua%Deng%NULL%1,               Bi-Ying%Zhang%NULL%1,               Lu%Li%NULL%1,               Xiao-Hua%Wang%NULL%1,               Hong%Zhu%NULL%1,               Qing-Bian%Ma%NULL%1,               Xiao-Mei%Tong%NULL%1,               Jie%Xu%NULL%1,               Yong-Chang%Sun%NULL%1,               Pei-Fang%Wei%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,               Xiao-Xin%Wu%NULL%0,               Xian-Gao%Jiang%NULL%0,               Kai-Jin%Xu%NULL%0,               Ling-Jun%Ying%NULL%0,               Chun-Lian%Ma%NULL%0,               Shi-Bo%Li%NULL%0,               Hua-Ying%Wang%NULL%0,               Sheng%Zhang%NULL%0,               Hai-Nv%Gao%NULL%0,               Ji-Fang%Sheng%NULL%0,               Hong-Liu%Cai%NULL%0,               Yun-Qing%Qiu%NULL%0,               Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,               Bijan J.%Ghassemieh%NULL%0,               Michelle%Nichols%NULL%0,               Richard%Kim%NULL%0,               Keith R.%Jerome%NULL%0,               Arun K.%Nalla%NULL%0,               Alexander L.%Greninger%NULL%0,               Sudhakar%Pipavath%NULL%0,               Mark M.%Wurfel%NULL%0,               Laura%Evans%NULL%0,               Patricia A.%Kritek%NULL%0,               T. Eoin%West%NULL%0,               Andrew%Luks%NULL%0,               Anthony%Gerbino%NULL%0,               Chris R.%Dale%NULL%0,               Jason D.%Goldman%NULL%0,               Shane%O’Mahony%NULL%0,               Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,         Eric%Yim%xref no email%0,         Lindy%Klaff%xref no email%0,         Sharukh%Lokhandwala%xref no email%0,         Francis X.%Riedo%xref no email%0,         Maria%Chong%xref no email%0,         Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               Stephanie%Bialek%NULL%1,               Ellen%Boundy%NULL%1,               Virginia%Bowen%NULL%1,               Nancy%Chow%NULL%1,               Amanda%Cohn%NULL%0,               Nicole%Dowling%NULL%1,               Sascha%Ellington%NULL%1,               Ryan%Gierke%NULL%1,               Aron%Hall%NULL%1,               Jessica%MacNeil%NULL%1,               Priti%Patel%NULL%1,               Georgina%Peacock%NULL%1,               Tamara%Pilishvili%NULL%1,               Hilda%Razzaghi%NULL%1,               Nia%Reed%NULL%1,               Matthew%Ritchey%NULL%1,               Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,               Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,               Wenlin%Cheng%NULL%0,               Lei%Yu%NULL%0,               Ya-Kun%Liu%NULL%0,               Xiaoyong%Hu%NULL%0,               Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,               Tangkai%Qi%NULL%0,               Li%Liu%NULL%0,               Yun%Ling%NULL%0,               Zhiping%Qian%NULL%0,               Tao%Li%NULL%0,               Feng%Li%NULL%0,               Qingnian%Xu%NULL%0,               Yuyi%Zhang%NULL%0,               Shuibao%Xu%NULL%0,               Zhigang%Song%NULL%0,               Yigang%Zeng%NULL%0,               Yinzhong%Shen%NULL%0,               Yuxin%Shi%NULL%0,               Tongyu%Zhu%NULL%0,               Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,               Dingyu%Zhang%NULL%0,               Wenling%Wang%NULL%0,               Xingwang%Li%NULL%0,               Bo%Yang%NULL%0,               Jingdong%Song%NULL%0,               Xiang%Zhao%NULL%0,               Baoying%Huang%NULL%0,               Weifeng%Shi%NULL%0,               Roujian%Lu%NULL%0,               Peihua%Niu%NULL%0,               Faxian%Zhan%NULL%0,               Xuejun%Ma%NULL%0,               Dayan%Wang%NULL%0,               Wenbo%Xu%NULL%0,               Guizhen%Wu%NULL%0,               George F.%Gao%NULL%0,               Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,               Simon A%Jones%NULL%1,               Jie%Yang%NULL%1,               Harish%Rajagopalan%NULL%1,               Luke%O’Donnell%NULL%1,               Yelena%Chernyak%NULL%1,               Katie A%Tobin%NULL%1,               Robert J%Cerfolio%NULL%1,               Fritz%Francois%NULL%2,               Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,             Becker%L.B.%coreGivesNoEmail%0,             Chelico%J.D.%coreGivesNoEmail%0,             Cohen%S.L.%coreGivesNoEmail%0,             Cookingham%J.%coreGivesNoEmail%0,             Coppa%K.%coreGivesNoEmail%0,             Crawford%J.M.%coreGivesNoEmail%0,             Davidson%K.W.%coreGivesNoEmail%0,             Diefenbach%M.A.%coreGivesNoEmail%0,             Dominello%A.J.%coreGivesNoEmail%0,             Duer-Hefele%J.%coreGivesNoEmail%0,             Falzon%L.%coreGivesNoEmail%0,             Gitlin%J.%coreGivesNoEmail%0,             Hajizadeh%N.%coreGivesNoEmail%0,             Harvin%T.G.%coreGivesNoEmail%0,             Hirsch%J.S.%coreGivesNoEmail%0,             Hirschwerk%D.A.%coreGivesNoEmail%0,             Kim%E.J.%coreGivesNoEmail%0,             Kozel%Z.M.%coreGivesNoEmail%0,             Marrast%L.M.%coreGivesNoEmail%0,             McGinn%T.%coreGivesNoEmail%0,             Mogavero%J.N.%coreGivesNoEmail%0,             Narasimhan%M.%coreGivesNoEmail%0,             Osorio%G.A.%coreGivesNoEmail%0,             Qiu%M.%coreGivesNoEmail%0,             Richardson%S.%coreGivesNoEmail%0,             Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,               Mikael%Chetboun%NULL%0,               Julien%Poissy%NULL%0,               Violeta%Raverdy%NULL%0,               Jerome%Noulette%NULL%0,               Jerome%Noulette%NULL%0,               Alain%Duhamel%NULL%0,               Julien%Labreuche%NULL%0,               Daniel%Mathieu%NULL%0,               Francois%Pattou%francois.pattou@univ-lille.fr%0,               Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,               Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,               Robert%Caizzo%NULL%0,               Robert%Caizzo%NULL%0,               Morgan%Caplan%NULL%0,               Nicolas%Cousin%NULL%0,               Thibault%Duburcq%NULL%0,               Arthur%Durand%NULL%0,               Ahmed%El kalioubie%NULL%0,               Raphael%Favory%NULL%0,               Bruno%Garcia%NULL%0,               Patrick%Girardie%NULL%0,               Julien%Goutay%NULL%0,               Marion%Houard%NULL%0,               Emmanuelle%Jaillette%NULL%0,               Nicolas%Kostuj%NULL%0,               Geoffrey%Ledoux%NULL%0,               Daniel%Mathieu%NULL%0,               Anne Sophie%Moreau%NULL%0,               Christopher%Niles%NULL%0,               Saad%Nseir%NULL%0,               Thierry%Onimus%NULL%0,               Erika%Parmentier%NULL%0,               Sebastien%Préau%NULL%0,               Laurent%Robriquet%NULL%0,               Anahita%Rouze%NULL%0,               Sophie%Six%NULL%0,               Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,             Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,             Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,             Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,         Xiaoyan%Chen%xref no email%0,         Yanping%Cai%xref no email%0,         Jia\u2019an%Xia%xref no email%0,         Xing%Zhou%xref no email%0,         Sha%Xu%xref no email%0,         Hanping%Huang%xref no email%0,         Li%Zhang%xref no email%0,         Xia%Zhou%xref no email%0,         Chunling%Du%xref no email%0,         Yuye%Zhang%xref no email%0,         Juan%Song%xref no email%0,         Sijiao%Wang%xref no email%0,         Yencheng%Chao%xref no email%0,         Zeyong%Yang%xref no email%0,         Jie%Xu%xref no email%0,         Xin%Zhou%xref no email%0,         Dechang%Chen%xref no email%0,         Weining%Xiong%xref no email%0,         Lei%Xu%xref no email%0,         Feng%Zhou%xref no email%0,         Jinjun%Jiang%xref no email%0,         Chunxue%Bai%xref no email%0,         Junhua%Zheng%xref no email%0,         Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,               Chen-Hsen%Lee%NULL%1,               Cheng-Yi%Liu%NULL%1,               Jia-Horng%Wang%NULL%1,               Lee-Min%Wang%NULL%1,               Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,               Xiaobo%Yang%NULL%1,               Luyu%Yang%NULL%1,               Xiaojing%Zou%NULL%0,               Yaxin%Wang%NULL%0,               Yongran%Wu%NULL%0,               Ting%Zhou%NULL%1,               Yin%Yuan%NULL%1,               Hong%Qi%NULL%1,               Shouzhi%Fu%NULL%0,               Hong%Liu%NULL%0,               Jia’an%Xia%NULL%1,               Zhengqin%Xu%NULL%1,               Yuan%Yu%NULL%0,               Ruiting%Li%NULL%0,               Yaqi%Ouyang%NULL%1,               Rui%Wang%NULL%0,               Lehao%Ren%NULL%1,               Yingying%Hu%NULL%1,               Dan%Xu%NULL%0,               Xin%Zhao%NULL%1,               Shiying%Yuan%shiying_yuan@163.com%0,               Dingyu%Zhang%1813886398@qq.com%0,               You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,         Sean Wei Xiang%Ong%xref no email%0,         Shirin%Kalimuddin%xref no email%0,         Jenny G.%Low%xref no email%0,         Seow Yen%Tan%xref no email%0,         Jiashen%Loh%xref no email%0,         Oon-Tek%Ng%xref no email%0,         Kalisvar%Marimuthu%xref no email%0,         Li Wei%Ang%xref no email%0,         Tze Minn%Mak%xref no email%0,         Sok Kiang%Lau%xref no email%0,         Danielle E.%Anderson%xref no email%0,         Kian Sing%Chan%xref no email%0,         Thean Yen%Tan%xref no email%0,         Tong Yong%Ng%xref no email%0,         Lin%Cui%xref no email%0,         Zubaidah%Said%xref no email%0,         Lalitha%Kurupatham%xref no email%0,         Mark I-Cheng%Chen%xref no email%0,         Monica%Chan%xref no email%0,         Shawn%Vasoo%xref no email%0,         Lin-Fa%Wang%xref no email%0,         Boon Huan%Tan%xref no email%0,         Raymond Tzer Pin%Lin%xref no email%0,         Vernon Jian Ming%Lee%xref no email%0,         Yee-Sin%Leo%xref no email%0,         David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Wen-hua%Liang%NULL%0,               Yi%Zhao%NULL%1,               Heng-rui%Liang%NULL%1,               Zi-sheng%Chen%NULL%1,               Yi-min%Li%NULL%1,               Xiao-qing%Liu%NULL%1,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Chun-quan%Ou%NULL%0,               Li%Li%NULL%0,               Ping-yan%Chen%NULL%0,               Ling%Sang%NULL%1,               Wei%Wang%NULL%0,               Jian-fu%Li%NULL%1,               Cai-chen%Li%NULL%1,               Li-min%Ou%NULL%1,               Bo%Cheng%NULL%1,               Shan%Xiong%NULL%1,               Zheng-yi%Ni%NULL%0,               Jie%Xiang%NULL%0,               Yu%Hu%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Lin-ling%Cheng%NULL%1,               Feng%Ye%NULL%1,               Shi-yue%Li%NULL%0,               Jin-ping%Zheng%NULL%1,               Nuo-fu%Zhang%NULL%1,               Nan-shan%Zhong%NULL%0,               Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,               Giacomo%Iapichino%NULL%1,               Luca%Carenzo%NULL%1,               Maurizio%Cecconi%NULL%1,               Paola%Ferrazzi%NULL%1,               Tim%Sebastian%NULL%1,               Nils%Kucher%NULL%1,               Jan-Dirk%Studt%NULL%1,               Clara%Sacco%NULL%1,               Alexia%Bertuzzi%NULL%1,               Maria Teresa%Sandri%NULL%1,               Stefano%Barco%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,               M.J.H.A.%Kruip%NULL%1,               N.J.M.%van der Meer%NULL%1,               M.S.%Arbous%NULL%1,               D.A.M.P.J.%Gommers%NULL%1,               K.M.%Kant%NULL%1,               F.H.J.%Kaptein%NULL%1,               J.%van Paassen%NULL%1,               M.A.M.%Stals%NULL%1,               M.V.%Huisman%NULL%1,               H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,               Fang%Jiang%NULL%1,               Wating%Su%NULL%1,               Chang%Chen%NULL%1,               Jingli%Chen%NULL%1,               Wei%Mei%NULL%1,               Li-Ying%Zhan%NULL%1,               Yifan%Jia%NULL%1,               Liangqing%Zhang%NULL%1,               Danyong%Liu%NULL%1,               Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,               Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,               Ewen M%Harrison%NULL%1,               Christopher A%Green%NULL%1,               Hayley E%Hardwick%NULL%1,               Riinu%Pius%NULL%1,               Lisa%Norman%NULL%1,               Karl A%Holden%NULL%1,               Jonathan M%Read%NULL%1,               Frank%Dondelinger%NULL%1,               Gail%Carson%NULL%1,               Laura%Merson%NULL%1,               James%Lee%NULL%1,               Daniel%Plotkin%NULL%1,               Louise%Sigfrid%NULL%1,               Sophie%Halpin%NULL%1,               Clare%Jackson%NULL%1,               Carrol%Gamble%NULL%1,               Peter W%Horby%NULL%1,               Jonathan S%Nguyen-Van-Tam%NULL%1,               Antonia%Ho%NULL%1,               Clark D%Russell%NULL%1,               Jake%Dunning%NULL%1,               Peter JM%Openshaw%NULL%1,               J Kenneth%Baillie%NULL%1,               Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,               Li-Min%Liu%NULL%0,               Wen%Yin%NULL%0,               Wen%Wang%NULL%0,               Lu-Lu%Guan%NULL%0,               Ming-Li%Yuan%NULL%0,               Yu-Lei%Li%NULL%0,               Yi%Hu%NULL%0,               Xu-Yan%Li%NULL%0,               Bing%Sun%NULL%0,               Peng%Peng%NULL%0,               Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,               Qiang%Zhou%NULL%1,               Ruiqiang%Zheng%NULL%1,               Xuyan%Li%NULL%1,               Jianmin%Ling%NULL%1,               Yumei%Chen%NULL%1,               Jing%Jia%NULL%1,               Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,               Anna Mara%Scandroglio%NULL%1,               Giacomo%Monti%NULL%1,               Maria Grazia%Calabrò%NULL%1,               Giovanni%Landoni%NULL%1,               Antonio%Dell'Acqua%NULL%1,               Luigi%Beretta%NULL%1,               Elena%Moizo%NULL%1,               Alfredo%Ravizza%NULL%1,               Fabrizio%Monaco%NULL%1,               Corrado%Campochiaro%NULL%1,               Marina%Pieri%NULL%1,               Maria Luisa%Azzolini%NULL%1,               Giovanni%Borghi%NULL%1,               Martina%Crivellari%NULL%1,               Caterina%Conte%NULL%1,               Cristina%Mattioli%NULL%1,               Paolo%Silvani%NULL%1,               Milena%Mucci%NULL%1,               Stefano%Turi%NULL%1,               Stefano%Tentori%NULL%1,               Martina%Baiardo Redaelli%NULL%1,               Marianna%Sartorelli%NULL%1,               Piera%Angelillo%NULL%1,               Alessandro%Belletti%NULL%1,               Pasquale%Nardelli%NULL%1,               Francesco Giuseppe%Nisi%NULL%1,               Gabriele%Valsecchi%NULL%1,               Cristina%Barberio%NULL%1,               Fabio%Ciceri%NULL%1,               Ary%Serpa Neto%NULL%1,               Lorenzo%Dagna%NULL%1,               Rinaldo%Bellomo%NULL%1,               Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,             Cabrini%Luca%coreGivesNoEmail%0,             Castelli%Antonio%coreGivesNoEmail%0,             Cecconi%Maurizio%coreGivesNoEmail%0,             Cereda%Danilo%coreGivesNoEmail%0,             Coluccello%Antonio%coreGivesNoEmail%0,             Foti%Giuseppe%coreGivesNoEmail%0,             Fumagalli%Roberto%coreGivesNoEmail%0,             Grasselli%Giacomo%coreGivesNoEmail%0,             Iotti%Giorgio%coreGivesNoEmail%0,             Latronico%Nicola%coreGivesNoEmail%0,             Lorini%Luca%coreGivesNoEmail%0,             Merler%Stefano%coreGivesNoEmail%0,             Natalini%Giuseppe%coreGivesNoEmail%0,             Pesenti%Antonio%coreGivesNoEmail%0,             Piatti%Alessandra%coreGivesNoEmail%0,             Ranieri%Marco Vito%coreGivesNoEmail%0,             Scandroglio%Anna Mara%coreGivesNoEmail%0,             Storti%Enrico%coreGivesNoEmail%0,             Zanella%Alberto%coreGivesNoEmail%0,             Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,               Min%Zhou%NULL%0,               Xuan%Dong%NULL%0,               Jieming%Qu%NULL%0,               Fengyun%Gong%NULL%0,               Yang%Han%NULL%0,               Yang%Qiu%NULL%0,               Jingli%Wang%NULL%0,               Ying%Liu%NULL%0,               Yuan%Wei%NULL%0,               Jia'an%Xia%NULL%0,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%0,               Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,         Tai Nin%Chau%xref no email%1,         Owen%Tsang%xref no email%1,         Eugene%Tso%xref no email%1,         Ming Chee%Chiu%xref no email%1,         Wing Lok%Tong%xref no email%1,         Po Oi%Lee%xref no email%1,         Tak Keung%Ng%xref no email%1,         Wai Fu%Ng%xref no email%1,         Kam Cheong%Lee%xref no email%1,         William%Lam%xref no email%1,         Wai Cho%Yu%xref no email%1,         Jak Yiu%Lai%xref no email%1,         Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,         Ali S.%Wahla%xref no email%1,         Shakeel%Siddiqui%xref no email%1,         Alaa%Ghabashi%xref no email%2,         Majid%Al-Shomrani%xref no email%1,         Abdulhakeem%Al-Thaqafi%xref no email%1,         Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,         Ahmed A.%Arifi%xref no email%1,         Hanan H.%Balkhy%xref no email%1,         Hani%Najm%xref no email%1,         Abdulaziz S.%Aldawood%xref no email%1,         Alaa%Ghabashi%xref no email%0,         Hassan%Hawa%xref no email%1,         Adel%Alothman%xref no email%1,         Abdulaziz%Khaldi%xref no email%1,         Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,               Ali S.%Omrani%NULL%1,               Kamran%Baig%NULL%1,               Abdelkarim%Bahloul%NULL%1,               Fatehi%Elzein%NULL%1,               Mohammad Abdul%Matin%NULL%1,               Mohei A.A.%Selim%NULL%1,               Mohammed Al%Mutairi%NULL%1,               Daifullah Al%Nakhli%NULL%1,               Amal Y. Al%Aidaroos%NULL%1,               Nisreen Al%Sherbeeni%NULL%1,               Hesham I.%Al-Khashan%NULL%1,               Ziad A.%Memish%zmemish@yahoo.com%1,               Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,               Badr%Alsayed%NULL%1,               Sameh%Embarak%NULL%1,               Taha%Yaseen%NULL%1,               Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,               Shamsudeen F.%Fagbo%NULL%1,               Vicky J.%Fang%NULL%1,               Leila%Skakni%NULL%1,               Mercy%Joseph%NULL%1,               Tariq A.%Wani%NULL%1,               Benjamin J.%Cowling%NULL%0,               Malik%Peiris%NULL%1,               Ahmed%Hakawi%NULL%1,               Renee W.Y.%Chan%NULL%2,               Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,               Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,               Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,               Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,               Fatmah%Salah%Fs4l_med2011@yahoo.com%1,               Abdulmoatani%Alsulami%moatani@hotmail.com%1,               Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,               Dhananjay%Vaidya%dvaidya@jhmi.edu%1,               Trish M.%Perl%tperl@jhmi.edu%1,               Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                Jing-Jin%Liang%NULL%1,                Qing-Tao%Zhou%NULL%1,                Xiao-Guang%Li%NULL%1,                Fei%Lin%NULL%1,                Zhong-Hua%Deng%NULL%1,                Bi-Ying%Zhang%NULL%1,                Lu%Li%NULL%1,                Xiao-Hua%Wang%NULL%1,                Hong%Zhu%NULL%1,                Qing-Bian%Ma%NULL%1,                Xiao-Mei%Tong%NULL%1,                Jie%Xu%NULL%1,                Yong-Chang%Sun%NULL%1,                Pei-Fang%Wei%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                Xiao-Xin%Wu%NULL%0,                Xian-Gao%Jiang%NULL%0,                Kai-Jin%Xu%NULL%0,                Ling-Jun%Ying%NULL%0,                Chun-Lian%Ma%NULL%0,                Shi-Bo%Li%NULL%0,                Hua-Ying%Wang%NULL%0,                Sheng%Zhang%NULL%0,                Hai-Nv%Gao%NULL%0,                Ji-Fang%Sheng%NULL%0,                Hong-Liu%Cai%NULL%0,                Yun-Qing%Qiu%NULL%0,                Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                Bijan J.%Ghassemieh%NULL%0,                Michelle%Nichols%NULL%0,                Richard%Kim%NULL%0,                Keith R.%Jerome%NULL%0,                Arun K.%Nalla%NULL%0,                Alexander L.%Greninger%NULL%0,                Sudhakar%Pipavath%NULL%0,                Mark M.%Wurfel%NULL%0,                Laura%Evans%NULL%0,                Patricia A.%Kritek%NULL%0,                T. Eoin%West%NULL%0,                Andrew%Luks%NULL%0,                Anthony%Gerbino%NULL%0,                Chris R.%Dale%NULL%0,                Jason D.%Goldman%NULL%0,                Shane%O’Mahony%NULL%0,                Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,          Eric%Yim%xref no email%0,          Lindy%Klaff%xref no email%0,          Sharukh%Lokhandwala%xref no email%0,          Francis X.%Riedo%xref no email%0,          Maria%Chong%xref no email%0,          Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                Stephanie%Bialek%NULL%1,                Ellen%Boundy%NULL%1,                Virginia%Bowen%NULL%1,                Nancy%Chow%NULL%1,                Amanda%Cohn%NULL%0,                Nicole%Dowling%NULL%1,                Sascha%Ellington%NULL%1,                Ryan%Gierke%NULL%1,                Aron%Hall%NULL%1,                Jessica%MacNeil%NULL%1,                Priti%Patel%NULL%1,                Georgina%Peacock%NULL%1,                Tamara%Pilishvili%NULL%1,                Hilda%Razzaghi%NULL%1,                Nia%Reed%NULL%1,                Matthew%Ritchey%NULL%1,                Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                Wenlin%Cheng%NULL%0,                Lei%Yu%NULL%0,                Ya-Kun%Liu%NULL%0,                Xiaoyong%Hu%NULL%0,                Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                Tangkai%Qi%NULL%0,                Li%Liu%NULL%0,                Yun%Ling%NULL%0,                Zhiping%Qian%NULL%0,                Tao%Li%NULL%0,                Feng%Li%NULL%0,                Qingnian%Xu%NULL%0,                Yuyi%Zhang%NULL%0,                Shuibao%Xu%NULL%0,                Zhigang%Song%NULL%0,                Yigang%Zeng%NULL%0,                Yinzhong%Shen%NULL%0,                Yuxin%Shi%NULL%0,                Tongyu%Zhu%NULL%0,                Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                Dingyu%Zhang%NULL%0,                Wenling%Wang%NULL%0,                Xingwang%Li%NULL%0,                Bo%Yang%NULL%0,                Jingdong%Song%NULL%0,                Xiang%Zhao%NULL%0,                Baoying%Huang%NULL%0,                Weifeng%Shi%NULL%0,                Roujian%Lu%NULL%0,                Peihua%Niu%NULL%0,                Faxian%Zhan%NULL%0,                Xuejun%Ma%NULL%0,                Dayan%Wang%NULL%0,                Wenbo%Xu%NULL%0,                Guizhen%Wu%NULL%0,                George F.%Gao%NULL%0,                Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                Simon A%Jones%NULL%1,                Jie%Yang%NULL%1,                Harish%Rajagopalan%NULL%1,                Luke%O’Donnell%NULL%1,                Yelena%Chernyak%NULL%1,                Katie A%Tobin%NULL%1,                Robert J%Cerfolio%NULL%1,                Fritz%Francois%NULL%2,                Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,              Becker%L.B.%coreGivesNoEmail%0,              Chelico%J.D.%coreGivesNoEmail%0,              Cohen%S.L.%coreGivesNoEmail%0,              Cookingham%J.%coreGivesNoEmail%0,              Coppa%K.%coreGivesNoEmail%0,              Crawford%J.M.%coreGivesNoEmail%0,              Davidson%K.W.%coreGivesNoEmail%0,              Diefenbach%M.A.%coreGivesNoEmail%0,              Dominello%A.J.%coreGivesNoEmail%0,              Duer-Hefele%J.%coreGivesNoEmail%0,              Falzon%L.%coreGivesNoEmail%0,              Gitlin%J.%coreGivesNoEmail%0,              Hajizadeh%N.%coreGivesNoEmail%0,              Harvin%T.G.%coreGivesNoEmail%0,              Hirsch%J.S.%coreGivesNoEmail%0,              Hirschwerk%D.A.%coreGivesNoEmail%0,              Kim%E.J.%coreGivesNoEmail%0,              Kozel%Z.M.%coreGivesNoEmail%0,              Marrast%L.M.%coreGivesNoEmail%0,              McGinn%T.%coreGivesNoEmail%0,              Mogavero%J.N.%coreGivesNoEmail%0,              Narasimhan%M.%coreGivesNoEmail%0,              Osorio%G.A.%coreGivesNoEmail%0,              Qiu%M.%coreGivesNoEmail%0,              Richardson%S.%coreGivesNoEmail%0,              Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                Mikael%Chetboun%NULL%0,                Julien%Poissy%NULL%0,                Violeta%Raverdy%NULL%0,                Jerome%Noulette%NULL%0,                Jerome%Noulette%NULL%0,                Alain%Duhamel%NULL%0,                Julien%Labreuche%NULL%0,                Daniel%Mathieu%NULL%0,                Francois%Pattou%francois.pattou@univ-lille.fr%0,                Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                Robert%Caizzo%NULL%0,                Robert%Caizzo%NULL%0,                Morgan%Caplan%NULL%0,                Nicolas%Cousin%NULL%0,                Thibault%Duburcq%NULL%0,                Arthur%Durand%NULL%0,                Ahmed%El kalioubie%NULL%0,                Raphael%Favory%NULL%0,                Bruno%Garcia%NULL%0,                Patrick%Girardie%NULL%0,                Julien%Goutay%NULL%0,                Marion%Houard%NULL%0,                Emmanuelle%Jaillette%NULL%0,                Nicolas%Kostuj%NULL%0,                Geoffrey%Ledoux%NULL%0,                Daniel%Mathieu%NULL%0,                Anne Sophie%Moreau%NULL%0,                Christopher%Niles%NULL%0,                Saad%Nseir%NULL%0,                Thierry%Onimus%NULL%0,                Erika%Parmentier%NULL%0,                Sebastien%Préau%NULL%0,                Laurent%Robriquet%NULL%0,                Anahita%Rouze%NULL%0,                Sophie%Six%NULL%0,                Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,              Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,              Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,              Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,          Xiaoyan%Chen%xref no email%0,          Yanping%Cai%xref no email%0,          Jia\u2019an%Xia%xref no email%0,          Xing%Zhou%xref no email%0,          Sha%Xu%xref no email%0,          Hanping%Huang%xref no email%0,          Li%Zhang%xref no email%0,          Xia%Zhou%xref no email%0,          Chunling%Du%xref no email%0,          Yuye%Zhang%xref no email%0,          Juan%Song%xref no email%0,          Sijiao%Wang%xref no email%0,          Yencheng%Chao%xref no email%0,          Zeyong%Yang%xref no email%0,          Jie%Xu%xref no email%0,          Xin%Zhou%xref no email%0,          Dechang%Chen%xref no email%0,          Weining%Xiong%xref no email%0,          Lei%Xu%xref no email%0,          Feng%Zhou%xref no email%0,          Jinjun%Jiang%xref no email%0,          Chunxue%Bai%xref no email%0,          Junhua%Zheng%xref no email%0,          Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                Chen-Hsen%Lee%NULL%1,                Cheng-Yi%Liu%NULL%1,                Jia-Horng%Wang%NULL%1,                Lee-Min%Wang%NULL%1,                Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                Xiaobo%Yang%NULL%1,                Luyu%Yang%NULL%1,                Xiaojing%Zou%NULL%0,                Yaxin%Wang%NULL%0,                Yongran%Wu%NULL%0,                Ting%Zhou%NULL%1,                Yin%Yuan%NULL%1,                Hong%Qi%NULL%1,                Shouzhi%Fu%NULL%0,                Hong%Liu%NULL%0,                Jia’an%Xia%NULL%1,                Zhengqin%Xu%NULL%1,                Yuan%Yu%NULL%0,                Ruiting%Li%NULL%0,                Yaqi%Ouyang%NULL%1,                Rui%Wang%NULL%0,                Lehao%Ren%NULL%1,                Yingying%Hu%NULL%1,                Dan%Xu%NULL%0,                Xin%Zhao%NULL%1,                Shiying%Yuan%shiying_yuan@163.com%0,                Dingyu%Zhang%1813886398@qq.com%0,                You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,          Sean Wei Xiang%Ong%xref no email%0,          Shirin%Kalimuddin%xref no email%0,          Jenny G.%Low%xref no email%0,          Seow Yen%Tan%xref no email%0,          Jiashen%Loh%xref no email%0,          Oon-Tek%Ng%xref no email%0,          Kalisvar%Marimuthu%xref no email%0,          Li Wei%Ang%xref no email%0,          Tze Minn%Mak%xref no email%0,          Sok Kiang%Lau%xref no email%0,          Danielle E.%Anderson%xref no email%0,          Kian Sing%Chan%xref no email%0,          Thean Yen%Tan%xref no email%0,          Tong Yong%Ng%xref no email%0,          Lin%Cui%xref no email%0,          Zubaidah%Said%xref no email%0,          Lalitha%Kurupatham%xref no email%0,          Mark I-Cheng%Chen%xref no email%0,          Monica%Chan%xref no email%0,          Shawn%Vasoo%xref no email%0,          Lin-Fa%Wang%xref no email%0,          Boon Huan%Tan%xref no email%0,          Raymond Tzer Pin%Lin%xref no email%0,          Vernon Jian Ming%Lee%xref no email%0,          Yee-Sin%Leo%xref no email%0,          David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Wen-hua%Liang%NULL%0,                Yi%Zhao%NULL%1,                Heng-rui%Liang%NULL%1,                Zi-sheng%Chen%NULL%1,                Yi-min%Li%NULL%1,                Xiao-qing%Liu%NULL%1,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Chun-quan%Ou%NULL%0,                Li%Li%NULL%0,                Ping-yan%Chen%NULL%0,                Ling%Sang%NULL%1,                Wei%Wang%NULL%0,                Jian-fu%Li%NULL%1,                Cai-chen%Li%NULL%1,                Li-min%Ou%NULL%1,                Bo%Cheng%NULL%1,                Shan%Xiong%NULL%1,                Zheng-yi%Ni%NULL%0,                Jie%Xiang%NULL%0,                Yu%Hu%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Lin-ling%Cheng%NULL%1,                Feng%Ye%NULL%1,                Shi-yue%Li%NULL%0,                Jin-ping%Zheng%NULL%1,                Nuo-fu%Zhang%NULL%1,                Nan-shan%Zhong%NULL%0,                Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                Giacomo%Iapichino%NULL%1,                Luca%Carenzo%NULL%1,                Maurizio%Cecconi%NULL%1,                Paola%Ferrazzi%NULL%1,                Tim%Sebastian%NULL%1,                Nils%Kucher%NULL%1,                Jan-Dirk%Studt%NULL%1,                Clara%Sacco%NULL%1,                Alexia%Bertuzzi%NULL%1,                Maria Teresa%Sandri%NULL%1,                Stefano%Barco%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                M.J.H.A.%Kruip%NULL%1,                N.J.M.%van der Meer%NULL%1,                M.S.%Arbous%NULL%1,                D.A.M.P.J.%Gommers%NULL%1,                K.M.%Kant%NULL%1,                F.H.J.%Kaptein%NULL%1,                J.%van Paassen%NULL%1,                M.A.M.%Stals%NULL%1,                M.V.%Huisman%NULL%1,                H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                Fang%Jiang%NULL%1,                Wating%Su%NULL%1,                Chang%Chen%NULL%1,                Jingli%Chen%NULL%1,                Wei%Mei%NULL%1,                Li-Ying%Zhan%NULL%1,                Yifan%Jia%NULL%1,                Liangqing%Zhang%NULL%1,                Danyong%Liu%NULL%1,                Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                Ewen M%Harrison%NULL%1,                Christopher A%Green%NULL%1,                Hayley E%Hardwick%NULL%1,                Riinu%Pius%NULL%1,                Lisa%Norman%NULL%1,                Karl A%Holden%NULL%1,                Jonathan M%Read%NULL%1,                Frank%Dondelinger%NULL%1,                Gail%Carson%NULL%1,                Laura%Merson%NULL%1,                James%Lee%NULL%1,                Daniel%Plotkin%NULL%1,                Louise%Sigfrid%NULL%1,                Sophie%Halpin%NULL%1,                Clare%Jackson%NULL%1,                Carrol%Gamble%NULL%1,                Peter W%Horby%NULL%1,                Jonathan S%Nguyen-Van-Tam%NULL%1,                Antonia%Ho%NULL%1,                Clark D%Russell%NULL%1,                Jake%Dunning%NULL%1,                Peter JM%Openshaw%NULL%1,                J Kenneth%Baillie%NULL%1,                Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                Li-Min%Liu%NULL%0,                Wen%Yin%NULL%0,                Wen%Wang%NULL%0,                Lu-Lu%Guan%NULL%0,                Ming-Li%Yuan%NULL%0,                Yu-Lei%Li%NULL%0,                Yi%Hu%NULL%0,                Xu-Yan%Li%NULL%0,                Bing%Sun%NULL%0,                Peng%Peng%NULL%0,                Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                Qiang%Zhou%NULL%1,                Ruiqiang%Zheng%NULL%1,                Xuyan%Li%NULL%1,                Jianmin%Ling%NULL%1,                Yumei%Chen%NULL%1,                Jing%Jia%NULL%1,                Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                Anna Mara%Scandroglio%NULL%1,                Giacomo%Monti%NULL%1,                Maria Grazia%Calabrò%NULL%1,                Giovanni%Landoni%NULL%1,                Antonio%Dell'Acqua%NULL%1,                Luigi%Beretta%NULL%1,                Elena%Moizo%NULL%1,                Alfredo%Ravizza%NULL%1,                Fabrizio%Monaco%NULL%1,                Corrado%Campochiaro%NULL%1,                Marina%Pieri%NULL%1,                Maria Luisa%Azzolini%NULL%1,                Giovanni%Borghi%NULL%1,                Martina%Crivellari%NULL%1,                Caterina%Conte%NULL%1,                Cristina%Mattioli%NULL%1,                Paolo%Silvani%NULL%1,                Milena%Mucci%NULL%1,                Stefano%Turi%NULL%1,                Stefano%Tentori%NULL%1,                Martina%Baiardo Redaelli%NULL%1,                Marianna%Sartorelli%NULL%1,                Piera%Angelillo%NULL%1,                Alessandro%Belletti%NULL%1,                Pasquale%Nardelli%NULL%1,                Francesco Giuseppe%Nisi%NULL%1,                Gabriele%Valsecchi%NULL%1,                Cristina%Barberio%NULL%1,                Fabio%Ciceri%NULL%1,                Ary%Serpa Neto%NULL%1,                Lorenzo%Dagna%NULL%1,                Rinaldo%Bellomo%NULL%1,                Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,              Cabrini%Luca%coreGivesNoEmail%0,              Castelli%Antonio%coreGivesNoEmail%0,              Cecconi%Maurizio%coreGivesNoEmail%0,              Cereda%Danilo%coreGivesNoEmail%0,              Coluccello%Antonio%coreGivesNoEmail%0,              Foti%Giuseppe%coreGivesNoEmail%0,              Fumagalli%Roberto%coreGivesNoEmail%0,              Grasselli%Giacomo%coreGivesNoEmail%0,              Iotti%Giorgio%coreGivesNoEmail%0,              Latronico%Nicola%coreGivesNoEmail%0,              Lorini%Luca%coreGivesNoEmail%0,              Merler%Stefano%coreGivesNoEmail%0,              Natalini%Giuseppe%coreGivesNoEmail%0,              Pesenti%Antonio%coreGivesNoEmail%0,              Piatti%Alessandra%coreGivesNoEmail%0,              Ranieri%Marco Vito%coreGivesNoEmail%0,              Scandroglio%Anna Mara%coreGivesNoEmail%0,              Storti%Enrico%coreGivesNoEmail%0,              Zanella%Alberto%coreGivesNoEmail%0,              Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                Min%Zhou%NULL%0,                Xuan%Dong%NULL%0,                Jieming%Qu%NULL%0,                Fengyun%Gong%NULL%0,                Yang%Han%NULL%0,                Yang%Qiu%NULL%0,                Jingli%Wang%NULL%0,                Ying%Liu%NULL%0,                Yuan%Wei%NULL%0,                Jia'an%Xia%NULL%0,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%0,                Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,          Tai Nin%Chau%xref no email%1,          Owen%Tsang%xref no email%1,          Eugene%Tso%xref no email%1,          Ming Chee%Chiu%xref no email%1,          Wing Lok%Tong%xref no email%1,          Po Oi%Lee%xref no email%1,          Tak Keung%Ng%xref no email%1,          Wai Fu%Ng%xref no email%1,          Kam Cheong%Lee%xref no email%1,          William%Lam%xref no email%1,          Wai Cho%Yu%xref no email%1,          Jak Yiu%Lai%xref no email%1,          Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,          Ali S.%Wahla%xref no email%1,          Shakeel%Siddiqui%xref no email%1,          Alaa%Ghabashi%xref no email%2,          Majid%Al-Shomrani%xref no email%1,          Abdulhakeem%Al-Thaqafi%xref no email%1,          Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,          Ahmed A.%Arifi%xref no email%1,          Hanan H.%Balkhy%xref no email%1,          Hani%Najm%xref no email%1,          Abdulaziz S.%Aldawood%xref no email%1,          Alaa%Ghabashi%xref no email%0,          Hassan%Hawa%xref no email%1,          Adel%Alothman%xref no email%1,          Abdulaziz%Khaldi%xref no email%1,          Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                Ali S.%Omrani%NULL%1,                Kamran%Baig%NULL%1,                Abdelkarim%Bahloul%NULL%1,                Fatehi%Elzein%NULL%1,                Mohammad Abdul%Matin%NULL%1,                Mohei A.A.%Selim%NULL%1,                Mohammed Al%Mutairi%NULL%1,                Daifullah Al%Nakhli%NULL%1,                Amal Y. Al%Aidaroos%NULL%1,                Nisreen Al%Sherbeeni%NULL%1,                Hesham I.%Al-Khashan%NULL%1,                Ziad A.%Memish%zmemish@yahoo.com%1,                Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                Badr%Alsayed%NULL%1,                Sameh%Embarak%NULL%1,                Taha%Yaseen%NULL%1,                Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                Shamsudeen F.%Fagbo%NULL%1,                Vicky J.%Fang%NULL%1,                Leila%Skakni%NULL%1,                Mercy%Joseph%NULL%1,                Tariq A.%Wani%NULL%1,                Benjamin J.%Cowling%NULL%0,                Malik%Peiris%NULL%1,                Ahmed%Hakawi%NULL%1,                Renee W.Y.%Chan%NULL%2,                Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                Abdulmoatani%Alsulami%moatani@hotmail.com%1,                Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                Trish M.%Perl%tperl@jhmi.edu%1,                Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -2729,7 +2935,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -2758,7 +2964,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -2787,7 +2993,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -2816,7 +3022,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2845,7 +3051,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -2874,7 +3080,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2903,7 +3109,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2932,7 +3138,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2961,7 +3167,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2990,7 +3196,7 @@
         <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -3019,7 +3225,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -3048,7 +3254,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -3077,7 +3283,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -3106,7 +3312,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -3135,7 +3341,7 @@
         <v>481</v>
       </c>
       <c r="E16" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3164,7 +3370,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -3193,7 +3399,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -3222,7 +3428,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -3251,7 +3457,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3280,7 +3486,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3309,7 +3515,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3338,7 +3544,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3367,7 +3573,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -3396,7 +3602,7 @@
         <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3425,7 +3631,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -3454,7 +3660,7 @@
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3483,7 +3689,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -3541,7 +3747,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -3570,7 +3776,7 @@
         <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3599,7 +3805,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -3628,7 +3834,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -3657,7 +3863,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -3686,7 +3892,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -3715,7 +3921,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="707">
   <si>
     <t>Doi</t>
   </si>
@@ -2523,6 +2523,109 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                Abdulmoatani%Alsulami%moatani@hotmail.com%1,                Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                Trish M.%Perl%tperl@jhmi.edu%1,                Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                 Jing-Jin%Liang%NULL%1,                 Qing-Tao%Zhou%NULL%1,                 Xiao-Guang%Li%NULL%1,                 Fei%Lin%NULL%1,                 Zhong-Hua%Deng%NULL%1,                 Bi-Ying%Zhang%NULL%1,                 Lu%Li%NULL%1,                 Xiao-Hua%Wang%NULL%1,                 Hong%Zhu%NULL%1,                 Qing-Bian%Ma%NULL%1,                 Xiao-Mei%Tong%NULL%1,                 Jie%Xu%NULL%1,                 Yong-Chang%Sun%NULL%1,                 Pei-Fang%Wei%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                 Xiao-Xin%Wu%NULL%0,                 Xian-Gao%Jiang%NULL%0,                 Kai-Jin%Xu%NULL%0,                 Ling-Jun%Ying%NULL%0,                 Chun-Lian%Ma%NULL%0,                 Shi-Bo%Li%NULL%0,                 Hua-Ying%Wang%NULL%0,                 Sheng%Zhang%NULL%0,                 Hai-Nv%Gao%NULL%0,                 Ji-Fang%Sheng%NULL%0,                 Hong-Liu%Cai%NULL%0,                 Yun-Qing%Qiu%NULL%0,                 Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                 Bijan J.%Ghassemieh%NULL%0,                 Michelle%Nichols%NULL%0,                 Richard%Kim%NULL%0,                 Keith R.%Jerome%NULL%0,                 Arun K.%Nalla%NULL%0,                 Alexander L.%Greninger%NULL%0,                 Sudhakar%Pipavath%NULL%0,                 Mark M.%Wurfel%NULL%0,                 Laura%Evans%NULL%0,                 Patricia A.%Kritek%NULL%0,                 T. Eoin%West%NULL%0,                 Andrew%Luks%NULL%0,                 Anthony%Gerbino%NULL%0,                 Chris R.%Dale%NULL%0,                 Jason D.%Goldman%NULL%0,                 Shane%O’Mahony%NULL%0,                 Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,           Eric%Yim%xref no email%0,           Lindy%Klaff%xref no email%0,           Sharukh%Lokhandwala%xref no email%0,           Francis X.%Riedo%xref no email%0,           Maria%Chong%xref no email%0,           Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 Stephanie%Bialek%NULL%1,                 Ellen%Boundy%NULL%1,                 Virginia%Bowen%NULL%1,                 Nancy%Chow%NULL%1,                 Amanda%Cohn%NULL%0,                 Nicole%Dowling%NULL%1,                 Sascha%Ellington%NULL%1,                 Ryan%Gierke%NULL%1,                 Aron%Hall%NULL%1,                 Jessica%MacNeil%NULL%1,                 Priti%Patel%NULL%1,                 Georgina%Peacock%NULL%1,                 Tamara%Pilishvili%NULL%1,                 Hilda%Razzaghi%NULL%1,                 Nia%Reed%NULL%1,                 Matthew%Ritchey%NULL%1,                 Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                 Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                 Wenlin%Cheng%NULL%0,                 Lei%Yu%NULL%0,                 Ya-Kun%Liu%NULL%0,                 Xiaoyong%Hu%NULL%0,                 Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                 Tangkai%Qi%NULL%0,                 Li%Liu%NULL%0,                 Yun%Ling%NULL%0,                 Zhiping%Qian%NULL%0,                 Tao%Li%NULL%0,                 Feng%Li%NULL%0,                 Qingnian%Xu%NULL%0,                 Yuyi%Zhang%NULL%0,                 Shuibao%Xu%NULL%0,                 Zhigang%Song%NULL%0,                 Yigang%Zeng%NULL%0,                 Yinzhong%Shen%NULL%0,                 Yuxin%Shi%NULL%0,                 Tongyu%Zhu%NULL%0,                 Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                 Dingyu%Zhang%NULL%0,                 Wenling%Wang%NULL%0,                 Xingwang%Li%NULL%0,                 Bo%Yang%NULL%0,                 Jingdong%Song%NULL%0,                 Xiang%Zhao%NULL%0,                 Baoying%Huang%NULL%0,                 Weifeng%Shi%NULL%0,                 Roujian%Lu%NULL%0,                 Peihua%Niu%NULL%0,                 Faxian%Zhan%NULL%0,                 Xuejun%Ma%NULL%0,                 Dayan%Wang%NULL%0,                 Wenbo%Xu%NULL%0,                 Guizhen%Wu%NULL%0,                 George F.%Gao%NULL%0,                 Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                 Simon A%Jones%NULL%1,                 Jie%Yang%NULL%1,                 Harish%Rajagopalan%NULL%1,                 Luke%O’Donnell%NULL%1,                 Yelena%Chernyak%NULL%1,                 Katie A%Tobin%NULL%1,                 Robert J%Cerfolio%NULL%1,                 Fritz%Francois%NULL%2,                 Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,               Becker%L.B.%coreGivesNoEmail%0,               Chelico%J.D.%coreGivesNoEmail%0,               Cohen%S.L.%coreGivesNoEmail%0,               Cookingham%J.%coreGivesNoEmail%0,               Coppa%K.%coreGivesNoEmail%0,               Crawford%J.M.%coreGivesNoEmail%0,               Davidson%K.W.%coreGivesNoEmail%0,               Diefenbach%M.A.%coreGivesNoEmail%0,               Dominello%A.J.%coreGivesNoEmail%0,               Duer-Hefele%J.%coreGivesNoEmail%0,               Falzon%L.%coreGivesNoEmail%0,               Gitlin%J.%coreGivesNoEmail%0,               Hajizadeh%N.%coreGivesNoEmail%0,               Harvin%T.G.%coreGivesNoEmail%0,               Hirsch%J.S.%coreGivesNoEmail%0,               Hirschwerk%D.A.%coreGivesNoEmail%0,               Kim%E.J.%coreGivesNoEmail%0,               Kozel%Z.M.%coreGivesNoEmail%0,               Marrast%L.M.%coreGivesNoEmail%0,               McGinn%T.%coreGivesNoEmail%0,               Mogavero%J.N.%coreGivesNoEmail%0,               Narasimhan%M.%coreGivesNoEmail%0,               Osorio%G.A.%coreGivesNoEmail%0,               Qiu%M.%coreGivesNoEmail%0,               Richardson%S.%coreGivesNoEmail%0,               Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                 Mikael%Chetboun%NULL%0,                 Julien%Poissy%NULL%0,                 Violeta%Raverdy%NULL%0,                 Jerome%Noulette%NULL%0,                 Jerome%Noulette%NULL%0,                 Alain%Duhamel%NULL%0,                 Julien%Labreuche%NULL%0,                 Daniel%Mathieu%NULL%0,                 Francois%Pattou%francois.pattou@univ-lille.fr%0,                 Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                 Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                 Robert%Caizzo%NULL%0,                 Robert%Caizzo%NULL%0,                 Morgan%Caplan%NULL%0,                 Nicolas%Cousin%NULL%0,                 Thibault%Duburcq%NULL%0,                 Arthur%Durand%NULL%0,                 Ahmed%El kalioubie%NULL%0,                 Raphael%Favory%NULL%0,                 Bruno%Garcia%NULL%0,                 Patrick%Girardie%NULL%0,                 Julien%Goutay%NULL%0,                 Marion%Houard%NULL%0,                 Emmanuelle%Jaillette%NULL%0,                 Nicolas%Kostuj%NULL%0,                 Geoffrey%Ledoux%NULL%0,                 Daniel%Mathieu%NULL%0,                 Anne Sophie%Moreau%NULL%0,                 Christopher%Niles%NULL%0,                 Saad%Nseir%NULL%0,                 Thierry%Onimus%NULL%0,                 Erika%Parmentier%NULL%0,                 Sebastien%Préau%NULL%0,                 Laurent%Robriquet%NULL%0,                 Anahita%Rouze%NULL%0,                 Sophie%Six%NULL%0,                 Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,               Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,               Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,               Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,           Xiaoyan%Chen%xref no email%0,           Yanping%Cai%xref no email%0,           Jia\u2019an%Xia%xref no email%0,           Xing%Zhou%xref no email%0,           Sha%Xu%xref no email%0,           Hanping%Huang%xref no email%0,           Li%Zhang%xref no email%0,           Xia%Zhou%xref no email%0,           Chunling%Du%xref no email%0,           Yuye%Zhang%xref no email%0,           Juan%Song%xref no email%0,           Sijiao%Wang%xref no email%0,           Yencheng%Chao%xref no email%0,           Zeyong%Yang%xref no email%0,           Jie%Xu%xref no email%0,           Xin%Zhou%xref no email%0,           Dechang%Chen%xref no email%0,           Weining%Xiong%xref no email%0,           Lei%Xu%xref no email%0,           Feng%Zhou%xref no email%0,           Jinjun%Jiang%xref no email%0,           Chunxue%Bai%xref no email%0,           Junhua%Zheng%xref no email%0,           Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                 Chen-Hsen%Lee%NULL%1,                 Cheng-Yi%Liu%NULL%1,                 Jia-Horng%Wang%NULL%1,                 Lee-Min%Wang%NULL%1,                 Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%2,                 Xiaobo%Yang%NULL%1,                 Luyu%Yang%NULL%1,                 Xiaojing%Zou%NULL%0,                 Yaxin%Wang%NULL%0,                 Yongran%Wu%NULL%0,                 Ting%Zhou%NULL%1,                 Yin%Yuan%NULL%1,                 Hong%Qi%NULL%1,                 Shouzhi%Fu%NULL%0,                 Hong%Liu%NULL%0,                 Jia’an%Xia%NULL%1,                 Zhengqin%Xu%NULL%1,                 Yuan%Yu%NULL%0,                 Ruiting%Li%NULL%0,                 Yaqi%Ouyang%NULL%1,                 Rui%Wang%NULL%0,                 Lehao%Ren%NULL%1,                 Yingying%Hu%NULL%1,                 Dan%Xu%NULL%0,                 Xin%Zhao%NULL%1,                 Shiying%Yuan%shiying_yuan@163.com%0,                 Dingyu%Zhang%1813886398@qq.com%0,                 You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,           Sean Wei Xiang%Ong%xref no email%0,           Shirin%Kalimuddin%xref no email%0,           Jenny G.%Low%xref no email%0,           Seow Yen%Tan%xref no email%0,           Jiashen%Loh%xref no email%0,           Oon-Tek%Ng%xref no email%0,           Kalisvar%Marimuthu%xref no email%0,           Li Wei%Ang%xref no email%0,           Tze Minn%Mak%xref no email%0,           Sok Kiang%Lau%xref no email%0,           Danielle E.%Anderson%xref no email%0,           Kian Sing%Chan%xref no email%0,           Thean Yen%Tan%xref no email%0,           Tong Yong%Ng%xref no email%0,           Lin%Cui%xref no email%0,           Zubaidah%Said%xref no email%0,           Lalitha%Kurupatham%xref no email%0,           Mark I-Cheng%Chen%xref no email%0,           Monica%Chan%xref no email%0,           Shawn%Vasoo%xref no email%0,           Lin-Fa%Wang%xref no email%0,           Boon Huan%Tan%xref no email%0,           Raymond Tzer Pin%Lin%xref no email%0,           Vernon Jian Ming%Lee%xref no email%0,           Yee-Sin%Leo%xref no email%0,           David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Wen-hua%Liang%NULL%0,                 Yi%Zhao%NULL%1,                 Heng-rui%Liang%NULL%1,                 Zi-sheng%Chen%NULL%1,                 Yi-min%Li%NULL%1,                 Xiao-qing%Liu%NULL%1,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Chun-quan%Ou%NULL%0,                 Li%Li%NULL%0,                 Ping-yan%Chen%NULL%0,                 Ling%Sang%NULL%1,                 Wei%Wang%NULL%0,                 Jian-fu%Li%NULL%1,                 Cai-chen%Li%NULL%1,                 Li-min%Ou%NULL%1,                 Bo%Cheng%NULL%1,                 Shan%Xiong%NULL%1,                 Zheng-yi%Ni%NULL%0,                 Jie%Xiang%NULL%0,                 Yu%Hu%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Lin-ling%Cheng%NULL%1,                 Feng%Ye%NULL%1,                 Shi-yue%Li%NULL%0,                 Jin-ping%Zheng%NULL%1,                 Nuo-fu%Zhang%NULL%1,                 Nan-shan%Zhong%NULL%0,                 Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                 Giacomo%Iapichino%NULL%1,                 Luca%Carenzo%NULL%1,                 Maurizio%Cecconi%NULL%1,                 Paola%Ferrazzi%NULL%1,                 Tim%Sebastian%NULL%1,                 Nils%Kucher%NULL%1,                 Jan-Dirk%Studt%NULL%1,                 Clara%Sacco%NULL%1,                 Alexia%Bertuzzi%NULL%1,                 Maria Teresa%Sandri%NULL%1,                 Stefano%Barco%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                 M.J.H.A.%Kruip%NULL%1,                 N.J.M.%van der Meer%NULL%1,                 M.S.%Arbous%NULL%1,                 D.A.M.P.J.%Gommers%NULL%1,                 K.M.%Kant%NULL%1,                 F.H.J.%Kaptein%NULL%1,                 J.%van Paassen%NULL%1,                 M.A.M.%Stals%NULL%1,                 M.V.%Huisman%NULL%1,                 H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                 Fang%Jiang%NULL%1,                 Wating%Su%NULL%1,                 Chang%Chen%NULL%1,                 Jingli%Chen%NULL%1,                 Wei%Mei%NULL%1,                 Li-Ying%Zhan%NULL%1,                 Yifan%Jia%NULL%1,                 Liangqing%Zhang%NULL%1,                 Danyong%Liu%NULL%1,                 Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                 Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                 Ewen M%Harrison%NULL%1,                 Christopher A%Green%NULL%1,                 Hayley E%Hardwick%NULL%1,                 Riinu%Pius%NULL%1,                 Lisa%Norman%NULL%1,                 Karl A%Holden%NULL%1,                 Jonathan M%Read%NULL%1,                 Frank%Dondelinger%NULL%1,                 Gail%Carson%NULL%1,                 Laura%Merson%NULL%1,                 James%Lee%NULL%1,                 Daniel%Plotkin%NULL%1,                 Louise%Sigfrid%NULL%1,                 Sophie%Halpin%NULL%1,                 Clare%Jackson%NULL%1,                 Carrol%Gamble%NULL%1,                 Peter W%Horby%NULL%1,                 Jonathan S%Nguyen-Van-Tam%NULL%1,                 Antonia%Ho%NULL%1,                 Clark D%Russell%NULL%1,                 Jake%Dunning%NULL%1,                 Peter JM%Openshaw%NULL%1,                 J Kenneth%Baillie%NULL%1,                 Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                 Li-Min%Liu%NULL%0,                 Wen%Yin%NULL%0,                 Wen%Wang%NULL%0,                 Lu-Lu%Guan%NULL%0,                 Ming-Li%Yuan%NULL%0,                 Yu-Lei%Li%NULL%0,                 Yi%Hu%NULL%0,                 Xu-Yan%Li%NULL%0,                 Bing%Sun%NULL%0,                 Peng%Peng%NULL%0,                 Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                 Qiang%Zhou%NULL%1,                 Ruiqiang%Zheng%NULL%1,                 Xuyan%Li%NULL%1,                 Jianmin%Ling%NULL%1,                 Yumei%Chen%NULL%1,                 Jing%Jia%NULL%1,                 Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                 Anna Mara%Scandroglio%NULL%1,                 Giacomo%Monti%NULL%1,                 Maria Grazia%Calabrò%NULL%1,                 Giovanni%Landoni%NULL%1,                 Antonio%Dell'Acqua%NULL%1,                 Luigi%Beretta%NULL%1,                 Elena%Moizo%NULL%1,                 Alfredo%Ravizza%NULL%1,                 Fabrizio%Monaco%NULL%1,                 Corrado%Campochiaro%NULL%1,                 Marina%Pieri%NULL%1,                 Maria Luisa%Azzolini%NULL%1,                 Giovanni%Borghi%NULL%1,                 Martina%Crivellari%NULL%1,                 Caterina%Conte%NULL%1,                 Cristina%Mattioli%NULL%1,                 Paolo%Silvani%NULL%1,                 Milena%Mucci%NULL%1,                 Stefano%Turi%NULL%1,                 Stefano%Tentori%NULL%1,                 Martina%Baiardo Redaelli%NULL%1,                 Marianna%Sartorelli%NULL%1,                 Piera%Angelillo%NULL%1,                 Alessandro%Belletti%NULL%1,                 Pasquale%Nardelli%NULL%1,                 Francesco Giuseppe%Nisi%NULL%1,                 Gabriele%Valsecchi%NULL%1,                 Cristina%Barberio%NULL%1,                 Fabio%Ciceri%NULL%1,                 Ary%Serpa Neto%NULL%1,                 Lorenzo%Dagna%NULL%1,                 Rinaldo%Bellomo%NULL%1,                 Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,               Cabrini%Luca%coreGivesNoEmail%0,               Castelli%Antonio%coreGivesNoEmail%0,               Cecconi%Maurizio%coreGivesNoEmail%0,               Cereda%Danilo%coreGivesNoEmail%0,               Coluccello%Antonio%coreGivesNoEmail%0,               Foti%Giuseppe%coreGivesNoEmail%0,               Fumagalli%Roberto%coreGivesNoEmail%0,               Grasselli%Giacomo%coreGivesNoEmail%0,               Iotti%Giorgio%coreGivesNoEmail%0,               Latronico%Nicola%coreGivesNoEmail%0,               Lorini%Luca%coreGivesNoEmail%0,               Merler%Stefano%coreGivesNoEmail%0,               Natalini%Giuseppe%coreGivesNoEmail%0,               Pesenti%Antonio%coreGivesNoEmail%0,               Piatti%Alessandra%coreGivesNoEmail%0,               Ranieri%Marco Vito%coreGivesNoEmail%0,               Scandroglio%Anna Mara%coreGivesNoEmail%0,               Storti%Enrico%coreGivesNoEmail%0,               Zanella%Alberto%coreGivesNoEmail%0,               Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                 Min%Zhou%NULL%0,                 Xuan%Dong%NULL%0,                 Jieming%Qu%NULL%0,                 Fengyun%Gong%NULL%0,                 Yang%Han%NULL%0,                 Yang%Qiu%NULL%0,                 Jingli%Wang%NULL%0,                 Ying%Liu%NULL%0,                 Yuan%Wei%NULL%0,                 Jia'an%Xia%NULL%0,                 Ting%Yu%NULL%0,                 Xinxin%Zhang%NULL%0,                 Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,           Tai Nin%Chau%xref no email%1,           Owen%Tsang%xref no email%1,           Eugene%Tso%xref no email%1,           Ming Chee%Chiu%xref no email%1,           Wing Lok%Tong%xref no email%1,           Po Oi%Lee%xref no email%1,           Tak Keung%Ng%xref no email%1,           Wai Fu%Ng%xref no email%1,           Kam Cheong%Lee%xref no email%1,           William%Lam%xref no email%1,           Wai Cho%Yu%xref no email%1,           Jak Yiu%Lai%xref no email%1,           Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,           Ali S.%Wahla%xref no email%1,           Shakeel%Siddiqui%xref no email%1,           Alaa%Ghabashi%xref no email%2,           Majid%Al-Shomrani%xref no email%1,           Abdulhakeem%Al-Thaqafi%xref no email%1,           Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,           Ahmed A.%Arifi%xref no email%1,           Hanan H.%Balkhy%xref no email%1,           Hani%Najm%xref no email%1,           Abdulaziz S.%Aldawood%xref no email%1,           Alaa%Ghabashi%xref no email%0,           Hassan%Hawa%xref no email%1,           Adel%Alothman%xref no email%1,           Abdulaziz%Khaldi%xref no email%1,           Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                 Ali S.%Omrani%NULL%1,                 Kamran%Baig%NULL%1,                 Abdelkarim%Bahloul%NULL%1,                 Fatehi%Elzein%NULL%1,                 Mohammad Abdul%Matin%NULL%1,                 Mohei A.A.%Selim%NULL%1,                 Mohammed Al%Mutairi%NULL%1,                 Daifullah Al%Nakhli%NULL%1,                 Amal Y. Al%Aidaroos%NULL%1,                 Nisreen Al%Sherbeeni%NULL%1,                 Hesham I.%Al-Khashan%NULL%1,                 Ziad A.%Memish%zmemish@yahoo.com%1,                 Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                 Badr%Alsayed%NULL%1,                 Sameh%Embarak%NULL%1,                 Taha%Yaseen%NULL%1,                 Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                 Shamsudeen F.%Fagbo%NULL%1,                 Vicky J.%Fang%NULL%1,                 Leila%Skakni%NULL%1,                 Mercy%Joseph%NULL%1,                 Tariq A.%Wani%NULL%1,                 Benjamin J.%Cowling%NULL%0,                 Malik%Peiris%NULL%1,                 Ahmed%Hakawi%NULL%1,                 Renee W.Y.%Chan%NULL%2,                 Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                 Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                 Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                 Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                 Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                 Abdulmoatani%Alsulami%moatani@hotmail.com%1,                 Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                 Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                 Trish M.%Perl%tperl@jhmi.edu%1,                 Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -2935,7 +3038,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>639</v>
+        <v>673</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -2964,7 +3067,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -2993,7 +3096,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -3022,7 +3125,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3051,7 +3154,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -3080,7 +3183,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -3109,7 +3212,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -3138,7 +3241,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -3167,7 +3270,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -3196,7 +3299,7 @@
         <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -3225,7 +3328,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -3254,7 +3357,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -3283,7 +3386,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -3312,7 +3415,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -3341,7 +3444,7 @@
         <v>481</v>
       </c>
       <c r="E16" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3370,7 +3473,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>654</v>
+        <v>688</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -3399,7 +3502,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -3428,7 +3531,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>656</v>
+        <v>690</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -3457,7 +3560,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3486,7 +3589,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3515,7 +3618,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3544,7 +3647,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3573,7 +3676,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -3602,7 +3705,7 @@
         <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3631,7 +3734,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -3660,7 +3763,7 @@
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3689,7 +3792,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -3747,7 +3850,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -3776,7 +3879,7 @@
         <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3805,7 +3908,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -3834,7 +3937,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -3863,7 +3966,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -3892,7 +3995,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -3921,7 +4024,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4828" uniqueCount="745">
   <si>
     <t>Doi</t>
   </si>
@@ -2626,6 +2626,121 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                 Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                 Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                 Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                 Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                 Abdulmoatani%Alsulami%moatani@hotmail.com%1,                 Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                 Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                 Trish M.%Perl%tperl@jhmi.edu%1,                 Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                  Jing-Jin%Liang%NULL%1,                  Qing-Tao%Zhou%NULL%1,                  Xiao-Guang%Li%NULL%1,                  Fei%Lin%NULL%1,                  Zhong-Hua%Deng%NULL%1,                  Bi-Ying%Zhang%NULL%1,                  Lu%Li%NULL%1,                  Xiao-Hua%Wang%NULL%1,                  Hong%Zhu%NULL%1,                  Qing-Bian%Ma%NULL%1,                  Xiao-Mei%Tong%NULL%1,                  Jie%Xu%NULL%1,                  Yong-Chang%Sun%NULL%1,                  Pei-Fang%Wei%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                  Xiao-Xin%Wu%NULL%0,                  Xian-Gao%Jiang%NULL%0,                  Kai-Jin%Xu%NULL%0,                  Ling-Jun%Ying%NULL%0,                  Chun-Lian%Ma%NULL%0,                  Shi-Bo%Li%NULL%0,                  Hua-Ying%Wang%NULL%0,                  Sheng%Zhang%NULL%0,                  Hai-Nv%Gao%NULL%0,                  Ji-Fang%Sheng%NULL%0,                  Hong-Liu%Cai%NULL%0,                  Yun-Qing%Qiu%NULL%0,                  Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                  Bijan J.%Ghassemieh%NULL%0,                  Michelle%Nichols%NULL%0,                  Richard%Kim%NULL%0,                  Keith R.%Jerome%NULL%0,                  Arun K.%Nalla%NULL%0,                  Alexander L.%Greninger%NULL%0,                  Sudhakar%Pipavath%NULL%0,                  Mark M.%Wurfel%NULL%0,                  Laura%Evans%NULL%0,                  Patricia A.%Kritek%NULL%0,                  T. Eoin%West%NULL%0,                  Andrew%Luks%NULL%0,                  Anthony%Gerbino%NULL%0,                  Chris R.%Dale%NULL%0,                  Jason D.%Goldman%NULL%0,                  Shane%O’Mahony%NULL%0,                  Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,            Eric%Yim%xref no email%0,            Lindy%Klaff%xref no email%0,            Sharukh%Lokhandwala%xref no email%0,            Francis X.%Riedo%xref no email%0,            Maria%Chong%xref no email%0,            Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  Stephanie%Bialek%NULL%1,                  Ellen%Boundy%NULL%1,                  Virginia%Bowen%NULL%1,                  Nancy%Chow%NULL%1,                  Amanda%Cohn%NULL%0,                  Nicole%Dowling%NULL%1,                  Sascha%Ellington%NULL%1,                  Ryan%Gierke%NULL%1,                  Aron%Hall%NULL%1,                  Jessica%MacNeil%NULL%1,                  Priti%Patel%NULL%1,                  Georgina%Peacock%NULL%1,                  Tamara%Pilishvili%NULL%1,                  Hilda%Razzaghi%NULL%1,                  Nia%Reed%NULL%1,                  Matthew%Ritchey%NULL%1,                  Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                  Wenlin%Cheng%NULL%0,                  Lei%Yu%NULL%0,                  Ya-Kun%Liu%NULL%0,                  Xiaoyong%Hu%NULL%0,                  Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                  Tangkai%Qi%NULL%0,                  Li%Liu%NULL%0,                  Yun%Ling%NULL%0,                  Zhiping%Qian%NULL%0,                  Tao%Li%NULL%0,                  Feng%Li%NULL%0,                  Qingnian%Xu%NULL%0,                  Yuyi%Zhang%NULL%0,                  Shuibao%Xu%NULL%0,                  Zhigang%Song%NULL%0,                  Yigang%Zeng%NULL%0,                  Yinzhong%Shen%NULL%0,                  Yuxin%Shi%NULL%0,                  Tongyu%Zhu%NULL%0,                  Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                  Dingyu%Zhang%NULL%0,                  Wenling%Wang%NULL%0,                  Xingwang%Li%NULL%0,                  Bo%Yang%NULL%0,                  Jingdong%Song%NULL%0,                  Xiang%Zhao%NULL%0,                  Baoying%Huang%NULL%0,                  Weifeng%Shi%NULL%0,                  Roujian%Lu%NULL%0,                  Peihua%Niu%NULL%0,                  Faxian%Zhan%NULL%0,                  Xuejun%Ma%NULL%0,                  Dayan%Wang%NULL%0,                  Wenbo%Xu%NULL%0,                  Guizhen%Wu%NULL%0,                  George F.%Gao%NULL%0,                  Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                  Simon A%Jones%NULL%1,                  Jie%Yang%NULL%1,                  Harish%Rajagopalan%NULL%1,                  Luke%O’Donnell%NULL%1,                  Yelena%Chernyak%NULL%1,                  Katie A%Tobin%NULL%1,                  Robert J%Cerfolio%NULL%1,                  Fritz%Francois%NULL%2,                  Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                Becker%L.B.%coreGivesNoEmail%0,                Chelico%J.D.%coreGivesNoEmail%0,                Cohen%S.L.%coreGivesNoEmail%0,                Cookingham%J.%coreGivesNoEmail%0,                Coppa%K.%coreGivesNoEmail%0,                Crawford%J.M.%coreGivesNoEmail%0,                Davidson%K.W.%coreGivesNoEmail%0,                Diefenbach%M.A.%coreGivesNoEmail%0,                Dominello%A.J.%coreGivesNoEmail%0,                Duer-Hefele%J.%coreGivesNoEmail%0,                Falzon%L.%coreGivesNoEmail%0,                Gitlin%J.%coreGivesNoEmail%0,                Hajizadeh%N.%coreGivesNoEmail%0,                Harvin%T.G.%coreGivesNoEmail%0,                Hirsch%J.S.%coreGivesNoEmail%0,                Hirschwerk%D.A.%coreGivesNoEmail%0,                Kim%E.J.%coreGivesNoEmail%0,                Kozel%Z.M.%coreGivesNoEmail%0,                Marrast%L.M.%coreGivesNoEmail%0,                McGinn%T.%coreGivesNoEmail%0,                Mogavero%J.N.%coreGivesNoEmail%0,                Narasimhan%M.%coreGivesNoEmail%0,                Osorio%G.A.%coreGivesNoEmail%0,                Qiu%M.%coreGivesNoEmail%0,                Richardson%S.%coreGivesNoEmail%0,                Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                  Mikael%Chetboun%NULL%0,                  Julien%Poissy%NULL%0,                  Violeta%Raverdy%NULL%0,                  Jerome%Noulette%NULL%0,                  Jerome%Noulette%NULL%0,                  Alain%Duhamel%NULL%0,                  Julien%Labreuche%NULL%0,                  Daniel%Mathieu%NULL%0,                  Francois%Pattou%francois.pattou@univ-lille.fr%0,                  Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                  Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                  Robert%Caizzo%NULL%0,                  Robert%Caizzo%NULL%0,                  Morgan%Caplan%NULL%0,                  Nicolas%Cousin%NULL%0,                  Thibault%Duburcq%NULL%0,                  Arthur%Durand%NULL%0,                  Ahmed%El kalioubie%NULL%0,                  Raphael%Favory%NULL%0,                  Bruno%Garcia%NULL%0,                  Patrick%Girardie%NULL%0,                  Julien%Goutay%NULL%0,                  Marion%Houard%NULL%0,                  Emmanuelle%Jaillette%NULL%0,                  Nicolas%Kostuj%NULL%0,                  Geoffrey%Ledoux%NULL%0,                  Daniel%Mathieu%NULL%0,                  Anne Sophie%Moreau%NULL%0,                  Christopher%Niles%NULL%0,                  Saad%Nseir%NULL%0,                  Thierry%Onimus%NULL%0,                  Erika%Parmentier%NULL%0,                  Sebastien%Préau%NULL%0,                  Laurent%Robriquet%NULL%0,                  Anahita%Rouze%NULL%0,                  Sophie%Six%NULL%0,                  Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,            Xiaoyan%Chen%xref no email%0,            Yanping%Cai%xref no email%0,            Jia\u2019an%Xia%xref no email%0,            Xing%Zhou%xref no email%0,            Sha%Xu%xref no email%0,            Hanping%Huang%xref no email%0,            Li%Zhang%xref no email%0,            Xia%Zhou%xref no email%0,            Chunling%Du%xref no email%0,            Yuye%Zhang%xref no email%0,            Juan%Song%xref no email%0,            Sijiao%Wang%xref no email%0,            Yencheng%Chao%xref no email%0,            Zeyong%Yang%xref no email%0,            Jie%Xu%xref no email%0,            Xin%Zhou%xref no email%0,            Dechang%Chen%xref no email%0,            Weining%Xiong%xref no email%0,            Lei%Xu%xref no email%0,            Feng%Zhou%xref no email%0,            Jinjun%Jiang%xref no email%0,            Chunxue%Bai%xref no email%0,            Junhua%Zheng%xref no email%0,            Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                  Chen-Hsen%Lee%NULL%1,                  Cheng-Yi%Liu%NULL%1,                  Jia-Horng%Wang%NULL%1,                  Lee-Min%Wang%NULL%1,                  Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                  Xiaobo%Yang%NULL%1,                  Luyu%Yang%NULL%1,                  Xiaojing%Zou%NULL%0,                  Yaxin%Wang%NULL%0,                  Yongran%Wu%NULL%0,                  Ting%Zhou%NULL%1,                  Yin%Yuan%NULL%1,                  Hong%Qi%NULL%1,                  Shouzhi%Fu%NULL%0,                  Hong%Liu%NULL%0,                  Jia’an%Xia%NULL%1,                  Zhengqin%Xu%NULL%1,                  Yuan%Yu%NULL%0,                  Ruiting%Li%NULL%0,                  Yaqi%Ouyang%NULL%1,                  Rui%Wang%NULL%0,                  Lehao%Ren%NULL%1,                  Yingying%Hu%NULL%1,                  Dan%Xu%NULL%0,                  Xin%Zhao%NULL%1,                  Shiying%Yuan%shiying_yuan@163.com%0,                  Dingyu%Zhang%1813886398@qq.com%0,                  You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,            Sean Wei Xiang%Ong%xref no email%0,            Shirin%Kalimuddin%xref no email%0,            Jenny G.%Low%xref no email%0,            Seow Yen%Tan%xref no email%0,            Jiashen%Loh%xref no email%0,            Oon-Tek%Ng%xref no email%0,            Kalisvar%Marimuthu%xref no email%0,            Li Wei%Ang%xref no email%0,            Tze Minn%Mak%xref no email%0,            Sok Kiang%Lau%xref no email%0,            Danielle E.%Anderson%xref no email%0,            Kian Sing%Chan%xref no email%0,            Thean Yen%Tan%xref no email%0,            Tong Yong%Ng%xref no email%0,            Lin%Cui%xref no email%0,            Zubaidah%Said%xref no email%0,            Lalitha%Kurupatham%xref no email%0,            Mark I-Cheng%Chen%xref no email%0,            Monica%Chan%xref no email%0,            Shawn%Vasoo%xref no email%0,            Lin-Fa%Wang%xref no email%0,            Boon Huan%Tan%xref no email%0,            Raymond Tzer Pin%Lin%xref no email%0,            Vernon Jian Ming%Lee%xref no email%0,            Yee-Sin%Leo%xref no email%0,            David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Wen-hua%Liang%NULL%0,                  Yi%Zhao%NULL%1,                  Heng-rui%Liang%NULL%1,                  Zi-sheng%Chen%NULL%1,                  Yi-min%Li%NULL%1,                  Xiao-qing%Liu%NULL%1,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Chun-quan%Ou%NULL%0,                  Li%Li%NULL%0,                  Ping-yan%Chen%NULL%0,                  Ling%Sang%NULL%1,                  Wei%Wang%NULL%0,                  Jian-fu%Li%NULL%1,                  Cai-chen%Li%NULL%1,                  Li-min%Ou%NULL%1,                  Bo%Cheng%NULL%1,                  Shan%Xiong%NULL%1,                  Zheng-yi%Ni%NULL%0,                  Jie%Xiang%NULL%0,                  Yu%Hu%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Lin-ling%Cheng%NULL%1,                  Feng%Ye%NULL%1,                  Shi-yue%Li%NULL%0,                  Jin-ping%Zheng%NULL%1,                  Nuo-fu%Zhang%NULL%1,                  Nan-shan%Zhong%NULL%0,                  Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                  Giacomo%Iapichino%NULL%1,                  Luca%Carenzo%NULL%1,                  Maurizio%Cecconi%NULL%1,                  Paola%Ferrazzi%NULL%1,                  Tim%Sebastian%NULL%1,                  Nils%Kucher%NULL%1,                  Jan-Dirk%Studt%NULL%1,                  Clara%Sacco%NULL%1,                  Alexia%Bertuzzi%NULL%1,                  Maria Teresa%Sandri%NULL%1,                  Stefano%Barco%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                  M.J.H.A.%Kruip%NULL%1,                  N.J.M.%van der Meer%NULL%1,                  M.S.%Arbous%NULL%1,                  D.A.M.P.J.%Gommers%NULL%1,                  K.M.%Kant%NULL%1,                  F.H.J.%Kaptein%NULL%1,                  J.%van Paassen%NULL%1,                  M.A.M.%Stals%NULL%1,                  M.V.%Huisman%NULL%1,                  H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                  Fang%Jiang%NULL%1,                  Wating%Su%NULL%1,                  Chang%Chen%NULL%1,                  Jingli%Chen%NULL%1,                  Wei%Mei%NULL%1,                  Li-Ying%Zhan%NULL%1,                  Yifan%Jia%NULL%1,                  Liangqing%Zhang%NULL%1,                  Danyong%Liu%NULL%1,                  Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                  Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                  Ewen M%Harrison%NULL%1,                  Christopher A%Green%NULL%1,                  Hayley E%Hardwick%NULL%1,                  Riinu%Pius%NULL%1,                  Lisa%Norman%NULL%1,                  Karl A%Holden%NULL%1,                  Jonathan M%Read%NULL%1,                  Frank%Dondelinger%NULL%1,                  Gail%Carson%NULL%1,                  Laura%Merson%NULL%1,                  James%Lee%NULL%1,                  Daniel%Plotkin%NULL%1,                  Louise%Sigfrid%NULL%1,                  Sophie%Halpin%NULL%1,                  Clare%Jackson%NULL%1,                  Carrol%Gamble%NULL%1,                  Peter W%Horby%NULL%1,                  Jonathan S%Nguyen-Van-Tam%NULL%1,                  Antonia%Ho%NULL%1,                  Clark D%Russell%NULL%1,                  Jake%Dunning%NULL%1,                  Peter JM%Openshaw%NULL%1,                  J Kenneth%Baillie%NULL%1,                  Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                  Li-Min%Liu%NULL%0,                  Wen%Yin%NULL%0,                  Wen%Wang%NULL%0,                  Lu-Lu%Guan%NULL%0,                  Ming-Li%Yuan%NULL%0,                  Yu-Lei%Li%NULL%0,                  Yi%Hu%NULL%0,                  Xu-Yan%Li%NULL%0,                  Bing%Sun%NULL%0,                  Peng%Peng%NULL%0,                  Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                  Qiang%Zhou%NULL%1,                  Ruiqiang%Zheng%NULL%1,                  Xuyan%Li%NULL%1,                  Jianmin%Ling%NULL%1,                  Yumei%Chen%NULL%1,                  Jing%Jia%NULL%1,                  Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                  Anna Mara%Scandroglio%NULL%1,                  Giacomo%Monti%NULL%1,                  Maria Grazia%Calabrò%NULL%1,                  Giovanni%Landoni%NULL%1,                  Antonio%Dell'Acqua%NULL%1,                  Luigi%Beretta%NULL%1,                  Elena%Moizo%NULL%1,                  Alfredo%Ravizza%NULL%1,                  Fabrizio%Monaco%NULL%1,                  Corrado%Campochiaro%NULL%1,                  Marina%Pieri%NULL%1,                  Maria Luisa%Azzolini%NULL%1,                  Giovanni%Borghi%NULL%1,                  Martina%Crivellari%NULL%1,                  Caterina%Conte%NULL%1,                  Cristina%Mattioli%NULL%1,                  Paolo%Silvani%NULL%1,                  Milena%Mucci%NULL%1,                  Stefano%Turi%NULL%1,                  Stefano%Tentori%NULL%1,                  Martina%Baiardo Redaelli%NULL%1,                  Marianna%Sartorelli%NULL%1,                  Piera%Angelillo%NULL%1,                  Alessandro%Belletti%NULL%1,                  Pasquale%Nardelli%NULL%1,                  Francesco Giuseppe%Nisi%NULL%1,                  Gabriele%Valsecchi%NULL%1,                  Cristina%Barberio%NULL%1,                  Fabio%Ciceri%NULL%1,                  Ary%Serpa Neto%NULL%1,                  Lorenzo%Dagna%NULL%1,                  Rinaldo%Bellomo%NULL%1,                  Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                Cabrini%Luca%coreGivesNoEmail%0,                Castelli%Antonio%coreGivesNoEmail%0,                Cecconi%Maurizio%coreGivesNoEmail%0,                Cereda%Danilo%coreGivesNoEmail%0,                Coluccello%Antonio%coreGivesNoEmail%0,                Foti%Giuseppe%coreGivesNoEmail%0,                Fumagalli%Roberto%coreGivesNoEmail%0,                Grasselli%Giacomo%coreGivesNoEmail%0,                Iotti%Giorgio%coreGivesNoEmail%0,                Latronico%Nicola%coreGivesNoEmail%0,                Lorini%Luca%coreGivesNoEmail%0,                Merler%Stefano%coreGivesNoEmail%0,                Natalini%Giuseppe%coreGivesNoEmail%0,                Pesenti%Antonio%coreGivesNoEmail%0,                Piatti%Alessandra%coreGivesNoEmail%0,                Ranieri%Marco Vito%coreGivesNoEmail%0,                Scandroglio%Anna Mara%coreGivesNoEmail%0,                Storti%Enrico%coreGivesNoEmail%0,                Zanella%Alberto%coreGivesNoEmail%0,                Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                  Min%Zhou%NULL%0,                  Xuan%Dong%NULL%0,                  Jieming%Qu%NULL%0,                  Fengyun%Gong%NULL%0,                  Yang%Han%NULL%0,                  Yang%Qiu%NULL%0,                  Jingli%Wang%NULL%0,                  Ying%Liu%NULL%0,                  Yuan%Wei%NULL%0,                  Jia'an%Xia%NULL%0,                  Ting%Yu%NULL%0,                  Xinxin%Zhang%NULL%0,                  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,            Tai Nin%Chau%xref no email%1,            Owen%Tsang%xref no email%1,            Eugene%Tso%xref no email%1,            Ming Chee%Chiu%xref no email%1,            Wing Lok%Tong%xref no email%1,            Po Oi%Lee%xref no email%1,            Tak Keung%Ng%xref no email%1,            Wai Fu%Ng%xref no email%1,            Kam Cheong%Lee%xref no email%1,            William%Lam%xref no email%1,            Wai Cho%Yu%xref no email%1,            Jak Yiu%Lai%xref no email%1,            Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,            Ali S.%Wahla%xref no email%1,            Shakeel%Siddiqui%xref no email%1,            Alaa%Ghabashi%xref no email%2,            Majid%Al-Shomrani%xref no email%1,            Abdulhakeem%Al-Thaqafi%xref no email%1,            Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,            Ahmed A.%Arifi%xref no email%1,            Hanan H.%Balkhy%xref no email%1,            Hani%Najm%xref no email%1,            Abdulaziz S.%Aldawood%xref no email%1,            Alaa%Ghabashi%xref no email%0,            Hassan%Hawa%xref no email%1,            Adel%Alothman%xref no email%1,            Abdulaziz%Khaldi%xref no email%1,            Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                  Ali S.%Omrani%NULL%1,                  Kamran%Baig%NULL%1,                  Abdelkarim%Bahloul%NULL%1,                  Fatehi%Elzein%NULL%1,                  Mohammad Abdul%Matin%NULL%1,                  Mohei A.A.%Selim%NULL%1,                  Mohammed Al%Mutairi%NULL%1,                  Daifullah Al%Nakhli%NULL%1,                  Amal Y. Al%Aidaroos%NULL%1,                  Nisreen Al%Sherbeeni%NULL%1,                  Hesham I.%Al-Khashan%NULL%1,                  Ziad A.%Memish%zmemish@yahoo.com%1,                  Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                  Badr%Alsayed%NULL%1,                  Sameh%Embarak%NULL%1,                  Taha%Yaseen%NULL%1,                  Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                  Shamsudeen F.%Fagbo%NULL%1,                  Vicky J.%Fang%NULL%1,                  Leila%Skakni%NULL%1,                  Mercy%Joseph%NULL%1,                  Tariq A.%Wani%NULL%1,                  Benjamin J.%Cowling%NULL%0,                  Malik%Peiris%NULL%1,                  Ahmed%Hakawi%NULL%1,                  Renee W.Y.%Chan%NULL%2,                  Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                  Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                  Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                  Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                  Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                  Abdulmoatani%Alsulami%moatani@hotmail.com%1,                  Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                  Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                  Trish M.%Perl%tperl@jhmi.edu%1,                  Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -3038,7 +3153,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -3050,7 +3165,7 @@
         <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3">
@@ -3067,7 +3182,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -3079,7 +3194,7 @@
         <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4">
@@ -3096,7 +3211,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -3108,7 +3223,7 @@
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5">
@@ -3125,7 +3240,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3137,7 +3252,7 @@
         <v>325</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6">
@@ -3154,7 +3269,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -3166,7 +3281,7 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7">
@@ -3183,7 +3298,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -3195,7 +3310,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8">
@@ -3212,7 +3327,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -3224,7 +3339,7 @@
         <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9">
@@ -3241,7 +3356,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>680</v>
+        <v>717</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -3253,7 +3368,7 @@
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10">
@@ -3270,7 +3385,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>681</v>
+        <v>718</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -3282,7 +3397,7 @@
         <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11">
@@ -3299,7 +3414,7 @@
         <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>682</v>
+        <v>719</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -3311,7 +3426,7 @@
         <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12">
@@ -3328,7 +3443,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>683</v>
+        <v>720</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -3340,7 +3455,7 @@
         <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13">
@@ -3357,7 +3472,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>684</v>
+        <v>721</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -3369,7 +3484,7 @@
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14">
@@ -3386,7 +3501,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>685</v>
+        <v>722</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -3398,7 +3513,7 @@
         <v>336</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>712</v>
       </c>
     </row>
     <row r="15">
@@ -3415,7 +3530,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>686</v>
+        <v>723</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -3427,7 +3542,7 @@
         <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>177</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16">
@@ -3444,7 +3559,7 @@
         <v>481</v>
       </c>
       <c r="E16" t="s">
-        <v>687</v>
+        <v>724</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3456,7 +3571,7 @@
         <v>101</v>
       </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17">
@@ -3473,7 +3588,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>688</v>
+        <v>726</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -3485,7 +3600,7 @@
         <v>336</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18">
@@ -3502,7 +3617,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>689</v>
+        <v>727</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -3514,7 +3629,7 @@
         <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="19">
@@ -3531,7 +3646,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>690</v>
+        <v>728</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -3543,7 +3658,7 @@
         <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>716</v>
       </c>
     </row>
     <row r="20">
@@ -3560,7 +3675,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>691</v>
+        <v>729</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3572,7 +3687,7 @@
         <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21">
@@ -3589,7 +3704,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>692</v>
+        <v>730</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3601,7 +3716,7 @@
         <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22">
@@ -3618,7 +3733,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>693</v>
+        <v>731</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3630,7 +3745,7 @@
         <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23">
@@ -3647,7 +3762,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>694</v>
+        <v>732</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3659,7 +3774,7 @@
         <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24">
@@ -3676,7 +3791,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>695</v>
+        <v>733</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -3688,7 +3803,7 @@
         <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="25">
@@ -3705,7 +3820,7 @@
         <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>696</v>
+        <v>734</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3717,7 +3832,7 @@
         <v>139</v>
       </c>
       <c r="I25" t="s">
-        <v>183</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26">
@@ -3734,7 +3849,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>697</v>
+        <v>735</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -3746,7 +3861,7 @@
         <v>144</v>
       </c>
       <c r="I26" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27">
@@ -3763,7 +3878,7 @@
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>698</v>
+        <v>736</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3775,7 +3890,7 @@
         <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>712</v>
       </c>
     </row>
     <row r="28">
@@ -3792,7 +3907,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>699</v>
+        <v>737</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -3804,7 +3919,7 @@
         <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>177</v>
+        <v>716</v>
       </c>
     </row>
     <row r="29">
@@ -3833,7 +3948,7 @@
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30">
@@ -3850,7 +3965,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>700</v>
+        <v>738</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -3862,7 +3977,7 @@
         <v>354</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>712</v>
       </c>
     </row>
     <row r="31">
@@ -3879,7 +3994,7 @@
         <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>701</v>
+        <v>739</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3891,7 +4006,7 @@
         <v>358</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>712</v>
       </c>
     </row>
     <row r="32">
@@ -3908,7 +4023,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>702</v>
+        <v>740</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -3920,7 +4035,7 @@
         <v>354</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33">
@@ -3937,7 +4052,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>703</v>
+        <v>741</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -3949,7 +4064,7 @@
         <v>153</v>
       </c>
       <c r="I33" t="s">
-        <v>177</v>
+        <v>716</v>
       </c>
     </row>
     <row r="34">
@@ -3966,7 +4081,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>704</v>
+        <v>742</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -3978,7 +4093,7 @@
         <v>158</v>
       </c>
       <c r="I34" t="s">
-        <v>177</v>
+        <v>716</v>
       </c>
     </row>
     <row r="35">
@@ -3995,7 +4110,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>705</v>
+        <v>743</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -4007,7 +4122,7 @@
         <v>163</v>
       </c>
       <c r="I35" t="s">
-        <v>171</v>
+        <v>708</v>
       </c>
     </row>
     <row r="36">
@@ -4024,7 +4139,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>706</v>
+        <v>744</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>
@@ -4036,7 +4151,7 @@
         <v>168</v>
       </c>
       <c r="I36" t="s">
-        <v>183</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4828" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="779">
   <si>
     <t>Doi</t>
   </si>
@@ -2741,6 +2741,109 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                  Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                  Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                  Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                  Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                  Abdulmoatani%Alsulami%moatani@hotmail.com%1,                  Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                  Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                  Trish M.%Perl%tperl@jhmi.edu%1,                  Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                   Jing-Jin%Liang%NULL%1,                   Qing-Tao%Zhou%NULL%1,                   Xiao-Guang%Li%NULL%1,                   Fei%Lin%NULL%1,                   Zhong-Hua%Deng%NULL%1,                   Bi-Ying%Zhang%NULL%1,                   Lu%Li%NULL%1,                   Xiao-Hua%Wang%NULL%1,                   Hong%Zhu%NULL%1,                   Qing-Bian%Ma%NULL%1,                   Xiao-Mei%Tong%NULL%1,                   Jie%Xu%NULL%1,                   Yong-Chang%Sun%NULL%1,                   Pei-Fang%Wei%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                   Xiao-Xin%Wu%NULL%0,                   Xian-Gao%Jiang%NULL%0,                   Kai-Jin%Xu%NULL%0,                   Ling-Jun%Ying%NULL%0,                   Chun-Lian%Ma%NULL%0,                   Shi-Bo%Li%NULL%0,                   Hua-Ying%Wang%NULL%0,                   Sheng%Zhang%NULL%0,                   Hai-Nv%Gao%NULL%0,                   Ji-Fang%Sheng%NULL%0,                   Hong-Liu%Cai%NULL%0,                   Yun-Qing%Qiu%NULL%0,                   Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                   Bijan J.%Ghassemieh%NULL%0,                   Michelle%Nichols%NULL%0,                   Richard%Kim%NULL%0,                   Keith R.%Jerome%NULL%0,                   Arun K.%Nalla%NULL%0,                   Alexander L.%Greninger%NULL%0,                   Sudhakar%Pipavath%NULL%0,                   Mark M.%Wurfel%NULL%0,                   Laura%Evans%NULL%0,                   Patricia A.%Kritek%NULL%0,                   T. Eoin%West%NULL%0,                   Andrew%Luks%NULL%0,                   Anthony%Gerbino%NULL%0,                   Chris R.%Dale%NULL%0,                   Jason D.%Goldman%NULL%0,                   Shane%O’Mahony%NULL%0,                   Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,             Eric%Yim%xref no email%0,             Lindy%Klaff%xref no email%0,             Sharukh%Lokhandwala%xref no email%0,             Francis X.%Riedo%xref no email%0,             Maria%Chong%xref no email%0,             Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   Stephanie%Bialek%NULL%1,                   Ellen%Boundy%NULL%1,                   Virginia%Bowen%NULL%1,                   Nancy%Chow%NULL%1,                   Amanda%Cohn%NULL%0,                   Nicole%Dowling%NULL%1,                   Sascha%Ellington%NULL%1,                   Ryan%Gierke%NULL%1,                   Aron%Hall%NULL%1,                   Jessica%MacNeil%NULL%1,                   Priti%Patel%NULL%1,                   Georgina%Peacock%NULL%1,                   Tamara%Pilishvili%NULL%1,                   Hilda%Razzaghi%NULL%1,                   Nia%Reed%NULL%1,                   Matthew%Ritchey%NULL%1,                   Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                   Wenlin%Cheng%NULL%0,                   Lei%Yu%NULL%0,                   Ya-Kun%Liu%NULL%0,                   Xiaoyong%Hu%NULL%0,                   Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                   Tangkai%Qi%NULL%0,                   Li%Liu%NULL%0,                   Yun%Ling%NULL%0,                   Zhiping%Qian%NULL%0,                   Tao%Li%NULL%0,                   Feng%Li%NULL%0,                   Qingnian%Xu%NULL%0,                   Yuyi%Zhang%NULL%0,                   Shuibao%Xu%NULL%0,                   Zhigang%Song%NULL%0,                   Yigang%Zeng%NULL%0,                   Yinzhong%Shen%NULL%0,                   Yuxin%Shi%NULL%0,                   Tongyu%Zhu%NULL%0,                   Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                   Dingyu%Zhang%NULL%0,                   Wenling%Wang%NULL%0,                   Xingwang%Li%NULL%0,                   Bo%Yang%NULL%0,                   Jingdong%Song%NULL%0,                   Xiang%Zhao%NULL%0,                   Baoying%Huang%NULL%0,                   Weifeng%Shi%NULL%0,                   Roujian%Lu%NULL%0,                   Peihua%Niu%NULL%0,                   Faxian%Zhan%NULL%0,                   Xuejun%Ma%NULL%0,                   Dayan%Wang%NULL%0,                   Wenbo%Xu%NULL%0,                   Guizhen%Wu%NULL%0,                   George F.%Gao%NULL%0,                   Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                   Simon A%Jones%NULL%1,                   Jie%Yang%NULL%1,                   Harish%Rajagopalan%NULL%1,                   Luke%O’Donnell%NULL%1,                   Yelena%Chernyak%NULL%1,                   Katie A%Tobin%NULL%1,                   Robert J%Cerfolio%NULL%1,                   Fritz%Francois%NULL%2,                   Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                 Becker%L.B.%coreGivesNoEmail%0,                 Chelico%J.D.%coreGivesNoEmail%0,                 Cohen%S.L.%coreGivesNoEmail%0,                 Cookingham%J.%coreGivesNoEmail%0,                 Coppa%K.%coreGivesNoEmail%0,                 Crawford%J.M.%coreGivesNoEmail%0,                 Davidson%K.W.%coreGivesNoEmail%0,                 Diefenbach%M.A.%coreGivesNoEmail%0,                 Dominello%A.J.%coreGivesNoEmail%0,                 Duer-Hefele%J.%coreGivesNoEmail%0,                 Falzon%L.%coreGivesNoEmail%0,                 Gitlin%J.%coreGivesNoEmail%0,                 Hajizadeh%N.%coreGivesNoEmail%0,                 Harvin%T.G.%coreGivesNoEmail%0,                 Hirsch%J.S.%coreGivesNoEmail%0,                 Hirschwerk%D.A.%coreGivesNoEmail%0,                 Kim%E.J.%coreGivesNoEmail%0,                 Kozel%Z.M.%coreGivesNoEmail%0,                 Marrast%L.M.%coreGivesNoEmail%0,                 McGinn%T.%coreGivesNoEmail%0,                 Mogavero%J.N.%coreGivesNoEmail%0,                 Narasimhan%M.%coreGivesNoEmail%0,                 Osorio%G.A.%coreGivesNoEmail%0,                 Qiu%M.%coreGivesNoEmail%0,                 Richardson%S.%coreGivesNoEmail%0,                 Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                   Mikael%Chetboun%NULL%0,                   Julien%Poissy%NULL%0,                   Violeta%Raverdy%NULL%0,                   Jerome%Noulette%NULL%0,                   Jerome%Noulette%NULL%0,                   Alain%Duhamel%NULL%0,                   Julien%Labreuche%NULL%0,                   Daniel%Mathieu%NULL%0,                   Francois%Pattou%francois.pattou@univ-lille.fr%0,                   Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                   Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                   Robert%Caizzo%NULL%0,                   Robert%Caizzo%NULL%0,                   Morgan%Caplan%NULL%0,                   Nicolas%Cousin%NULL%0,                   Thibault%Duburcq%NULL%0,                   Arthur%Durand%NULL%0,                   Ahmed%El kalioubie%NULL%0,                   Raphael%Favory%NULL%0,                   Bruno%Garcia%NULL%0,                   Patrick%Girardie%NULL%0,                   Julien%Goutay%NULL%0,                   Marion%Houard%NULL%0,                   Emmanuelle%Jaillette%NULL%0,                   Nicolas%Kostuj%NULL%0,                   Geoffrey%Ledoux%NULL%0,                   Daniel%Mathieu%NULL%0,                   Anne Sophie%Moreau%NULL%0,                   Christopher%Niles%NULL%0,                   Saad%Nseir%NULL%0,                   Thierry%Onimus%NULL%0,                   Erika%Parmentier%NULL%0,                   Sebastien%Préau%NULL%0,                   Laurent%Robriquet%NULL%0,                   Anahita%Rouze%NULL%0,                   Sophie%Six%NULL%0,                   Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                 Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                 Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                 Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,             Xiaoyan%Chen%xref no email%0,             Yanping%Cai%xref no email%0,             Jia\u2019an%Xia%xref no email%0,             Xing%Zhou%xref no email%0,             Sha%Xu%xref no email%0,             Hanping%Huang%xref no email%0,             Li%Zhang%xref no email%0,             Xia%Zhou%xref no email%0,             Chunling%Du%xref no email%0,             Yuye%Zhang%xref no email%0,             Juan%Song%xref no email%0,             Sijiao%Wang%xref no email%0,             Yencheng%Chao%xref no email%0,             Zeyong%Yang%xref no email%0,             Jie%Xu%xref no email%0,             Xin%Zhou%xref no email%0,             Dechang%Chen%xref no email%0,             Weining%Xiong%xref no email%0,             Lei%Xu%xref no email%0,             Feng%Zhou%xref no email%0,             Jinjun%Jiang%xref no email%0,             Chunxue%Bai%xref no email%0,             Junhua%Zheng%xref no email%0,             Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                   Chen-Hsen%Lee%NULL%1,                   Cheng-Yi%Liu%NULL%1,                   Jia-Horng%Wang%NULL%1,                   Lee-Min%Wang%NULL%1,                   Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                   Xiaobo%Yang%NULL%1,                   Luyu%Yang%NULL%1,                   Xiaojing%Zou%NULL%0,                   Yaxin%Wang%NULL%0,                   Yongran%Wu%NULL%0,                   Ting%Zhou%NULL%1,                   Yin%Yuan%NULL%1,                   Hong%Qi%NULL%1,                   Shouzhi%Fu%NULL%0,                   Hong%Liu%NULL%0,                   Jia’an%Xia%NULL%1,                   Zhengqin%Xu%NULL%1,                   Yuan%Yu%NULL%0,                   Ruiting%Li%NULL%0,                   Yaqi%Ouyang%NULL%1,                   Rui%Wang%NULL%0,                   Lehao%Ren%NULL%1,                   Yingying%Hu%NULL%1,                   Dan%Xu%NULL%0,                   Xin%Zhao%NULL%1,                   Shiying%Yuan%shiying_yuan@163.com%0,                   Dingyu%Zhang%1813886398@qq.com%0,                   You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,             Sean Wei Xiang%Ong%xref no email%0,             Shirin%Kalimuddin%xref no email%0,             Jenny G.%Low%xref no email%0,             Seow Yen%Tan%xref no email%0,             Jiashen%Loh%xref no email%0,             Oon-Tek%Ng%xref no email%0,             Kalisvar%Marimuthu%xref no email%0,             Li Wei%Ang%xref no email%0,             Tze Minn%Mak%xref no email%0,             Sok Kiang%Lau%xref no email%0,             Danielle E.%Anderson%xref no email%0,             Kian Sing%Chan%xref no email%0,             Thean Yen%Tan%xref no email%0,             Tong Yong%Ng%xref no email%0,             Lin%Cui%xref no email%0,             Zubaidah%Said%xref no email%0,             Lalitha%Kurupatham%xref no email%0,             Mark I-Cheng%Chen%xref no email%0,             Monica%Chan%xref no email%0,             Shawn%Vasoo%xref no email%0,             Lin-Fa%Wang%xref no email%0,             Boon Huan%Tan%xref no email%0,             Raymond Tzer Pin%Lin%xref no email%0,             Vernon Jian Ming%Lee%xref no email%0,             Yee-Sin%Leo%xref no email%0,             David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Wen-hua%Liang%NULL%0,                   Yi%Zhao%NULL%1,                   Heng-rui%Liang%NULL%1,                   Zi-sheng%Chen%NULL%1,                   Yi-min%Li%NULL%1,                   Xiao-qing%Liu%NULL%1,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Chun-quan%Ou%NULL%0,                   Li%Li%NULL%0,                   Ping-yan%Chen%NULL%0,                   Ling%Sang%NULL%1,                   Wei%Wang%NULL%0,                   Jian-fu%Li%NULL%1,                   Cai-chen%Li%NULL%1,                   Li-min%Ou%NULL%1,                   Bo%Cheng%NULL%1,                   Shan%Xiong%NULL%1,                   Zheng-yi%Ni%NULL%0,                   Jie%Xiang%NULL%0,                   Yu%Hu%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Lin-ling%Cheng%NULL%1,                   Feng%Ye%NULL%1,                   Shi-yue%Li%NULL%0,                   Jin-ping%Zheng%NULL%1,                   Nuo-fu%Zhang%NULL%1,                   Nan-shan%Zhong%NULL%0,                   Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                   Giacomo%Iapichino%NULL%1,                   Luca%Carenzo%NULL%1,                   Maurizio%Cecconi%NULL%1,                   Paola%Ferrazzi%NULL%1,                   Tim%Sebastian%NULL%1,                   Nils%Kucher%NULL%1,                   Jan-Dirk%Studt%NULL%1,                   Clara%Sacco%NULL%1,                   Alexia%Bertuzzi%NULL%1,                   Maria Teresa%Sandri%NULL%1,                   Stefano%Barco%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                   M.J.H.A.%Kruip%NULL%1,                   N.J.M.%van der Meer%NULL%1,                   M.S.%Arbous%NULL%1,                   D.A.M.P.J.%Gommers%NULL%1,                   K.M.%Kant%NULL%1,                   F.H.J.%Kaptein%NULL%1,                   J.%van Paassen%NULL%1,                   M.A.M.%Stals%NULL%1,                   M.V.%Huisman%NULL%1,                   H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                   Fang%Jiang%NULL%1,                   Wating%Su%NULL%1,                   Chang%Chen%NULL%1,                   Jingli%Chen%NULL%1,                   Wei%Mei%NULL%1,                   Li-Ying%Zhan%NULL%1,                   Yifan%Jia%NULL%1,                   Liangqing%Zhang%NULL%1,                   Danyong%Liu%NULL%1,                   Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                   Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                   Ewen M%Harrison%NULL%1,                   Christopher A%Green%NULL%1,                   Hayley E%Hardwick%NULL%1,                   Riinu%Pius%NULL%1,                   Lisa%Norman%NULL%1,                   Karl A%Holden%NULL%1,                   Jonathan M%Read%NULL%1,                   Frank%Dondelinger%NULL%1,                   Gail%Carson%NULL%1,                   Laura%Merson%NULL%1,                   James%Lee%NULL%1,                   Daniel%Plotkin%NULL%1,                   Louise%Sigfrid%NULL%1,                   Sophie%Halpin%NULL%1,                   Clare%Jackson%NULL%1,                   Carrol%Gamble%NULL%1,                   Peter W%Horby%NULL%1,                   Jonathan S%Nguyen-Van-Tam%NULL%1,                   Antonia%Ho%NULL%1,                   Clark D%Russell%NULL%1,                   Jake%Dunning%NULL%1,                   Peter JM%Openshaw%NULL%1,                   J Kenneth%Baillie%NULL%1,                   Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                   Li-Min%Liu%NULL%0,                   Wen%Yin%NULL%0,                   Wen%Wang%NULL%0,                   Lu-Lu%Guan%NULL%0,                   Ming-Li%Yuan%NULL%0,                   Yu-Lei%Li%NULL%0,                   Yi%Hu%NULL%0,                   Xu-Yan%Li%NULL%0,                   Bing%Sun%NULL%0,                   Peng%Peng%NULL%0,                   Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                   Qiang%Zhou%NULL%1,                   Ruiqiang%Zheng%NULL%1,                   Xuyan%Li%NULL%1,                   Jianmin%Ling%NULL%1,                   Yumei%Chen%NULL%1,                   Jing%Jia%NULL%1,                   Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                   Anna Mara%Scandroglio%NULL%1,                   Giacomo%Monti%NULL%1,                   Maria Grazia%Calabrò%NULL%1,                   Giovanni%Landoni%NULL%1,                   Antonio%Dell'Acqua%NULL%1,                   Luigi%Beretta%NULL%1,                   Elena%Moizo%NULL%1,                   Alfredo%Ravizza%NULL%1,                   Fabrizio%Monaco%NULL%1,                   Corrado%Campochiaro%NULL%1,                   Marina%Pieri%NULL%1,                   Maria Luisa%Azzolini%NULL%1,                   Giovanni%Borghi%NULL%1,                   Martina%Crivellari%NULL%1,                   Caterina%Conte%NULL%1,                   Cristina%Mattioli%NULL%1,                   Paolo%Silvani%NULL%1,                   Milena%Mucci%NULL%1,                   Stefano%Turi%NULL%1,                   Stefano%Tentori%NULL%1,                   Martina%Baiardo Redaelli%NULL%1,                   Marianna%Sartorelli%NULL%1,                   Piera%Angelillo%NULL%1,                   Alessandro%Belletti%NULL%1,                   Pasquale%Nardelli%NULL%1,                   Francesco Giuseppe%Nisi%NULL%1,                   Gabriele%Valsecchi%NULL%1,                   Cristina%Barberio%NULL%1,                   Fabio%Ciceri%NULL%1,                   Ary%Serpa Neto%NULL%1,                   Lorenzo%Dagna%NULL%1,                   Rinaldo%Bellomo%NULL%1,                   Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                 Cabrini%Luca%coreGivesNoEmail%0,                 Castelli%Antonio%coreGivesNoEmail%0,                 Cecconi%Maurizio%coreGivesNoEmail%0,                 Cereda%Danilo%coreGivesNoEmail%0,                 Coluccello%Antonio%coreGivesNoEmail%0,                 Foti%Giuseppe%coreGivesNoEmail%0,                 Fumagalli%Roberto%coreGivesNoEmail%0,                 Grasselli%Giacomo%coreGivesNoEmail%0,                 Iotti%Giorgio%coreGivesNoEmail%0,                 Latronico%Nicola%coreGivesNoEmail%0,                 Lorini%Luca%coreGivesNoEmail%0,                 Merler%Stefano%coreGivesNoEmail%0,                 Natalini%Giuseppe%coreGivesNoEmail%0,                 Pesenti%Antonio%coreGivesNoEmail%0,                 Piatti%Alessandra%coreGivesNoEmail%0,                 Ranieri%Marco Vito%coreGivesNoEmail%0,                 Scandroglio%Anna Mara%coreGivesNoEmail%0,                 Storti%Enrico%coreGivesNoEmail%0,                 Zanella%Alberto%coreGivesNoEmail%0,                 Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                   Min%Zhou%NULL%0,                   Xuan%Dong%NULL%0,                   Jieming%Qu%NULL%0,                   Fengyun%Gong%NULL%0,                   Yang%Han%NULL%0,                   Yang%Qiu%NULL%0,                   Jingli%Wang%NULL%0,                   Ying%Liu%NULL%0,                   Yuan%Wei%NULL%0,                   Jia'an%Xia%NULL%0,                   Ting%Yu%NULL%0,                   Xinxin%Zhang%NULL%0,                   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%1,             Tai Nin%Chau%xref no email%1,             Owen%Tsang%xref no email%1,             Eugene%Tso%xref no email%1,             Ming Chee%Chiu%xref no email%1,             Wing Lok%Tong%xref no email%1,             Po Oi%Lee%xref no email%1,             Tak Keung%Ng%xref no email%1,             Wai Fu%Ng%xref no email%1,             Kam Cheong%Lee%xref no email%1,             William%Lam%xref no email%1,             Wai Cho%Yu%xref no email%1,             Jak Yiu%Lai%xref no email%1,             Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%1,             Ali S.%Wahla%xref no email%1,             Shakeel%Siddiqui%xref no email%1,             Alaa%Ghabashi%xref no email%2,             Majid%Al-Shomrani%xref no email%1,             Abdulhakeem%Al-Thaqafi%xref no email%1,             Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%1,             Ahmed A.%Arifi%xref no email%1,             Hanan H.%Balkhy%xref no email%1,             Hani%Najm%xref no email%1,             Abdulaziz S.%Aldawood%xref no email%1,             Alaa%Ghabashi%xref no email%0,             Hassan%Hawa%xref no email%1,             Adel%Alothman%xref no email%1,             Abdulaziz%Khaldi%xref no email%1,             Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                   Ali S.%Omrani%NULL%1,                   Kamran%Baig%NULL%1,                   Abdelkarim%Bahloul%NULL%1,                   Fatehi%Elzein%NULL%1,                   Mohammad Abdul%Matin%NULL%1,                   Mohei A.A.%Selim%NULL%1,                   Mohammed Al%Mutairi%NULL%1,                   Daifullah Al%Nakhli%NULL%1,                   Amal Y. Al%Aidaroos%NULL%1,                   Nisreen Al%Sherbeeni%NULL%1,                   Hesham I.%Al-Khashan%NULL%1,                   Ziad A.%Memish%zmemish@yahoo.com%1,                   Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                   Badr%Alsayed%NULL%1,                   Sameh%Embarak%NULL%1,                   Taha%Yaseen%NULL%1,                   Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                   Shamsudeen F.%Fagbo%NULL%1,                   Vicky J.%Fang%NULL%1,                   Leila%Skakni%NULL%1,                   Mercy%Joseph%NULL%1,                   Tariq A.%Wani%NULL%1,                   Benjamin J.%Cowling%NULL%0,                   Malik%Peiris%NULL%1,                   Ahmed%Hakawi%NULL%1,                   Renee W.Y.%Chan%NULL%2,                   Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                   Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                   Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                   Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                   Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                   Abdulmoatani%Alsulami%moatani@hotmail.com%1,                   Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                   Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                   Trish M.%Perl%tperl@jhmi.edu%1,                   Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -3153,7 +3256,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>707</v>
+        <v>745</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -3182,7 +3285,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -3211,7 +3314,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>710</v>
+        <v>747</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -3240,7 +3343,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>711</v>
+        <v>748</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3269,7 +3372,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -3298,7 +3401,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -3327,7 +3430,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -3356,7 +3459,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -3385,7 +3488,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>718</v>
+        <v>753</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -3414,7 +3517,7 @@
         <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>719</v>
+        <v>754</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -3443,7 +3546,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -3472,7 +3575,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>721</v>
+        <v>756</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -3501,7 +3604,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>722</v>
+        <v>757</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -3530,7 +3633,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>723</v>
+        <v>758</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -3559,7 +3662,7 @@
         <v>481</v>
       </c>
       <c r="E16" t="s">
-        <v>724</v>
+        <v>759</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3588,7 +3691,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>726</v>
+        <v>760</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -3617,7 +3720,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>727</v>
+        <v>761</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -3646,7 +3749,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -3675,7 +3778,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3704,7 +3807,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>730</v>
+        <v>764</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3733,7 +3836,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>731</v>
+        <v>765</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3762,7 +3865,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>732</v>
+        <v>766</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3791,7 +3894,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -3820,7 +3923,7 @@
         <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3849,7 +3952,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>735</v>
+        <v>769</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -3878,7 +3981,7 @@
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3907,7 +4010,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -3965,7 +4068,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>738</v>
+        <v>772</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -3994,7 +4097,7 @@
         <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>739</v>
+        <v>773</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -4023,7 +4126,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -4052,7 +4155,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -4081,7 +4184,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -4110,7 +4213,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>743</v>
+        <v>777</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -4139,7 +4242,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>744</v>
+        <v>778</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6520" uniqueCount="929">
   <si>
     <t>Doi</t>
   </si>
@@ -2844,6 +2844,461 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                   Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                   Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                   Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                   Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                   Abdulmoatani%Alsulami%moatani@hotmail.com%1,                   Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                   Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                   Trish M.%Perl%tperl@jhmi.edu%1,                   Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                    Jing-Jin%Liang%NULL%1,                    Qing-Tao%Zhou%NULL%1,                    Xiao-Guang%Li%NULL%1,                    Fei%Lin%NULL%1,                    Zhong-Hua%Deng%NULL%1,                    Bi-Ying%Zhang%NULL%1,                    Lu%Li%NULL%1,                    Xiao-Hua%Wang%NULL%1,                    Hong%Zhu%NULL%1,                    Qing-Bian%Ma%NULL%1,                    Xiao-Mei%Tong%NULL%1,                    Jie%Xu%NULL%1,                    Yong-Chang%Sun%NULL%1,                    Pei-Fang%Wei%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                    Xiao-Xin%Wu%NULL%0,                    Xian-Gao%Jiang%NULL%0,                    Kai-Jin%Xu%NULL%0,                    Ling-Jun%Ying%NULL%0,                    Chun-Lian%Ma%NULL%0,                    Shi-Bo%Li%NULL%0,                    Hua-Ying%Wang%NULL%0,                    Sheng%Zhang%NULL%0,                    Hai-Nv%Gao%NULL%0,                    Ji-Fang%Sheng%NULL%0,                    Hong-Liu%Cai%NULL%0,                    Yun-Qing%Qiu%NULL%0,                    Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                    Bijan J.%Ghassemieh%NULL%0,                    Michelle%Nichols%NULL%0,                    Richard%Kim%NULL%0,                    Keith R.%Jerome%NULL%0,                    Arun K.%Nalla%NULL%0,                    Alexander L.%Greninger%NULL%0,                    Sudhakar%Pipavath%NULL%0,                    Mark M.%Wurfel%NULL%0,                    Laura%Evans%NULL%0,                    Patricia A.%Kritek%NULL%0,                    T. Eoin%West%NULL%0,                    Andrew%Luks%NULL%0,                    Anthony%Gerbino%NULL%0,                    Chris R.%Dale%NULL%0,                    Jason D.%Goldman%NULL%0,                    Shane%O’Mahony%NULL%0,                    Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    Stephanie%Bialek%NULL%1,                    Ellen%Boundy%NULL%1,                    Virginia%Bowen%NULL%1,                    Nancy%Chow%NULL%1,                    Amanda%Cohn%NULL%0,                    Nicole%Dowling%NULL%1,                    Sascha%Ellington%NULL%1,                    Ryan%Gierke%NULL%1,                    Aron%Hall%NULL%1,                    Jessica%MacNeil%NULL%1,                    Priti%Patel%NULL%1,                    Georgina%Peacock%NULL%1,                    Tamara%Pilishvili%NULL%1,                    Hilda%Razzaghi%NULL%1,                    Nia%Reed%NULL%1,                    Matthew%Ritchey%NULL%1,                    Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                    Wenlin%Cheng%NULL%0,                    Lei%Yu%NULL%0,                    Ya-Kun%Liu%NULL%0,                    Xiaoyong%Hu%NULL%0,                    Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                    Tangkai%Qi%NULL%0,                    Li%Liu%NULL%0,                    Yun%Ling%NULL%0,                    Zhiping%Qian%NULL%0,                    Tao%Li%NULL%0,                    Feng%Li%NULL%0,                    Qingnian%Xu%NULL%0,                    Yuyi%Zhang%NULL%0,                    Shuibao%Xu%NULL%0,                    Zhigang%Song%NULL%0,                    Yigang%Zeng%NULL%0,                    Yinzhong%Shen%NULL%0,                    Yuxin%Shi%NULL%0,                    Tongyu%Zhu%NULL%0,                    Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                    Dingyu%Zhang%NULL%0,                    Wenling%Wang%NULL%0,                    Xingwang%Li%NULL%0,                    Bo%Yang%NULL%0,                    Jingdong%Song%NULL%0,                    Xiang%Zhao%NULL%0,                    Baoying%Huang%NULL%0,                    Weifeng%Shi%NULL%0,                    Roujian%Lu%NULL%0,                    Peihua%Niu%NULL%0,                    Faxian%Zhan%NULL%0,                    Xuejun%Ma%NULL%0,                    Dayan%Wang%NULL%0,                    Wenbo%Xu%NULL%0,                    Guizhen%Wu%NULL%0,                    George F.%Gao%NULL%0,                    Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                    Simon A%Jones%NULL%1,                    Jie%Yang%NULL%1,                    Harish%Rajagopalan%NULL%1,                    Luke%O’Donnell%NULL%1,                    Yelena%Chernyak%NULL%1,                    Katie A%Tobin%NULL%1,                    Robert J%Cerfolio%NULL%1,                    Fritz%Francois%NULL%2,                    Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                  Becker%L.B.%coreGivesNoEmail%0,                  Chelico%J.D.%coreGivesNoEmail%0,                  Cohen%S.L.%coreGivesNoEmail%0,                  Cookingham%J.%coreGivesNoEmail%0,                  Coppa%K.%coreGivesNoEmail%0,                  Crawford%J.M.%coreGivesNoEmail%0,                  Davidson%K.W.%coreGivesNoEmail%0,                  Diefenbach%M.A.%coreGivesNoEmail%0,                  Dominello%A.J.%coreGivesNoEmail%0,                  Duer-Hefele%J.%coreGivesNoEmail%0,                  Falzon%L.%coreGivesNoEmail%0,                  Gitlin%J.%coreGivesNoEmail%0,                  Hajizadeh%N.%coreGivesNoEmail%0,                  Harvin%T.G.%coreGivesNoEmail%0,                  Hirsch%J.S.%coreGivesNoEmail%0,                  Hirschwerk%D.A.%coreGivesNoEmail%0,                  Kim%E.J.%coreGivesNoEmail%0,                  Kozel%Z.M.%coreGivesNoEmail%0,                  Marrast%L.M.%coreGivesNoEmail%0,                  McGinn%T.%coreGivesNoEmail%0,                  Mogavero%J.N.%coreGivesNoEmail%0,                  Narasimhan%M.%coreGivesNoEmail%0,                  Osorio%G.A.%coreGivesNoEmail%0,                  Qiu%M.%coreGivesNoEmail%0,                  Richardson%S.%coreGivesNoEmail%0,                  Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                    Mikael%Chetboun%NULL%0,                    Julien%Poissy%NULL%0,                    Violeta%Raverdy%NULL%0,                    Jerome%Noulette%NULL%0,                    Jerome%Noulette%NULL%0,                    Alain%Duhamel%NULL%0,                    Julien%Labreuche%NULL%0,                    Daniel%Mathieu%NULL%0,                    Francois%Pattou%francois.pattou@univ-lille.fr%0,                    Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                    Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                    Robert%Caizzo%NULL%0,                    Robert%Caizzo%NULL%0,                    Morgan%Caplan%NULL%0,                    Nicolas%Cousin%NULL%0,                    Thibault%Duburcq%NULL%0,                    Arthur%Durand%NULL%0,                    Ahmed%El kalioubie%NULL%0,                    Raphael%Favory%NULL%0,                    Bruno%Garcia%NULL%0,                    Patrick%Girardie%NULL%0,                    Julien%Goutay%NULL%0,                    Marion%Houard%NULL%0,                    Emmanuelle%Jaillette%NULL%0,                    Nicolas%Kostuj%NULL%0,                    Geoffrey%Ledoux%NULL%0,                    Daniel%Mathieu%NULL%0,                    Anne Sophie%Moreau%NULL%0,                    Christopher%Niles%NULL%0,                    Saad%Nseir%NULL%0,                    Thierry%Onimus%NULL%0,                    Erika%Parmentier%NULL%0,                    Sebastien%Préau%NULL%0,                    Laurent%Robriquet%NULL%0,                    Anahita%Rouze%NULL%0,                    Sophie%Six%NULL%0,                    Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                  Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                    Chen-Hsen%Lee%NULL%1,                    Cheng-Yi%Liu%NULL%1,                    Jia-Horng%Wang%NULL%1,                    Lee-Min%Wang%NULL%1,                    Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                    Xiaobo%Yang%NULL%1,                    Luyu%Yang%NULL%1,                    Xiaojing%Zou%NULL%0,                    Yaxin%Wang%NULL%0,                    Yongran%Wu%NULL%0,                    Ting%Zhou%NULL%1,                    Yin%Yuan%NULL%1,                    Hong%Qi%NULL%1,                    Shouzhi%Fu%NULL%0,                    Hong%Liu%NULL%0,                    Jia’an%Xia%NULL%1,                    Zhengqin%Xu%NULL%1,                    Yuan%Yu%NULL%0,                    Ruiting%Li%NULL%0,                    Yaqi%Ouyang%NULL%1,                    Rui%Wang%NULL%0,                    Lehao%Ren%NULL%1,                    Yingying%Hu%NULL%1,                    Dan%Xu%NULL%0,                    Xin%Zhao%NULL%1,                    Shiying%Yuan%shiying_yuan@163.com%0,                    Dingyu%Zhang%1813886398@qq.com%0,                    You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Wen-hua%Liang%NULL%0,                    Yi%Zhao%NULL%1,                    Heng-rui%Liang%NULL%1,                    Zi-sheng%Chen%NULL%1,                    Yi-min%Li%NULL%1,                    Xiao-qing%Liu%NULL%1,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Chun-quan%Ou%NULL%0,                    Li%Li%NULL%0,                    Ping-yan%Chen%NULL%0,                    Ling%Sang%NULL%1,                    Wei%Wang%NULL%0,                    Jian-fu%Li%NULL%1,                    Cai-chen%Li%NULL%1,                    Li-min%Ou%NULL%1,                    Bo%Cheng%NULL%1,                    Shan%Xiong%NULL%1,                    Zheng-yi%Ni%NULL%0,                    Jie%Xiang%NULL%0,                    Yu%Hu%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Lin-ling%Cheng%NULL%1,                    Feng%Ye%NULL%1,                    Shi-yue%Li%NULL%0,                    Jin-ping%Zheng%NULL%1,                    Nuo-fu%Zhang%NULL%1,                    Nan-shan%Zhong%NULL%0,                    Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%0,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%0,                    Jie%Xiang%NULL%0,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%0,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%0,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%0,                    Yi%Zhang%NULL%0,                    Hua%Chen%NULL%0,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                    Giacomo%Iapichino%NULL%1,                    Luca%Carenzo%NULL%1,                    Maurizio%Cecconi%NULL%1,                    Paola%Ferrazzi%NULL%1,                    Tim%Sebastian%NULL%1,                    Nils%Kucher%NULL%1,                    Jan-Dirk%Studt%NULL%1,                    Clara%Sacco%NULL%1,                    Alexia%Bertuzzi%NULL%1,                    Maria Teresa%Sandri%NULL%1,                    Stefano%Barco%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                    M.J.H.A.%Kruip%NULL%1,                    N.J.M.%van der Meer%NULL%1,                    M.S.%Arbous%NULL%1,                    D.A.M.P.J.%Gommers%NULL%1,                    K.M.%Kant%NULL%1,                    F.H.J.%Kaptein%NULL%1,                    J.%van Paassen%NULL%1,                    M.A.M.%Stals%NULL%1,                    M.V.%Huisman%NULL%1,                    H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                    Fang%Jiang%NULL%1,                    Wating%Su%NULL%1,                    Chang%Chen%NULL%1,                    Jingli%Chen%NULL%1,                    Wei%Mei%NULL%1,                    Li-Ying%Zhan%NULL%1,                    Yifan%Jia%NULL%1,                    Liangqing%Zhang%NULL%1,                    Danyong%Liu%NULL%1,                    Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                    Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                    Ewen M%Harrison%NULL%1,                    Christopher A%Green%NULL%1,                    Hayley E%Hardwick%NULL%1,                    Riinu%Pius%NULL%1,                    Lisa%Norman%NULL%1,                    Karl A%Holden%NULL%1,                    Jonathan M%Read%NULL%1,                    Frank%Dondelinger%NULL%1,                    Gail%Carson%NULL%1,                    Laura%Merson%NULL%1,                    James%Lee%NULL%1,                    Daniel%Plotkin%NULL%1,                    Louise%Sigfrid%NULL%1,                    Sophie%Halpin%NULL%1,                    Clare%Jackson%NULL%1,                    Carrol%Gamble%NULL%1,                    Peter W%Horby%NULL%1,                    Jonathan S%Nguyen-Van-Tam%NULL%1,                    Antonia%Ho%NULL%1,                    Clark D%Russell%NULL%1,                    Jake%Dunning%NULL%1,                    Peter JM%Openshaw%NULL%1,                    J Kenneth%Baillie%NULL%1,                    Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                    Li-Min%Liu%NULL%0,                    Wen%Yin%NULL%0,                    Wen%Wang%NULL%0,                    Lu-Lu%Guan%NULL%0,                    Ming-Li%Yuan%NULL%0,                    Yu-Lei%Li%NULL%0,                    Yi%Hu%NULL%0,                    Xu-Yan%Li%NULL%0,                    Bing%Sun%NULL%0,                    Peng%Peng%NULL%0,                    Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                    Qiang%Zhou%NULL%1,                    Ruiqiang%Zheng%NULL%1,                    Xuyan%Li%NULL%1,                    Jianmin%Ling%NULL%1,                    Yumei%Chen%NULL%1,                    Jing%Jia%NULL%1,                    Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                    Anna Mara%Scandroglio%NULL%1,                    Giacomo%Monti%NULL%1,                    Maria Grazia%Calabrò%NULL%1,                    Giovanni%Landoni%NULL%1,                    Antonio%Dell'Acqua%NULL%1,                    Luigi%Beretta%NULL%1,                    Elena%Moizo%NULL%1,                    Alfredo%Ravizza%NULL%1,                    Fabrizio%Monaco%NULL%1,                    Corrado%Campochiaro%NULL%1,                    Marina%Pieri%NULL%1,                    Maria Luisa%Azzolini%NULL%1,                    Giovanni%Borghi%NULL%1,                    Martina%Crivellari%NULL%1,                    Caterina%Conte%NULL%1,                    Cristina%Mattioli%NULL%1,                    Paolo%Silvani%NULL%1,                    Milena%Mucci%NULL%1,                    Stefano%Turi%NULL%1,                    Stefano%Tentori%NULL%1,                    Martina%Baiardo Redaelli%NULL%1,                    Marianna%Sartorelli%NULL%1,                    Piera%Angelillo%NULL%1,                    Alessandro%Belletti%NULL%1,                    Pasquale%Nardelli%NULL%1,                    Francesco Giuseppe%Nisi%NULL%1,                    Gabriele%Valsecchi%NULL%1,                    Cristina%Barberio%NULL%1,                    Fabio%Ciceri%NULL%1,                    Ary%Serpa Neto%NULL%1,                    Lorenzo%Dagna%NULL%1,                    Rinaldo%Bellomo%NULL%1,                    Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                  Cabrini%Luca%coreGivesNoEmail%0,                  Castelli%Antonio%coreGivesNoEmail%0,                  Cecconi%Maurizio%coreGivesNoEmail%0,                  Cereda%Danilo%coreGivesNoEmail%0,                  Coluccello%Antonio%coreGivesNoEmail%0,                  Foti%Giuseppe%coreGivesNoEmail%0,                  Fumagalli%Roberto%coreGivesNoEmail%0,                  Grasselli%Giacomo%coreGivesNoEmail%0,                  Iotti%Giorgio%coreGivesNoEmail%0,                  Latronico%Nicola%coreGivesNoEmail%0,                  Lorini%Luca%coreGivesNoEmail%0,                  Merler%Stefano%coreGivesNoEmail%0,                  Natalini%Giuseppe%coreGivesNoEmail%0,                  Pesenti%Antonio%coreGivesNoEmail%0,                  Piatti%Alessandra%coreGivesNoEmail%0,                  Ranieri%Marco Vito%coreGivesNoEmail%0,                  Scandroglio%Anna Mara%coreGivesNoEmail%0,                  Storti%Enrico%coreGivesNoEmail%0,                  Zanella%Alberto%coreGivesNoEmail%0,                  Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                    Min%Zhou%NULL%0,                    Xuan%Dong%NULL%0,                    Jieming%Qu%NULL%0,                    Fengyun%Gong%NULL%0,                    Yang%Han%NULL%0,                    Yang%Qiu%NULL%0,                    Jingli%Wang%NULL%0,                    Ying%Liu%NULL%0,                    Yuan%Wei%NULL%0,                    Jia'an%Xia%NULL%0,                    Ting%Yu%NULL%0,                    Xinxin%Zhang%NULL%0,                    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kin Wing%Choi%xref no email%0, Tai Nin%Chau%xref no email%1, Owen%Tsang%xref no email%1, Eugene%Tso%xref no email%1, Ming Chee%Chiu%xref no email%1, Wing Lok%Tong%xref no email%1, Po Oi%Lee%xref no email%1, Tak Keung%Ng%xref no email%1, Wai Fu%Ng%xref no email%1, Kam Cheong%Lee%xref no email%1, William%Lam%xref no email%1, Wai Cho%Yu%xref no email%1, Jak Yiu%Lai%xref no email%1, Sik To%Lai%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American College of Physicians</t>
+  </si>
+  <si>
+    <t>[Fahad%Al-Hameed%xref no email%0, Ali S.%Wahla%xref no email%1, Shakeel%Siddiqui%xref no email%1, Alaa%Ghabashi%xref no email%2, Majid%Al-Shomrani%xref no email%1, Abdulhakeem%Al-Thaqafi%xref no email%1, Yasir%Tashkandi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: SAGE Publications</t>
+  </si>
+  <si>
+    <t>[Yaseen M.%Arabi%xref no email%0, Ahmed A.%Arifi%xref no email%1, Hanan H.%Balkhy%xref no email%1, Hani%Najm%xref no email%1, Abdulaziz S.%Aldawood%xref no email%1, Alaa%Ghabashi%xref no email%0, Hassan%Hawa%xref no email%1, Adel%Alothman%xref no email%1, Abdulaziz%Khaldi%xref no email%1, Basel%Al Raiy%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                    Ali S.%Omrani%NULL%1,                    Kamran%Baig%NULL%1,                    Abdelkarim%Bahloul%NULL%1,                    Fatehi%Elzein%NULL%1,                    Mohammad Abdul%Matin%NULL%1,                    Mohei A.A.%Selim%NULL%1,                    Mohammed Al%Mutairi%NULL%1,                    Daifullah Al%Nakhli%NULL%1,                    Amal Y. Al%Aidaroos%NULL%1,                    Nisreen Al%Sherbeeni%NULL%1,                    Hesham I.%Al-Khashan%NULL%1,                    Ziad A.%Memish%zmemish@yahoo.com%1,                    Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                    Badr%Alsayed%NULL%1,                    Sameh%Embarak%NULL%1,                    Taha%Yaseen%NULL%1,                    Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                    Shamsudeen F.%Fagbo%NULL%1,                    Vicky J.%Fang%NULL%1,                    Leila%Skakni%NULL%1,                    Mercy%Joseph%NULL%1,                    Tariq A.%Wani%NULL%1,                    Benjamin J.%Cowling%NULL%0,                    Malik%Peiris%NULL%1,                    Ahmed%Hakawi%NULL%1,                    Renee W.Y.%Chan%NULL%2,                    Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                    Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                    Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                    Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                    Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                    Abdulmoatani%Alsulami%moatani@hotmail.com%1,                    Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                    Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                    Trish M.%Perl%tperl@jhmi.edu%1,                    Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                     Jing-Jin%Liang%NULL%1,                     Qing-Tao%Zhou%NULL%1,                     Xiao-Guang%Li%NULL%1,                     Fei%Lin%NULL%1,                     Zhong-Hua%Deng%NULL%1,                     Bi-Ying%Zhang%NULL%1,                     Lu%Li%NULL%1,                     Xiao-Hua%Wang%NULL%1,                     Hong%Zhu%NULL%1,                     Qing-Bian%Ma%NULL%1,                     Xiao-Mei%Tong%NULL%1,                     Jie%Xu%NULL%1,                     Yong-Chang%Sun%NULL%1,                     Pei-Fang%Wei%NULL%0,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                     Xiao-Xin%Wu%NULL%0,                     Xian-Gao%Jiang%NULL%0,                     Kai-Jin%Xu%NULL%0,                     Ling-Jun%Ying%NULL%0,                     Chun-Lian%Ma%NULL%0,                     Shi-Bo%Li%NULL%0,                     Hua-Ying%Wang%NULL%0,                     Sheng%Zhang%NULL%0,                     Hai-Nv%Gao%NULL%0,                     Ji-Fang%Sheng%NULL%0,                     Hong-Liu%Cai%NULL%0,                     Yun-Qing%Qiu%NULL%0,                     Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                     Bijan J.%Ghassemieh%NULL%0,                     Michelle%Nichols%NULL%0,                     Richard%Kim%NULL%0,                     Keith R.%Jerome%NULL%0,                     Arun K.%Nalla%NULL%0,                     Alexander L.%Greninger%NULL%0,                     Sudhakar%Pipavath%NULL%0,                     Mark M.%Wurfel%NULL%0,                     Laura%Evans%NULL%0,                     Patricia A.%Kritek%NULL%0,                     T. Eoin%West%NULL%0,                     Andrew%Luks%NULL%0,                     Anthony%Gerbino%NULL%0,                     Chris R.%Dale%NULL%0,                     Jason D.%Goldman%NULL%0,                     Shane%O’Mahony%NULL%0,                     Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     Stephanie%Bialek%NULL%1,                     Ellen%Boundy%NULL%1,                     Virginia%Bowen%NULL%1,                     Nancy%Chow%NULL%1,                     Amanda%Cohn%NULL%0,                     Nicole%Dowling%NULL%1,                     Sascha%Ellington%NULL%1,                     Ryan%Gierke%NULL%1,                     Aron%Hall%NULL%1,                     Jessica%MacNeil%NULL%1,                     Priti%Patel%NULL%1,                     Georgina%Peacock%NULL%1,                     Tamara%Pilishvili%NULL%1,                     Hilda%Razzaghi%NULL%1,                     Nia%Reed%NULL%1,                     Matthew%Ritchey%NULL%1,                     Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                     Wenlin%Cheng%NULL%0,                     Lei%Yu%NULL%0,                     Ya-Kun%Liu%NULL%0,                     Xiaoyong%Hu%NULL%0,                     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                     Tangkai%Qi%NULL%0,                     Li%Liu%NULL%0,                     Yun%Ling%NULL%0,                     Zhiping%Qian%NULL%0,                     Tao%Li%NULL%0,                     Feng%Li%NULL%0,                     Qingnian%Xu%NULL%0,                     Yuyi%Zhang%NULL%0,                     Shuibao%Xu%NULL%0,                     Zhigang%Song%NULL%0,                     Yigang%Zeng%NULL%0,                     Yinzhong%Shen%NULL%0,                     Yuxin%Shi%NULL%0,                     Tongyu%Zhu%NULL%0,                     Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                     Dingyu%Zhang%NULL%0,                     Wenling%Wang%NULL%0,                     Xingwang%Li%NULL%0,                     Bo%Yang%NULL%0,                     Jingdong%Song%NULL%0,                     Xiang%Zhao%NULL%0,                     Baoying%Huang%NULL%0,                     Weifeng%Shi%NULL%0,                     Roujian%Lu%NULL%0,                     Peihua%Niu%NULL%0,                     Faxian%Zhan%NULL%0,                     Xuejun%Ma%NULL%0,                     Dayan%Wang%NULL%0,                     Wenbo%Xu%NULL%0,                     Guizhen%Wu%NULL%0,                     George F.%Gao%NULL%0,                     Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                     Simon A%Jones%NULL%1,                     Jie%Yang%NULL%1,                     Harish%Rajagopalan%NULL%1,                     Luke%O’Donnell%NULL%1,                     Yelena%Chernyak%NULL%1,                     Katie A%Tobin%NULL%1,                     Robert J%Cerfolio%NULL%1,                     Fritz%Francois%NULL%2,                     Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                   Becker%L.B.%coreGivesNoEmail%0,                   Chelico%J.D.%coreGivesNoEmail%0,                   Cohen%S.L.%coreGivesNoEmail%0,                   Cookingham%J.%coreGivesNoEmail%0,                   Coppa%K.%coreGivesNoEmail%0,                   Crawford%J.M.%coreGivesNoEmail%0,                   Davidson%K.W.%coreGivesNoEmail%0,                   Diefenbach%M.A.%coreGivesNoEmail%0,                   Dominello%A.J.%coreGivesNoEmail%0,                   Duer-Hefele%J.%coreGivesNoEmail%0,                   Falzon%L.%coreGivesNoEmail%0,                   Gitlin%J.%coreGivesNoEmail%0,                   Hajizadeh%N.%coreGivesNoEmail%0,                   Harvin%T.G.%coreGivesNoEmail%0,                   Hirsch%J.S.%coreGivesNoEmail%0,                   Hirschwerk%D.A.%coreGivesNoEmail%0,                   Kim%E.J.%coreGivesNoEmail%0,                   Kozel%Z.M.%coreGivesNoEmail%0,                   Marrast%L.M.%coreGivesNoEmail%0,                   McGinn%T.%coreGivesNoEmail%0,                   Mogavero%J.N.%coreGivesNoEmail%0,                   Narasimhan%M.%coreGivesNoEmail%0,                   Osorio%G.A.%coreGivesNoEmail%0,                   Qiu%M.%coreGivesNoEmail%0,                   Richardson%S.%coreGivesNoEmail%0,                   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                     Mikael%Chetboun%NULL%0,                     Julien%Poissy%NULL%0,                     Violeta%Raverdy%NULL%0,                     Jerome%Noulette%NULL%0,                     Jerome%Noulette%NULL%0,                     Alain%Duhamel%NULL%0,                     Julien%Labreuche%NULL%0,                     Daniel%Mathieu%NULL%0,                     Francois%Pattou%francois.pattou@univ-lille.fr%0,                     Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                     Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                     Robert%Caizzo%NULL%0,                     Robert%Caizzo%NULL%0,                     Morgan%Caplan%NULL%0,                     Nicolas%Cousin%NULL%0,                     Thibault%Duburcq%NULL%0,                     Arthur%Durand%NULL%0,                     Ahmed%El kalioubie%NULL%0,                     Raphael%Favory%NULL%0,                     Bruno%Garcia%NULL%0,                     Patrick%Girardie%NULL%0,                     Julien%Goutay%NULL%0,                     Marion%Houard%NULL%0,                     Emmanuelle%Jaillette%NULL%0,                     Nicolas%Kostuj%NULL%0,                     Geoffrey%Ledoux%NULL%0,                     Daniel%Mathieu%NULL%0,                     Anne Sophie%Moreau%NULL%0,                     Christopher%Niles%NULL%0,                     Saad%Nseir%NULL%0,                     Thierry%Onimus%NULL%0,                     Erika%Parmentier%NULL%0,                     Sebastien%Préau%NULL%0,                     Laurent%Robriquet%NULL%0,                     Anahita%Rouze%NULL%0,                     Sophie%Six%NULL%0,                     Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                     Chen-Hsen%Lee%NULL%1,                     Cheng-Yi%Liu%NULL%1,                     Jia-Horng%Wang%NULL%1,                     Lee-Min%Wang%NULL%1,                     Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                     Xiaobo%Yang%NULL%1,                     Luyu%Yang%NULL%1,                     Xiaojing%Zou%NULL%0,                     Yaxin%Wang%NULL%0,                     Yongran%Wu%NULL%0,                     Ting%Zhou%NULL%1,                     Yin%Yuan%NULL%1,                     Hong%Qi%NULL%1,                     Shouzhi%Fu%NULL%0,                     Hong%Liu%NULL%0,                     Jia’an%Xia%NULL%1,                     Zhengqin%Xu%NULL%1,                     Yuan%Yu%NULL%0,                     Ruiting%Li%NULL%0,                     Yaqi%Ouyang%NULL%1,                     Rui%Wang%NULL%0,                     Lehao%Ren%NULL%1,                     Yingying%Hu%NULL%1,                     Dan%Xu%NULL%0,                     Xin%Zhao%NULL%1,                     Shiying%Yuan%shiying_yuan@163.com%0,                     Dingyu%Zhang%1813886398@qq.com%0,                     You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Wen-hua%Liang%NULL%0,                     Yi%Zhao%NULL%1,                     Heng-rui%Liang%NULL%1,                     Zi-sheng%Chen%NULL%1,                     Yi-min%Li%NULL%1,                     Xiao-qing%Liu%NULL%1,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Chun-quan%Ou%NULL%0,                     Li%Li%NULL%0,                     Ping-yan%Chen%NULL%0,                     Ling%Sang%NULL%1,                     Wei%Wang%NULL%0,                     Jian-fu%Li%NULL%1,                     Cai-chen%Li%NULL%1,                     Li-min%Ou%NULL%1,                     Bo%Cheng%NULL%1,                     Shan%Xiong%NULL%1,                     Zheng-yi%Ni%NULL%0,                     Jie%Xiang%NULL%0,                     Yu%Hu%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Lin-ling%Cheng%NULL%1,                     Feng%Ye%NULL%1,                     Shi-yue%Li%NULL%0,                     Jin-ping%Zheng%NULL%1,                     Nuo-fu%Zhang%NULL%1,                     Nan-shan%Zhong%NULL%0,                     Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%0,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%0,                     Jie%Xiang%NULL%0,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%0,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%0,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%0,                     Yi%Zhang%NULL%0,                     Hua%Chen%NULL%0,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                     Giacomo%Iapichino%NULL%1,                     Luca%Carenzo%NULL%1,                     Maurizio%Cecconi%NULL%1,                     Paola%Ferrazzi%NULL%1,                     Tim%Sebastian%NULL%1,                     Nils%Kucher%NULL%1,                     Jan-Dirk%Studt%NULL%1,                     Clara%Sacco%NULL%1,                     Alexia%Bertuzzi%NULL%1,                     Maria Teresa%Sandri%NULL%1,                     Stefano%Barco%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                     M.J.H.A.%Kruip%NULL%1,                     N.J.M.%van der Meer%NULL%1,                     M.S.%Arbous%NULL%1,                     D.A.M.P.J.%Gommers%NULL%1,                     K.M.%Kant%NULL%1,                     F.H.J.%Kaptein%NULL%1,                     J.%van Paassen%NULL%1,                     M.A.M.%Stals%NULL%1,                     M.V.%Huisman%NULL%1,                     H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                     Fang%Jiang%NULL%1,                     Wating%Su%NULL%1,                     Chang%Chen%NULL%1,                     Jingli%Chen%NULL%1,                     Wei%Mei%NULL%1,                     Li-Ying%Zhan%NULL%1,                     Yifan%Jia%NULL%1,                     Liangqing%Zhang%NULL%1,                     Danyong%Liu%NULL%1,                     Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                     Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                     Ewen M%Harrison%NULL%1,                     Christopher A%Green%NULL%1,                     Hayley E%Hardwick%NULL%1,                     Riinu%Pius%NULL%1,                     Lisa%Norman%NULL%1,                     Karl A%Holden%NULL%1,                     Jonathan M%Read%NULL%1,                     Frank%Dondelinger%NULL%1,                     Gail%Carson%NULL%1,                     Laura%Merson%NULL%1,                     James%Lee%NULL%1,                     Daniel%Plotkin%NULL%1,                     Louise%Sigfrid%NULL%1,                     Sophie%Halpin%NULL%1,                     Clare%Jackson%NULL%1,                     Carrol%Gamble%NULL%1,                     Peter W%Horby%NULL%1,                     Jonathan S%Nguyen-Van-Tam%NULL%1,                     Antonia%Ho%NULL%1,                     Clark D%Russell%NULL%1,                     Jake%Dunning%NULL%1,                     Peter JM%Openshaw%NULL%1,                     J Kenneth%Baillie%NULL%1,                     Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                     Li-Min%Liu%NULL%0,                     Wen%Yin%NULL%0,                     Wen%Wang%NULL%0,                     Lu-Lu%Guan%NULL%0,                     Ming-Li%Yuan%NULL%0,                     Yu-Lei%Li%NULL%0,                     Yi%Hu%NULL%0,                     Xu-Yan%Li%NULL%0,                     Bing%Sun%NULL%0,                     Peng%Peng%NULL%0,                     Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                     Qiang%Zhou%NULL%1,                     Ruiqiang%Zheng%NULL%1,                     Xuyan%Li%NULL%1,                     Jianmin%Ling%NULL%1,                     Yumei%Chen%NULL%1,                     Jing%Jia%NULL%1,                     Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                     Anna Mara%Scandroglio%NULL%1,                     Giacomo%Monti%NULL%1,                     Maria Grazia%Calabrò%NULL%1,                     Giovanni%Landoni%NULL%1,                     Antonio%Dell'Acqua%NULL%1,                     Luigi%Beretta%NULL%1,                     Elena%Moizo%NULL%1,                     Alfredo%Ravizza%NULL%1,                     Fabrizio%Monaco%NULL%1,                     Corrado%Campochiaro%NULL%1,                     Marina%Pieri%NULL%1,                     Maria Luisa%Azzolini%NULL%1,                     Giovanni%Borghi%NULL%1,                     Martina%Crivellari%NULL%1,                     Caterina%Conte%NULL%1,                     Cristina%Mattioli%NULL%1,                     Paolo%Silvani%NULL%1,                     Milena%Mucci%NULL%1,                     Stefano%Turi%NULL%1,                     Stefano%Tentori%NULL%1,                     Martina%Baiardo Redaelli%NULL%1,                     Marianna%Sartorelli%NULL%1,                     Piera%Angelillo%NULL%1,                     Alessandro%Belletti%NULL%1,                     Pasquale%Nardelli%NULL%1,                     Francesco Giuseppe%Nisi%NULL%1,                     Gabriele%Valsecchi%NULL%1,                     Cristina%Barberio%NULL%1,                     Fabio%Ciceri%NULL%1,                     Ary%Serpa Neto%NULL%1,                     Lorenzo%Dagna%NULL%1,                     Rinaldo%Bellomo%NULL%1,                     Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                   Cabrini%Luca%coreGivesNoEmail%0,                   Castelli%Antonio%coreGivesNoEmail%0,                   Cecconi%Maurizio%coreGivesNoEmail%0,                   Cereda%Danilo%coreGivesNoEmail%0,                   Coluccello%Antonio%coreGivesNoEmail%0,                   Foti%Giuseppe%coreGivesNoEmail%0,                   Fumagalli%Roberto%coreGivesNoEmail%0,                   Grasselli%Giacomo%coreGivesNoEmail%0,                   Iotti%Giorgio%coreGivesNoEmail%0,                   Latronico%Nicola%coreGivesNoEmail%0,                   Lorini%Luca%coreGivesNoEmail%0,                   Merler%Stefano%coreGivesNoEmail%0,                   Natalini%Giuseppe%coreGivesNoEmail%0,                   Pesenti%Antonio%coreGivesNoEmail%0,                   Piatti%Alessandra%coreGivesNoEmail%0,                   Ranieri%Marco Vito%coreGivesNoEmail%0,                   Scandroglio%Anna Mara%coreGivesNoEmail%0,                   Storti%Enrico%coreGivesNoEmail%0,                   Zanella%Alberto%coreGivesNoEmail%0,                   Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                     Min%Zhou%NULL%0,                     Xuan%Dong%NULL%0,                     Jieming%Qu%NULL%0,                     Fengyun%Gong%NULL%0,                     Yang%Han%NULL%0,                     Yang%Qiu%NULL%0,                     Jingli%Wang%NULL%0,                     Ying%Liu%NULL%0,                     Yuan%Wei%NULL%0,                     Jia'an%Xia%NULL%0,                     Ting%Yu%NULL%0,                     Xinxin%Zhang%NULL%0,                     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                     Ali S.%Omrani%NULL%1,                     Kamran%Baig%NULL%1,                     Abdelkarim%Bahloul%NULL%1,                     Fatehi%Elzein%NULL%1,                     Mohammad Abdul%Matin%NULL%1,                     Mohei A.A.%Selim%NULL%1,                     Mohammed Al%Mutairi%NULL%1,                     Daifullah Al%Nakhli%NULL%1,                     Amal Y. Al%Aidaroos%NULL%1,                     Nisreen Al%Sherbeeni%NULL%1,                     Hesham I.%Al-Khashan%NULL%1,                     Ziad A.%Memish%zmemish@yahoo.com%1,                     Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                     Badr%Alsayed%NULL%1,                     Sameh%Embarak%NULL%1,                     Taha%Yaseen%NULL%1,                     Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                     Shamsudeen F.%Fagbo%NULL%1,                     Vicky J.%Fang%NULL%1,                     Leila%Skakni%NULL%1,                     Mercy%Joseph%NULL%1,                     Tariq A.%Wani%NULL%1,                     Benjamin J.%Cowling%NULL%0,                     Malik%Peiris%NULL%1,                     Ahmed%Hakawi%NULL%1,                     Renee W.Y.%Chan%NULL%2,                     Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                     Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                     Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                     Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                     Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                     Abdulmoatani%Alsulami%moatani@hotmail.com%1,                     Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                     Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                     Trish M.%Perl%tperl@jhmi.edu%1,                     Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                      Jing-Jin%Liang%NULL%1,                      Qing-Tao%Zhou%NULL%1,                      Xiao-Guang%Li%NULL%1,                      Fei%Lin%NULL%1,                      Zhong-Hua%Deng%NULL%1,                      Bi-Ying%Zhang%NULL%1,                      Lu%Li%NULL%1,                      Xiao-Hua%Wang%NULL%1,                      Hong%Zhu%NULL%1,                      Qing-Bian%Ma%NULL%1,                      Xiao-Mei%Tong%NULL%1,                      Jie%Xu%NULL%1,                      Yong-Chang%Sun%NULL%1,                      Pei-Fang%Wei%NULL%0,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                      Xiao-Xin%Wu%NULL%0,                      Xian-Gao%Jiang%NULL%0,                      Kai-Jin%Xu%NULL%0,                      Ling-Jun%Ying%NULL%0,                      Chun-Lian%Ma%NULL%0,                      Shi-Bo%Li%NULL%0,                      Hua-Ying%Wang%NULL%0,                      Sheng%Zhang%NULL%0,                      Hai-Nv%Gao%NULL%0,                      Ji-Fang%Sheng%NULL%0,                      Hong-Liu%Cai%NULL%0,                      Yun-Qing%Qiu%NULL%0,                      Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                      Bijan J.%Ghassemieh%NULL%0,                      Michelle%Nichols%NULL%0,                      Richard%Kim%NULL%0,                      Keith R.%Jerome%NULL%0,                      Arun K.%Nalla%NULL%0,                      Alexander L.%Greninger%NULL%0,                      Sudhakar%Pipavath%NULL%0,                      Mark M.%Wurfel%NULL%0,                      Laura%Evans%NULL%0,                      Patricia A.%Kritek%NULL%0,                      T. Eoin%West%NULL%0,                      Andrew%Luks%NULL%0,                      Anthony%Gerbino%NULL%0,                      Chris R.%Dale%NULL%0,                      Jason D.%Goldman%NULL%0,                      Shane%O’Mahony%NULL%0,                      Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      Stephanie%Bialek%NULL%1,                      Ellen%Boundy%NULL%1,                      Virginia%Bowen%NULL%1,                      Nancy%Chow%NULL%1,                      Amanda%Cohn%NULL%0,                      Nicole%Dowling%NULL%1,                      Sascha%Ellington%NULL%1,                      Ryan%Gierke%NULL%1,                      Aron%Hall%NULL%1,                      Jessica%MacNeil%NULL%1,                      Priti%Patel%NULL%1,                      Georgina%Peacock%NULL%1,                      Tamara%Pilishvili%NULL%1,                      Hilda%Razzaghi%NULL%1,                      Nia%Reed%NULL%1,                      Matthew%Ritchey%NULL%1,                      Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                      Wenlin%Cheng%NULL%0,                      Lei%Yu%NULL%0,                      Ya-Kun%Liu%NULL%0,                      Xiaoyong%Hu%NULL%0,                      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                      Tangkai%Qi%NULL%0,                      Li%Liu%NULL%0,                      Yun%Ling%NULL%0,                      Zhiping%Qian%NULL%0,                      Tao%Li%NULL%0,                      Feng%Li%NULL%0,                      Qingnian%Xu%NULL%0,                      Yuyi%Zhang%NULL%0,                      Shuibao%Xu%NULL%0,                      Zhigang%Song%NULL%0,                      Yigang%Zeng%NULL%0,                      Yinzhong%Shen%NULL%0,                      Yuxin%Shi%NULL%0,                      Tongyu%Zhu%NULL%0,                      Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                      Dingyu%Zhang%NULL%0,                      Wenling%Wang%NULL%0,                      Xingwang%Li%NULL%0,                      Bo%Yang%NULL%0,                      Jingdong%Song%NULL%0,                      Xiang%Zhao%NULL%0,                      Baoying%Huang%NULL%0,                      Weifeng%Shi%NULL%0,                      Roujian%Lu%NULL%0,                      Peihua%Niu%NULL%0,                      Faxian%Zhan%NULL%0,                      Xuejun%Ma%NULL%0,                      Dayan%Wang%NULL%0,                      Wenbo%Xu%NULL%0,                      Guizhen%Wu%NULL%0,                      George F.%Gao%NULL%0,                      Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                      Simon A%Jones%NULL%1,                      Jie%Yang%NULL%1,                      Harish%Rajagopalan%NULL%1,                      Luke%O’Donnell%NULL%1,                      Yelena%Chernyak%NULL%1,                      Katie A%Tobin%NULL%1,                      Robert J%Cerfolio%NULL%1,                      Fritz%Francois%NULL%2,                      Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                    Becker%L.B.%coreGivesNoEmail%0,                    Chelico%J.D.%coreGivesNoEmail%0,                    Cohen%S.L.%coreGivesNoEmail%0,                    Cookingham%J.%coreGivesNoEmail%0,                    Coppa%K.%coreGivesNoEmail%0,                    Crawford%J.M.%coreGivesNoEmail%0,                    Davidson%K.W.%coreGivesNoEmail%0,                    Diefenbach%M.A.%coreGivesNoEmail%0,                    Dominello%A.J.%coreGivesNoEmail%0,                    Duer-Hefele%J.%coreGivesNoEmail%0,                    Falzon%L.%coreGivesNoEmail%0,                    Gitlin%J.%coreGivesNoEmail%0,                    Hajizadeh%N.%coreGivesNoEmail%0,                    Harvin%T.G.%coreGivesNoEmail%0,                    Hirsch%J.S.%coreGivesNoEmail%0,                    Hirschwerk%D.A.%coreGivesNoEmail%0,                    Kim%E.J.%coreGivesNoEmail%0,                    Kozel%Z.M.%coreGivesNoEmail%0,                    Marrast%L.M.%coreGivesNoEmail%0,                    McGinn%T.%coreGivesNoEmail%0,                    Mogavero%J.N.%coreGivesNoEmail%0,                    Narasimhan%M.%coreGivesNoEmail%0,                    Osorio%G.A.%coreGivesNoEmail%0,                    Qiu%M.%coreGivesNoEmail%0,                    Richardson%S.%coreGivesNoEmail%0,                    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                      Mikael%Chetboun%NULL%0,                      Julien%Poissy%NULL%0,                      Violeta%Raverdy%NULL%0,                      Jerome%Noulette%NULL%0,                      Jerome%Noulette%NULL%0,                      Alain%Duhamel%NULL%0,                      Julien%Labreuche%NULL%0,                      Daniel%Mathieu%NULL%0,                      Francois%Pattou%francois.pattou@univ-lille.fr%0,                      Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                      Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                      Robert%Caizzo%NULL%0,                      Robert%Caizzo%NULL%0,                      Morgan%Caplan%NULL%0,                      Nicolas%Cousin%NULL%0,                      Thibault%Duburcq%NULL%0,                      Arthur%Durand%NULL%0,                      Ahmed%El kalioubie%NULL%0,                      Raphael%Favory%NULL%0,                      Bruno%Garcia%NULL%0,                      Patrick%Girardie%NULL%0,                      Julien%Goutay%NULL%0,                      Marion%Houard%NULL%0,                      Emmanuelle%Jaillette%NULL%0,                      Nicolas%Kostuj%NULL%0,                      Geoffrey%Ledoux%NULL%0,                      Daniel%Mathieu%NULL%0,                      Anne Sophie%Moreau%NULL%0,                      Christopher%Niles%NULL%0,                      Saad%Nseir%NULL%0,                      Thierry%Onimus%NULL%0,                      Erika%Parmentier%NULL%0,                      Sebastien%Préau%NULL%0,                      Laurent%Robriquet%NULL%0,                      Anahita%Rouze%NULL%0,                      Sophie%Six%NULL%0,                      Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                      Chen-Hsen%Lee%NULL%1,                      Cheng-Yi%Liu%NULL%1,                      Jia-Horng%Wang%NULL%1,                      Lee-Min%Wang%NULL%1,                      Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                      Xiaobo%Yang%NULL%1,                      Luyu%Yang%NULL%1,                      Xiaojing%Zou%NULL%0,                      Yaxin%Wang%NULL%0,                      Yongran%Wu%NULL%0,                      Ting%Zhou%NULL%1,                      Yin%Yuan%NULL%1,                      Hong%Qi%NULL%1,                      Shouzhi%Fu%NULL%0,                      Hong%Liu%NULL%0,                      Jia’an%Xia%NULL%1,                      Zhengqin%Xu%NULL%1,                      Yuan%Yu%NULL%0,                      Ruiting%Li%NULL%0,                      Yaqi%Ouyang%NULL%1,                      Rui%Wang%NULL%0,                      Lehao%Ren%NULL%1,                      Yingying%Hu%NULL%1,                      Dan%Xu%NULL%0,                      Xin%Zhao%NULL%1,                      Shiying%Yuan%shiying_yuan@163.com%0,                      Dingyu%Zhang%1813886398@qq.com%0,                      You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Wen-hua%Liang%NULL%0,                      Yi%Zhao%NULL%1,                      Heng-rui%Liang%NULL%1,                      Zi-sheng%Chen%NULL%1,                      Yi-min%Li%NULL%1,                      Xiao-qing%Liu%NULL%1,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Chun-quan%Ou%NULL%0,                      Li%Li%NULL%0,                      Ping-yan%Chen%NULL%0,                      Ling%Sang%NULL%1,                      Wei%Wang%NULL%0,                      Jian-fu%Li%NULL%1,                      Cai-chen%Li%NULL%1,                      Li-min%Ou%NULL%1,                      Bo%Cheng%NULL%1,                      Shan%Xiong%NULL%1,                      Zheng-yi%Ni%NULL%0,                      Jie%Xiang%NULL%0,                      Yu%Hu%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Lin-ling%Cheng%NULL%1,                      Feng%Ye%NULL%1,                      Shi-yue%Li%NULL%0,                      Jin-ping%Zheng%NULL%1,                      Nuo-fu%Zhang%NULL%1,                      Nan-shan%Zhong%NULL%0,                      Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%0,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%0,                      Jie%Xiang%NULL%0,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%0,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%0,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%0,                      Yi%Zhang%NULL%0,                      Hua%Chen%NULL%0,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                      Giacomo%Iapichino%NULL%1,                      Luca%Carenzo%NULL%1,                      Maurizio%Cecconi%NULL%1,                      Paola%Ferrazzi%NULL%1,                      Tim%Sebastian%NULL%1,                      Nils%Kucher%NULL%1,                      Jan-Dirk%Studt%NULL%1,                      Clara%Sacco%NULL%1,                      Alexia%Bertuzzi%NULL%1,                      Maria Teresa%Sandri%NULL%1,                      Stefano%Barco%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                      M.J.H.A.%Kruip%NULL%1,                      N.J.M.%van der Meer%NULL%1,                      M.S.%Arbous%NULL%1,                      D.A.M.P.J.%Gommers%NULL%1,                      K.M.%Kant%NULL%1,                      F.H.J.%Kaptein%NULL%1,                      J.%van Paassen%NULL%1,                      M.A.M.%Stals%NULL%1,                      M.V.%Huisman%NULL%1,                      H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                      Fang%Jiang%NULL%1,                      Wating%Su%NULL%1,                      Chang%Chen%NULL%1,                      Jingli%Chen%NULL%1,                      Wei%Mei%NULL%1,                      Li-Ying%Zhan%NULL%1,                      Yifan%Jia%NULL%1,                      Liangqing%Zhang%NULL%1,                      Danyong%Liu%NULL%1,                      Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                      Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                      Ewen M%Harrison%NULL%1,                      Christopher A%Green%NULL%1,                      Hayley E%Hardwick%NULL%1,                      Riinu%Pius%NULL%1,                      Lisa%Norman%NULL%1,                      Karl A%Holden%NULL%1,                      Jonathan M%Read%NULL%1,                      Frank%Dondelinger%NULL%1,                      Gail%Carson%NULL%1,                      Laura%Merson%NULL%1,                      James%Lee%NULL%1,                      Daniel%Plotkin%NULL%1,                      Louise%Sigfrid%NULL%1,                      Sophie%Halpin%NULL%1,                      Clare%Jackson%NULL%1,                      Carrol%Gamble%NULL%1,                      Peter W%Horby%NULL%1,                      Jonathan S%Nguyen-Van-Tam%NULL%1,                      Antonia%Ho%NULL%1,                      Clark D%Russell%NULL%1,                      Jake%Dunning%NULL%1,                      Peter JM%Openshaw%NULL%1,                      J Kenneth%Baillie%NULL%1,                      Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                      Li-Min%Liu%NULL%0,                      Wen%Yin%NULL%0,                      Wen%Wang%NULL%0,                      Lu-Lu%Guan%NULL%0,                      Ming-Li%Yuan%NULL%0,                      Yu-Lei%Li%NULL%0,                      Yi%Hu%NULL%0,                      Xu-Yan%Li%NULL%0,                      Bing%Sun%NULL%0,                      Peng%Peng%NULL%0,                      Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                      Qiang%Zhou%NULL%1,                      Ruiqiang%Zheng%NULL%1,                      Xuyan%Li%NULL%1,                      Jianmin%Ling%NULL%1,                      Yumei%Chen%NULL%1,                      Jing%Jia%NULL%1,                      Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                      Anna Mara%Scandroglio%NULL%1,                      Giacomo%Monti%NULL%1,                      Maria Grazia%Calabrò%NULL%1,                      Giovanni%Landoni%NULL%1,                      Antonio%Dell'Acqua%NULL%1,                      Luigi%Beretta%NULL%1,                      Elena%Moizo%NULL%1,                      Alfredo%Ravizza%NULL%1,                      Fabrizio%Monaco%NULL%1,                      Corrado%Campochiaro%NULL%1,                      Marina%Pieri%NULL%1,                      Maria Luisa%Azzolini%NULL%1,                      Giovanni%Borghi%NULL%1,                      Martina%Crivellari%NULL%1,                      Caterina%Conte%NULL%1,                      Cristina%Mattioli%NULL%1,                      Paolo%Silvani%NULL%1,                      Milena%Mucci%NULL%1,                      Stefano%Turi%NULL%1,                      Stefano%Tentori%NULL%1,                      Martina%Baiardo Redaelli%NULL%1,                      Marianna%Sartorelli%NULL%1,                      Piera%Angelillo%NULL%1,                      Alessandro%Belletti%NULL%1,                      Pasquale%Nardelli%NULL%1,                      Francesco Giuseppe%Nisi%NULL%1,                      Gabriele%Valsecchi%NULL%1,                      Cristina%Barberio%NULL%1,                      Fabio%Ciceri%NULL%1,                      Ary%Serpa Neto%NULL%1,                      Lorenzo%Dagna%NULL%1,                      Rinaldo%Bellomo%NULL%1,                      Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                    Cabrini%Luca%coreGivesNoEmail%0,                    Castelli%Antonio%coreGivesNoEmail%0,                    Cecconi%Maurizio%coreGivesNoEmail%0,                    Cereda%Danilo%coreGivesNoEmail%0,                    Coluccello%Antonio%coreGivesNoEmail%0,                    Foti%Giuseppe%coreGivesNoEmail%0,                    Fumagalli%Roberto%coreGivesNoEmail%0,                    Grasselli%Giacomo%coreGivesNoEmail%0,                    Iotti%Giorgio%coreGivesNoEmail%0,                    Latronico%Nicola%coreGivesNoEmail%0,                    Lorini%Luca%coreGivesNoEmail%0,                    Merler%Stefano%coreGivesNoEmail%0,                    Natalini%Giuseppe%coreGivesNoEmail%0,                    Pesenti%Antonio%coreGivesNoEmail%0,                    Piatti%Alessandra%coreGivesNoEmail%0,                    Ranieri%Marco Vito%coreGivesNoEmail%0,                    Scandroglio%Anna Mara%coreGivesNoEmail%0,                    Storti%Enrico%coreGivesNoEmail%0,                    Zanella%Alberto%coreGivesNoEmail%0,                    Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                      Min%Zhou%NULL%0,                      Xuan%Dong%NULL%0,                      Jieming%Qu%NULL%0,                      Fengyun%Gong%NULL%0,                      Yang%Han%NULL%0,                      Yang%Qiu%NULL%0,                      Jingli%Wang%NULL%0,                      Ying%Liu%NULL%0,                      Yuan%Wei%NULL%0,                      Jia'an%Xia%NULL%0,                      Ting%Yu%NULL%0,                      Xinxin%Zhang%NULL%0,                      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                      Ali S.%Omrani%NULL%1,                      Kamran%Baig%NULL%1,                      Abdelkarim%Bahloul%NULL%1,                      Fatehi%Elzein%NULL%1,                      Mohammad Abdul%Matin%NULL%1,                      Mohei A.A.%Selim%NULL%1,                      Mohammed Al%Mutairi%NULL%1,                      Daifullah Al%Nakhli%NULL%1,                      Amal Y. Al%Aidaroos%NULL%1,                      Nisreen Al%Sherbeeni%NULL%1,                      Hesham I.%Al-Khashan%NULL%1,                      Ziad A.%Memish%zmemish@yahoo.com%1,                      Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                      Badr%Alsayed%NULL%1,                      Sameh%Embarak%NULL%1,                      Taha%Yaseen%NULL%1,                      Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                      Shamsudeen F.%Fagbo%NULL%1,                      Vicky J.%Fang%NULL%1,                      Leila%Skakni%NULL%1,                      Mercy%Joseph%NULL%1,                      Tariq A.%Wani%NULL%1,                      Benjamin J.%Cowling%NULL%0,                      Malik%Peiris%NULL%1,                      Ahmed%Hakawi%NULL%1,                      Renee W.Y.%Chan%NULL%2,                      Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                      Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                      Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                      Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                      Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                      Abdulmoatani%Alsulami%moatani@hotmail.com%1,                      Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                      Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                      Trish M.%Perl%tperl@jhmi.edu%1,                      Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                       Jing-Jin%Liang%NULL%1,                       Qing-Tao%Zhou%NULL%1,                       Xiao-Guang%Li%NULL%1,                       Fei%Lin%NULL%1,                       Zhong-Hua%Deng%NULL%1,                       Bi-Ying%Zhang%NULL%1,                       Lu%Li%NULL%1,                       Xiao-Hua%Wang%NULL%1,                       Hong%Zhu%NULL%1,                       Qing-Bian%Ma%NULL%1,                       Xiao-Mei%Tong%NULL%1,                       Jie%Xu%NULL%1,                       Yong-Chang%Sun%NULL%1,                       Pei-Fang%Wei%NULL%0,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                       Xiao-Xin%Wu%NULL%0,                       Xian-Gao%Jiang%NULL%0,                       Kai-Jin%Xu%NULL%0,                       Ling-Jun%Ying%NULL%0,                       Chun-Lian%Ma%NULL%0,                       Shi-Bo%Li%NULL%0,                       Hua-Ying%Wang%NULL%0,                       Sheng%Zhang%NULL%0,                       Hai-Nv%Gao%NULL%0,                       Ji-Fang%Sheng%NULL%0,                       Hong-Liu%Cai%NULL%0,                       Yun-Qing%Qiu%NULL%0,                       Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                       Bijan J.%Ghassemieh%NULL%0,                       Michelle%Nichols%NULL%0,                       Richard%Kim%NULL%0,                       Keith R.%Jerome%NULL%0,                       Arun K.%Nalla%NULL%0,                       Alexander L.%Greninger%NULL%0,                       Sudhakar%Pipavath%NULL%0,                       Mark M.%Wurfel%NULL%0,                       Laura%Evans%NULL%0,                       Patricia A.%Kritek%NULL%0,                       T. Eoin%West%NULL%0,                       Andrew%Luks%NULL%0,                       Anthony%Gerbino%NULL%0,                       Chris R.%Dale%NULL%0,                       Jason D.%Goldman%NULL%0,                       Shane%O’Mahony%NULL%0,                       Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       Stephanie%Bialek%NULL%1,                       Ellen%Boundy%NULL%1,                       Virginia%Bowen%NULL%1,                       Nancy%Chow%NULL%1,                       Amanda%Cohn%NULL%0,                       Nicole%Dowling%NULL%1,                       Sascha%Ellington%NULL%1,                       Ryan%Gierke%NULL%1,                       Aron%Hall%NULL%1,                       Jessica%MacNeil%NULL%1,                       Priti%Patel%NULL%1,                       Georgina%Peacock%NULL%1,                       Tamara%Pilishvili%NULL%1,                       Hilda%Razzaghi%NULL%1,                       Nia%Reed%NULL%1,                       Matthew%Ritchey%NULL%1,                       Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                       Wenlin%Cheng%NULL%0,                       Lei%Yu%NULL%0,                       Ya-Kun%Liu%NULL%0,                       Xiaoyong%Hu%NULL%0,                       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                       Tangkai%Qi%NULL%0,                       Li%Liu%NULL%0,                       Yun%Ling%NULL%0,                       Zhiping%Qian%NULL%0,                       Tao%Li%NULL%0,                       Feng%Li%NULL%0,                       Qingnian%Xu%NULL%0,                       Yuyi%Zhang%NULL%0,                       Shuibao%Xu%NULL%0,                       Zhigang%Song%NULL%0,                       Yigang%Zeng%NULL%0,                       Yinzhong%Shen%NULL%0,                       Yuxin%Shi%NULL%0,                       Tongyu%Zhu%NULL%0,                       Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                       Dingyu%Zhang%NULL%0,                       Wenling%Wang%NULL%0,                       Xingwang%Li%NULL%0,                       Bo%Yang%NULL%0,                       Jingdong%Song%NULL%0,                       Xiang%Zhao%NULL%0,                       Baoying%Huang%NULL%0,                       Weifeng%Shi%NULL%0,                       Roujian%Lu%NULL%0,                       Peihua%Niu%NULL%0,                       Faxian%Zhan%NULL%0,                       Xuejun%Ma%NULL%0,                       Dayan%Wang%NULL%0,                       Wenbo%Xu%NULL%0,                       Guizhen%Wu%NULL%0,                       George F.%Gao%NULL%0,                       Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                       Simon A%Jones%NULL%1,                       Jie%Yang%NULL%1,                       Harish%Rajagopalan%NULL%1,                       Luke%O’Donnell%NULL%1,                       Yelena%Chernyak%NULL%1,                       Katie A%Tobin%NULL%1,                       Robert J%Cerfolio%NULL%1,                       Fritz%Francois%NULL%2,                       Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                     Becker%L.B.%coreGivesNoEmail%0,                     Chelico%J.D.%coreGivesNoEmail%0,                     Cohen%S.L.%coreGivesNoEmail%0,                     Cookingham%J.%coreGivesNoEmail%0,                     Coppa%K.%coreGivesNoEmail%0,                     Crawford%J.M.%coreGivesNoEmail%0,                     Davidson%K.W.%coreGivesNoEmail%0,                     Diefenbach%M.A.%coreGivesNoEmail%0,                     Dominello%A.J.%coreGivesNoEmail%0,                     Duer-Hefele%J.%coreGivesNoEmail%0,                     Falzon%L.%coreGivesNoEmail%0,                     Gitlin%J.%coreGivesNoEmail%0,                     Hajizadeh%N.%coreGivesNoEmail%0,                     Harvin%T.G.%coreGivesNoEmail%0,                     Hirsch%J.S.%coreGivesNoEmail%0,                     Hirschwerk%D.A.%coreGivesNoEmail%0,                     Kim%E.J.%coreGivesNoEmail%0,                     Kozel%Z.M.%coreGivesNoEmail%0,                     Marrast%L.M.%coreGivesNoEmail%0,                     McGinn%T.%coreGivesNoEmail%0,                     Mogavero%J.N.%coreGivesNoEmail%0,                     Narasimhan%M.%coreGivesNoEmail%0,                     Osorio%G.A.%coreGivesNoEmail%0,                     Qiu%M.%coreGivesNoEmail%0,                     Richardson%S.%coreGivesNoEmail%0,                     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                       Mikael%Chetboun%NULL%0,                       Julien%Poissy%NULL%0,                       Violeta%Raverdy%NULL%0,                       Jerome%Noulette%NULL%0,                       Jerome%Noulette%NULL%0,                       Alain%Duhamel%NULL%0,                       Julien%Labreuche%NULL%0,                       Daniel%Mathieu%NULL%0,                       Francois%Pattou%francois.pattou@univ-lille.fr%0,                       Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                       Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                       Robert%Caizzo%NULL%0,                       Robert%Caizzo%NULL%0,                       Morgan%Caplan%NULL%0,                       Nicolas%Cousin%NULL%0,                       Thibault%Duburcq%NULL%0,                       Arthur%Durand%NULL%0,                       Ahmed%El kalioubie%NULL%0,                       Raphael%Favory%NULL%0,                       Bruno%Garcia%NULL%0,                       Patrick%Girardie%NULL%0,                       Julien%Goutay%NULL%0,                       Marion%Houard%NULL%0,                       Emmanuelle%Jaillette%NULL%0,                       Nicolas%Kostuj%NULL%0,                       Geoffrey%Ledoux%NULL%0,                       Daniel%Mathieu%NULL%0,                       Anne Sophie%Moreau%NULL%0,                       Christopher%Niles%NULL%0,                       Saad%Nseir%NULL%0,                       Thierry%Onimus%NULL%0,                       Erika%Parmentier%NULL%0,                       Sebastien%Préau%NULL%0,                       Laurent%Robriquet%NULL%0,                       Anahita%Rouze%NULL%0,                       Sophie%Six%NULL%0,                       Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                       Chen-Hsen%Lee%NULL%1,                       Cheng-Yi%Liu%NULL%1,                       Jia-Horng%Wang%NULL%1,                       Lee-Min%Wang%NULL%1,                       Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                       Xiaobo%Yang%NULL%1,                       Luyu%Yang%NULL%1,                       Xiaojing%Zou%NULL%0,                       Yaxin%Wang%NULL%0,                       Yongran%Wu%NULL%0,                       Ting%Zhou%NULL%1,                       Yin%Yuan%NULL%1,                       Hong%Qi%NULL%1,                       Shouzhi%Fu%NULL%0,                       Hong%Liu%NULL%0,                       Jia’an%Xia%NULL%1,                       Zhengqin%Xu%NULL%1,                       Yuan%Yu%NULL%0,                       Ruiting%Li%NULL%0,                       Yaqi%Ouyang%NULL%1,                       Rui%Wang%NULL%0,                       Lehao%Ren%NULL%1,                       Yingying%Hu%NULL%1,                       Dan%Xu%NULL%0,                       Xin%Zhao%NULL%1,                       Shiying%Yuan%shiying_yuan@163.com%0,                       Dingyu%Zhang%1813886398@qq.com%0,                       You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Wen-hua%Liang%NULL%0,                       Yi%Zhao%NULL%1,                       Heng-rui%Liang%NULL%1,                       Zi-sheng%Chen%NULL%1,                       Yi-min%Li%NULL%1,                       Xiao-qing%Liu%NULL%1,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Chun-quan%Ou%NULL%0,                       Li%Li%NULL%0,                       Ping-yan%Chen%NULL%0,                       Ling%Sang%NULL%1,                       Wei%Wang%NULL%0,                       Jian-fu%Li%NULL%1,                       Cai-chen%Li%NULL%1,                       Li-min%Ou%NULL%1,                       Bo%Cheng%NULL%1,                       Shan%Xiong%NULL%1,                       Zheng-yi%Ni%NULL%0,                       Jie%Xiang%NULL%0,                       Yu%Hu%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Lin-ling%Cheng%NULL%1,                       Feng%Ye%NULL%1,                       Shi-yue%Li%NULL%0,                       Jin-ping%Zheng%NULL%1,                       Nuo-fu%Zhang%NULL%1,                       Nan-shan%Zhong%NULL%0,                       Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%0,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%0,                       Jie%Xiang%NULL%0,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%0,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%0,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%0,                       Yi%Zhang%NULL%0,                       Hua%Chen%NULL%0,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                       Giacomo%Iapichino%NULL%1,                       Luca%Carenzo%NULL%1,                       Maurizio%Cecconi%NULL%1,                       Paola%Ferrazzi%NULL%1,                       Tim%Sebastian%NULL%1,                       Nils%Kucher%NULL%1,                       Jan-Dirk%Studt%NULL%1,                       Clara%Sacco%NULL%1,                       Alexia%Bertuzzi%NULL%1,                       Maria Teresa%Sandri%NULL%1,                       Stefano%Barco%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                       M.J.H.A.%Kruip%NULL%1,                       N.J.M.%van der Meer%NULL%1,                       M.S.%Arbous%NULL%1,                       D.A.M.P.J.%Gommers%NULL%1,                       K.M.%Kant%NULL%1,                       F.H.J.%Kaptein%NULL%1,                       J.%van Paassen%NULL%1,                       M.A.M.%Stals%NULL%1,                       M.V.%Huisman%NULL%1,                       H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                       Fang%Jiang%NULL%1,                       Wating%Su%NULL%1,                       Chang%Chen%NULL%1,                       Jingli%Chen%NULL%1,                       Wei%Mei%NULL%1,                       Li-Ying%Zhan%NULL%1,                       Yifan%Jia%NULL%1,                       Liangqing%Zhang%NULL%1,                       Danyong%Liu%NULL%1,                       Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                       Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                       Ewen M%Harrison%NULL%1,                       Christopher A%Green%NULL%1,                       Hayley E%Hardwick%NULL%1,                       Riinu%Pius%NULL%1,                       Lisa%Norman%NULL%1,                       Karl A%Holden%NULL%1,                       Jonathan M%Read%NULL%1,                       Frank%Dondelinger%NULL%1,                       Gail%Carson%NULL%1,                       Laura%Merson%NULL%1,                       James%Lee%NULL%1,                       Daniel%Plotkin%NULL%1,                       Louise%Sigfrid%NULL%1,                       Sophie%Halpin%NULL%1,                       Clare%Jackson%NULL%1,                       Carrol%Gamble%NULL%1,                       Peter W%Horby%NULL%1,                       Jonathan S%Nguyen-Van-Tam%NULL%1,                       Antonia%Ho%NULL%1,                       Clark D%Russell%NULL%1,                       Jake%Dunning%NULL%1,                       Peter JM%Openshaw%NULL%1,                       J Kenneth%Baillie%NULL%1,                       Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                       Li-Min%Liu%NULL%0,                       Wen%Yin%NULL%0,                       Wen%Wang%NULL%0,                       Lu-Lu%Guan%NULL%0,                       Ming-Li%Yuan%NULL%0,                       Yu-Lei%Li%NULL%0,                       Yi%Hu%NULL%0,                       Xu-Yan%Li%NULL%0,                       Bing%Sun%NULL%0,                       Peng%Peng%NULL%0,                       Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                       Qiang%Zhou%NULL%1,                       Ruiqiang%Zheng%NULL%1,                       Xuyan%Li%NULL%1,                       Jianmin%Ling%NULL%1,                       Yumei%Chen%NULL%1,                       Jing%Jia%NULL%1,                       Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                       Anna Mara%Scandroglio%NULL%1,                       Giacomo%Monti%NULL%1,                       Maria Grazia%Calabrò%NULL%1,                       Giovanni%Landoni%NULL%1,                       Antonio%Dell'Acqua%NULL%1,                       Luigi%Beretta%NULL%1,                       Elena%Moizo%NULL%1,                       Alfredo%Ravizza%NULL%1,                       Fabrizio%Monaco%NULL%1,                       Corrado%Campochiaro%NULL%1,                       Marina%Pieri%NULL%1,                       Maria Luisa%Azzolini%NULL%1,                       Giovanni%Borghi%NULL%1,                       Martina%Crivellari%NULL%1,                       Caterina%Conte%NULL%1,                       Cristina%Mattioli%NULL%1,                       Paolo%Silvani%NULL%1,                       Milena%Mucci%NULL%1,                       Stefano%Turi%NULL%1,                       Stefano%Tentori%NULL%1,                       Martina%Baiardo Redaelli%NULL%1,                       Marianna%Sartorelli%NULL%1,                       Piera%Angelillo%NULL%1,                       Alessandro%Belletti%NULL%1,                       Pasquale%Nardelli%NULL%1,                       Francesco Giuseppe%Nisi%NULL%1,                       Gabriele%Valsecchi%NULL%1,                       Cristina%Barberio%NULL%1,                       Fabio%Ciceri%NULL%1,                       Ary%Serpa Neto%NULL%1,                       Lorenzo%Dagna%NULL%1,                       Rinaldo%Bellomo%NULL%1,                       Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                     Cabrini%Luca%coreGivesNoEmail%0,                     Castelli%Antonio%coreGivesNoEmail%0,                     Cecconi%Maurizio%coreGivesNoEmail%0,                     Cereda%Danilo%coreGivesNoEmail%0,                     Coluccello%Antonio%coreGivesNoEmail%0,                     Foti%Giuseppe%coreGivesNoEmail%0,                     Fumagalli%Roberto%coreGivesNoEmail%0,                     Grasselli%Giacomo%coreGivesNoEmail%0,                     Iotti%Giorgio%coreGivesNoEmail%0,                     Latronico%Nicola%coreGivesNoEmail%0,                     Lorini%Luca%coreGivesNoEmail%0,                     Merler%Stefano%coreGivesNoEmail%0,                     Natalini%Giuseppe%coreGivesNoEmail%0,                     Pesenti%Antonio%coreGivesNoEmail%0,                     Piatti%Alessandra%coreGivesNoEmail%0,                     Ranieri%Marco Vito%coreGivesNoEmail%0,                     Scandroglio%Anna Mara%coreGivesNoEmail%0,                     Storti%Enrico%coreGivesNoEmail%0,                     Zanella%Alberto%coreGivesNoEmail%0,                     Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                       Min%Zhou%NULL%0,                       Xuan%Dong%NULL%0,                       Jieming%Qu%NULL%0,                       Fengyun%Gong%NULL%0,                       Yang%Han%NULL%0,                       Yang%Qiu%NULL%0,                       Jingli%Wang%NULL%0,                       Ying%Liu%NULL%0,                       Yuan%Wei%NULL%0,                       Jia'an%Xia%NULL%0,                       Ting%Yu%NULL%0,                       Xinxin%Zhang%NULL%0,                       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                       Ali S.%Omrani%NULL%1,                       Kamran%Baig%NULL%1,                       Abdelkarim%Bahloul%NULL%1,                       Fatehi%Elzein%NULL%1,                       Mohammad Abdul%Matin%NULL%1,                       Mohei A.A.%Selim%NULL%1,                       Mohammed Al%Mutairi%NULL%1,                       Daifullah Al%Nakhli%NULL%1,                       Amal Y. Al%Aidaroos%NULL%1,                       Nisreen Al%Sherbeeni%NULL%1,                       Hesham I.%Al-Khashan%NULL%1,                       Ziad A.%Memish%zmemish@yahoo.com%1,                       Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                       Badr%Alsayed%NULL%1,                       Sameh%Embarak%NULL%1,                       Taha%Yaseen%NULL%1,                       Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                       Shamsudeen F.%Fagbo%NULL%1,                       Vicky J.%Fang%NULL%1,                       Leila%Skakni%NULL%1,                       Mercy%Joseph%NULL%1,                       Tariq A.%Wani%NULL%1,                       Benjamin J.%Cowling%NULL%0,                       Malik%Peiris%NULL%1,                       Ahmed%Hakawi%NULL%1,                       Renee W.Y.%Chan%NULL%2,                       Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                       Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                       Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                       Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                       Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                       Abdulmoatani%Alsulami%moatani@hotmail.com%1,                       Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                       Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                       Trish M.%Perl%tperl@jhmi.edu%1,                       Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                        Jing-Jin%Liang%NULL%1,                        Qing-Tao%Zhou%NULL%1,                        Xiao-Guang%Li%NULL%1,                        Fei%Lin%NULL%1,                        Zhong-Hua%Deng%NULL%1,                        Bi-Ying%Zhang%NULL%1,                        Lu%Li%NULL%1,                        Xiao-Hua%Wang%NULL%1,                        Hong%Zhu%NULL%1,                        Qing-Bian%Ma%NULL%1,                        Xiao-Mei%Tong%NULL%1,                        Jie%Xu%NULL%1,                        Yong-Chang%Sun%NULL%1,                        Pei-Fang%Wei%NULL%0,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                        Xiao-Xin%Wu%NULL%0,                        Xian-Gao%Jiang%NULL%0,                        Kai-Jin%Xu%NULL%0,                        Ling-Jun%Ying%NULL%0,                        Chun-Lian%Ma%NULL%0,                        Shi-Bo%Li%NULL%0,                        Hua-Ying%Wang%NULL%0,                        Sheng%Zhang%NULL%0,                        Hai-Nv%Gao%NULL%0,                        Ji-Fang%Sheng%NULL%0,                        Hong-Liu%Cai%NULL%0,                        Yun-Qing%Qiu%NULL%0,                        Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                        Bijan J.%Ghassemieh%NULL%0,                        Michelle%Nichols%NULL%0,                        Richard%Kim%NULL%0,                        Keith R.%Jerome%NULL%0,                        Arun K.%Nalla%NULL%0,                        Alexander L.%Greninger%NULL%0,                        Sudhakar%Pipavath%NULL%0,                        Mark M.%Wurfel%NULL%0,                        Laura%Evans%NULL%0,                        Patricia A.%Kritek%NULL%0,                        T. Eoin%West%NULL%0,                        Andrew%Luks%NULL%0,                        Anthony%Gerbino%NULL%0,                        Chris R.%Dale%NULL%0,                        Jason D.%Goldman%NULL%0,                        Shane%O’Mahony%NULL%0,                        Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        Stephanie%Bialek%NULL%1,                        Ellen%Boundy%NULL%1,                        Virginia%Bowen%NULL%1,                        Nancy%Chow%NULL%1,                        Amanda%Cohn%NULL%0,                        Nicole%Dowling%NULL%1,                        Sascha%Ellington%NULL%1,                        Ryan%Gierke%NULL%1,                        Aron%Hall%NULL%1,                        Jessica%MacNeil%NULL%1,                        Priti%Patel%NULL%1,                        Georgina%Peacock%NULL%1,                        Tamara%Pilishvili%NULL%1,                        Hilda%Razzaghi%NULL%1,                        Nia%Reed%NULL%1,                        Matthew%Ritchey%NULL%1,                        Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                        Wenlin%Cheng%NULL%0,                        Lei%Yu%NULL%0,                        Ya-Kun%Liu%NULL%0,                        Xiaoyong%Hu%NULL%0,                        Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                        Tangkai%Qi%NULL%0,                        Li%Liu%NULL%0,                        Yun%Ling%NULL%0,                        Zhiping%Qian%NULL%0,                        Tao%Li%NULL%0,                        Feng%Li%NULL%0,                        Qingnian%Xu%NULL%0,                        Yuyi%Zhang%NULL%0,                        Shuibao%Xu%NULL%0,                        Zhigang%Song%NULL%0,                        Yigang%Zeng%NULL%0,                        Yinzhong%Shen%NULL%0,                        Yuxin%Shi%NULL%0,                        Tongyu%Zhu%NULL%0,                        Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                        Dingyu%Zhang%NULL%0,                        Wenling%Wang%NULL%0,                        Xingwang%Li%NULL%0,                        Bo%Yang%NULL%0,                        Jingdong%Song%NULL%0,                        Xiang%Zhao%NULL%0,                        Baoying%Huang%NULL%0,                        Weifeng%Shi%NULL%0,                        Roujian%Lu%NULL%0,                        Peihua%Niu%NULL%0,                        Faxian%Zhan%NULL%0,                        Xuejun%Ma%NULL%0,                        Dayan%Wang%NULL%0,                        Wenbo%Xu%NULL%0,                        Guizhen%Wu%NULL%0,                        George F.%Gao%NULL%0,                        Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                        Simon A%Jones%NULL%1,                        Jie%Yang%NULL%1,                        Harish%Rajagopalan%NULL%1,                        Luke%O’Donnell%NULL%1,                        Yelena%Chernyak%NULL%1,                        Katie A%Tobin%NULL%1,                        Robert J%Cerfolio%NULL%1,                        Fritz%Francois%NULL%2,                        Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                      Becker%L.B.%coreGivesNoEmail%0,                      Chelico%J.D.%coreGivesNoEmail%0,                      Cohen%S.L.%coreGivesNoEmail%0,                      Cookingham%J.%coreGivesNoEmail%0,                      Coppa%K.%coreGivesNoEmail%0,                      Crawford%J.M.%coreGivesNoEmail%0,                      Davidson%K.W.%coreGivesNoEmail%0,                      Diefenbach%M.A.%coreGivesNoEmail%0,                      Dominello%A.J.%coreGivesNoEmail%0,                      Duer-Hefele%J.%coreGivesNoEmail%0,                      Falzon%L.%coreGivesNoEmail%0,                      Gitlin%J.%coreGivesNoEmail%0,                      Hajizadeh%N.%coreGivesNoEmail%0,                      Harvin%T.G.%coreGivesNoEmail%0,                      Hirsch%J.S.%coreGivesNoEmail%0,                      Hirschwerk%D.A.%coreGivesNoEmail%0,                      Kim%E.J.%coreGivesNoEmail%0,                      Kozel%Z.M.%coreGivesNoEmail%0,                      Marrast%L.M.%coreGivesNoEmail%0,                      McGinn%T.%coreGivesNoEmail%0,                      Mogavero%J.N.%coreGivesNoEmail%0,                      Narasimhan%M.%coreGivesNoEmail%0,                      Osorio%G.A.%coreGivesNoEmail%0,                      Qiu%M.%coreGivesNoEmail%0,                      Richardson%S.%coreGivesNoEmail%0,                      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                        Mikael%Chetboun%NULL%0,                        Julien%Poissy%NULL%0,                        Violeta%Raverdy%NULL%0,                        Jerome%Noulette%NULL%0,                        Jerome%Noulette%NULL%0,                        Alain%Duhamel%NULL%0,                        Julien%Labreuche%NULL%0,                        Daniel%Mathieu%NULL%0,                        Francois%Pattou%francois.pattou@univ-lille.fr%0,                        Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                        Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                        Robert%Caizzo%NULL%0,                        Robert%Caizzo%NULL%0,                        Morgan%Caplan%NULL%0,                        Nicolas%Cousin%NULL%0,                        Thibault%Duburcq%NULL%0,                        Arthur%Durand%NULL%0,                        Ahmed%El kalioubie%NULL%0,                        Raphael%Favory%NULL%0,                        Bruno%Garcia%NULL%0,                        Patrick%Girardie%NULL%0,                        Julien%Goutay%NULL%0,                        Marion%Houard%NULL%0,                        Emmanuelle%Jaillette%NULL%0,                        Nicolas%Kostuj%NULL%0,                        Geoffrey%Ledoux%NULL%0,                        Daniel%Mathieu%NULL%0,                        Anne Sophie%Moreau%NULL%0,                        Christopher%Niles%NULL%0,                        Saad%Nseir%NULL%0,                        Thierry%Onimus%NULL%0,                        Erika%Parmentier%NULL%0,                        Sebastien%Préau%NULL%0,                        Laurent%Robriquet%NULL%0,                        Anahita%Rouze%NULL%0,                        Sophie%Six%NULL%0,                        Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                        Chen-Hsen%Lee%NULL%1,                        Cheng-Yi%Liu%NULL%1,                        Jia-Horng%Wang%NULL%1,                        Lee-Min%Wang%NULL%1,                        Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                        Xiaobo%Yang%NULL%1,                        Luyu%Yang%NULL%1,                        Xiaojing%Zou%NULL%0,                        Yaxin%Wang%NULL%0,                        Yongran%Wu%NULL%0,                        Ting%Zhou%NULL%1,                        Yin%Yuan%NULL%1,                        Hong%Qi%NULL%1,                        Shouzhi%Fu%NULL%0,                        Hong%Liu%NULL%0,                        Jia’an%Xia%NULL%1,                        Zhengqin%Xu%NULL%1,                        Yuan%Yu%NULL%0,                        Ruiting%Li%NULL%0,                        Yaqi%Ouyang%NULL%1,                        Rui%Wang%NULL%0,                        Lehao%Ren%NULL%1,                        Yingying%Hu%NULL%1,                        Dan%Xu%NULL%0,                        Xin%Zhao%NULL%1,                        Shiying%Yuan%shiying_yuan@163.com%0,                        Dingyu%Zhang%1813886398@qq.com%0,                        You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Wen-hua%Liang%NULL%0,                        Yi%Zhao%NULL%1,                        Heng-rui%Liang%NULL%1,                        Zi-sheng%Chen%NULL%1,                        Yi-min%Li%NULL%1,                        Xiao-qing%Liu%NULL%1,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Chun-quan%Ou%NULL%0,                        Li%Li%NULL%0,                        Ping-yan%Chen%NULL%0,                        Ling%Sang%NULL%1,                        Wei%Wang%NULL%0,                        Jian-fu%Li%NULL%1,                        Cai-chen%Li%NULL%1,                        Li-min%Ou%NULL%1,                        Bo%Cheng%NULL%1,                        Shan%Xiong%NULL%1,                        Zheng-yi%Ni%NULL%0,                        Jie%Xiang%NULL%0,                        Yu%Hu%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Lin-ling%Cheng%NULL%1,                        Feng%Ye%NULL%1,                        Shi-yue%Li%NULL%0,                        Jin-ping%Zheng%NULL%1,                        Nuo-fu%Zhang%NULL%1,                        Nan-shan%Zhong%NULL%0,                        Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%0,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%0,                        Jie%Xiang%NULL%0,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%0,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%0,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%0,                        Yi%Zhang%NULL%0,                        Hua%Chen%NULL%0,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                        Giacomo%Iapichino%NULL%1,                        Luca%Carenzo%NULL%1,                        Maurizio%Cecconi%NULL%1,                        Paola%Ferrazzi%NULL%1,                        Tim%Sebastian%NULL%1,                        Nils%Kucher%NULL%1,                        Jan-Dirk%Studt%NULL%1,                        Clara%Sacco%NULL%1,                        Alexia%Bertuzzi%NULL%1,                        Maria Teresa%Sandri%NULL%1,                        Stefano%Barco%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                        M.J.H.A.%Kruip%NULL%1,                        N.J.M.%van der Meer%NULL%1,                        M.S.%Arbous%NULL%1,                        D.A.M.P.J.%Gommers%NULL%1,                        K.M.%Kant%NULL%1,                        F.H.J.%Kaptein%NULL%1,                        J.%van Paassen%NULL%1,                        M.A.M.%Stals%NULL%1,                        M.V.%Huisman%NULL%1,                        H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                        Fang%Jiang%NULL%1,                        Wating%Su%NULL%1,                        Chang%Chen%NULL%1,                        Jingli%Chen%NULL%1,                        Wei%Mei%NULL%1,                        Li-Ying%Zhan%NULL%1,                        Yifan%Jia%NULL%1,                        Liangqing%Zhang%NULL%1,                        Danyong%Liu%NULL%1,                        Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                        Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                        Ewen M%Harrison%NULL%1,                        Christopher A%Green%NULL%1,                        Hayley E%Hardwick%NULL%1,                        Riinu%Pius%NULL%1,                        Lisa%Norman%NULL%1,                        Karl A%Holden%NULL%1,                        Jonathan M%Read%NULL%1,                        Frank%Dondelinger%NULL%1,                        Gail%Carson%NULL%1,                        Laura%Merson%NULL%1,                        James%Lee%NULL%1,                        Daniel%Plotkin%NULL%1,                        Louise%Sigfrid%NULL%1,                        Sophie%Halpin%NULL%1,                        Clare%Jackson%NULL%1,                        Carrol%Gamble%NULL%1,                        Peter W%Horby%NULL%1,                        Jonathan S%Nguyen-Van-Tam%NULL%1,                        Antonia%Ho%NULL%1,                        Clark D%Russell%NULL%1,                        Jake%Dunning%NULL%1,                        Peter JM%Openshaw%NULL%1,                        J Kenneth%Baillie%NULL%1,                        Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                        Li-Min%Liu%NULL%0,                        Wen%Yin%NULL%0,                        Wen%Wang%NULL%0,                        Lu-Lu%Guan%NULL%0,                        Ming-Li%Yuan%NULL%0,                        Yu-Lei%Li%NULL%0,                        Yi%Hu%NULL%0,                        Xu-Yan%Li%NULL%0,                        Bing%Sun%NULL%0,                        Peng%Peng%NULL%0,                        Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                        Qiang%Zhou%NULL%1,                        Ruiqiang%Zheng%NULL%1,                        Xuyan%Li%NULL%1,                        Jianmin%Ling%NULL%1,                        Yumei%Chen%NULL%1,                        Jing%Jia%NULL%1,                        Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                        Anna Mara%Scandroglio%NULL%1,                        Giacomo%Monti%NULL%1,                        Maria Grazia%Calabrò%NULL%1,                        Giovanni%Landoni%NULL%1,                        Antonio%Dell'Acqua%NULL%1,                        Luigi%Beretta%NULL%1,                        Elena%Moizo%NULL%1,                        Alfredo%Ravizza%NULL%1,                        Fabrizio%Monaco%NULL%1,                        Corrado%Campochiaro%NULL%1,                        Marina%Pieri%NULL%1,                        Maria Luisa%Azzolini%NULL%1,                        Giovanni%Borghi%NULL%1,                        Martina%Crivellari%NULL%1,                        Caterina%Conte%NULL%1,                        Cristina%Mattioli%NULL%1,                        Paolo%Silvani%NULL%1,                        Milena%Mucci%NULL%1,                        Stefano%Turi%NULL%1,                        Stefano%Tentori%NULL%1,                        Martina%Baiardo Redaelli%NULL%1,                        Marianna%Sartorelli%NULL%1,                        Piera%Angelillo%NULL%1,                        Alessandro%Belletti%NULL%1,                        Pasquale%Nardelli%NULL%1,                        Francesco Giuseppe%Nisi%NULL%1,                        Gabriele%Valsecchi%NULL%1,                        Cristina%Barberio%NULL%1,                        Fabio%Ciceri%NULL%1,                        Ary%Serpa Neto%NULL%1,                        Lorenzo%Dagna%NULL%1,                        Rinaldo%Bellomo%NULL%1,                        Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                      Cabrini%Luca%coreGivesNoEmail%0,                      Castelli%Antonio%coreGivesNoEmail%0,                      Cecconi%Maurizio%coreGivesNoEmail%0,                      Cereda%Danilo%coreGivesNoEmail%0,                      Coluccello%Antonio%coreGivesNoEmail%0,                      Foti%Giuseppe%coreGivesNoEmail%0,                      Fumagalli%Roberto%coreGivesNoEmail%0,                      Grasselli%Giacomo%coreGivesNoEmail%0,                      Iotti%Giorgio%coreGivesNoEmail%0,                      Latronico%Nicola%coreGivesNoEmail%0,                      Lorini%Luca%coreGivesNoEmail%0,                      Merler%Stefano%coreGivesNoEmail%0,                      Natalini%Giuseppe%coreGivesNoEmail%0,                      Pesenti%Antonio%coreGivesNoEmail%0,                      Piatti%Alessandra%coreGivesNoEmail%0,                      Ranieri%Marco Vito%coreGivesNoEmail%0,                      Scandroglio%Anna Mara%coreGivesNoEmail%0,                      Storti%Enrico%coreGivesNoEmail%0,                      Zanella%Alberto%coreGivesNoEmail%0,                      Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                        Min%Zhou%NULL%0,                        Xuan%Dong%NULL%0,                        Jieming%Qu%NULL%0,                        Fengyun%Gong%NULL%0,                        Yang%Han%NULL%0,                        Yang%Qiu%NULL%0,                        Jingli%Wang%NULL%0,                        Ying%Liu%NULL%0,                        Yuan%Wei%NULL%0,                        Jia'an%Xia%NULL%0,                        Ting%Yu%NULL%0,                        Xinxin%Zhang%NULL%0,                        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                        Ali S.%Omrani%NULL%1,                        Kamran%Baig%NULL%1,                        Abdelkarim%Bahloul%NULL%1,                        Fatehi%Elzein%NULL%1,                        Mohammad Abdul%Matin%NULL%1,                        Mohei A.A.%Selim%NULL%1,                        Mohammed Al%Mutairi%NULL%1,                        Daifullah Al%Nakhli%NULL%1,                        Amal Y. Al%Aidaroos%NULL%1,                        Nisreen Al%Sherbeeni%NULL%1,                        Hesham I.%Al-Khashan%NULL%1,                        Ziad A.%Memish%zmemish@yahoo.com%1,                        Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                        Badr%Alsayed%NULL%1,                        Sameh%Embarak%NULL%1,                        Taha%Yaseen%NULL%1,                        Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                        Shamsudeen F.%Fagbo%NULL%1,                        Vicky J.%Fang%NULL%1,                        Leila%Skakni%NULL%1,                        Mercy%Joseph%NULL%1,                        Tariq A.%Wani%NULL%1,                        Benjamin J.%Cowling%NULL%0,                        Malik%Peiris%NULL%1,                        Ahmed%Hakawi%NULL%1,                        Renee W.Y.%Chan%NULL%2,                        Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                        Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                        Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                        Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                        Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                        Abdulmoatani%Alsulami%moatani@hotmail.com%1,                        Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                        Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                        Trish M.%Perl%tperl@jhmi.edu%1,                        Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -3241,6 +3696,9 @@
       <c r="I1" t="s">
         <v>169</v>
       </c>
+      <c r="J1" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -3256,7 +3714,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>745</v>
+        <v>901</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -3269,6 +3727,9 @@
       </c>
       <c r="I2" t="s">
         <v>708</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -3285,7 +3746,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>746</v>
+        <v>902</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -3298,6 +3759,9 @@
       </c>
       <c r="I3" t="s">
         <v>708</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -3314,7 +3778,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>747</v>
+        <v>903</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -3327,6 +3791,9 @@
       </c>
       <c r="I4" t="s">
         <v>708</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -3343,7 +3810,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>748</v>
+        <v>470</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3352,10 +3819,13 @@
         <v>324</v>
       </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>783</v>
       </c>
       <c r="I5" t="s">
-        <v>712</v>
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="6">
@@ -3372,7 +3842,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>749</v>
+        <v>904</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -3385,6 +3855,9 @@
       </c>
       <c r="I6" t="s">
         <v>708</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -3401,7 +3874,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>750</v>
+        <v>905</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -3414,6 +3887,9 @@
       </c>
       <c r="I7" t="s">
         <v>708</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -3430,7 +3906,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>751</v>
+        <v>906</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -3443,6 +3919,9 @@
       </c>
       <c r="I8" t="s">
         <v>716</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -3459,7 +3938,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>752</v>
+        <v>907</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -3472,6 +3951,9 @@
       </c>
       <c r="I9" t="s">
         <v>708</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -3488,7 +3970,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>753</v>
+        <v>908</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -3501,6 +3983,9 @@
       </c>
       <c r="I10" t="s">
         <v>708</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -3517,7 +4002,7 @@
         <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>754</v>
+        <v>909</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -3530,6 +4015,9 @@
       </c>
       <c r="I11" t="s">
         <v>712</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -3546,7 +4034,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>755</v>
+        <v>910</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -3559,6 +4047,9 @@
       </c>
       <c r="I12" t="s">
         <v>708</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -3575,7 +4066,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>756</v>
+        <v>911</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -3588,6 +4079,9 @@
       </c>
       <c r="I13" t="s">
         <v>712</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -3604,7 +4098,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>757</v>
+        <v>479</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -3613,10 +4107,13 @@
         <v>324</v>
       </c>
       <c r="H14" t="s">
-        <v>336</v>
+        <v>783</v>
       </c>
       <c r="I14" t="s">
-        <v>712</v>
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="15">
@@ -3633,7 +4130,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>758</v>
+        <v>912</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -3646,6 +4143,9 @@
       </c>
       <c r="I15" t="s">
         <v>716</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -3662,7 +4162,7 @@
         <v>481</v>
       </c>
       <c r="E16" t="s">
-        <v>759</v>
+        <v>913</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3675,6 +4175,9 @@
       </c>
       <c r="I16" t="s">
         <v>725</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -3691,7 +4194,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>760</v>
+        <v>483</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -3700,10 +4203,13 @@
         <v>324</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>783</v>
       </c>
       <c r="I17" t="s">
-        <v>712</v>
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="18">
@@ -3720,7 +4226,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>761</v>
+        <v>914</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -3733,6 +4239,9 @@
       </c>
       <c r="I18" t="s">
         <v>708</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -3749,7 +4258,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>762</v>
+        <v>915</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -3762,6 +4271,9 @@
       </c>
       <c r="I19" t="s">
         <v>716</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -3778,7 +4290,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>763</v>
+        <v>916</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3791,6 +4303,9 @@
       </c>
       <c r="I20" t="s">
         <v>716</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -3807,7 +4322,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>764</v>
+        <v>917</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3820,6 +4335,9 @@
       </c>
       <c r="I21" t="s">
         <v>716</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22">
@@ -3836,7 +4354,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>765</v>
+        <v>918</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3849,6 +4367,9 @@
       </c>
       <c r="I22" t="s">
         <v>716</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -3865,7 +4386,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>766</v>
+        <v>919</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3878,6 +4399,9 @@
       </c>
       <c r="I23" t="s">
         <v>708</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -3894,7 +4418,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>767</v>
+        <v>920</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -3907,6 +4431,9 @@
       </c>
       <c r="I24" t="s">
         <v>708</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -3923,7 +4450,7 @@
         <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>768</v>
+        <v>921</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3936,6 +4463,9 @@
       </c>
       <c r="I25" t="s">
         <v>725</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -3952,7 +4482,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>769</v>
+        <v>922</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -3965,6 +4495,9 @@
       </c>
       <c r="I26" t="s">
         <v>708</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -3981,7 +4514,7 @@
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>770</v>
+        <v>923</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3994,6 +4527,9 @@
       </c>
       <c r="I27" t="s">
         <v>712</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28">
@@ -4010,7 +4546,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>771</v>
+        <v>924</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -4023,6 +4559,9 @@
       </c>
       <c r="I28" t="s">
         <v>716</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29">
@@ -4053,6 +4592,9 @@
       <c r="I29" t="s">
         <v>712</v>
       </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
@@ -4068,7 +4610,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>772</v>
+        <v>496</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -4077,10 +4619,13 @@
         <v>324</v>
       </c>
       <c r="H30" t="s">
-        <v>354</v>
+        <v>807</v>
       </c>
       <c r="I30" t="s">
-        <v>712</v>
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="31">
@@ -4097,7 +4642,7 @@
         <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>773</v>
+        <v>497</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -4109,7 +4654,10 @@
         <v>358</v>
       </c>
       <c r="I31" t="s">
-        <v>712</v>
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4674,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>774</v>
+        <v>498</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -4135,10 +4683,13 @@
         <v>324</v>
       </c>
       <c r="H32" t="s">
-        <v>354</v>
+        <v>812</v>
       </c>
       <c r="I32" t="s">
-        <v>712</v>
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="33">
@@ -4155,7 +4706,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -4168,6 +4719,9 @@
       </c>
       <c r="I33" t="s">
         <v>716</v>
+      </c>
+      <c r="J33" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34">
@@ -4184,7 +4738,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>776</v>
+        <v>926</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -4197,6 +4751,9 @@
       </c>
       <c r="I34" t="s">
         <v>716</v>
+      </c>
+      <c r="J34" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35">
@@ -4213,7 +4770,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>777</v>
+        <v>927</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -4226,6 +4783,9 @@
       </c>
       <c r="I35" t="s">
         <v>708</v>
+      </c>
+      <c r="J35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36">
@@ -4242,7 +4802,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>778</v>
+        <v>928</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>
@@ -4255,6 +4815,9 @@
       </c>
       <c r="I36" t="s">
         <v>725</v>
+      </c>
+      <c r="J36" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/32.xlsx
+++ b/Covid_19_Dataset_and_References/References/32.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6520" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7096" uniqueCount="985">
   <si>
     <t>Doi</t>
   </si>
@@ -3299,6 +3299,176 @@
   </si>
   <si>
     <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                        Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                        Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                        Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                        Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                        Abdulmoatani%Alsulami%moatani@hotmail.com%1,                        Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                        Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                        Trish M.%Perl%tperl@jhmi.edu%1,                        Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                         Jing-Jin%Liang%NULL%1,                         Qing-Tao%Zhou%NULL%1,                         Xiao-Guang%Li%NULL%1,                         Fei%Lin%NULL%1,                         Zhong-Hua%Deng%NULL%1,                         Bi-Ying%Zhang%NULL%1,                         Lu%Li%NULL%1,                         Xiao-Hua%Wang%NULL%1,                         Hong%Zhu%NULL%1,                         Qing-Bian%Ma%NULL%1,                         Xiao-Mei%Tong%NULL%1,                         Jie%Xu%NULL%1,                         Yong-Chang%Sun%NULL%1,                         Pei-Fang%Wei%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                         Xiao-Xin%Wu%NULL%0,                         Xian-Gao%Jiang%NULL%0,                         Kai-Jin%Xu%NULL%0,                         Ling-Jun%Ying%NULL%0,                         Chun-Lian%Ma%NULL%0,                         Shi-Bo%Li%NULL%0,                         Hua-Ying%Wang%NULL%0,                         Sheng%Zhang%NULL%0,                         Hai-Nv%Gao%NULL%0,                         Ji-Fang%Sheng%NULL%0,                         Hong-Liu%Cai%NULL%0,                         Yun-Qing%Qiu%NULL%0,                         Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                         Bijan J.%Ghassemieh%NULL%0,                         Michelle%Nichols%NULL%0,                         Richard%Kim%NULL%0,                         Keith R.%Jerome%NULL%0,                         Arun K.%Nalla%NULL%0,                         Alexander L.%Greninger%NULL%0,                         Sudhakar%Pipavath%NULL%0,                         Mark M.%Wurfel%NULL%0,                         Laura%Evans%NULL%0,                         Patricia A.%Kritek%NULL%0,                         T. Eoin%West%NULL%0,                         Andrew%Luks%NULL%0,                         Anthony%Gerbino%NULL%0,                         Chris R.%Dale%NULL%0,                         Jason D.%Goldman%NULL%0,                         Shane%O’Mahony%NULL%0,                         Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         Stephanie%Bialek%NULL%1,                         Ellen%Boundy%NULL%1,                         Virginia%Bowen%NULL%1,                         Nancy%Chow%NULL%1,                         Amanda%Cohn%NULL%0,                         Nicole%Dowling%NULL%1,                         Sascha%Ellington%NULL%1,                         Ryan%Gierke%NULL%1,                         Aron%Hall%NULL%1,                         Jessica%MacNeil%NULL%1,                         Priti%Patel%NULL%1,                         Georgina%Peacock%NULL%1,                         Tamara%Pilishvili%NULL%1,                         Hilda%Razzaghi%NULL%1,                         Nia%Reed%NULL%1,                         Matthew%Ritchey%NULL%1,                         Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                         Wenlin%Cheng%NULL%0,                         Lei%Yu%NULL%0,                         Ya-Kun%Liu%NULL%0,                         Xiaoyong%Hu%NULL%0,                         Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                         Tangkai%Qi%NULL%0,                         Li%Liu%NULL%0,                         Yun%Ling%NULL%0,                         Zhiping%Qian%NULL%0,                         Tao%Li%NULL%0,                         Feng%Li%NULL%0,                         Qingnian%Xu%NULL%0,                         Yuyi%Zhang%NULL%0,                         Shuibao%Xu%NULL%0,                         Zhigang%Song%NULL%0,                         Yigang%Zeng%NULL%0,                         Yinzhong%Shen%NULL%0,                         Yuxin%Shi%NULL%0,                         Tongyu%Zhu%NULL%0,                         Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                         Dingyu%Zhang%NULL%0,                         Wenling%Wang%NULL%0,                         Xingwang%Li%NULL%0,                         Bo%Yang%NULL%0,                         Jingdong%Song%NULL%0,                         Xiang%Zhao%NULL%0,                         Baoying%Huang%NULL%0,                         Weifeng%Shi%NULL%0,                         Roujian%Lu%NULL%0,                         Peihua%Niu%NULL%0,                         Faxian%Zhan%NULL%0,                         Xuejun%Ma%NULL%0,                         Dayan%Wang%NULL%0,                         Wenbo%Xu%NULL%0,                         Guizhen%Wu%NULL%0,                         George F.%Gao%NULL%0,                         Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                         Simon A%Jones%NULL%1,                         Jie%Yang%NULL%1,                         Harish%Rajagopalan%NULL%1,                         Luke%O’Donnell%NULL%1,                         Yelena%Chernyak%NULL%1,                         Katie A%Tobin%NULL%1,                         Robert J%Cerfolio%NULL%1,                         Fritz%Francois%NULL%2,                         Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                       Becker%L.B.%coreGivesNoEmail%0,                       Chelico%J.D.%coreGivesNoEmail%0,                       Cohen%S.L.%coreGivesNoEmail%0,                       Cookingham%J.%coreGivesNoEmail%0,                       Coppa%K.%coreGivesNoEmail%0,                       Crawford%J.M.%coreGivesNoEmail%0,                       Davidson%K.W.%coreGivesNoEmail%0,                       Diefenbach%M.A.%coreGivesNoEmail%0,                       Dominello%A.J.%coreGivesNoEmail%0,                       Duer-Hefele%J.%coreGivesNoEmail%0,                       Falzon%L.%coreGivesNoEmail%0,                       Gitlin%J.%coreGivesNoEmail%0,                       Hajizadeh%N.%coreGivesNoEmail%0,                       Harvin%T.G.%coreGivesNoEmail%0,                       Hirsch%J.S.%coreGivesNoEmail%0,                       Hirschwerk%D.A.%coreGivesNoEmail%0,                       Kim%E.J.%coreGivesNoEmail%0,                       Kozel%Z.M.%coreGivesNoEmail%0,                       Marrast%L.M.%coreGivesNoEmail%0,                       McGinn%T.%coreGivesNoEmail%0,                       Mogavero%J.N.%coreGivesNoEmail%0,                       Narasimhan%M.%coreGivesNoEmail%0,                       Osorio%G.A.%coreGivesNoEmail%0,                       Qiu%M.%coreGivesNoEmail%0,                       Richardson%S.%coreGivesNoEmail%0,                       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                         Mikael%Chetboun%NULL%0,                         Julien%Poissy%NULL%0,                         Violeta%Raverdy%NULL%0,                         Jerome%Noulette%NULL%0,                         Jerome%Noulette%NULL%0,                         Alain%Duhamel%NULL%0,                         Julien%Labreuche%NULL%0,                         Daniel%Mathieu%NULL%0,                         Francois%Pattou%francois.pattou@univ-lille.fr%0,                         Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                         Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                         Robert%Caizzo%NULL%0,                         Robert%Caizzo%NULL%0,                         Morgan%Caplan%NULL%0,                         Nicolas%Cousin%NULL%0,                         Thibault%Duburcq%NULL%0,                         Arthur%Durand%NULL%0,                         Ahmed%El kalioubie%NULL%0,                         Raphael%Favory%NULL%0,                         Bruno%Garcia%NULL%0,                         Patrick%Girardie%NULL%0,                         Julien%Goutay%NULL%0,                         Marion%Houard%NULL%0,                         Emmanuelle%Jaillette%NULL%0,                         Nicolas%Kostuj%NULL%0,                         Geoffrey%Ledoux%NULL%0,                         Daniel%Mathieu%NULL%0,                         Anne Sophie%Moreau%NULL%0,                         Christopher%Niles%NULL%0,                         Saad%Nseir%NULL%0,                         Thierry%Onimus%NULL%0,                         Erika%Parmentier%NULL%0,                         Sebastien%Préau%NULL%0,                         Laurent%Robriquet%NULL%0,                         Anahita%Rouze%NULL%0,                         Sophie%Six%NULL%0,                         Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                         Chen-Hsen%Lee%NULL%1,                         Cheng-Yi%Liu%NULL%1,                         Jia-Horng%Wang%NULL%1,                         Lee-Min%Wang%NULL%1,                         Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                         Xiaobo%Yang%NULL%1,                         Luyu%Yang%NULL%1,                         Xiaojing%Zou%NULL%0,                         Yaxin%Wang%NULL%0,                         Yongran%Wu%NULL%0,                         Ting%Zhou%NULL%1,                         Yin%Yuan%NULL%1,                         Hong%Qi%NULL%1,                         Shouzhi%Fu%NULL%0,                         Hong%Liu%NULL%0,                         Jia’an%Xia%NULL%1,                         Zhengqin%Xu%NULL%1,                         Yuan%Yu%NULL%0,                         Ruiting%Li%NULL%0,                         Yaqi%Ouyang%NULL%1,                         Rui%Wang%NULL%0,                         Lehao%Ren%NULL%1,                         Yingying%Hu%NULL%1,                         Dan%Xu%NULL%0,                         Xin%Zhao%NULL%1,                         Shiying%Yuan%shiying_yuan@163.com%0,                         Dingyu%Zhang%1813886398@qq.com%0,                         You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Wen-hua%Liang%NULL%0,                         Yi%Zhao%NULL%1,                         Heng-rui%Liang%NULL%1,                         Zi-sheng%Chen%NULL%1,                         Yi-min%Li%NULL%1,                         Xiao-qing%Liu%NULL%1,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Chun-quan%Ou%NULL%0,                         Li%Li%NULL%0,                         Ping-yan%Chen%NULL%0,                         Ling%Sang%NULL%1,                         Wei%Wang%NULL%0,                         Jian-fu%Li%NULL%1,                         Cai-chen%Li%NULL%1,                         Li-min%Ou%NULL%1,                         Bo%Cheng%NULL%1,                         Shan%Xiong%NULL%1,                         Zheng-yi%Ni%NULL%0,                         Jie%Xiang%NULL%0,                         Yu%Hu%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Lin-ling%Cheng%NULL%1,                         Feng%Ye%NULL%1,                         Shi-yue%Li%NULL%0,                         Jin-ping%Zheng%NULL%1,                         Nuo-fu%Zhang%NULL%1,                         Nan-shan%Zhong%NULL%0,                         Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%0,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%0,                         Jie%Xiang%NULL%0,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%0,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%0,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%0,                         Yi%Zhang%NULL%0,                         Hua%Chen%NULL%0,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                         Giacomo%Iapichino%NULL%1,                         Luca%Carenzo%NULL%1,                         Maurizio%Cecconi%NULL%1,                         Paola%Ferrazzi%NULL%1,                         Tim%Sebastian%NULL%1,                         Nils%Kucher%NULL%1,                         Jan-Dirk%Studt%NULL%1,                         Clara%Sacco%NULL%1,                         Alexia%Bertuzzi%NULL%1,                         Maria Teresa%Sandri%NULL%1,                         Stefano%Barco%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                         M.J.H.A.%Kruip%NULL%1,                         N.J.M.%van der Meer%NULL%1,                         M.S.%Arbous%NULL%1,                         D.A.M.P.J.%Gommers%NULL%1,                         K.M.%Kant%NULL%1,                         F.H.J.%Kaptein%NULL%1,                         J.%van Paassen%NULL%1,                         M.A.M.%Stals%NULL%1,                         M.V.%Huisman%NULL%1,                         H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                         Fang%Jiang%NULL%1,                         Wating%Su%NULL%1,                         Chang%Chen%NULL%1,                         Jingli%Chen%NULL%1,                         Wei%Mei%NULL%1,                         Li-Ying%Zhan%NULL%1,                         Yifan%Jia%NULL%1,                         Liangqing%Zhang%NULL%1,                         Danyong%Liu%NULL%1,                         Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                         Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                         Ewen M%Harrison%NULL%1,                         Christopher A%Green%NULL%1,                         Hayley E%Hardwick%NULL%1,                         Riinu%Pius%NULL%1,                         Lisa%Norman%NULL%1,                         Karl A%Holden%NULL%1,                         Jonathan M%Read%NULL%1,                         Frank%Dondelinger%NULL%1,                         Gail%Carson%NULL%1,                         Laura%Merson%NULL%1,                         James%Lee%NULL%1,                         Daniel%Plotkin%NULL%1,                         Louise%Sigfrid%NULL%1,                         Sophie%Halpin%NULL%1,                         Clare%Jackson%NULL%1,                         Carrol%Gamble%NULL%1,                         Peter W%Horby%NULL%1,                         Jonathan S%Nguyen-Van-Tam%NULL%1,                         Antonia%Ho%NULL%1,                         Clark D%Russell%NULL%1,                         Jake%Dunning%NULL%1,                         Peter JM%Openshaw%NULL%1,                         J Kenneth%Baillie%NULL%1,                         Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                         Li-Min%Liu%NULL%0,                         Wen%Yin%NULL%0,                         Wen%Wang%NULL%0,                         Lu-Lu%Guan%NULL%0,                         Ming-Li%Yuan%NULL%0,                         Yu-Lei%Li%NULL%0,                         Yi%Hu%NULL%0,                         Xu-Yan%Li%NULL%0,                         Bing%Sun%NULL%0,                         Peng%Peng%NULL%0,                         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                         Qiang%Zhou%NULL%1,                         Ruiqiang%Zheng%NULL%1,                         Xuyan%Li%NULL%1,                         Jianmin%Ling%NULL%1,                         Yumei%Chen%NULL%1,                         Jing%Jia%NULL%1,                         Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                         Anna Mara%Scandroglio%NULL%1,                         Giacomo%Monti%NULL%1,                         Maria Grazia%Calabrò%NULL%1,                         Giovanni%Landoni%NULL%1,                         Antonio%Dell'Acqua%NULL%1,                         Luigi%Beretta%NULL%1,                         Elena%Moizo%NULL%1,                         Alfredo%Ravizza%NULL%1,                         Fabrizio%Monaco%NULL%1,                         Corrado%Campochiaro%NULL%1,                         Marina%Pieri%NULL%1,                         Maria Luisa%Azzolini%NULL%1,                         Giovanni%Borghi%NULL%1,                         Martina%Crivellari%NULL%1,                         Caterina%Conte%NULL%1,                         Cristina%Mattioli%NULL%1,                         Paolo%Silvani%NULL%1,                         Milena%Mucci%NULL%1,                         Stefano%Turi%NULL%1,                         Stefano%Tentori%NULL%1,                         Martina%Baiardo Redaelli%NULL%1,                         Marianna%Sartorelli%NULL%1,                         Piera%Angelillo%NULL%1,                         Alessandro%Belletti%NULL%1,                         Pasquale%Nardelli%NULL%1,                         Francesco Giuseppe%Nisi%NULL%1,                         Gabriele%Valsecchi%NULL%1,                         Cristina%Barberio%NULL%1,                         Fabio%Ciceri%NULL%1,                         Ary%Serpa Neto%NULL%1,                         Lorenzo%Dagna%NULL%1,                         Rinaldo%Bellomo%NULL%1,                         Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                       Cabrini%Luca%coreGivesNoEmail%0,                       Castelli%Antonio%coreGivesNoEmail%0,                       Cecconi%Maurizio%coreGivesNoEmail%0,                       Cereda%Danilo%coreGivesNoEmail%0,                       Coluccello%Antonio%coreGivesNoEmail%0,                       Foti%Giuseppe%coreGivesNoEmail%0,                       Fumagalli%Roberto%coreGivesNoEmail%0,                       Grasselli%Giacomo%coreGivesNoEmail%0,                       Iotti%Giorgio%coreGivesNoEmail%0,                       Latronico%Nicola%coreGivesNoEmail%0,                       Lorini%Luca%coreGivesNoEmail%0,                       Merler%Stefano%coreGivesNoEmail%0,                       Natalini%Giuseppe%coreGivesNoEmail%0,                       Pesenti%Antonio%coreGivesNoEmail%0,                       Piatti%Alessandra%coreGivesNoEmail%0,                       Ranieri%Marco Vito%coreGivesNoEmail%0,                       Scandroglio%Anna Mara%coreGivesNoEmail%0,                       Storti%Enrico%coreGivesNoEmail%0,                       Zanella%Alberto%coreGivesNoEmail%0,                       Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                         Min%Zhou%NULL%0,                         Xuan%Dong%NULL%0,                         Jieming%Qu%NULL%0,                         Fengyun%Gong%NULL%0,                         Yang%Han%NULL%0,                         Yang%Qiu%NULL%0,                         Jingli%Wang%NULL%0,                         Ying%Liu%NULL%0,                         Yuan%Wei%NULL%0,                         Jia'an%Xia%NULL%0,                         Ting%Yu%NULL%0,                         Xinxin%Zhang%NULL%0,                         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                         Ali S.%Omrani%NULL%1,                         Kamran%Baig%NULL%1,                         Abdelkarim%Bahloul%NULL%1,                         Fatehi%Elzein%NULL%1,                         Mohammad Abdul%Matin%NULL%1,                         Mohei A.A.%Selim%NULL%1,                         Mohammed Al%Mutairi%NULL%1,                         Daifullah Al%Nakhli%NULL%1,                         Amal Y. Al%Aidaroos%NULL%1,                         Nisreen Al%Sherbeeni%NULL%1,                         Hesham I.%Al-Khashan%NULL%1,                         Ziad A.%Memish%zmemish@yahoo.com%1,                         Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                         Badr%Alsayed%NULL%1,                         Sameh%Embarak%NULL%1,                         Taha%Yaseen%NULL%1,                         Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                         Shamsudeen F.%Fagbo%NULL%1,                         Vicky J.%Fang%NULL%1,                         Leila%Skakni%NULL%1,                         Mercy%Joseph%NULL%1,                         Tariq A.%Wani%NULL%1,                         Benjamin J.%Cowling%NULL%0,                         Malik%Peiris%NULL%1,                         Ahmed%Hakawi%NULL%1,                         Renee W.Y.%Chan%NULL%2,                         Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                         Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                         Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                         Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                         Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                         Abdulmoatani%Alsulami%moatani@hotmail.com%1,                         Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                         Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                         Trish M.%Perl%tperl@jhmi.edu%1,                         Geeta%Sood%gsood1@jhmi.edu%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Liang%NULL%1,                          Jing-Jin%Liang%NULL%1,                          Qing-Tao%Zhou%NULL%1,                          Xiao-Guang%Li%NULL%1,                          Fei%Lin%NULL%1,                          Zhong-Hua%Deng%NULL%1,                          Bi-Ying%Zhang%NULL%1,                          Lu%Li%NULL%1,                          Xiao-Hua%Wang%NULL%1,                          Hong%Zhu%NULL%1,                          Qing-Bian%Ma%NULL%1,                          Xiao-Mei%Tong%NULL%1,                          Jie%Xu%NULL%1,                          Yong-Chang%Sun%NULL%1,                          Pei-Fang%Wei%NULL%0,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                          Xiao-Xin%Wu%NULL%0,                          Xian-Gao%Jiang%NULL%0,                          Kai-Jin%Xu%NULL%0,                          Ling-Jun%Ying%NULL%0,                          Chun-Lian%Ma%NULL%0,                          Shi-Bo%Li%NULL%0,                          Hua-Ying%Wang%NULL%0,                          Sheng%Zhang%NULL%0,                          Hai-Nv%Gao%NULL%0,                          Ji-Fang%Sheng%NULL%0,                          Hong-Liu%Cai%NULL%0,                          Yun-Qing%Qiu%NULL%0,                          Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                          Bijan J.%Ghassemieh%NULL%0,                          Michelle%Nichols%NULL%0,                          Richard%Kim%NULL%0,                          Keith R.%Jerome%NULL%0,                          Arun K.%Nalla%NULL%0,                          Alexander L.%Greninger%NULL%0,                          Sudhakar%Pipavath%NULL%0,                          Mark M.%Wurfel%NULL%0,                          Laura%Evans%NULL%0,                          Patricia A.%Kritek%NULL%0,                          T. Eoin%West%NULL%0,                          Andrew%Luks%NULL%0,                          Anthony%Gerbino%NULL%0,                          Chris R.%Dale%NULL%0,                          Jason D.%Goldman%NULL%0,                          Shane%O’Mahony%NULL%0,                          Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          Stephanie%Bialek%NULL%1,                          Ellen%Boundy%NULL%1,                          Virginia%Bowen%NULL%1,                          Nancy%Chow%NULL%1,                          Amanda%Cohn%NULL%0,                          Nicole%Dowling%NULL%1,                          Sascha%Ellington%NULL%1,                          Ryan%Gierke%NULL%1,                          Aron%Hall%NULL%1,                          Jessica%MacNeil%NULL%1,                          Priti%Patel%NULL%1,                          Georgina%Peacock%NULL%1,                          Tamara%Pilishvili%NULL%1,                          Hilda%Razzaghi%NULL%1,                          Nia%Reed%NULL%1,                          Matthew%Ritchey%NULL%1,                          Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                          Wenlin%Cheng%NULL%0,                          Lei%Yu%NULL%0,                          Ya-Kun%Liu%NULL%0,                          Xiaoyong%Hu%NULL%0,                          Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                          Tangkai%Qi%NULL%0,                          Li%Liu%NULL%0,                          Yun%Ling%NULL%0,                          Zhiping%Qian%NULL%0,                          Tao%Li%NULL%0,                          Feng%Li%NULL%0,                          Qingnian%Xu%NULL%0,                          Yuyi%Zhang%NULL%0,                          Shuibao%Xu%NULL%0,                          Zhigang%Song%NULL%0,                          Yigang%Zeng%NULL%0,                          Yinzhong%Shen%NULL%0,                          Yuxin%Shi%NULL%0,                          Tongyu%Zhu%NULL%0,                          Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                          Dingyu%Zhang%NULL%0,                          Wenling%Wang%NULL%0,                          Xingwang%Li%NULL%0,                          Bo%Yang%NULL%0,                          Jingdong%Song%NULL%0,                          Xiang%Zhao%NULL%0,                          Baoying%Huang%NULL%0,                          Weifeng%Shi%NULL%0,                          Roujian%Lu%NULL%0,                          Peihua%Niu%NULL%0,                          Faxian%Zhan%NULL%0,                          Xuejun%Ma%NULL%0,                          Dayan%Wang%NULL%0,                          Wenbo%Xu%NULL%0,                          Guizhen%Wu%NULL%0,                          George F.%Gao%NULL%0,                          Wenjie%Tan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%5,                          Simon A%Jones%NULL%1,                          Jie%Yang%NULL%1,                          Harish%Rajagopalan%NULL%1,                          Luke%O’Donnell%NULL%1,                          Yelena%Chernyak%NULL%1,                          Katie A%Tobin%NULL%1,                          Robert J%Cerfolio%NULL%1,                          Fritz%Francois%NULL%2,                          Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                        Becker%L.B.%coreGivesNoEmail%0,                        Chelico%J.D.%coreGivesNoEmail%0,                        Cohen%S.L.%coreGivesNoEmail%0,                        Cookingham%J.%coreGivesNoEmail%0,                        Coppa%K.%coreGivesNoEmail%0,                        Crawford%J.M.%coreGivesNoEmail%0,                        Davidson%K.W.%coreGivesNoEmail%0,                        Diefenbach%M.A.%coreGivesNoEmail%0,                        Dominello%A.J.%coreGivesNoEmail%0,                        Duer-Hefele%J.%coreGivesNoEmail%0,                        Falzon%L.%coreGivesNoEmail%0,                        Gitlin%J.%coreGivesNoEmail%0,                        Hajizadeh%N.%coreGivesNoEmail%0,                        Harvin%T.G.%coreGivesNoEmail%0,                        Hirsch%J.S.%coreGivesNoEmail%0,                        Hirschwerk%D.A.%coreGivesNoEmail%0,                        Kim%E.J.%coreGivesNoEmail%0,                        Kozel%Z.M.%coreGivesNoEmail%0,                        Marrast%L.M.%coreGivesNoEmail%0,                        McGinn%T.%coreGivesNoEmail%0,                        Mogavero%J.N.%coreGivesNoEmail%0,                        Narasimhan%M.%coreGivesNoEmail%0,                        Osorio%G.A.%coreGivesNoEmail%0,                        Qiu%M.%coreGivesNoEmail%0,                        Richardson%S.%coreGivesNoEmail%0,                        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                          Mikael%Chetboun%NULL%0,                          Julien%Poissy%NULL%0,                          Violeta%Raverdy%NULL%0,                          Jerome%Noulette%NULL%0,                          Jerome%Noulette%NULL%0,                          Alain%Duhamel%NULL%0,                          Julien%Labreuche%NULL%0,                          Daniel%Mathieu%NULL%0,                          Francois%Pattou%francois.pattou@univ-lille.fr%0,                          Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                          Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                          Robert%Caizzo%NULL%0,                          Robert%Caizzo%NULL%0,                          Morgan%Caplan%NULL%0,                          Nicolas%Cousin%NULL%0,                          Thibault%Duburcq%NULL%0,                          Arthur%Durand%NULL%0,                          Ahmed%El kalioubie%NULL%0,                          Raphael%Favory%NULL%0,                          Bruno%Garcia%NULL%0,                          Patrick%Girardie%NULL%0,                          Julien%Goutay%NULL%0,                          Marion%Houard%NULL%0,                          Emmanuelle%Jaillette%NULL%0,                          Nicolas%Kostuj%NULL%0,                          Geoffrey%Ledoux%NULL%0,                          Daniel%Mathieu%NULL%0,                          Anne Sophie%Moreau%NULL%0,                          Christopher%Niles%NULL%0,                          Saad%Nseir%NULL%0,                          Thierry%Onimus%NULL%0,                          Erika%Parmentier%NULL%0,                          Sebastien%Préau%NULL%0,                          Laurent%Robriquet%NULL%0,                          Anahita%Rouze%NULL%0,                          Sophie%Six%NULL%0,                          Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cheng-Yu%Chen%NULL%1,                          Chen-Hsen%Lee%NULL%1,                          Cheng-Yi%Liu%NULL%1,                          Jia-Horng%Wang%NULL%1,                          Lee-Min%Wang%NULL%1,                          Reury-Perng%Perng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiqian%Xu%NULL%1,                          Xiaobo%Yang%NULL%1,                          Luyu%Yang%NULL%1,                          Xiaojing%Zou%NULL%0,                          Yaxin%Wang%NULL%0,                          Yongran%Wu%NULL%0,                          Ting%Zhou%NULL%1,                          Yin%Yuan%NULL%1,                          Hong%Qi%NULL%1,                          Shouzhi%Fu%NULL%0,                          Hong%Liu%NULL%0,                          Jia’an%Xia%NULL%1,                          Zhengqin%Xu%NULL%1,                          Yuan%Yu%NULL%0,                          Ruiting%Li%NULL%0,                          Yaqi%Ouyang%NULL%1,                          Rui%Wang%NULL%0,                          Lehao%Ren%NULL%1,                          Yingying%Hu%NULL%1,                          Dan%Xu%NULL%0,                          Xin%Zhao%NULL%1,                          Shiying%Yuan%shiying_yuan@163.com%0,                          Dingyu%Zhang%1813886398@qq.com%0,                          You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Wen-hua%Liang%NULL%0,                          Yi%Zhao%NULL%1,                          Heng-rui%Liang%NULL%1,                          Zi-sheng%Chen%NULL%1,                          Yi-min%Li%NULL%1,                          Xiao-qing%Liu%NULL%1,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Chun-quan%Ou%NULL%0,                          Li%Li%NULL%0,                          Ping-yan%Chen%NULL%0,                          Ling%Sang%NULL%1,                          Wei%Wang%NULL%0,                          Jian-fu%Li%NULL%1,                          Cai-chen%Li%NULL%1,                          Li-min%Ou%NULL%1,                          Bo%Cheng%NULL%1,                          Shan%Xiong%NULL%1,                          Zheng-yi%Ni%NULL%0,                          Jie%Xiang%NULL%0,                          Yu%Hu%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Lin-ling%Cheng%NULL%1,                          Feng%Ye%NULL%1,                          Shi-yue%Li%NULL%0,                          Jin-ping%Zheng%NULL%1,                          Nuo-fu%Zhang%NULL%1,                          Nan-shan%Zhong%NULL%0,                          Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%0,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%0,                          Jie%Xiang%NULL%0,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%0,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%0,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%0,                          Yi%Zhang%NULL%0,                          Hua%Chen%NULL%0,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Corrado%Lodigiani%NULL%1,                          Giacomo%Iapichino%NULL%1,                          Luca%Carenzo%NULL%1,                          Maurizio%Cecconi%NULL%1,                          Paola%Ferrazzi%NULL%1,                          Tim%Sebastian%NULL%1,                          Nils%Kucher%NULL%1,                          Jan-Dirk%Studt%NULL%1,                          Clara%Sacco%NULL%1,                          Alexia%Bertuzzi%NULL%1,                          Maria Teresa%Sandri%NULL%1,                          Stefano%Barco%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F.A.%Klok%NULL%1,                          M.J.H.A.%Kruip%NULL%1,                          N.J.M.%van der Meer%NULL%1,                          M.S.%Arbous%NULL%1,                          D.A.M.P.J.%Gommers%NULL%1,                          K.M.%Kant%NULL%1,                          F.H.J.%Kaptein%NULL%1,                          J.%van Paassen%NULL%1,                          M.A.M.%Stals%NULL%1,                          M.V.%Huisman%NULL%1,                          H.%Endeman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%3,                          Fang%Jiang%NULL%1,                          Wating%Su%NULL%1,                          Chang%Chen%NULL%1,                          Jingli%Chen%NULL%1,                          Wei%Mei%NULL%1,                          Li-Ying%Zhan%NULL%1,                          Yifan%Jia%NULL%1,                          Liangqing%Zhang%NULL%1,                          Danyong%Liu%NULL%1,                          Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%1,                          Zhengyuan%Xia%zyxia@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Annemarie B%Docherty%NULL%1,                          Ewen M%Harrison%NULL%1,                          Christopher A%Green%NULL%1,                          Hayley E%Hardwick%NULL%1,                          Riinu%Pius%NULL%1,                          Lisa%Norman%NULL%1,                          Karl A%Holden%NULL%1,                          Jonathan M%Read%NULL%1,                          Frank%Dondelinger%NULL%1,                          Gail%Carson%NULL%1,                          Laura%Merson%NULL%1,                          James%Lee%NULL%1,                          Daniel%Plotkin%NULL%1,                          Louise%Sigfrid%NULL%1,                          Sophie%Halpin%NULL%1,                          Clare%Jackson%NULL%1,                          Carrol%Gamble%NULL%1,                          Peter W%Horby%NULL%1,                          Jonathan S%Nguyen-Van-Tam%NULL%1,                          Antonia%Ho%NULL%1,                          Clark D%Russell%NULL%1,                          Jake%Dunning%NULL%1,                          Peter JM%Openshaw%NULL%1,                          J Kenneth%Baillie%NULL%1,                          Malcolm G%Semple%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                          Li-Min%Liu%NULL%0,                          Wen%Yin%NULL%0,                          Wen%Wang%NULL%0,                          Lu-Lu%Guan%NULL%0,                          Ming-Li%Yuan%NULL%0,                          Yu-Lei%Li%NULL%0,                          Yi%Hu%NULL%0,                          Xu-Yan%Li%NULL%0,                          Bing%Sun%NULL%0,                          Peng%Peng%NULL%0,                          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[
+Ming%Hu%NULL%1,                          Qiang%Zhou%NULL%1,                          Ruiqiang%Zheng%NULL%1,                          Xuyan%Li%NULL%1,                          Jianmin%Ling%NULL%1,                          Yumei%Chen%NULL%1,                          Jing%Jia%NULL%1,                          Cuihong%Xie%xiecuihong08@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Evgeny V.%Fominskiy%NULL%1,                          Anna Mara%Scandroglio%NULL%1,                          Giacomo%Monti%NULL%1,                          Maria Grazia%Calabrò%NULL%1,                          Giovanni%Landoni%NULL%1,                          Antonio%Dell'Acqua%NULL%1,                          Luigi%Beretta%NULL%1,                          Elena%Moizo%NULL%1,                          Alfredo%Ravizza%NULL%1,                          Fabrizio%Monaco%NULL%1,                          Corrado%Campochiaro%NULL%1,                          Marina%Pieri%NULL%1,                          Maria Luisa%Azzolini%NULL%1,                          Giovanni%Borghi%NULL%1,                          Martina%Crivellari%NULL%1,                          Caterina%Conte%NULL%1,                          Cristina%Mattioli%NULL%1,                          Paolo%Silvani%NULL%1,                          Milena%Mucci%NULL%1,                          Stefano%Turi%NULL%1,                          Stefano%Tentori%NULL%1,                          Martina%Baiardo Redaelli%NULL%1,                          Marianna%Sartorelli%NULL%1,                          Piera%Angelillo%NULL%1,                          Alessandro%Belletti%NULL%1,                          Pasquale%Nardelli%NULL%1,                          Francesco Giuseppe%Nisi%NULL%1,                          Gabriele%Valsecchi%NULL%1,                          Cristina%Barberio%NULL%1,                          Fabio%Ciceri%NULL%1,                          Ary%Serpa Neto%NULL%1,                          Lorenzo%Dagna%NULL%1,                          Rinaldo%Bellomo%NULL%1,                          Alberto%Zangrillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                        Cabrini%Luca%coreGivesNoEmail%0,                        Castelli%Antonio%coreGivesNoEmail%0,                        Cecconi%Maurizio%coreGivesNoEmail%0,                        Cereda%Danilo%coreGivesNoEmail%0,                        Coluccello%Antonio%coreGivesNoEmail%0,                        Foti%Giuseppe%coreGivesNoEmail%0,                        Fumagalli%Roberto%coreGivesNoEmail%0,                        Grasselli%Giacomo%coreGivesNoEmail%0,                        Iotti%Giorgio%coreGivesNoEmail%0,                        Latronico%Nicola%coreGivesNoEmail%0,                        Lorini%Luca%coreGivesNoEmail%0,                        Merler%Stefano%coreGivesNoEmail%0,                        Natalini%Giuseppe%coreGivesNoEmail%0,                        Pesenti%Antonio%coreGivesNoEmail%0,                        Piatti%Alessandra%coreGivesNoEmail%0,                        Ranieri%Marco Vito%coreGivesNoEmail%0,                        Scandroglio%Anna Mara%coreGivesNoEmail%0,                        Storti%Enrico%coreGivesNoEmail%0,                        Zanella%Alberto%coreGivesNoEmail%0,                        Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                          Min%Zhou%NULL%0,                          Xuan%Dong%NULL%0,                          Jieming%Qu%NULL%0,                          Fengyun%Gong%NULL%0,                          Yang%Han%NULL%0,                          Yang%Qiu%NULL%0,                          Jingli%Wang%NULL%0,                          Ying%Liu%NULL%0,                          Yuan%Wei%NULL%0,                          Jia'an%Xia%NULL%0,                          Ting%Yu%NULL%0,                          Xinxin%Zhang%NULL%0,                          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mustafa%Saad%NULL%1,                          Ali S.%Omrani%NULL%1,                          Kamran%Baig%NULL%1,                          Abdelkarim%Bahloul%NULL%1,                          Fatehi%Elzein%NULL%1,                          Mohammad Abdul%Matin%NULL%1,                          Mohei A.A.%Selim%NULL%1,                          Mohammed Al%Mutairi%NULL%1,                          Daifullah Al%Nakhli%NULL%1,                          Amal Y. Al%Aidaroos%NULL%1,                          Nisreen Al%Sherbeeni%NULL%1,                          Hesham I.%Al-Khashan%NULL%1,                          Ziad A.%Memish%zmemish@yahoo.com%1,                          Ali M.%Albarrak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ashraf Abdel%Halim%NULL%1,                          Badr%Alsayed%NULL%1,                          Sameh%Embarak%NULL%1,                          Taha%Yaseen%NULL%1,                          Salwa%Dabbous%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Musa A.%Garbati%NULL%1,                          Shamsudeen F.%Fagbo%NULL%1,                          Vicky J.%Fang%NULL%1,                          Leila%Skakni%NULL%1,                          Mercy%Joseph%NULL%1,                          Tariq A.%Wani%NULL%1,                          Benjamin J.%Cowling%NULL%0,                          Malik%Peiris%NULL%1,                          Ahmed%Hakawi%NULL%1,                          Renee W.Y.%Chan%NULL%2,                          Renee W.Y.%Chan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mohammed%Al Ghamdi%dr_mohd1391@yahoo.com%1,                          Khalid M.%Alghamdi%K.m.a02@hotmail.com%1,                          Yasmeen%Ghandoora%Yass.m.gh@hotmail.com%1,                          Ameera%Alzahrani%Ameera.alzahrani@outlook.com%1,                          Fatmah%Salah%Fs4l_med2011@yahoo.com%1,                          Abdulmoatani%Alsulami%moatani@hotmail.com%1,                          Mayada F.%Bawayan%mayada-f-b@hotmail.com%1,                          Dhananjay%Vaidya%dvaidya@jhmi.edu%1,                          Trish M.%Perl%tperl@jhmi.edu%1,                          Geeta%Sood%gsood1@jhmi.edu%1]</t>
   </si>
 </sst>
 </file>
@@ -3714,7 +3884,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>901</v>
+        <v>957</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -3746,7 +3916,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>902</v>
+        <v>958</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -3778,7 +3948,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>903</v>
+        <v>959</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -3810,7 +3980,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3842,7 +4012,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>904</v>
+        <v>960</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -3874,7 +4044,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>905</v>
+        <v>961</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -3906,7 +4076,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>906</v>
+        <v>962</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -3938,7 +4108,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>907</v>
+        <v>963</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -3970,7 +4140,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>908</v>
+        <v>964</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -4002,7 +4172,7 @@
         <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>909</v>
+        <v>965</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -4034,7 +4204,7 @@
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>910</v>
+        <v>966</v>
       </c>
       <c r="F12" t="s">
         <v>90</v>
@@ -4066,7 +4236,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>911</v>
+        <v>967</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -4098,7 +4268,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -4130,7 +4300,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>912</v>
+        <v>968</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -4162,7 +4332,7 @@
         <v>481</v>
       </c>
       <c r="E16" t="s">
-        <v>913</v>
+        <v>969</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -4194,7 +4364,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -4226,7 +4396,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>914</v>
+        <v>970</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -4258,7 +4428,7 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>915</v>
+        <v>971</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -4290,7 +4460,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>916</v>
+        <v>972</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -4322,7 +4492,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>917</v>
+        <v>973</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -4354,7 +4524,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>918</v>
+        <v>974</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -4386,7 +4556,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>919</v>
+        <v>975</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -4418,7 +4588,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>920</v>
+        <v>976</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -4450,7 +4620,7 @@
         <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>921</v>
+        <v>977</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -4482,7 +4652,7 @@
         <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>922</v>
+        <v>978</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
@@ -4514,7 +4684,7 @@
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>923</v>
+        <v>979</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -4546,7 +4716,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>924</v>
+        <v>980</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -4610,7 +4780,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -4642,7 +4812,7 @@
         <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -4674,7 +4844,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -4706,7 +4876,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>925</v>
+        <v>981</v>
       </c>
       <c r="F33" t="s">
         <v>152</v>
@@ -4738,7 +4908,7 @@
         <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>926</v>
+        <v>982</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
@@ -4770,7 +4940,7 @@
         <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>927</v>
+        <v>983</v>
       </c>
       <c r="F35" t="s">
         <v>162</v>
@@ -4802,7 +4972,7 @@
         <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>928</v>
+        <v>984</v>
       </c>
       <c r="F36" t="s">
         <v>167</v>
